--- a/Personal accounting office.xlsx
+++ b/Personal accounting office.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal accounting office\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal accounting office\Github_Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5850" windowWidth="25200" windowHeight="12015" tabRatio="907" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="6300" windowWidth="25200" windowHeight="12015" tabRatio="907" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="چک نویس" sheetId="22" r:id="rId1"/>
@@ -1729,6 +1729,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1736,9 +1739,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
   </cellXfs>
@@ -1754,14 +1754,11 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
+        <sz val="12"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
-      <protection locked="0" hidden="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
     </dxf>
     <dxf>
       <font>
@@ -1770,13 +1767,32 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
+        <sz val="12"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
     </dxf>
     <dxf>
       <font>
@@ -1785,13 +1801,38 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
+        <sz val="12"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
     </dxf>
     <dxf>
       <font>
@@ -1911,25 +1952,15 @@
     <dxf>
       <font>
         <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="165" formatCode="#,##0_-[$ريال-429]"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
     </dxf>
     <dxf>
@@ -1959,6 +1990,19 @@
     <dxf>
       <font>
         <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1972,107 +2016,12 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="4" tint="-0.499984740745262"/>
+          <bgColor theme="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="#,##0_-[$ريال-429]"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
     </dxf>
     <dxf>
@@ -2091,13 +2040,18 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
     </dxf>
@@ -2306,6 +2260,52 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
     </dxf>
     <dxf>
@@ -4129,44 +4129,44 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Accounts_and_ReceiversAndPayers_AppendTabel" displayName="Accounts_and_ReceiversAndPayers_AppendTabel" ref="C3:E19" tableType="queryTable" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="C3:E19"/>
   <tableColumns count="3">
-    <tableColumn id="4" uniqueName="4" name="Accounts" queryTableFieldId="1" dataDxfId="2"/>
-    <tableColumn id="5" uniqueName="5" name="ReceiversAndPayers" queryTableFieldId="2" dataDxfId="1"/>
-    <tableColumn id="6" uniqueName="6" name="Accounts and ReceiversAndPayers" queryTableFieldId="3" dataDxfId="0"/>
+    <tableColumn id="4" uniqueName="4" name="Accounts" queryTableFieldId="1" dataDxfId="33"/>
+    <tableColumn id="5" uniqueName="5" name="ReceiversAndPayers" queryTableFieldId="2" dataDxfId="32"/>
+    <tableColumn id="6" uniqueName="6" name="Accounts and ReceiversAndPayers" queryTableFieldId="3" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table38.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="PersonsTable" displayName="PersonsTable" ref="A5:I6" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="PersonsTable" displayName="PersonsTable" ref="A5:I6" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="A5:I6"/>
   <tableColumns count="9">
-    <tableColumn id="6" name="ID" dataDxfId="31"/>
-    <tableColumn id="1" name="افراد" dataDxfId="30"/>
-    <tableColumn id="2" name="کد ملی" dataDxfId="29"/>
-    <tableColumn id="3" name="شماره تماس" dataDxfId="28"/>
-    <tableColumn id="4" name="آدرس ایمیل" dataDxfId="27" dataCellStyle="Hyperlink"/>
-    <tableColumn id="5" name="سایت اینترنتی" dataDxfId="26"/>
-    <tableColumn id="7" name="آدرس محل کار" dataDxfId="25"/>
-    <tableColumn id="8" name="آدرس منزل" dataDxfId="24"/>
-    <tableColumn id="9" name="توضیحات" dataDxfId="23"/>
+    <tableColumn id="6" name="ID" dataDxfId="28"/>
+    <tableColumn id="1" name="افراد" dataDxfId="27"/>
+    <tableColumn id="2" name="کد ملی" dataDxfId="26"/>
+    <tableColumn id="3" name="شماره تماس" dataDxfId="25"/>
+    <tableColumn id="4" name="آدرس ایمیل" dataDxfId="24" dataCellStyle="Hyperlink"/>
+    <tableColumn id="5" name="سایت اینترنتی" dataDxfId="23"/>
+    <tableColumn id="7" name="آدرس محل کار" dataDxfId="22"/>
+    <tableColumn id="8" name="آدرس منزل" dataDxfId="21"/>
+    <tableColumn id="9" name="توضیحات" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table39.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="FinancialAccountsTable" displayName="FinancialAccountsTable" ref="A12:H18" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="FinancialAccountsTable" displayName="FinancialAccountsTable" ref="A12:H18" totalsRowCount="1" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A12:H17"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="ID" totalsRowLabel="Total" dataDxfId="20" totalsRowDxfId="10"/>
-    <tableColumn id="2" name="نام حساب" dataDxfId="19" totalsRowDxfId="9"/>
-    <tableColumn id="3" name="نوع حساب" dataDxfId="18" totalsRowDxfId="8"/>
-    <tableColumn id="4" name="موجودی اولیه" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="7"/>
-    <tableColumn id="5" name="شماره حساب" totalsRowDxfId="6"/>
-    <tableColumn id="6" name="شماره کارت" totalsRowDxfId="5"/>
-    <tableColumn id="7" name="تاریخ انقضاء کارت" totalsRowDxfId="4"/>
-    <tableColumn id="8" name="CVV2" totalsRowDxfId="3"/>
+    <tableColumn id="1" name="ID" totalsRowLabel="Total" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="2" name="نام حساب" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="3" name="نوع حساب" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="4" name="موجودی اولیه" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="5" name="شماره حساب" totalsRowDxfId="9"/>
+    <tableColumn id="6" name="شماره کارت" totalsRowDxfId="8"/>
+    <tableColumn id="7" name="تاریخ انقضاء کارت" totalsRowDxfId="7"/>
+    <tableColumn id="8" name="CVV2" totalsRowDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4183,20 +4183,20 @@
 </file>
 
 <file path=xl/tables/table40.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TypeOfExpenditureTable" displayName="TypeOfExpenditureTable" ref="A3:A6" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TypeOfExpenditureTable" displayName="TypeOfExpenditureTable" ref="A3:A6" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A3:A6"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="نوع خرج" dataDxfId="14"/>
+    <tableColumn id="1" name="نوع خرج" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table41.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="TypeOfTransactionTable" displayName="TypeOfTransactionTable" ref="B3:B6" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="TypeOfTransactionTable" displayName="TypeOfTransactionTable" ref="B3:B6" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
   <autoFilter ref="B3:B6"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="نوع تراکنش" dataDxfId="11"/>
+    <tableColumn id="1" name="نوع تراکنش" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4920,10 +4920,10 @@
     </row>
     <row r="2" spans="1:23" s="45" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="103" t="s">
         <v>168</v>
       </c>
-      <c r="B3" s="102"/>
+      <c r="B3" s="103"/>
       <c r="D3" s="45"/>
       <c r="F3" s="45"/>
       <c r="H3" s="45"/>
@@ -5348,10 +5348,10 @@
       <c r="AC3" s="92"/>
     </row>
     <row r="4" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="104" t="s">
         <v>177</v>
       </c>
-      <c r="B4" s="103"/>
+      <c r="B4" s="104"/>
       <c r="D4" s="47" t="s">
         <v>195</v>
       </c>
@@ -7483,7 +7483,7 @@
       <c r="B6" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="104">
+      <c r="C6" s="101">
         <v>1111111111</v>
       </c>
       <c r="D6" s="49" t="s">
@@ -7966,7 +7966,7 @@
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8061,10 +8061,10 @@
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="88"/>
-      <c r="I3" s="101" t="s">
+      <c r="I3" s="102" t="s">
         <v>154</v>
       </c>
-      <c r="J3" s="101"/>
+      <c r="J3" s="102"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="32"/>

--- a/Personal accounting office.xlsx
+++ b/Personal accounting office.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7200" windowWidth="25200" windowHeight="12015" tabRatio="907" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="7650" windowWidth="25200" windowHeight="12015" tabRatio="907" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="چک نویس" sheetId="22" r:id="rId1"/>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="352">
   <si>
     <t>تاریخ</t>
   </si>
@@ -1152,6 +1152,12 @@
   </si>
   <si>
     <t>مجموع کل انتقال‌ها:</t>
+  </si>
+  <si>
+    <t>cell</t>
+  </si>
+  <si>
+    <t>=</t>
   </si>
 </sst>
 </file>
@@ -1259,11 +1265,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1276,6 +1284,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1841,15 +1850,6 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1868,6 +1868,15 @@
     <xf numFmtId="165" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -1875,6 +1884,152 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="165">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1897,6 +2052,25 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="#,##0_-[$ريال-429]"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
     </dxf>
     <dxf>
@@ -1939,31 +2113,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="165" formatCode="#,##0_-[$ريال-429]"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
     </dxf>
     <dxf>
@@ -1983,9 +2133,9 @@
         <scheme val="none"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor theme="1"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
@@ -2108,25 +2258,15 @@
     <dxf>
       <font>
         <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="165" formatCode="#,##0_-[$ريال-429]"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
     </dxf>
     <dxf>
@@ -2156,18 +2296,13 @@
     <dxf>
       <font>
         <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
     </dxf>
@@ -2184,43 +2319,15 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="#,##0_-[$ريال-429]"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="#,##0_-[$ريال-429]"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="#,##0_-[$ريال-429]"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
     </dxf>
     <dxf>
@@ -2239,13 +2346,18 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
     </dxf>
@@ -2297,93 +2409,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
     </dxf>
     <dxf>
       <font>
@@ -3815,21 +3840,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="165" formatCode="#,##0_-[$ريال-429]"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
       <protection locked="0" hidden="0"/>
@@ -4040,424 +4050,424 @@
     <tableColumn id="8" name="مبلغ (ریال)" dataDxfId="154"/>
     <tableColumn id="9" name="پرداخت کننده" dataDxfId="153"/>
     <tableColumn id="10" name="دریافت کننده" dataDxfId="152"/>
-    <tableColumn id="11" name="مانده حساب‌ها" dataDxfId="151"/>
-    <tableColumn id="12" name="نوع خرج" dataDxfId="150"/>
-    <tableColumn id="13" name="شرح" dataDxfId="149"/>
+    <tableColumn id="11" name="مانده حساب‌ها" dataDxfId="0"/>
+    <tableColumn id="12" name="نوع خرج" dataDxfId="151"/>
+    <tableColumn id="13" name="شرح" dataDxfId="150"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="RightsTable" displayName="RightsTable" ref="D5:D6" totalsRowShown="0" headerRowDxfId="123" dataDxfId="122">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="RightsTable" displayName="RightsTable" ref="D5:D6" totalsRowShown="0" headerRowDxfId="124" dataDxfId="123">
   <autoFilter ref="D5:D6"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="حقوق" dataDxfId="121"/>
+    <tableColumn id="1" name="حقوق" dataDxfId="122"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="CostGroupsTable" displayName="CostGroupsTable" ref="A5:B29" totalsRowShown="0" headerRowDxfId="120">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="CostGroupsTable" displayName="CostGroupsTable" ref="A5:B29" totalsRowShown="0" headerRowDxfId="121">
   <autoFilter ref="A5:B29"/>
   <sortState ref="A5:B28">
     <sortCondition ref="B4:B28"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" name="کد گروه هزینه" dataDxfId="119"/>
-    <tableColumn id="2" name="نام گروه هزینه" dataDxfId="118"/>
+    <tableColumn id="1" name="کد گروه هزینه" dataDxfId="120"/>
+    <tableColumn id="2" name="نام گروه هزینه" dataDxfId="119"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="TravelCostsTable" displayName="TravelCostsTable" ref="F4:F13" totalsRowShown="0" headerRowDxfId="117" dataDxfId="116">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="TravelCostsTable" displayName="TravelCostsTable" ref="F4:F13" totalsRowShown="0" headerRowDxfId="118" dataDxfId="117">
   <autoFilter ref="F4:F13"/>
   <sortState ref="F4:F12">
     <sortCondition ref="F3:F12"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="ایاب و ذهاب" dataDxfId="115"/>
+    <tableColumn id="1" name="ایاب و ذهاب" dataDxfId="116"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="NetworkCostsTable" displayName="NetworkCostsTable" ref="D4:D8" totalsRowShown="0" headerRowDxfId="114" dataDxfId="113">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="NetworkCostsTable" displayName="NetworkCostsTable" ref="D4:D8" totalsRowShown="0" headerRowDxfId="115" dataDxfId="114">
   <autoFilter ref="D4:D8"/>
   <sortState ref="D4:D7">
     <sortCondition ref="D3:D7"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="ارتباطات" dataDxfId="112"/>
+    <tableColumn id="1" name="ارتباطات" dataDxfId="113"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="HealthCareCostsTable" displayName="HealthCareCostsTable" ref="H4:H9" totalsRowShown="0" headerRowDxfId="111" dataDxfId="110">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="HealthCareCostsTable" displayName="HealthCareCostsTable" ref="H4:H9" totalsRowShown="0" headerRowDxfId="112" dataDxfId="111">
   <autoFilter ref="H4:H9"/>
   <sortState ref="H4:H8">
     <sortCondition ref="H3:H8"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="بهداشت و درمان" dataDxfId="109"/>
+    <tableColumn id="1" name="بهداشت و درمان" dataDxfId="110"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="PersonalCleaningCostsTable" displayName="PersonalCleaningCostsTable" ref="J4:J9" totalsRowShown="0" headerRowDxfId="108" dataDxfId="107">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="PersonalCleaningCostsTable" displayName="PersonalCleaningCostsTable" ref="J4:J9" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108">
   <autoFilter ref="J4:J9"/>
   <sortState ref="J4:J8">
     <sortCondition ref="J3:J8"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="بهداشت و نظافت فردی" dataDxfId="106"/>
+    <tableColumn id="1" name="بهداشت و نظافت فردی" dataDxfId="107"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="EnvironmentalHealthCostsTable" displayName="EnvironmentalHealthCostsTable" ref="L4:L6" totalsRowShown="0" headerRowDxfId="105" dataDxfId="104">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="EnvironmentalHealthCostsTable" displayName="EnvironmentalHealthCostsTable" ref="L4:L6" totalsRowShown="0" headerRowDxfId="106" dataDxfId="105">
   <autoFilter ref="L4:L6"/>
   <sortState ref="L4:L5">
     <sortCondition ref="L3:L5"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="بهداشت و نظافت محیط" dataDxfId="103"/>
+    <tableColumn id="1" name="بهداشت و نظافت محیط" dataDxfId="104"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="InsuranceCostsTable" displayName="InsuranceCostsTable" ref="N4:N8" totalsRowShown="0" headerRowDxfId="102" dataDxfId="101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="InsuranceCostsTable" displayName="InsuranceCostsTable" ref="N4:N8" totalsRowShown="0" headerRowDxfId="103" dataDxfId="102">
   <autoFilter ref="N4:N8"/>
   <sortState ref="N4:N7">
     <sortCondition ref="N3:N7"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="بیمه" dataDxfId="100"/>
+    <tableColumn id="1" name="بیمه" dataDxfId="101"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="InstallmentPaymentCostsTable" displayName="InstallmentPaymentCostsTable" ref="P4:P6" totalsRowShown="0" headerRowDxfId="99" dataDxfId="98">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="InstallmentPaymentCostsTable" displayName="InstallmentPaymentCostsTable" ref="P4:P6" totalsRowShown="0" headerRowDxfId="100" dataDxfId="99">
   <autoFilter ref="P4:P6"/>
   <sortState ref="P4">
     <sortCondition ref="P3:P4"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="پرداخت اقساط" dataDxfId="97"/>
+    <tableColumn id="1" name="پرداخت اقساط" dataDxfId="98"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="CostsOfClothingAndFootwearTable" displayName="CostsOfClothingAndFootwearTable" ref="R4:R8" totalsRowShown="0" headerRowDxfId="96" dataDxfId="95">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="CostsOfClothingAndFootwearTable" displayName="CostsOfClothingAndFootwearTable" ref="R4:R8" totalsRowShown="0" headerRowDxfId="97" dataDxfId="96">
   <autoFilter ref="R4:R8"/>
   <sortState ref="R4:R7">
     <sortCondition ref="R3:R7"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="پوشاک و کفش" dataDxfId="94"/>
+    <tableColumn id="1" name="پوشاک و کفش" dataDxfId="95"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="RevenueGroupTable" displayName="RevenueGroupTable" ref="A4:B12" totalsRowShown="0" headerRowDxfId="148" dataDxfId="147">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="RevenueGroupTable" displayName="RevenueGroupTable" ref="A4:B12" totalsRowShown="0" headerRowDxfId="149" dataDxfId="148">
   <autoFilter ref="A4:B12"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="کد گروه درآمدی" dataDxfId="146"/>
-    <tableColumn id="2" name="نام گروه درآمد" dataDxfId="145"/>
+    <tableColumn id="1" name="کد گروه درآمدی" dataDxfId="147"/>
+    <tableColumn id="2" name="نام گروه درآمد" dataDxfId="146"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="CarCostsTable" displayName="CarCostsTable" ref="T4:T9" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="CarCostsTable" displayName="CarCostsTable" ref="T4:T9" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93">
   <autoFilter ref="T4:T9"/>
   <sortState ref="T4:T8">
     <sortCondition ref="T3:T8"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="خودرو" dataDxfId="91"/>
+    <tableColumn id="1" name="خودرو" dataDxfId="92"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="CostsOfFoodAndBeveragesTable" displayName="CostsOfFoodAndBeveragesTable" ref="V4:V8" totalsRowShown="0" headerRowDxfId="90" dataDxfId="89">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="CostsOfFoodAndBeveragesTable" displayName="CostsOfFoodAndBeveragesTable" ref="V4:V8" totalsRowShown="0" headerRowDxfId="91" dataDxfId="90">
   <autoFilter ref="V4:V8"/>
   <sortState ref="V4:V7">
     <sortCondition ref="V3:V7"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="خوراکی‌ها و آشامیدنی‌ها" dataDxfId="88"/>
+    <tableColumn id="1" name="خوراکی‌ها و آشامیدنی‌ها" dataDxfId="89"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="CharityAndCulturalExpensesTable" displayName="CharityAndCulturalExpensesTable" ref="X4:X6" totalsRowShown="0" headerRowDxfId="87" dataDxfId="86">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="CharityAndCulturalExpensesTable" displayName="CharityAndCulturalExpensesTable" ref="X4:X6" totalsRowShown="0" headerRowDxfId="88" dataDxfId="87">
   <autoFilter ref="X4:X6"/>
   <sortState ref="X4">
     <sortCondition ref="X3:X4"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="خیریه و امور فرهنگی" dataDxfId="85"/>
+    <tableColumn id="1" name="خیریه و امور فرهنگی" dataDxfId="86"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="TobaccoCostsTable" displayName="TobaccoCostsTable" ref="Z4:Z6" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="TobaccoCostsTable" displayName="TobaccoCostsTable" ref="Z4:Z6" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84">
   <autoFilter ref="Z4:Z6"/>
   <sortState ref="Z4:Z5">
     <sortCondition ref="Z3:Z5"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="دخانیات" dataDxfId="82"/>
+    <tableColumn id="1" name="دخانیات" dataDxfId="83"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="BicycleCostsTable" displayName="BicycleCostsTable" ref="AB4:AB6" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="BicycleCostsTable" displayName="BicycleCostsTable" ref="AB4:AB6" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81">
   <autoFilter ref="AB4:AB6"/>
   <sortState ref="AB4:AB5">
     <sortCondition ref="AB3:AB5"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="دوچرخه" dataDxfId="79"/>
+    <tableColumn id="1" name="دوچرخه" dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="CostsOfCapitalJewelryTable" displayName="CostsOfCapitalJewelryTable" ref="AD4:AD8" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="CostsOfCapitalJewelryTable" displayName="CostsOfCapitalJewelryTable" ref="AD4:AD8" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
   <autoFilter ref="AD4:AD8"/>
   <sortState ref="AD4:AD7">
     <sortCondition ref="AD3:AD7"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="زیورآلات سرمایه" dataDxfId="76"/>
+    <tableColumn id="1" name="زیورآلات سرمایه" dataDxfId="77"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Non_CapitalJewelryCostsTable" displayName="Non_CapitalJewelryCostsTable" ref="AF4:AF6" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Non_CapitalJewelryCostsTable" displayName="Non_CapitalJewelryCostsTable" ref="AF4:AF6" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
   <autoFilter ref="AF4:AF6"/>
   <sortState ref="AF4">
     <sortCondition ref="AF3:AF4"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name=" زیورآلات غیر سرمایه" dataDxfId="73"/>
+    <tableColumn id="1" name=" زیورآلات غیر سرمایه" dataDxfId="74"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="InvestmentCostsTable" displayName="InvestmentCostsTable" ref="AH4:AH6" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="InvestmentCostsTable" displayName="InvestmentCostsTable" ref="AH4:AH6" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72">
   <autoFilter ref="AH4:AH6"/>
   <sortState ref="AH5:AH6">
     <sortCondition ref="AH4:AH6"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name=" سرمایه گذاری" dataDxfId="70"/>
+    <tableColumn id="1" name=" سرمایه گذاری" dataDxfId="71"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="TravelAndTourExpensesTable" displayName="TravelAndTourExpensesTable" ref="AJ4:AJ6" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="TravelAndTourExpensesTable" displayName="TravelAndTourExpensesTable" ref="AJ4:AJ6" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
   <autoFilter ref="AJ4:AJ6"/>
   <sortState ref="AJ4">
     <sortCondition ref="AJ3:AJ4"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="سفر و گردش" dataDxfId="67"/>
+    <tableColumn id="1" name="سفر و گردش" dataDxfId="68"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="HousingBillCostsTable" displayName="HousingBillCostsTable" ref="AL4:AL15" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="HousingBillCostsTable" displayName="HousingBillCostsTable" ref="AL4:AL15" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
   <autoFilter ref="AL4:AL15"/>
   <sortState ref="AL4:AL14">
     <sortCondition ref="AL3:AL14"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="صورتحاب‌های مسکن" dataDxfId="64"/>
+    <tableColumn id="1" name="صورتحاب‌های مسکن" dataDxfId="65"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="SalaryTable" displayName="SalaryTable" ref="F5:F6" totalsRowShown="0" headerRowDxfId="144" dataDxfId="143">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="SalaryTable" displayName="SalaryTable" ref="F5:F6" totalsRowShown="0" headerRowDxfId="145" dataDxfId="144">
   <autoFilter ref="F5:F6"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="دستمزد" dataDxfId="142"/>
+    <tableColumn id="1" name="دستمزد" dataDxfId="143"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="36" name="LeisureAndEntertainmentExpensesTable" displayName="LeisureAndEntertainmentExpensesTable" ref="AN4:AN8" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="36" name="LeisureAndEntertainmentExpensesTable" displayName="LeisureAndEntertainmentExpensesTable" ref="AN4:AN8" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
   <autoFilter ref="AN4:AN8"/>
   <sortState ref="AN4:AN7">
     <sortCondition ref="AN3:AN7"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="فراغت و سرگرمی" dataDxfId="61"/>
+    <tableColumn id="1" name="فراغت و سرگرمی" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="TaxCostsTable" displayName="TaxCostsTable" ref="AP4:AP8" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="TaxCostsTable" displayName="TaxCostsTable" ref="AP4:AP8" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
   <autoFilter ref="AP4:AP8"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="مالیات" dataDxfId="58"/>
+    <tableColumn id="1" name="مالیات" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="38" name="DegreeAndTuitionFeesTable" displayName="DegreeAndTuitionFeesTable" ref="AR4:AR6" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="38" name="DegreeAndTuitionFeesTable" displayName="DegreeAndTuitionFeesTable" ref="AR4:AR6" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
   <autoFilter ref="AR4:AR6"/>
   <sortState ref="AR4">
     <sortCondition ref="AR3:AR4"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name=" مدرک و تحصیل" dataDxfId="55"/>
+    <tableColumn id="1" name=" مدرک و تحصیل" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="39" name="ExerciseCostsTable" displayName="ExerciseCostsTable" ref="AT4:AT7" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="39" name="ExerciseCostsTable" displayName="ExerciseCostsTable" ref="AT4:AT7" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
   <autoFilter ref="AT4:AT7"/>
   <sortState ref="AT4:AT6">
     <sortCondition ref="AT3:AT6"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="ورزش" dataDxfId="52"/>
+    <tableColumn id="1" name="ورزش" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="40" name="GiftCostsTable" displayName="GiftCostsTable" ref="AV4:AV11" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="40" name="GiftCostsTable" displayName="GiftCostsTable" ref="AV4:AV11" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
   <autoFilter ref="AV4:AV11"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="هدیه و کادو" dataDxfId="49"/>
+    <tableColumn id="1" name="هدیه و کادو" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="LearningAndIndividualDevelopmentCostsTable" displayName="LearningAndIndividualDevelopmentCostsTable" ref="AX4:AX7" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="LearningAndIndividualDevelopmentCostsTable" displayName="LearningAndIndividualDevelopmentCostsTable" ref="AX4:AX7" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
   <autoFilter ref="AX4:AX7"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="یادگیری و توسعه فردی" dataDxfId="46"/>
+    <tableColumn id="1" name="یادگیری و توسعه فردی" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ReceiversAndPayersTable" displayName="ReceiversAndPayersTable" ref="A3:A14" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ReceiversAndPayersTable" displayName="ReceiversAndPayersTable" ref="A3:A14" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45" dataCellStyle="Normal">
   <autoFilter ref="A3:A14"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="دریافت کننده - پرداخت کنندگان" dataDxfId="43" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="دریافت کننده - پرداخت کنندگان" dataDxfId="44" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table37.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Accounts_and_ReceiversAndPayers_AppendTabel" displayName="Accounts_and_ReceiversAndPayers_AppendTabel" ref="C3:E19" tableType="queryTable" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Accounts_and_ReceiversAndPayers_AppendTabel" displayName="Accounts_and_ReceiversAndPayers_AppendTabel" ref="C3:E19" tableType="queryTable" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
   <autoFilter ref="C3:E19"/>
   <tableColumns count="3">
-    <tableColumn id="4" uniqueName="4" name="Accounts" queryTableFieldId="1" dataDxfId="40"/>
-    <tableColumn id="5" uniqueName="5" name="ReceiversAndPayers" queryTableFieldId="2" dataDxfId="39"/>
-    <tableColumn id="6" uniqueName="6" name="Accounts and ReceiversAndPayers" queryTableFieldId="3" dataDxfId="38"/>
+    <tableColumn id="4" uniqueName="4" name="Accounts" queryTableFieldId="1" dataDxfId="41"/>
+    <tableColumn id="5" uniqueName="5" name="ReceiversAndPayers" queryTableFieldId="2" dataDxfId="40"/>
+    <tableColumn id="6" uniqueName="6" name="Accounts and ReceiversAndPayers" queryTableFieldId="3" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table38.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="PersonsTable" displayName="PersonsTable" ref="A5:I6" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="PersonsTable" displayName="PersonsTable" ref="A5:I6" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
   <autoFilter ref="A5:I6"/>
   <tableColumns count="9">
-    <tableColumn id="6" name="ID" dataDxfId="35"/>
-    <tableColumn id="1" name="افراد" dataDxfId="34"/>
-    <tableColumn id="2" name="کد ملی" dataDxfId="33"/>
-    <tableColumn id="3" name="شماره تماس" dataDxfId="32"/>
-    <tableColumn id="4" name="آدرس ایمیل" dataDxfId="31" dataCellStyle="Hyperlink"/>
-    <tableColumn id="5" name="سایت اینترنتی" dataDxfId="30"/>
-    <tableColumn id="7" name="آدرس محل کار" dataDxfId="29"/>
-    <tableColumn id="8" name="آدرس منزل" dataDxfId="28"/>
-    <tableColumn id="9" name="توضیحات" dataDxfId="27"/>
+    <tableColumn id="6" name="ID" dataDxfId="36"/>
+    <tableColumn id="1" name="افراد" dataDxfId="35"/>
+    <tableColumn id="2" name="کد ملی" dataDxfId="34"/>
+    <tableColumn id="3" name="شماره تماس" dataDxfId="33"/>
+    <tableColumn id="4" name="آدرس ایمیل" dataDxfId="32" dataCellStyle="Hyperlink"/>
+    <tableColumn id="5" name="سایت اینترنتی" dataDxfId="31"/>
+    <tableColumn id="7" name="آدرس محل کار" dataDxfId="30"/>
+    <tableColumn id="8" name="آدرس منزل" dataDxfId="29"/>
+    <tableColumn id="9" name="توضیحات" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table39.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="FinancialAccountsTable" displayName="FinancialAccountsTable" ref="A12:L18" totalsRowCount="1" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="FinancialAccountsTable" displayName="FinancialAccountsTable" ref="A12:L18" totalsRowCount="1" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="A12:L17"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="ID" totalsRowLabel="Total" dataDxfId="18" totalsRowDxfId="12"/>
-    <tableColumn id="2" name="نام حساب" dataDxfId="17" totalsRowDxfId="11"/>
-    <tableColumn id="3" name="نوع حساب" dataDxfId="16" totalsRowDxfId="10"/>
-    <tableColumn id="4" name="موجودی اولیه" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="9"/>
-    <tableColumn id="5" name="شماره حساب" totalsRowDxfId="8"/>
-    <tableColumn id="6" name="شماره کارت" totalsRowDxfId="7"/>
-    <tableColumn id="7" name="تاریخ انقضاء کارت" totalsRowDxfId="6"/>
-    <tableColumn id="8" name="CVV2" totalsRowDxfId="5"/>
-    <tableColumn id="9" name="جمع پرداختی" totalsRowFunction="sum" totalsRowDxfId="2">
+    <tableColumn id="1" name="ID" totalsRowLabel="Total" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="2" name="نام حساب" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="3" name="نوع حساب" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="4" name="موجودی اولیه" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="5" name="شماره حساب" totalsRowDxfId="17"/>
+    <tableColumn id="6" name="شماره کارت" totalsRowDxfId="16"/>
+    <tableColumn id="7" name="تاریخ انقضاء کارت" totalsRowDxfId="15"/>
+    <tableColumn id="8" name="CVV2" totalsRowDxfId="14"/>
+    <tableColumn id="9" name="جمع پرداختی" totalsRowFunction="sum" totalsRowDxfId="13">
       <calculatedColumnFormula>SUMIF(Tarakonesh[پرداخت کننده],FinancialAccountsTable[[#This Row],[نام حساب]],Tarakonesh[مبلغ (ریال)])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="جمع دریافتی" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="1">
+    <tableColumn id="11" name="جمع دریافتی" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="11">
       <calculatedColumnFormula>SUMIF(Tarakonesh[دریافت کننده],FinancialAccountsTable[[#This Row],[نام حساب]],Tarakonesh[مبلغ (ریال)])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="مانده" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="0">
+    <tableColumn id="12" name="مانده" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="9">
       <calculatedColumnFormula>(FinancialAccountsTable[[#This Row],[جمع دریافتی]]+FinancialAccountsTable[[#This Row],[موجودی اولیه]])-FinancialAccountsTable[[#This Row],[جمع پرداختی]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="وضعیت فعلی" dataDxfId="3" totalsRowDxfId="4">
+    <tableColumn id="13" name="وضعیت فعلی" dataDxfId="8" totalsRowDxfId="7">
       <calculatedColumnFormula>IF(FinancialAccountsTable[[#This Row],[مانده]]=0,"",IF(FinancialAccountsTable[[#This Row],[مانده]]&gt;0,"بدهکار","بستانکار"))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4466,30 +4476,30 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="ProfitOfAcquisitionTable" displayName="ProfitOfAcquisitionTable" ref="H5:H6" totalsRowShown="0" headerRowDxfId="141" dataDxfId="140">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="ProfitOfAcquisitionTable" displayName="ProfitOfAcquisitionTable" ref="H5:H6" totalsRowShown="0" headerRowDxfId="142" dataDxfId="141">
   <autoFilter ref="H5:H6"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="منفعت کسب" dataDxfId="139"/>
+    <tableColumn id="1" name="منفعت کسب" dataDxfId="140"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table40.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TypeOfExpenditureTable" displayName="TypeOfExpenditureTable" ref="A3:A6" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TypeOfExpenditureTable" displayName="TypeOfExpenditureTable" ref="A3:A6" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A3:A6"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="نوع خرج" dataDxfId="24"/>
+    <tableColumn id="1" name="نوع خرج" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table41.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="TypeOfTransactionTable" displayName="TypeOfTransactionTable" ref="B3:B6" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="TypeOfTransactionTable" displayName="TypeOfTransactionTable" ref="B3:B6" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="B3:B6"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="نوع تراکنش" dataDxfId="21"/>
+    <tableColumn id="1" name="نوع تراکنش" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4506,53 +4516,53 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="ProfitableInvestmentTable" displayName="ProfitableInvestmentTable" ref="J5:J6" totalsRowShown="0" headerRowDxfId="138" dataDxfId="137">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="ProfitableInvestmentTable" displayName="ProfitableInvestmentTable" ref="J5:J6" totalsRowShown="0" headerRowDxfId="139" dataDxfId="138">
   <autoFilter ref="J5:J6"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="سود سرمایه‌گذاری" dataDxfId="136"/>
+    <tableColumn id="1" name="سود سرمایه‌گذاری" dataDxfId="137"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="IncentivesPrizesAndFeastsTable" displayName="IncentivesPrizesAndFeastsTable" ref="L5:L8" totalsRowShown="0" headerRowDxfId="135" dataDxfId="134">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="IncentivesPrizesAndFeastsTable" displayName="IncentivesPrizesAndFeastsTable" ref="L5:L8" totalsRowShown="0" headerRowDxfId="136" dataDxfId="135">
   <autoFilter ref="L5:L8"/>
   <sortState ref="L6:L8">
     <sortCondition ref="L5:L8"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="تشویقی‌ها، جوایز و عیدی‌ها" dataDxfId="133"/>
+    <tableColumn id="1" name="تشویقی‌ها، جوایز و عیدی‌ها" dataDxfId="134"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="GetAMortgageAndRentTable" displayName="GetAMortgageAndRentTable" ref="N5:N6" totalsRowShown="0" headerRowDxfId="132" dataDxfId="131">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="GetAMortgageAndRentTable" displayName="GetAMortgageAndRentTable" ref="N5:N6" totalsRowShown="0" headerRowDxfId="133" dataDxfId="132">
   <autoFilter ref="N5:N6"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="دریافت رهن و اجاره" dataDxfId="130"/>
+    <tableColumn id="1" name="دریافت رهن و اجاره" dataDxfId="131"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="GetALoanTable" displayName="GetALoanTable" ref="P5:P6" totalsRowShown="0" headerRowDxfId="129" dataDxfId="128">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="GetALoanTable" displayName="GetALoanTable" ref="P5:P6" totalsRowShown="0" headerRowDxfId="130" dataDxfId="129">
   <autoFilter ref="P5:P6"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="دریافت وام" dataDxfId="127"/>
+    <tableColumn id="1" name="دریافت وام" dataDxfId="128"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="MiscellaneousIncomeTable" displayName="MiscellaneousIncomeTable" ref="R5:R6" totalsRowShown="0" headerRowDxfId="126" dataDxfId="125">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="MiscellaneousIncomeTable" displayName="MiscellaneousIncomeTable" ref="R5:R6" totalsRowShown="0" headerRowDxfId="127" dataDxfId="126">
   <autoFilter ref="R5:R6"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="درآمد متفرقه" dataDxfId="124"/>
+    <tableColumn id="1" name="درآمد متفرقه" dataDxfId="125"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4821,10 +4831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AC16"/>
+  <dimension ref="A4:AC22"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O3:AC12"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5069,9 +5079,15 @@
         <v>99</v>
       </c>
     </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="R15" t="s">
+        <v>351</v>
+      </c>
+    </row>
     <row r="16" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>8</v>
+      <c r="A16" s="11" t="e">
+        <f>S24a</f>
+        <v>#NAME?</v>
       </c>
       <c r="B16" s="37" t="s">
         <v>120</v>
@@ -5100,9 +5116,44 @@
       <c r="J16" s="17" t="s">
         <v>99</v>
       </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="U16" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="17" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="Q17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="Q18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O20">
+        <f>IF(Q16:Q22="",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="Q21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="Q22">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="12">
+  <dataValidations disablePrompts="1" count="12">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V8">
       <formula1>INDIRECT($F$10)</formula1>
     </dataValidation>
@@ -5409,10 +5460,10 @@
     </row>
     <row r="2" spans="1:23" s="43" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="125" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="119"/>
+      <c r="B3" s="125"/>
       <c r="D3" s="43"/>
       <c r="F3" s="43"/>
       <c r="H3" s="43"/>
@@ -5837,10 +5888,10 @@
       <c r="AC3" s="90"/>
     </row>
     <row r="4" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="126" t="s">
         <v>176</v>
       </c>
-      <c r="B4" s="120"/>
+      <c r="B4" s="126"/>
       <c r="D4" s="45" t="s">
         <v>194</v>
       </c>
@@ -7885,7 +7936,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8061,15 +8112,15 @@
       <c r="H13" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="I13" s="122">
+      <c r="I13" s="119">
         <f>SUMIF(Tarakonesh[پرداخت کننده],FinancialAccountsTable[[#This Row],[نام حساب]],Tarakonesh[مبلغ (ریال)])</f>
         <v>20000</v>
       </c>
-      <c r="J13" s="122">
+      <c r="J13" s="119">
         <f>SUMIF(Tarakonesh[دریافت کننده],FinancialAccountsTable[[#This Row],[نام حساب]],Tarakonesh[مبلغ (ریال)])</f>
         <v>500000</v>
       </c>
-      <c r="K13" s="122">
+      <c r="K13" s="119">
         <f>(FinancialAccountsTable[[#This Row],[جمع دریافتی]]+FinancialAccountsTable[[#This Row],[موجودی اولیه]])-FinancialAccountsTable[[#This Row],[جمع پرداختی]]</f>
         <v>2480000</v>
       </c>
@@ -8101,15 +8152,15 @@
       <c r="H14" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="I14" s="122">
+      <c r="I14" s="119">
         <f>SUMIF(Tarakonesh[پرداخت کننده],FinancialAccountsTable[[#This Row],[نام حساب]],Tarakonesh[مبلغ (ریال)])</f>
         <v>80000</v>
       </c>
-      <c r="J14" s="122">
+      <c r="J14" s="119">
         <f>SUMIF(Tarakonesh[دریافت کننده],FinancialAccountsTable[[#This Row],[نام حساب]],Tarakonesh[مبلغ (ریال)])</f>
         <v>1020000</v>
       </c>
-      <c r="K14" s="122">
+      <c r="K14" s="119">
         <f>(FinancialAccountsTable[[#This Row],[جمع دریافتی]]+FinancialAccountsTable[[#This Row],[موجودی اولیه]])-FinancialAccountsTable[[#This Row],[جمع پرداختی]]</f>
         <v>940000</v>
       </c>
@@ -8139,15 +8190,15 @@
       <c r="H15" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="I15" s="122">
+      <c r="I15" s="119">
         <f>SUMIF(Tarakonesh[پرداخت کننده],FinancialAccountsTable[[#This Row],[نام حساب]],Tarakonesh[مبلغ (ریال)])</f>
         <v>3000</v>
       </c>
-      <c r="J15" s="122">
+      <c r="J15" s="119">
         <f>SUMIF(Tarakonesh[دریافت کننده],FinancialAccountsTable[[#This Row],[نام حساب]],Tarakonesh[مبلغ (ریال)])</f>
         <v>520000</v>
       </c>
-      <c r="K15" s="122">
+      <c r="K15" s="119">
         <f>(FinancialAccountsTable[[#This Row],[جمع دریافتی]]+FinancialAccountsTable[[#This Row],[موجودی اولیه]])-FinancialAccountsTable[[#This Row],[جمع پرداختی]]</f>
         <v>517000</v>
       </c>
@@ -8177,15 +8228,15 @@
       <c r="H16" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="I16" s="122">
+      <c r="I16" s="119">
         <f>SUMIF(Tarakonesh[پرداخت کننده],FinancialAccountsTable[[#This Row],[نام حساب]],Tarakonesh[مبلغ (ریال)])</f>
         <v>500000</v>
       </c>
-      <c r="J16" s="122">
+      <c r="J16" s="119">
         <f>SUMIF(Tarakonesh[دریافت کننده],FinancialAccountsTable[[#This Row],[نام حساب]],Tarakonesh[مبلغ (ریال)])</f>
         <v>0</v>
       </c>
-      <c r="K16" s="122">
+      <c r="K16" s="119">
         <f>(FinancialAccountsTable[[#This Row],[جمع دریافتی]]+FinancialAccountsTable[[#This Row],[موجودی اولیه]])-FinancialAccountsTable[[#This Row],[جمع پرداختی]]</f>
         <v>-500000</v>
       </c>
@@ -8213,15 +8264,15 @@
       <c r="H17" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="I17" s="122">
+      <c r="I17" s="119">
         <f>SUMIF(Tarakonesh[پرداخت کننده],FinancialAccountsTable[[#This Row],[نام حساب]],Tarakonesh[مبلغ (ریال)])</f>
         <v>0</v>
       </c>
-      <c r="J17" s="122">
+      <c r="J17" s="119">
         <f>SUMIF(Tarakonesh[دریافت کننده],FinancialAccountsTable[[#This Row],[نام حساب]],Tarakonesh[مبلغ (ریال)])</f>
         <v>0</v>
       </c>
-      <c r="K17" s="122">
+      <c r="K17" s="119">
         <f>(FinancialAccountsTable[[#This Row],[جمع دریافتی]]+FinancialAccountsTable[[#This Row],[موجودی اولیه]])-FinancialAccountsTable[[#This Row],[جمع پرداختی]]</f>
         <v>0</v>
       </c>
@@ -8244,15 +8295,15 @@
       <c r="F18" s="69"/>
       <c r="G18" s="70"/>
       <c r="H18" s="70"/>
-      <c r="I18" s="123">
+      <c r="I18" s="120">
         <f>SUBTOTAL(109,FinancialAccountsTable[جمع پرداختی])</f>
         <v>603000</v>
       </c>
-      <c r="J18" s="123">
+      <c r="J18" s="120">
         <f>SUBTOTAL(109,FinancialAccountsTable[جمع دریافتی])</f>
         <v>2040000</v>
       </c>
-      <c r="K18" s="123">
+      <c r="K18" s="120">
         <f>SUBTOTAL(109,FinancialAccountsTable[مانده])</f>
         <v>3437000</v>
       </c>
@@ -8551,7 +8602,7 @@
   <dimension ref="A1:S507"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8604,7 +8655,9 @@
       <c r="J1" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="K1" s="6"/>
+      <c r="K1" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="L1" s="6"/>
       <c r="M1" s="30"/>
       <c r="N1" s="6"/>
@@ -8638,29 +8691,29 @@
       <c r="B3" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="126">
+      <c r="C3" s="123">
         <f>SUMIF(Tarakonesh[تراکنش],"دریافت_درآمد",Tarakonesh[مبلغ (ریال)])</f>
         <v>1520000</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E3" s="125">
+      <c r="E3" s="122">
         <f>SUMIF(Tarakonesh[تراکنش],"پرداخت_هزینه",Tarakonesh[مبلغ (ریال)])</f>
-        <v>83000</v>
+        <v>93000</v>
       </c>
       <c r="F3" s="39" t="s">
         <v>349</v>
       </c>
-      <c r="G3" s="124">
+      <c r="G3" s="121">
         <f>SUMIF(Tarakonesh[تراکنش],"انتقال",Tarakonesh[مبلغ (ریال)])</f>
         <v>520000</v>
       </c>
       <c r="H3" s="86"/>
-      <c r="I3" s="118" t="s">
+      <c r="I3" s="124" t="s">
         <v>154</v>
       </c>
-      <c r="J3" s="118"/>
+      <c r="J3" s="124"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
       <c r="M3" s="31"/>
@@ -8697,7 +8750,7 @@
       </c>
       <c r="C5" s="85">
         <f ca="1">TODAY()</f>
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="D5" s="79"/>
       <c r="E5" s="80"/>
@@ -8823,7 +8876,10 @@
       <c r="K8" s="29" t="s">
         <v>342</v>
       </c>
-      <c r="L8" s="29"/>
+      <c r="L8" s="29">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال", "",(FinancialAccountsTable[[#Totals],[موجودی اولیه]] + IF(Tarakonesh[تراکنش]="دریافت_درآمد",Tarakonesh[[#This Row],[مبلغ (ریال)]],0))-IF(Tarakonesh[تراکنش]="پرداخت_هزینه",Tarakonesh[[#This Row],[مبلغ (ریال)]],0)))</f>
+        <v>1920000</v>
+      </c>
       <c r="M8" s="33" t="s">
         <v>118</v>
       </c>
@@ -8860,7 +8916,10 @@
       <c r="K9" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="L9" s="29"/>
+      <c r="L9" s="29">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال", "",IF(Tarakonesh[تراکنش]="دریافت_درآمد",Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L8),Tarakonesh[[#This Row],[مبلغ (ریال)]]-IF(Tarakonesh[تراکنش]="انتقال",0,L8))))</f>
+        <v>2920000</v>
+      </c>
       <c r="M9" s="33"/>
       <c r="N9" s="33"/>
     </row>
@@ -8894,7 +8953,7 @@
       <c r="L10" s="29"/>
       <c r="M10" s="33"/>
       <c r="N10" s="33"/>
-      <c r="R10" s="121"/>
+      <c r="R10" s="118"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
@@ -8927,7 +8986,7 @@
       <c r="L11" s="29"/>
       <c r="M11" s="33"/>
       <c r="N11" s="33"/>
-      <c r="R11" s="121"/>
+      <c r="R11" s="118"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
@@ -9014,11 +9073,15 @@
       <c r="B15" s="29"/>
       <c r="C15" s="77"/>
       <c r="D15" s="33"/>
-      <c r="E15" s="41"/>
+      <c r="E15" s="41" t="s">
+        <v>291</v>
+      </c>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
-      <c r="I15" s="27"/>
+      <c r="I15" s="27">
+        <v>10000</v>
+      </c>
       <c r="J15" s="29"/>
       <c r="K15" s="29"/>
       <c r="L15" s="29"/>
@@ -17941,6 +18004,7 @@
     <hyperlink ref="I3:J3" location="'دریافت کنندگان - پرداخت کنندگان'!A1" display="دریافت کنندگان - پرداخت کنندگان"/>
     <hyperlink ref="I5" location="'گروه‌‌های (بابت‌ها) هزینه'!A1" display="گروه‌های هزینه"/>
     <hyperlink ref="J5" location="'گروه‌‌های درآمدی'!A1" display="گروه‌های درآمد"/>
+    <hyperlink ref="K1" location="'تنظیمات حساب'!A1" display="تنظیمات حساب"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Personal accounting office.xlsx
+++ b/Personal accounting office.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7650" windowWidth="25200" windowHeight="12015" tabRatio="907" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="8100" windowWidth="25200" windowHeight="12015" tabRatio="907" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="چک نویس" sheetId="22" r:id="rId1"/>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="353">
   <si>
     <t>تاریخ</t>
   </si>
@@ -1158,6 +1158,9 @@
   </si>
   <si>
     <t>=</t>
+  </si>
+  <si>
+    <t>مانده حساب‌ها:</t>
   </si>
 </sst>
 </file>
@@ -1172,7 +1175,7 @@
     <numFmt numFmtId="167" formatCode="[$-960429]dddd\,\ d\ mmmm\ yyyy;@"/>
     <numFmt numFmtId="168" formatCode="_ * #,##0_-[$ريال-429]_ ;_ * #,##0\-[$ريال-429]_ ;_ * &quot;-&quot;_-[$ريال-429]_ ;_ @_ "/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1294,8 +1297,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="27">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1451,6 +1461,18 @@
         <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -1507,7 +1529,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1756,9 +1778,6 @@
     <xf numFmtId="166" fontId="4" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1868,14 +1887,33 @@
     <xf numFmtId="165" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1896,7 +1934,38 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="165" formatCode="#,##0_-[$ريال-429]"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
       <protection locked="0" hidden="0"/>
     </dxf>
@@ -3794,37 +3863,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
       <protection locked="0" hidden="0"/>
     </dxf>
@@ -4049,425 +4087,425 @@
     <tableColumn id="3" name="روش تراکنش" dataDxfId="155"/>
     <tableColumn id="8" name="مبلغ (ریال)" dataDxfId="154"/>
     <tableColumn id="9" name="پرداخت کننده" dataDxfId="153"/>
-    <tableColumn id="10" name="دریافت کننده" dataDxfId="152"/>
-    <tableColumn id="11" name="مانده حساب‌ها" dataDxfId="0"/>
-    <tableColumn id="12" name="نوع خرج" dataDxfId="151"/>
-    <tableColumn id="13" name="شرح" dataDxfId="150"/>
+    <tableColumn id="10" name="دریافت کننده" dataDxfId="2"/>
+    <tableColumn id="11" name="مانده حساب‌ها" dataDxfId="0" dataCellStyle="Currency"/>
+    <tableColumn id="12" name="نوع خرج" dataDxfId="1"/>
+    <tableColumn id="13" name="شرح" dataDxfId="152"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="RightsTable" displayName="RightsTable" ref="D5:D6" totalsRowShown="0" headerRowDxfId="124" dataDxfId="123">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="RightsTable" displayName="RightsTable" ref="D5:D6" totalsRowShown="0" headerRowDxfId="126" dataDxfId="125">
   <autoFilter ref="D5:D6"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="حقوق" dataDxfId="122"/>
+    <tableColumn id="1" name="حقوق" dataDxfId="124"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="CostGroupsTable" displayName="CostGroupsTable" ref="A5:B29" totalsRowShown="0" headerRowDxfId="121">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="CostGroupsTable" displayName="CostGroupsTable" ref="A5:B29" totalsRowShown="0" headerRowDxfId="123">
   <autoFilter ref="A5:B29"/>
   <sortState ref="A5:B28">
     <sortCondition ref="B4:B28"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" name="کد گروه هزینه" dataDxfId="120"/>
-    <tableColumn id="2" name="نام گروه هزینه" dataDxfId="119"/>
+    <tableColumn id="1" name="کد گروه هزینه" dataDxfId="122"/>
+    <tableColumn id="2" name="نام گروه هزینه" dataDxfId="121"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="TravelCostsTable" displayName="TravelCostsTable" ref="F4:F13" totalsRowShown="0" headerRowDxfId="118" dataDxfId="117">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="TravelCostsTable" displayName="TravelCostsTable" ref="F4:F13" totalsRowShown="0" headerRowDxfId="120" dataDxfId="119">
   <autoFilter ref="F4:F13"/>
   <sortState ref="F4:F12">
     <sortCondition ref="F3:F12"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="ایاب و ذهاب" dataDxfId="116"/>
+    <tableColumn id="1" name="ایاب و ذهاب" dataDxfId="118"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="NetworkCostsTable" displayName="NetworkCostsTable" ref="D4:D8" totalsRowShown="0" headerRowDxfId="115" dataDxfId="114">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="NetworkCostsTable" displayName="NetworkCostsTable" ref="D4:D8" totalsRowShown="0" headerRowDxfId="117" dataDxfId="116">
   <autoFilter ref="D4:D8"/>
   <sortState ref="D4:D7">
     <sortCondition ref="D3:D7"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="ارتباطات" dataDxfId="113"/>
+    <tableColumn id="1" name="ارتباطات" dataDxfId="115"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="HealthCareCostsTable" displayName="HealthCareCostsTable" ref="H4:H9" totalsRowShown="0" headerRowDxfId="112" dataDxfId="111">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="HealthCareCostsTable" displayName="HealthCareCostsTable" ref="H4:H9" totalsRowShown="0" headerRowDxfId="114" dataDxfId="113">
   <autoFilter ref="H4:H9"/>
   <sortState ref="H4:H8">
     <sortCondition ref="H3:H8"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="بهداشت و درمان" dataDxfId="110"/>
+    <tableColumn id="1" name="بهداشت و درمان" dataDxfId="112"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="PersonalCleaningCostsTable" displayName="PersonalCleaningCostsTable" ref="J4:J9" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="PersonalCleaningCostsTable" displayName="PersonalCleaningCostsTable" ref="J4:J9" totalsRowShown="0" headerRowDxfId="111" dataDxfId="110">
   <autoFilter ref="J4:J9"/>
   <sortState ref="J4:J8">
     <sortCondition ref="J3:J8"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="بهداشت و نظافت فردی" dataDxfId="107"/>
+    <tableColumn id="1" name="بهداشت و نظافت فردی" dataDxfId="109"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="EnvironmentalHealthCostsTable" displayName="EnvironmentalHealthCostsTable" ref="L4:L6" totalsRowShown="0" headerRowDxfId="106" dataDxfId="105">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="EnvironmentalHealthCostsTable" displayName="EnvironmentalHealthCostsTable" ref="L4:L6" totalsRowShown="0" headerRowDxfId="108" dataDxfId="107">
   <autoFilter ref="L4:L6"/>
   <sortState ref="L4:L5">
     <sortCondition ref="L3:L5"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="بهداشت و نظافت محیط" dataDxfId="104"/>
+    <tableColumn id="1" name="بهداشت و نظافت محیط" dataDxfId="106"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="InsuranceCostsTable" displayName="InsuranceCostsTable" ref="N4:N8" totalsRowShown="0" headerRowDxfId="103" dataDxfId="102">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="InsuranceCostsTable" displayName="InsuranceCostsTable" ref="N4:N8" totalsRowShown="0" headerRowDxfId="105" dataDxfId="104">
   <autoFilter ref="N4:N8"/>
   <sortState ref="N4:N7">
     <sortCondition ref="N3:N7"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="بیمه" dataDxfId="101"/>
+    <tableColumn id="1" name="بیمه" dataDxfId="103"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="InstallmentPaymentCostsTable" displayName="InstallmentPaymentCostsTable" ref="P4:P6" totalsRowShown="0" headerRowDxfId="100" dataDxfId="99">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="InstallmentPaymentCostsTable" displayName="InstallmentPaymentCostsTable" ref="P4:P6" totalsRowShown="0" headerRowDxfId="102" dataDxfId="101">
   <autoFilter ref="P4:P6"/>
   <sortState ref="P4">
     <sortCondition ref="P3:P4"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="پرداخت اقساط" dataDxfId="98"/>
+    <tableColumn id="1" name="پرداخت اقساط" dataDxfId="100"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="CostsOfClothingAndFootwearTable" displayName="CostsOfClothingAndFootwearTable" ref="R4:R8" totalsRowShown="0" headerRowDxfId="97" dataDxfId="96">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="CostsOfClothingAndFootwearTable" displayName="CostsOfClothingAndFootwearTable" ref="R4:R8" totalsRowShown="0" headerRowDxfId="99" dataDxfId="98">
   <autoFilter ref="R4:R8"/>
   <sortState ref="R4:R7">
     <sortCondition ref="R3:R7"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="پوشاک و کفش" dataDxfId="95"/>
+    <tableColumn id="1" name="پوشاک و کفش" dataDxfId="97"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="RevenueGroupTable" displayName="RevenueGroupTable" ref="A4:B12" totalsRowShown="0" headerRowDxfId="149" dataDxfId="148">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="RevenueGroupTable" displayName="RevenueGroupTable" ref="A4:B12" totalsRowShown="0" headerRowDxfId="151" dataDxfId="150">
   <autoFilter ref="A4:B12"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="کد گروه درآمدی" dataDxfId="147"/>
-    <tableColumn id="2" name="نام گروه درآمد" dataDxfId="146"/>
+    <tableColumn id="1" name="کد گروه درآمدی" dataDxfId="149"/>
+    <tableColumn id="2" name="نام گروه درآمد" dataDxfId="148"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="CarCostsTable" displayName="CarCostsTable" ref="T4:T9" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="CarCostsTable" displayName="CarCostsTable" ref="T4:T9" totalsRowShown="0" headerRowDxfId="96" dataDxfId="95">
   <autoFilter ref="T4:T9"/>
   <sortState ref="T4:T8">
     <sortCondition ref="T3:T8"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="خودرو" dataDxfId="92"/>
+    <tableColumn id="1" name="خودرو" dataDxfId="94"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="CostsOfFoodAndBeveragesTable" displayName="CostsOfFoodAndBeveragesTable" ref="V4:V8" totalsRowShown="0" headerRowDxfId="91" dataDxfId="90">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="CostsOfFoodAndBeveragesTable" displayName="CostsOfFoodAndBeveragesTable" ref="V4:V8" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
   <autoFilter ref="V4:V8"/>
   <sortState ref="V4:V7">
     <sortCondition ref="V3:V7"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="خوراکی‌ها و آشامیدنی‌ها" dataDxfId="89"/>
+    <tableColumn id="1" name="خوراکی‌ها و آشامیدنی‌ها" dataDxfId="91"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="CharityAndCulturalExpensesTable" displayName="CharityAndCulturalExpensesTable" ref="X4:X6" totalsRowShown="0" headerRowDxfId="88" dataDxfId="87">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="CharityAndCulturalExpensesTable" displayName="CharityAndCulturalExpensesTable" ref="X4:X6" totalsRowShown="0" headerRowDxfId="90" dataDxfId="89">
   <autoFilter ref="X4:X6"/>
   <sortState ref="X4">
     <sortCondition ref="X3:X4"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="خیریه و امور فرهنگی" dataDxfId="86"/>
+    <tableColumn id="1" name="خیریه و امور فرهنگی" dataDxfId="88"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="TobaccoCostsTable" displayName="TobaccoCostsTable" ref="Z4:Z6" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="TobaccoCostsTable" displayName="TobaccoCostsTable" ref="Z4:Z6" totalsRowShown="0" headerRowDxfId="87" dataDxfId="86">
   <autoFilter ref="Z4:Z6"/>
   <sortState ref="Z4:Z5">
     <sortCondition ref="Z3:Z5"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="دخانیات" dataDxfId="83"/>
+    <tableColumn id="1" name="دخانیات" dataDxfId="85"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="BicycleCostsTable" displayName="BicycleCostsTable" ref="AB4:AB6" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="BicycleCostsTable" displayName="BicycleCostsTable" ref="AB4:AB6" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83">
   <autoFilter ref="AB4:AB6"/>
   <sortState ref="AB4:AB5">
     <sortCondition ref="AB3:AB5"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="دوچرخه" dataDxfId="80"/>
+    <tableColumn id="1" name="دوچرخه" dataDxfId="82"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="CostsOfCapitalJewelryTable" displayName="CostsOfCapitalJewelryTable" ref="AD4:AD8" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="CostsOfCapitalJewelryTable" displayName="CostsOfCapitalJewelryTable" ref="AD4:AD8" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
   <autoFilter ref="AD4:AD8"/>
   <sortState ref="AD4:AD7">
     <sortCondition ref="AD3:AD7"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="زیورآلات سرمایه" dataDxfId="77"/>
+    <tableColumn id="1" name="زیورآلات سرمایه" dataDxfId="79"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Non_CapitalJewelryCostsTable" displayName="Non_CapitalJewelryCostsTable" ref="AF4:AF6" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Non_CapitalJewelryCostsTable" displayName="Non_CapitalJewelryCostsTable" ref="AF4:AF6" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
   <autoFilter ref="AF4:AF6"/>
   <sortState ref="AF4">
     <sortCondition ref="AF3:AF4"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name=" زیورآلات غیر سرمایه" dataDxfId="74"/>
+    <tableColumn id="1" name=" زیورآلات غیر سرمایه" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="InvestmentCostsTable" displayName="InvestmentCostsTable" ref="AH4:AH6" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="InvestmentCostsTable" displayName="InvestmentCostsTable" ref="AH4:AH6" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
   <autoFilter ref="AH4:AH6"/>
   <sortState ref="AH5:AH6">
     <sortCondition ref="AH4:AH6"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name=" سرمایه گذاری" dataDxfId="71"/>
+    <tableColumn id="1" name=" سرمایه گذاری" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="TravelAndTourExpensesTable" displayName="TravelAndTourExpensesTable" ref="AJ4:AJ6" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="TravelAndTourExpensesTable" displayName="TravelAndTourExpensesTable" ref="AJ4:AJ6" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
   <autoFilter ref="AJ4:AJ6"/>
   <sortState ref="AJ4">
     <sortCondition ref="AJ3:AJ4"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="سفر و گردش" dataDxfId="68"/>
+    <tableColumn id="1" name="سفر و گردش" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="HousingBillCostsTable" displayName="HousingBillCostsTable" ref="AL4:AL15" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="HousingBillCostsTable" displayName="HousingBillCostsTable" ref="AL4:AL15" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
   <autoFilter ref="AL4:AL15"/>
   <sortState ref="AL4:AL14">
     <sortCondition ref="AL3:AL14"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="صورتحاب‌های مسکن" dataDxfId="65"/>
+    <tableColumn id="1" name="صورتحاب‌های مسکن" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="SalaryTable" displayName="SalaryTable" ref="F5:F6" totalsRowShown="0" headerRowDxfId="145" dataDxfId="144">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="SalaryTable" displayName="SalaryTable" ref="F5:F6" totalsRowShown="0" headerRowDxfId="147" dataDxfId="146">
   <autoFilter ref="F5:F6"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="دستمزد" dataDxfId="143"/>
+    <tableColumn id="1" name="دستمزد" dataDxfId="145"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="36" name="LeisureAndEntertainmentExpensesTable" displayName="LeisureAndEntertainmentExpensesTable" ref="AN4:AN8" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="36" name="LeisureAndEntertainmentExpensesTable" displayName="LeisureAndEntertainmentExpensesTable" ref="AN4:AN8" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
   <autoFilter ref="AN4:AN8"/>
   <sortState ref="AN4:AN7">
     <sortCondition ref="AN3:AN7"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="فراغت و سرگرمی" dataDxfId="62"/>
+    <tableColumn id="1" name="فراغت و سرگرمی" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="TaxCostsTable" displayName="TaxCostsTable" ref="AP4:AP8" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="TaxCostsTable" displayName="TaxCostsTable" ref="AP4:AP8" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
   <autoFilter ref="AP4:AP8"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="مالیات" dataDxfId="59"/>
+    <tableColumn id="1" name="مالیات" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="38" name="DegreeAndTuitionFeesTable" displayName="DegreeAndTuitionFeesTable" ref="AR4:AR6" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="38" name="DegreeAndTuitionFeesTable" displayName="DegreeAndTuitionFeesTable" ref="AR4:AR6" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
   <autoFilter ref="AR4:AR6"/>
   <sortState ref="AR4">
     <sortCondition ref="AR3:AR4"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name=" مدرک و تحصیل" dataDxfId="56"/>
+    <tableColumn id="1" name=" مدرک و تحصیل" dataDxfId="58"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="39" name="ExerciseCostsTable" displayName="ExerciseCostsTable" ref="AT4:AT7" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="39" name="ExerciseCostsTable" displayName="ExerciseCostsTable" ref="AT4:AT7" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
   <autoFilter ref="AT4:AT7"/>
   <sortState ref="AT4:AT6">
     <sortCondition ref="AT3:AT6"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="ورزش" dataDxfId="53"/>
+    <tableColumn id="1" name="ورزش" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="40" name="GiftCostsTable" displayName="GiftCostsTable" ref="AV4:AV11" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="40" name="GiftCostsTable" displayName="GiftCostsTable" ref="AV4:AV11" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
   <autoFilter ref="AV4:AV11"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="هدیه و کادو" dataDxfId="50"/>
+    <tableColumn id="1" name="هدیه و کادو" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="LearningAndIndividualDevelopmentCostsTable" displayName="LearningAndIndividualDevelopmentCostsTable" ref="AX4:AX7" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="LearningAndIndividualDevelopmentCostsTable" displayName="LearningAndIndividualDevelopmentCostsTable" ref="AX4:AX7" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
   <autoFilter ref="AX4:AX7"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="یادگیری و توسعه فردی" dataDxfId="47"/>
+    <tableColumn id="1" name="یادگیری و توسعه فردی" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ReceiversAndPayersTable" displayName="ReceiversAndPayersTable" ref="A3:A14" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ReceiversAndPayersTable" displayName="ReceiversAndPayersTable" ref="A3:A14" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47" dataCellStyle="Normal">
   <autoFilter ref="A3:A14"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="دریافت کننده - پرداخت کنندگان" dataDxfId="44" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="دریافت کننده - پرداخت کنندگان" dataDxfId="46" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table37.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Accounts_and_ReceiversAndPayers_AppendTabel" displayName="Accounts_and_ReceiversAndPayers_AppendTabel" ref="C3:E19" tableType="queryTable" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Accounts_and_ReceiversAndPayers_AppendTabel" displayName="Accounts_and_ReceiversAndPayers_AppendTabel" ref="C3:E19" tableType="queryTable" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
   <autoFilter ref="C3:E19"/>
   <tableColumns count="3">
-    <tableColumn id="4" uniqueName="4" name="Accounts" queryTableFieldId="1" dataDxfId="41"/>
-    <tableColumn id="5" uniqueName="5" name="ReceiversAndPayers" queryTableFieldId="2" dataDxfId="40"/>
-    <tableColumn id="6" uniqueName="6" name="Accounts and ReceiversAndPayers" queryTableFieldId="3" dataDxfId="39"/>
+    <tableColumn id="4" uniqueName="4" name="Accounts" queryTableFieldId="1" dataDxfId="43"/>
+    <tableColumn id="5" uniqueName="5" name="ReceiversAndPayers" queryTableFieldId="2" dataDxfId="42"/>
+    <tableColumn id="6" uniqueName="6" name="Accounts and ReceiversAndPayers" queryTableFieldId="3" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table38.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="PersonsTable" displayName="PersonsTable" ref="A5:I6" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="PersonsTable" displayName="PersonsTable" ref="A5:I6" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="A5:I6"/>
   <tableColumns count="9">
-    <tableColumn id="6" name="ID" dataDxfId="36"/>
-    <tableColumn id="1" name="افراد" dataDxfId="35"/>
-    <tableColumn id="2" name="کد ملی" dataDxfId="34"/>
-    <tableColumn id="3" name="شماره تماس" dataDxfId="33"/>
-    <tableColumn id="4" name="آدرس ایمیل" dataDxfId="32" dataCellStyle="Hyperlink"/>
-    <tableColumn id="5" name="سایت اینترنتی" dataDxfId="31"/>
-    <tableColumn id="7" name="آدرس محل کار" dataDxfId="30"/>
-    <tableColumn id="8" name="آدرس منزل" dataDxfId="29"/>
-    <tableColumn id="9" name="توضیحات" dataDxfId="28"/>
+    <tableColumn id="6" name="ID" dataDxfId="38"/>
+    <tableColumn id="1" name="افراد" dataDxfId="37"/>
+    <tableColumn id="2" name="کد ملی" dataDxfId="36"/>
+    <tableColumn id="3" name="شماره تماس" dataDxfId="35"/>
+    <tableColumn id="4" name="آدرس ایمیل" dataDxfId="34" dataCellStyle="Hyperlink"/>
+    <tableColumn id="5" name="سایت اینترنتی" dataDxfId="33"/>
+    <tableColumn id="7" name="آدرس محل کار" dataDxfId="32"/>
+    <tableColumn id="8" name="آدرس منزل" dataDxfId="31"/>
+    <tableColumn id="9" name="توضیحات" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table39.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="FinancialAccountsTable" displayName="FinancialAccountsTable" ref="A12:L18" totalsRowCount="1" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="FinancialAccountsTable" displayName="FinancialAccountsTable" ref="A12:L18" totalsRowCount="1" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="A12:L17"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="ID" totalsRowLabel="Total" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="2" name="نام حساب" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="3" name="نوع حساب" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="4" name="موجودی اولیه" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="5" name="شماره حساب" totalsRowDxfId="17"/>
-    <tableColumn id="6" name="شماره کارت" totalsRowDxfId="16"/>
-    <tableColumn id="7" name="تاریخ انقضاء کارت" totalsRowDxfId="15"/>
-    <tableColumn id="8" name="CVV2" totalsRowDxfId="14"/>
-    <tableColumn id="9" name="جمع پرداختی" totalsRowFunction="sum" totalsRowDxfId="13">
+    <tableColumn id="1" name="ID" totalsRowLabel="Total" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="2" name="نام حساب" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="3" name="نوع حساب" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="4" name="موجودی اولیه" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="5" name="شماره حساب" totalsRowDxfId="19"/>
+    <tableColumn id="6" name="شماره کارت" totalsRowDxfId="18"/>
+    <tableColumn id="7" name="تاریخ انقضاء کارت" totalsRowDxfId="17"/>
+    <tableColumn id="8" name="CVV2" totalsRowDxfId="16"/>
+    <tableColumn id="9" name="جمع پرداختی" totalsRowFunction="sum" totalsRowDxfId="15">
       <calculatedColumnFormula>SUMIF(Tarakonesh[پرداخت کننده],FinancialAccountsTable[[#This Row],[نام حساب]],Tarakonesh[مبلغ (ریال)])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="جمع دریافتی" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="11">
+    <tableColumn id="11" name="جمع دریافتی" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="13">
       <calculatedColumnFormula>SUMIF(Tarakonesh[دریافت کننده],FinancialAccountsTable[[#This Row],[نام حساب]],Tarakonesh[مبلغ (ریال)])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="مانده" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="9">
+    <tableColumn id="12" name="مانده" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="11">
       <calculatedColumnFormula>(FinancialAccountsTable[[#This Row],[جمع دریافتی]]+FinancialAccountsTable[[#This Row],[موجودی اولیه]])-FinancialAccountsTable[[#This Row],[جمع پرداختی]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="وضعیت فعلی" dataDxfId="8" totalsRowDxfId="7">
+    <tableColumn id="13" name="وضعیت فعلی" dataDxfId="10" totalsRowDxfId="9">
       <calculatedColumnFormula>IF(FinancialAccountsTable[[#This Row],[مانده]]=0,"",IF(FinancialAccountsTable[[#This Row],[مانده]]&gt;0,"بدهکار","بستانکار"))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4476,30 +4514,30 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="ProfitOfAcquisitionTable" displayName="ProfitOfAcquisitionTable" ref="H5:H6" totalsRowShown="0" headerRowDxfId="142" dataDxfId="141">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="ProfitOfAcquisitionTable" displayName="ProfitOfAcquisitionTable" ref="H5:H6" totalsRowShown="0" headerRowDxfId="144" dataDxfId="143">
   <autoFilter ref="H5:H6"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="منفعت کسب" dataDxfId="140"/>
+    <tableColumn id="1" name="منفعت کسب" dataDxfId="142"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table40.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TypeOfExpenditureTable" displayName="TypeOfExpenditureTable" ref="A3:A6" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TypeOfExpenditureTable" displayName="TypeOfExpenditureTable" ref="A3:A6" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A3:A6"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="نوع خرج" dataDxfId="4"/>
+    <tableColumn id="1" name="نوع خرج" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table41.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="TypeOfTransactionTable" displayName="TypeOfTransactionTable" ref="B3:B6" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="TypeOfTransactionTable" displayName="TypeOfTransactionTable" ref="B3:B6" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="B3:B6"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="نوع تراکنش" dataDxfId="1"/>
+    <tableColumn id="1" name="نوع تراکنش" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4516,53 +4554,53 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="ProfitableInvestmentTable" displayName="ProfitableInvestmentTable" ref="J5:J6" totalsRowShown="0" headerRowDxfId="139" dataDxfId="138">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="ProfitableInvestmentTable" displayName="ProfitableInvestmentTable" ref="J5:J6" totalsRowShown="0" headerRowDxfId="141" dataDxfId="140">
   <autoFilter ref="J5:J6"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="سود سرمایه‌گذاری" dataDxfId="137"/>
+    <tableColumn id="1" name="سود سرمایه‌گذاری" dataDxfId="139"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="IncentivesPrizesAndFeastsTable" displayName="IncentivesPrizesAndFeastsTable" ref="L5:L8" totalsRowShown="0" headerRowDxfId="136" dataDxfId="135">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="IncentivesPrizesAndFeastsTable" displayName="IncentivesPrizesAndFeastsTable" ref="L5:L8" totalsRowShown="0" headerRowDxfId="138" dataDxfId="137">
   <autoFilter ref="L5:L8"/>
   <sortState ref="L6:L8">
     <sortCondition ref="L5:L8"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="تشویقی‌ها، جوایز و عیدی‌ها" dataDxfId="134"/>
+    <tableColumn id="1" name="تشویقی‌ها، جوایز و عیدی‌ها" dataDxfId="136"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="GetAMortgageAndRentTable" displayName="GetAMortgageAndRentTable" ref="N5:N6" totalsRowShown="0" headerRowDxfId="133" dataDxfId="132">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="GetAMortgageAndRentTable" displayName="GetAMortgageAndRentTable" ref="N5:N6" totalsRowShown="0" headerRowDxfId="135" dataDxfId="134">
   <autoFilter ref="N5:N6"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="دریافت رهن و اجاره" dataDxfId="131"/>
+    <tableColumn id="1" name="دریافت رهن و اجاره" dataDxfId="133"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="GetALoanTable" displayName="GetALoanTable" ref="P5:P6" totalsRowShown="0" headerRowDxfId="130" dataDxfId="129">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="GetALoanTable" displayName="GetALoanTable" ref="P5:P6" totalsRowShown="0" headerRowDxfId="132" dataDxfId="131">
   <autoFilter ref="P5:P6"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="دریافت وام" dataDxfId="128"/>
+    <tableColumn id="1" name="دریافت وام" dataDxfId="130"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="MiscellaneousIncomeTable" displayName="MiscellaneousIncomeTable" ref="R5:R6" totalsRowShown="0" headerRowDxfId="127" dataDxfId="126">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="MiscellaneousIncomeTable" displayName="MiscellaneousIncomeTable" ref="R5:R6" totalsRowShown="0" headerRowDxfId="129" dataDxfId="128">
   <autoFilter ref="R5:R6"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="درآمد متفرقه" dataDxfId="125"/>
+    <tableColumn id="1" name="درآمد متفرقه" dataDxfId="127"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4831,10 +4869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AC22"/>
+  <dimension ref="A4:AC23"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4914,139 +4952,139 @@
       <c r="M5" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="100" t="s">
+      <c r="P5" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="101" t="s">
+      <c r="Q5" s="100" t="s">
         <v>123</v>
       </c>
-      <c r="R5" s="101" t="s">
+      <c r="R5" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="S5" s="102" t="s">
+      <c r="S5" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="103" t="s">
+      <c r="T5" s="102" t="s">
         <v>108</v>
       </c>
-      <c r="U5" s="104" t="s">
+      <c r="U5" s="103" t="s">
         <v>156</v>
       </c>
-      <c r="V5" s="101" t="s">
+      <c r="V5" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="W5" s="101" t="s">
+      <c r="W5" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="X5" s="105" t="s">
+      <c r="X5" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="Y5" s="101" t="s">
+      <c r="Y5" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="Z5" s="101" t="s">
+      <c r="Z5" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="AA5" s="101" t="s">
+      <c r="AA5" s="100" t="s">
         <v>165</v>
       </c>
-      <c r="AB5" s="102" t="s">
+      <c r="AB5" s="101" t="s">
         <v>117</v>
       </c>
-      <c r="AC5" s="102" t="s">
+      <c r="AC5" s="101" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P6" s="106">
+      <c r="P6" s="105">
         <v>1</v>
       </c>
-      <c r="Q6" s="107" t="s">
+      <c r="Q6" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="R6" s="108">
+      <c r="R6" s="107">
         <f>DATE(2021,6,26)</f>
         <v>44373</v>
       </c>
-      <c r="S6" s="109" t="s">
+      <c r="S6" s="108" t="s">
         <v>164</v>
       </c>
-      <c r="T6" s="110" t="s">
+      <c r="T6" s="109" t="s">
         <v>291</v>
       </c>
-      <c r="U6" s="107" t="s">
+      <c r="U6" s="106" t="s">
         <v>194</v>
       </c>
-      <c r="V6" s="107" t="s">
+      <c r="V6" s="106" t="s">
         <v>279</v>
       </c>
-      <c r="W6" s="107" t="s">
+      <c r="W6" s="106" t="s">
         <v>161</v>
       </c>
-      <c r="X6" s="111">
+      <c r="X6" s="110">
         <v>80000</v>
       </c>
-      <c r="Y6" s="107" t="s">
+      <c r="Y6" s="106" t="s">
         <v>142</v>
       </c>
-      <c r="Z6" s="107" t="s">
+      <c r="Z6" s="106" t="s">
         <v>339</v>
       </c>
-      <c r="AA6" s="107"/>
-      <c r="AB6" s="109" t="s">
+      <c r="AA6" s="106"/>
+      <c r="AB6" s="108" t="s">
         <v>118</v>
       </c>
-      <c r="AC6" s="109"/>
+      <c r="AC6" s="108"/>
     </row>
     <row r="7" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P7" s="112">
+      <c r="P7" s="111">
         <v>2</v>
       </c>
-      <c r="Q7" s="113"/>
-      <c r="R7" s="114">
+      <c r="Q7" s="112"/>
+      <c r="R7" s="113">
         <f>DATE(2021,6,26)</f>
         <v>44373</v>
       </c>
-      <c r="S7" s="115"/>
-      <c r="T7" s="116" t="s">
+      <c r="S7" s="114"/>
+      <c r="T7" s="115" t="s">
         <v>291</v>
       </c>
-      <c r="U7" s="113"/>
-      <c r="V7" s="113"/>
-      <c r="W7" s="113"/>
-      <c r="X7" s="117"/>
-      <c r="Y7" s="113"/>
-      <c r="Z7" s="113"/>
-      <c r="AA7" s="113"/>
-      <c r="AB7" s="115"/>
-      <c r="AC7" s="115"/>
+      <c r="U7" s="112"/>
+      <c r="V7" s="112"/>
+      <c r="W7" s="112"/>
+      <c r="X7" s="116"/>
+      <c r="Y7" s="112"/>
+      <c r="Z7" s="112"/>
+      <c r="AA7" s="112"/>
+      <c r="AB7" s="114"/>
+      <c r="AC7" s="114"/>
     </row>
     <row r="8" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P8" s="106">
+      <c r="P8" s="105">
         <v>3</v>
       </c>
-      <c r="Q8" s="107"/>
-      <c r="R8" s="108">
+      <c r="Q8" s="106"/>
+      <c r="R8" s="107">
         <f>DATE(2021,8,17)</f>
         <v>44425</v>
       </c>
-      <c r="S8" s="109"/>
-      <c r="T8" s="110" t="s">
+      <c r="S8" s="108"/>
+      <c r="T8" s="109" t="s">
         <v>315</v>
       </c>
-      <c r="U8" s="107" t="s">
+      <c r="U8" s="106" t="s">
         <v>318</v>
       </c>
-      <c r="V8" s="107" t="s">
+      <c r="V8" s="106" t="s">
         <v>329</v>
       </c>
-      <c r="W8" s="107"/>
-      <c r="X8" s="111"/>
-      <c r="Y8" s="107"/>
-      <c r="Z8" s="107"/>
-      <c r="AA8" s="107"/>
-      <c r="AB8" s="109"/>
-      <c r="AC8" s="109"/>
+      <c r="W8" s="106"/>
+      <c r="X8" s="110"/>
+      <c r="Y8" s="106"/>
+      <c r="Z8" s="106"/>
+      <c r="AA8" s="106"/>
+      <c r="AB8" s="108"/>
+      <c r="AC8" s="108"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -5123,17 +5161,17 @@
         <v>350</v>
       </c>
     </row>
-    <row r="17" spans="15:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="11:17" x14ac:dyDescent="0.25">
       <c r="Q17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="15:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="11:17" x14ac:dyDescent="0.25">
       <c r="Q18">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="15:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="11:17" x14ac:dyDescent="0.25">
       <c r="O20">
         <f>IF(Q16:Q22="",1,0)</f>
         <v>0</v>
@@ -5142,18 +5180,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="15:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="11:17" x14ac:dyDescent="0.25">
       <c r="Q21">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="15:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="11:17" x14ac:dyDescent="0.25">
       <c r="Q22">
         <v>7</v>
       </c>
     </row>
+    <row r="23" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K23" s="130"/>
+    </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="12">
+  <dataValidations count="12">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V8">
       <formula1>INDIRECT($F$10)</formula1>
     </dataValidation>
@@ -5411,7 +5452,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5460,10 +5501,10 @@
     </row>
     <row r="2" spans="1:23" s="43" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="125" t="s">
+      <c r="A3" s="123" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="125"/>
+      <c r="B3" s="123"/>
       <c r="D3" s="43"/>
       <c r="F3" s="43"/>
       <c r="H3" s="43"/>
@@ -5508,33 +5549,33 @@
       <c r="B5" s="45" t="s">
         <v>317</v>
       </c>
-      <c r="D5" s="97" t="s">
+      <c r="D5" s="96" t="s">
         <v>317</v>
       </c>
-      <c r="F5" s="97" t="s">
+      <c r="F5" s="96" t="s">
         <v>168</v>
       </c>
       <c r="G5" s="74"/>
-      <c r="H5" s="97" t="s">
+      <c r="H5" s="96" t="s">
         <v>170</v>
       </c>
       <c r="I5" s="74"/>
-      <c r="J5" s="97" t="s">
+      <c r="J5" s="96" t="s">
         <v>172</v>
       </c>
       <c r="K5" s="74"/>
-      <c r="L5" s="97" t="s">
+      <c r="L5" s="96" t="s">
         <v>174</v>
       </c>
-      <c r="N5" s="97" t="s">
+      <c r="N5" s="96" t="s">
         <v>175</v>
       </c>
       <c r="O5" s="74"/>
-      <c r="P5" s="97" t="s">
+      <c r="P5" s="96" t="s">
         <v>173</v>
       </c>
       <c r="Q5" s="74"/>
-      <c r="R5" s="98" t="s">
+      <c r="R5" s="97" t="s">
         <v>327</v>
       </c>
     </row>
@@ -5542,37 +5583,37 @@
       <c r="A6" s="45">
         <v>2</v>
       </c>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="94" t="s">
         <v>168</v>
       </c>
-      <c r="D6" s="97" t="s">
+      <c r="D6" s="96" t="s">
         <v>328</v>
       </c>
-      <c r="F6" s="97" t="s">
+      <c r="F6" s="96" t="s">
         <v>169</v>
       </c>
       <c r="G6" s="74"/>
-      <c r="H6" s="97" t="s">
+      <c r="H6" s="96" t="s">
         <v>171</v>
       </c>
       <c r="I6" s="74"/>
-      <c r="J6" s="97" t="s">
+      <c r="J6" s="96" t="s">
         <v>329</v>
       </c>
       <c r="K6" s="74"/>
-      <c r="L6" s="97" t="s">
+      <c r="L6" s="96" t="s">
         <v>328</v>
       </c>
       <c r="M6" s="74"/>
-      <c r="N6" s="97" t="s">
+      <c r="N6" s="96" t="s">
         <v>163</v>
       </c>
       <c r="O6" s="74"/>
-      <c r="P6" s="97" t="s">
+      <c r="P6" s="96" t="s">
         <v>330</v>
       </c>
       <c r="Q6" s="74"/>
-      <c r="R6" s="96" t="s">
+      <c r="R6" s="95" t="s">
         <v>325</v>
       </c>
     </row>
@@ -5589,7 +5630,7 @@
       <c r="I7" s="74"/>
       <c r="J7" s="73"/>
       <c r="K7" s="74"/>
-      <c r="L7" s="97" t="s">
+      <c r="L7" s="96" t="s">
         <v>322</v>
       </c>
       <c r="M7" s="74"/>
@@ -5611,7 +5652,7 @@
       <c r="I8" s="74"/>
       <c r="J8" s="73"/>
       <c r="K8" s="74"/>
-      <c r="L8" s="97" t="s">
+      <c r="L8" s="96" t="s">
         <v>323</v>
       </c>
       <c r="M8" s="74"/>
@@ -5732,10 +5773,10 @@
   </sheetPr>
   <dimension ref="A1:BC29"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="AC2" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A2" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="AX6" sqref="AX6"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5744,31 +5785,31 @@
     <col min="2" max="2" width="36.5703125" customWidth="1"/>
     <col min="3" max="3" width="3" style="43" customWidth="1"/>
     <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="0.7109375" style="90" customWidth="1"/>
+    <col min="5" max="5" width="0.7109375" style="89" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" customWidth="1"/>
-    <col min="7" max="7" width="0.7109375" style="90" customWidth="1"/>
+    <col min="7" max="7" width="0.7109375" style="89" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="0.7109375" style="90" customWidth="1"/>
+    <col min="9" max="9" width="0.7109375" style="89" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" customWidth="1"/>
-    <col min="11" max="11" width="0.7109375" style="90" customWidth="1"/>
+    <col min="11" max="11" width="0.7109375" style="89" customWidth="1"/>
     <col min="12" max="12" width="21.42578125" customWidth="1"/>
-    <col min="13" max="13" width="0.7109375" style="90" customWidth="1"/>
+    <col min="13" max="13" width="0.7109375" style="89" customWidth="1"/>
     <col min="14" max="14" width="14.28515625" customWidth="1"/>
-    <col min="15" max="15" width="0.7109375" style="90" customWidth="1"/>
+    <col min="15" max="15" width="0.7109375" style="89" customWidth="1"/>
     <col min="16" max="16" width="18.85546875" customWidth="1"/>
-    <col min="17" max="17" width="0.7109375" style="90" customWidth="1"/>
+    <col min="17" max="17" width="0.7109375" style="89" customWidth="1"/>
     <col min="18" max="18" width="17.140625" customWidth="1"/>
-    <col min="19" max="19" width="0.7109375" style="90" customWidth="1"/>
+    <col min="19" max="19" width="0.7109375" style="89" customWidth="1"/>
     <col min="20" max="20" width="17.140625" customWidth="1"/>
-    <col min="21" max="21" width="0.7109375" style="90" customWidth="1"/>
+    <col min="21" max="21" width="0.7109375" style="89" customWidth="1"/>
     <col min="22" max="22" width="30.7109375" customWidth="1"/>
-    <col min="23" max="23" width="0.7109375" style="90" customWidth="1"/>
+    <col min="23" max="23" width="0.7109375" style="89" customWidth="1"/>
     <col min="24" max="24" width="22.85546875" customWidth="1"/>
-    <col min="25" max="25" width="0.7109375" style="90" customWidth="1"/>
+    <col min="25" max="25" width="0.7109375" style="89" customWidth="1"/>
     <col min="26" max="26" width="17.140625" customWidth="1"/>
-    <col min="27" max="27" width="0.7109375" style="90" customWidth="1"/>
+    <col min="27" max="27" width="0.7109375" style="89" customWidth="1"/>
     <col min="28" max="28" width="22.85546875" customWidth="1"/>
-    <col min="29" max="29" width="0.7109375" style="90" customWidth="1"/>
+    <col min="29" max="29" width="0.7109375" style="89" customWidth="1"/>
     <col min="30" max="30" width="17.140625" customWidth="1"/>
     <col min="31" max="31" width="0.7109375" style="43" customWidth="1"/>
     <col min="32" max="32" width="22.85546875" customWidth="1"/>
@@ -5800,14 +5841,14 @@
         <v>120</v>
       </c>
       <c r="C1" s="75"/>
-      <c r="D1" s="90"/>
+      <c r="D1" s="89"/>
       <c r="F1" s="43"/>
       <c r="H1" s="43"/>
       <c r="J1" s="43"/>
       <c r="L1" s="43"/>
-      <c r="N1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="R1" s="90"/>
+      <c r="N1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="R1" s="89"/>
       <c r="T1" s="43"/>
       <c r="V1" s="43"/>
       <c r="X1" s="43"/>
@@ -5838,14 +5879,14 @@
         <v>120</v>
       </c>
       <c r="C2" s="75"/>
-      <c r="D2" s="90"/>
+      <c r="D2" s="89"/>
       <c r="F2" s="43"/>
       <c r="H2" s="43"/>
       <c r="J2" s="43"/>
       <c r="L2" s="43"/>
-      <c r="N2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="R2" s="90"/>
+      <c r="N2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="R2" s="89"/>
       <c r="T2" s="43"/>
       <c r="V2" s="43"/>
       <c r="X2" s="43"/>
@@ -5869,117 +5910,117 @@
       <c r="BC2" s="43"/>
     </row>
     <row r="3" spans="1:55" s="43" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="Y3" s="90"/>
-      <c r="AA3" s="90"/>
-      <c r="AC3" s="90"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="89"/>
+      <c r="S3" s="89"/>
+      <c r="U3" s="89"/>
+      <c r="W3" s="89"/>
+      <c r="Y3" s="89"/>
+      <c r="AA3" s="89"/>
+      <c r="AC3" s="89"/>
     </row>
     <row r="4" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="126" t="s">
+      <c r="A4" s="124" t="s">
         <v>176</v>
       </c>
-      <c r="B4" s="126"/>
+      <c r="B4" s="124"/>
       <c r="D4" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="E4" s="91"/>
+      <c r="E4" s="90"/>
       <c r="F4" s="45" t="s">
         <v>199</v>
       </c>
-      <c r="G4" s="91"/>
+      <c r="G4" s="90"/>
       <c r="H4" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="I4" s="91"/>
+      <c r="I4" s="90"/>
       <c r="J4" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="K4" s="91"/>
+      <c r="K4" s="90"/>
       <c r="L4" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="M4" s="91"/>
+      <c r="M4" s="90"/>
       <c r="N4" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="O4" s="91"/>
+      <c r="O4" s="90"/>
       <c r="P4" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="Q4" s="91"/>
+      <c r="Q4" s="90"/>
       <c r="R4" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="S4" s="91"/>
+      <c r="S4" s="90"/>
       <c r="T4" s="45" t="s">
         <v>209</v>
       </c>
-      <c r="U4" s="91"/>
+      <c r="U4" s="90"/>
       <c r="V4" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="W4" s="91"/>
+      <c r="W4" s="90"/>
       <c r="X4" s="45" t="s">
         <v>271</v>
       </c>
-      <c r="Y4" s="91"/>
+      <c r="Y4" s="90"/>
       <c r="Z4" s="45" t="s">
         <v>195</v>
       </c>
-      <c r="AA4" s="91"/>
+      <c r="AA4" s="90"/>
       <c r="AB4" s="45" t="s">
         <v>213</v>
       </c>
-      <c r="AC4" s="91"/>
+      <c r="AC4" s="90"/>
       <c r="AD4" s="45" t="s">
         <v>281</v>
       </c>
-      <c r="AE4" s="92"/>
+      <c r="AE4" s="91"/>
       <c r="AF4" s="45" t="s">
         <v>284</v>
       </c>
-      <c r="AG4" s="92"/>
+      <c r="AG4" s="91"/>
       <c r="AH4" s="45" t="s">
         <v>286</v>
       </c>
-      <c r="AI4" s="92"/>
+      <c r="AI4" s="91"/>
       <c r="AJ4" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="AK4" s="92"/>
+      <c r="AK4" s="91"/>
       <c r="AL4" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="AM4" s="92"/>
+      <c r="AM4" s="91"/>
       <c r="AN4" s="45" t="s">
         <v>249</v>
       </c>
-      <c r="AO4" s="92"/>
+      <c r="AO4" s="91"/>
       <c r="AP4" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="AQ4" s="92"/>
+      <c r="AQ4" s="91"/>
       <c r="AR4" s="45" t="s">
         <v>287</v>
       </c>
-      <c r="AS4" s="92"/>
+      <c r="AS4" s="91"/>
       <c r="AT4" s="45" t="s">
         <v>254</v>
       </c>
-      <c r="AU4" s="92"/>
+      <c r="AU4" s="91"/>
       <c r="AV4" s="45" t="s">
         <v>186</v>
       </c>
@@ -6001,91 +6042,91 @@
       <c r="D5" s="45" t="s">
         <v>274</v>
       </c>
-      <c r="E5" s="91"/>
+      <c r="E5" s="90"/>
       <c r="F5" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="G5" s="91"/>
+      <c r="G5" s="90"/>
       <c r="H5" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="I5" s="91"/>
+      <c r="I5" s="90"/>
       <c r="J5" s="45" t="s">
         <v>228</v>
       </c>
-      <c r="K5" s="91"/>
+      <c r="K5" s="90"/>
       <c r="L5" s="45" t="s">
         <v>232</v>
       </c>
-      <c r="M5" s="91"/>
+      <c r="M5" s="90"/>
       <c r="N5" s="45" t="s">
         <v>210</v>
       </c>
-      <c r="O5" s="91"/>
+      <c r="O5" s="90"/>
       <c r="P5" s="45" t="s">
         <v>277</v>
       </c>
-      <c r="Q5" s="91"/>
+      <c r="Q5" s="90"/>
       <c r="R5" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="S5" s="91"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="U5" s="91"/>
+      <c r="U5" s="90"/>
       <c r="V5" s="45" t="s">
         <v>219</v>
       </c>
-      <c r="W5" s="91"/>
+      <c r="W5" s="90"/>
       <c r="X5" s="45" t="s">
         <v>278</v>
       </c>
-      <c r="Y5" s="91"/>
+      <c r="Y5" s="90"/>
       <c r="Z5" s="45" t="s">
         <v>279</v>
       </c>
-      <c r="AA5" s="91"/>
+      <c r="AA5" s="90"/>
       <c r="AB5" s="45" t="s">
         <v>276</v>
       </c>
-      <c r="AC5" s="91"/>
+      <c r="AC5" s="90"/>
       <c r="AD5" s="45" t="s">
         <v>290</v>
       </c>
-      <c r="AE5" s="92"/>
+      <c r="AE5" s="91"/>
       <c r="AF5" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="AG5" s="92"/>
+      <c r="AG5" s="91"/>
       <c r="AH5" s="45" t="s">
         <v>313</v>
       </c>
-      <c r="AI5" s="92"/>
+      <c r="AI5" s="91"/>
       <c r="AJ5" s="45" t="s">
         <v>263</v>
       </c>
-      <c r="AK5" s="92"/>
+      <c r="AK5" s="91"/>
       <c r="AL5" s="45" t="s">
         <v>261</v>
       </c>
-      <c r="AM5" s="92"/>
+      <c r="AM5" s="91"/>
       <c r="AN5" s="45" t="s">
         <v>251</v>
       </c>
-      <c r="AO5" s="92"/>
+      <c r="AO5" s="91"/>
       <c r="AP5" s="45" t="s">
         <v>209</v>
       </c>
-      <c r="AQ5" s="92"/>
+      <c r="AQ5" s="91"/>
       <c r="AR5" s="45" t="s">
         <v>288</v>
       </c>
-      <c r="AS5" s="92"/>
+      <c r="AS5" s="91"/>
       <c r="AT5" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="AU5" s="92"/>
+      <c r="AU5" s="91"/>
       <c r="AV5" s="45" t="s">
         <v>266</v>
       </c>
@@ -6101,97 +6142,97 @@
       <c r="A6" s="45">
         <v>1</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="87" t="s">
         <v>194</v>
       </c>
       <c r="D6" s="45" t="s">
         <v>275</v>
       </c>
-      <c r="E6" s="91"/>
+      <c r="E6" s="90"/>
       <c r="F6" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="G6" s="91"/>
+      <c r="G6" s="90"/>
       <c r="H6" s="45" t="s">
         <v>224</v>
       </c>
-      <c r="I6" s="91"/>
+      <c r="I6" s="90"/>
       <c r="J6" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="K6" s="91"/>
+      <c r="K6" s="90"/>
       <c r="L6" s="45" t="s">
         <v>233</v>
       </c>
-      <c r="M6" s="91"/>
+      <c r="M6" s="90"/>
       <c r="N6" s="45" t="s">
         <v>209</v>
       </c>
-      <c r="O6" s="91"/>
+      <c r="O6" s="90"/>
       <c r="P6" s="45" t="s">
         <v>163</v>
       </c>
-      <c r="Q6" s="91"/>
+      <c r="Q6" s="90"/>
       <c r="R6" s="45" t="s">
         <v>246</v>
       </c>
-      <c r="S6" s="91"/>
+      <c r="S6" s="90"/>
       <c r="T6" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="U6" s="91"/>
+      <c r="U6" s="90"/>
       <c r="V6" s="45" t="s">
         <v>220</v>
       </c>
-      <c r="W6" s="91"/>
+      <c r="W6" s="90"/>
       <c r="X6" s="45" t="s">
         <v>163</v>
       </c>
-      <c r="Y6" s="91"/>
+      <c r="Y6" s="90"/>
       <c r="Z6" s="45" t="s">
         <v>280</v>
       </c>
-      <c r="AA6" s="91"/>
+      <c r="AA6" s="90"/>
       <c r="AB6" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="AC6" s="91"/>
+      <c r="AC6" s="90"/>
       <c r="AD6" s="45" t="s">
         <v>289</v>
       </c>
-      <c r="AE6" s="92"/>
+      <c r="AE6" s="91"/>
       <c r="AF6" s="45" t="s">
         <v>312</v>
       </c>
-      <c r="AG6" s="92"/>
+      <c r="AG6" s="91"/>
       <c r="AH6" s="45" t="s">
         <v>328</v>
       </c>
-      <c r="AI6" s="92"/>
+      <c r="AI6" s="91"/>
       <c r="AJ6" s="45" t="s">
         <v>262</v>
       </c>
-      <c r="AK6" s="92"/>
+      <c r="AK6" s="91"/>
       <c r="AL6" s="45" t="s">
         <v>236</v>
       </c>
-      <c r="AM6" s="92"/>
+      <c r="AM6" s="91"/>
       <c r="AN6" s="45" t="s">
         <v>250</v>
       </c>
-      <c r="AO6" s="92"/>
+      <c r="AO6" s="91"/>
       <c r="AP6" s="45" t="s">
         <v>258</v>
       </c>
-      <c r="AQ6" s="92"/>
+      <c r="AQ6" s="91"/>
       <c r="AR6" s="45" t="s">
         <v>314</v>
       </c>
-      <c r="AS6" s="92"/>
+      <c r="AS6" s="91"/>
       <c r="AT6" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="AU6" s="92"/>
+      <c r="AU6" s="91"/>
       <c r="AV6" s="45" t="s">
         <v>267</v>
       </c>
@@ -6207,79 +6248,79 @@
       <c r="A7" s="45">
         <v>2</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="88" t="s">
         <v>293</v>
       </c>
       <c r="D7" s="45" t="s">
         <v>272</v>
       </c>
-      <c r="E7" s="91"/>
+      <c r="E7" s="90"/>
       <c r="F7" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="G7" s="91"/>
+      <c r="G7" s="90"/>
       <c r="H7" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="I7" s="91"/>
+      <c r="I7" s="90"/>
       <c r="J7" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="K7" s="91"/>
+      <c r="K7" s="90"/>
       <c r="L7" s="45"/>
-      <c r="M7" s="91"/>
+      <c r="M7" s="90"/>
       <c r="N7" s="45" t="s">
         <v>211</v>
       </c>
-      <c r="O7" s="91"/>
+      <c r="O7" s="90"/>
       <c r="P7" s="45"/>
-      <c r="Q7" s="91"/>
+      <c r="Q7" s="90"/>
       <c r="R7" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="S7" s="91"/>
+      <c r="S7" s="90"/>
       <c r="T7" s="45" t="s">
         <v>215</v>
       </c>
-      <c r="U7" s="91"/>
+      <c r="U7" s="90"/>
       <c r="V7" s="45" t="s">
         <v>221</v>
       </c>
-      <c r="W7" s="91"/>
+      <c r="W7" s="90"/>
       <c r="X7" s="45"/>
-      <c r="Y7" s="91"/>
+      <c r="Y7" s="90"/>
       <c r="Z7" s="45"/>
-      <c r="AA7" s="91"/>
+      <c r="AA7" s="90"/>
       <c r="AB7" s="45"/>
-      <c r="AC7" s="91"/>
+      <c r="AC7" s="90"/>
       <c r="AD7" s="45" t="s">
         <v>282</v>
       </c>
-      <c r="AE7" s="92"/>
+      <c r="AE7" s="91"/>
       <c r="AF7" s="45"/>
-      <c r="AG7" s="92"/>
+      <c r="AG7" s="91"/>
       <c r="AH7" s="45"/>
-      <c r="AI7" s="92"/>
+      <c r="AI7" s="91"/>
       <c r="AJ7" s="45"/>
-      <c r="AK7" s="92"/>
+      <c r="AK7" s="91"/>
       <c r="AL7" s="45" t="s">
         <v>237</v>
       </c>
-      <c r="AM7" s="92"/>
+      <c r="AM7" s="91"/>
       <c r="AN7" s="45" t="s">
         <v>252</v>
       </c>
-      <c r="AO7" s="92"/>
+      <c r="AO7" s="91"/>
       <c r="AP7" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="AQ7" s="92"/>
+      <c r="AQ7" s="91"/>
       <c r="AR7" s="45"/>
-      <c r="AS7" s="92"/>
+      <c r="AS7" s="91"/>
       <c r="AT7" s="45" t="s">
         <v>257</v>
       </c>
-      <c r="AU7" s="92"/>
+      <c r="AU7" s="91"/>
       <c r="AV7" s="45" t="s">
         <v>268</v>
       </c>
@@ -6295,77 +6336,77 @@
       <c r="A8" s="45">
         <v>3</v>
       </c>
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="88" t="s">
         <v>294</v>
       </c>
       <c r="D8" s="45" t="s">
         <v>273</v>
       </c>
-      <c r="E8" s="91"/>
+      <c r="E8" s="90"/>
       <c r="F8" s="45" t="s">
         <v>200</v>
       </c>
-      <c r="G8" s="91"/>
+      <c r="G8" s="90"/>
       <c r="H8" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="I8" s="91"/>
+      <c r="I8" s="90"/>
       <c r="J8" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="K8" s="91"/>
+      <c r="K8" s="90"/>
       <c r="L8" s="45"/>
-      <c r="M8" s="91"/>
+      <c r="M8" s="90"/>
       <c r="N8" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="O8" s="91"/>
+      <c r="O8" s="90"/>
       <c r="P8" s="45"/>
-      <c r="Q8" s="91"/>
+      <c r="Q8" s="90"/>
       <c r="R8" s="45" t="s">
         <v>248</v>
       </c>
-      <c r="S8" s="91"/>
+      <c r="S8" s="90"/>
       <c r="T8" s="45" t="s">
         <v>216</v>
       </c>
-      <c r="U8" s="91"/>
+      <c r="U8" s="90"/>
       <c r="V8" s="45" t="s">
         <v>222</v>
       </c>
-      <c r="W8" s="91"/>
+      <c r="W8" s="90"/>
       <c r="X8" s="45"/>
-      <c r="Y8" s="91"/>
+      <c r="Y8" s="90"/>
       <c r="Z8" s="45"/>
-      <c r="AA8" s="91"/>
+      <c r="AA8" s="90"/>
       <c r="AB8" s="45"/>
-      <c r="AC8" s="91"/>
+      <c r="AC8" s="90"/>
       <c r="AD8" s="45" t="s">
         <v>283</v>
       </c>
-      <c r="AE8" s="92"/>
+      <c r="AE8" s="91"/>
       <c r="AF8" s="45"/>
-      <c r="AG8" s="92"/>
+      <c r="AG8" s="91"/>
       <c r="AH8" s="45"/>
-      <c r="AI8" s="92"/>
+      <c r="AI8" s="91"/>
       <c r="AJ8" s="45"/>
-      <c r="AK8" s="92"/>
+      <c r="AK8" s="91"/>
       <c r="AL8" s="45" t="s">
         <v>238</v>
       </c>
-      <c r="AM8" s="92"/>
+      <c r="AM8" s="91"/>
       <c r="AN8" s="45" t="s">
         <v>253</v>
       </c>
-      <c r="AO8" s="92"/>
+      <c r="AO8" s="91"/>
       <c r="AP8" s="45" t="s">
         <v>260</v>
       </c>
-      <c r="AQ8" s="92"/>
+      <c r="AQ8" s="91"/>
       <c r="AR8" s="45"/>
-      <c r="AS8" s="92"/>
+      <c r="AS8" s="91"/>
       <c r="AT8" s="45"/>
-      <c r="AU8" s="92"/>
+      <c r="AU8" s="91"/>
       <c r="AV8" s="45" t="s">
         <v>264</v>
       </c>
@@ -6379,63 +6420,63 @@
       <c r="A9" s="45">
         <v>4</v>
       </c>
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="87" t="s">
         <v>295</v>
       </c>
       <c r="D9" s="45"/>
-      <c r="E9" s="91"/>
+      <c r="E9" s="90"/>
       <c r="F9" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="G9" s="91"/>
+      <c r="G9" s="90"/>
       <c r="H9" s="45" t="s">
         <v>227</v>
       </c>
-      <c r="I9" s="91"/>
+      <c r="I9" s="90"/>
       <c r="J9" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="K9" s="91"/>
+      <c r="K9" s="90"/>
       <c r="L9" s="45"/>
-      <c r="M9" s="91"/>
+      <c r="M9" s="90"/>
       <c r="N9" s="45"/>
-      <c r="O9" s="91"/>
+      <c r="O9" s="90"/>
       <c r="P9" s="45"/>
-      <c r="Q9" s="91"/>
+      <c r="Q9" s="90"/>
       <c r="R9" s="45"/>
-      <c r="S9" s="91"/>
+      <c r="S9" s="90"/>
       <c r="T9" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="U9" s="91"/>
+      <c r="U9" s="90"/>
       <c r="V9" s="45"/>
-      <c r="W9" s="91"/>
+      <c r="W9" s="90"/>
       <c r="X9" s="45"/>
-      <c r="Y9" s="91"/>
+      <c r="Y9" s="90"/>
       <c r="Z9" s="45"/>
-      <c r="AA9" s="91"/>
+      <c r="AA9" s="90"/>
       <c r="AB9" s="45"/>
-      <c r="AC9" s="91"/>
+      <c r="AC9" s="90"/>
       <c r="AD9" s="45"/>
-      <c r="AE9" s="92"/>
+      <c r="AE9" s="91"/>
       <c r="AF9" s="45"/>
-      <c r="AG9" s="92"/>
+      <c r="AG9" s="91"/>
       <c r="AH9" s="45"/>
-      <c r="AI9" s="92"/>
+      <c r="AI9" s="91"/>
       <c r="AJ9" s="45"/>
-      <c r="AK9" s="92"/>
+      <c r="AK9" s="91"/>
       <c r="AL9" s="45" t="s">
         <v>244</v>
       </c>
-      <c r="AM9" s="92"/>
+      <c r="AM9" s="91"/>
       <c r="AN9" s="45"/>
-      <c r="AO9" s="92"/>
+      <c r="AO9" s="91"/>
       <c r="AP9" s="45"/>
-      <c r="AQ9" s="92"/>
+      <c r="AQ9" s="91"/>
       <c r="AR9" s="45"/>
-      <c r="AS9" s="92"/>
+      <c r="AS9" s="91"/>
       <c r="AT9" s="45"/>
-      <c r="AU9" s="92"/>
+      <c r="AU9" s="91"/>
       <c r="AV9" s="45" t="s">
         <v>265</v>
       </c>
@@ -6449,57 +6490,57 @@
       <c r="A10" s="45">
         <v>5</v>
       </c>
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="87" t="s">
         <v>296</v>
       </c>
       <c r="D10" s="45"/>
-      <c r="E10" s="91"/>
+      <c r="E10" s="90"/>
       <c r="F10" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="G10" s="91"/>
+      <c r="G10" s="90"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="91"/>
+      <c r="I10" s="90"/>
       <c r="J10" s="45"/>
-      <c r="K10" s="91"/>
+      <c r="K10" s="90"/>
       <c r="L10" s="45"/>
-      <c r="M10" s="91"/>
+      <c r="M10" s="90"/>
       <c r="N10" s="45"/>
-      <c r="O10" s="91"/>
+      <c r="O10" s="90"/>
       <c r="P10" s="45"/>
-      <c r="Q10" s="91"/>
+      <c r="Q10" s="90"/>
       <c r="R10" s="45"/>
-      <c r="S10" s="91"/>
+      <c r="S10" s="90"/>
       <c r="T10" s="45"/>
-      <c r="U10" s="91"/>
+      <c r="U10" s="90"/>
       <c r="V10" s="45"/>
-      <c r="W10" s="91"/>
+      <c r="W10" s="90"/>
       <c r="X10" s="45"/>
-      <c r="Y10" s="91"/>
+      <c r="Y10" s="90"/>
       <c r="Z10" s="45"/>
-      <c r="AA10" s="91"/>
+      <c r="AA10" s="90"/>
       <c r="AB10" s="45"/>
-      <c r="AC10" s="91"/>
+      <c r="AC10" s="90"/>
       <c r="AD10" s="45"/>
-      <c r="AE10" s="92"/>
+      <c r="AE10" s="91"/>
       <c r="AF10" s="45"/>
-      <c r="AG10" s="92"/>
+      <c r="AG10" s="91"/>
       <c r="AH10" s="45"/>
-      <c r="AI10" s="92"/>
+      <c r="AI10" s="91"/>
       <c r="AJ10" s="45"/>
-      <c r="AK10" s="92"/>
+      <c r="AK10" s="91"/>
       <c r="AL10" s="45" t="s">
         <v>239</v>
       </c>
-      <c r="AM10" s="92"/>
+      <c r="AM10" s="91"/>
       <c r="AN10" s="45"/>
-      <c r="AO10" s="92"/>
+      <c r="AO10" s="91"/>
       <c r="AP10" s="45"/>
-      <c r="AQ10" s="92"/>
+      <c r="AQ10" s="91"/>
       <c r="AR10" s="45"/>
-      <c r="AS10" s="92"/>
+      <c r="AS10" s="91"/>
       <c r="AT10" s="45"/>
-      <c r="AU10" s="92"/>
+      <c r="AU10" s="91"/>
       <c r="AV10" s="45" t="s">
         <v>269</v>
       </c>
@@ -6513,57 +6554,57 @@
       <c r="A11" s="45">
         <v>6</v>
       </c>
-      <c r="B11" s="89" t="s">
+      <c r="B11" s="88" t="s">
         <v>183</v>
       </c>
       <c r="D11" s="45"/>
-      <c r="E11" s="91"/>
+      <c r="E11" s="90"/>
       <c r="F11" s="45" t="s">
         <v>208</v>
       </c>
-      <c r="G11" s="91"/>
+      <c r="G11" s="90"/>
       <c r="H11" s="45"/>
-      <c r="I11" s="91"/>
+      <c r="I11" s="90"/>
       <c r="J11" s="45"/>
-      <c r="K11" s="91"/>
+      <c r="K11" s="90"/>
       <c r="L11" s="45"/>
-      <c r="M11" s="91"/>
+      <c r="M11" s="90"/>
       <c r="N11" s="45"/>
-      <c r="O11" s="91"/>
+      <c r="O11" s="90"/>
       <c r="P11" s="45"/>
-      <c r="Q11" s="91"/>
+      <c r="Q11" s="90"/>
       <c r="R11" s="45"/>
-      <c r="S11" s="91"/>
+      <c r="S11" s="90"/>
       <c r="T11" s="45"/>
-      <c r="U11" s="91"/>
+      <c r="U11" s="90"/>
       <c r="V11" s="45"/>
-      <c r="W11" s="91"/>
+      <c r="W11" s="90"/>
       <c r="X11" s="45"/>
-      <c r="Y11" s="91"/>
+      <c r="Y11" s="90"/>
       <c r="Z11" s="45"/>
-      <c r="AA11" s="91"/>
+      <c r="AA11" s="90"/>
       <c r="AB11" s="45"/>
-      <c r="AC11" s="91"/>
+      <c r="AC11" s="90"/>
       <c r="AD11" s="45"/>
-      <c r="AE11" s="92"/>
+      <c r="AE11" s="91"/>
       <c r="AF11" s="45"/>
-      <c r="AG11" s="92"/>
+      <c r="AG11" s="91"/>
       <c r="AH11" s="45"/>
-      <c r="AI11" s="92"/>
+      <c r="AI11" s="91"/>
       <c r="AJ11" s="45"/>
-      <c r="AK11" s="92"/>
+      <c r="AK11" s="91"/>
       <c r="AL11" s="45" t="s">
         <v>243</v>
       </c>
-      <c r="AM11" s="92"/>
+      <c r="AM11" s="91"/>
       <c r="AN11" s="45"/>
-      <c r="AO11" s="92"/>
+      <c r="AO11" s="91"/>
       <c r="AP11" s="45"/>
-      <c r="AQ11" s="92"/>
+      <c r="AQ11" s="91"/>
       <c r="AR11" s="45"/>
-      <c r="AS11" s="92"/>
+      <c r="AS11" s="91"/>
       <c r="AT11" s="45"/>
-      <c r="AU11" s="92"/>
+      <c r="AU11" s="91"/>
       <c r="AV11" s="45" t="s">
         <v>270</v>
       </c>
@@ -6577,57 +6618,57 @@
       <c r="A12" s="45">
         <v>7</v>
       </c>
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="88" t="s">
         <v>297</v>
       </c>
       <c r="D12" s="45"/>
-      <c r="E12" s="91"/>
+      <c r="E12" s="90"/>
       <c r="F12" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="G12" s="91"/>
+      <c r="G12" s="90"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="91"/>
+      <c r="I12" s="90"/>
       <c r="J12" s="45"/>
-      <c r="K12" s="91"/>
+      <c r="K12" s="90"/>
       <c r="L12" s="45"/>
-      <c r="M12" s="91"/>
+      <c r="M12" s="90"/>
       <c r="N12" s="45"/>
-      <c r="O12" s="91"/>
+      <c r="O12" s="90"/>
       <c r="P12" s="45"/>
-      <c r="Q12" s="91"/>
+      <c r="Q12" s="90"/>
       <c r="R12" s="45"/>
-      <c r="S12" s="91"/>
+      <c r="S12" s="90"/>
       <c r="T12" s="45"/>
-      <c r="U12" s="91"/>
+      <c r="U12" s="90"/>
       <c r="V12" s="45"/>
-      <c r="W12" s="91"/>
+      <c r="W12" s="90"/>
       <c r="X12" s="45"/>
-      <c r="Y12" s="91"/>
+      <c r="Y12" s="90"/>
       <c r="Z12" s="45"/>
-      <c r="AA12" s="91"/>
+      <c r="AA12" s="90"/>
       <c r="AB12" s="45"/>
-      <c r="AC12" s="91"/>
+      <c r="AC12" s="90"/>
       <c r="AD12" s="45"/>
-      <c r="AE12" s="92"/>
+      <c r="AE12" s="91"/>
       <c r="AF12" s="45"/>
-      <c r="AG12" s="92"/>
+      <c r="AG12" s="91"/>
       <c r="AH12" s="45"/>
-      <c r="AI12" s="92"/>
+      <c r="AI12" s="91"/>
       <c r="AJ12" s="45"/>
-      <c r="AK12" s="92"/>
+      <c r="AK12" s="91"/>
       <c r="AL12" s="45" t="s">
         <v>258</v>
       </c>
-      <c r="AM12" s="92"/>
+      <c r="AM12" s="91"/>
       <c r="AN12" s="45"/>
-      <c r="AO12" s="92"/>
+      <c r="AO12" s="91"/>
       <c r="AP12" s="45"/>
-      <c r="AQ12" s="92"/>
+      <c r="AQ12" s="91"/>
       <c r="AR12" s="45"/>
-      <c r="AS12" s="92"/>
+      <c r="AS12" s="91"/>
       <c r="AT12" s="45"/>
-      <c r="AU12" s="92"/>
+      <c r="AU12" s="91"/>
       <c r="AV12" s="45"/>
       <c r="AW12" s="74"/>
       <c r="AX12" s="73"/>
@@ -6639,57 +6680,57 @@
       <c r="A13" s="45">
         <v>8</v>
       </c>
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="88" t="s">
         <v>298</v>
       </c>
       <c r="D13" s="45"/>
-      <c r="E13" s="91"/>
+      <c r="E13" s="90"/>
       <c r="F13" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="G13" s="91"/>
+      <c r="G13" s="90"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="91"/>
+      <c r="I13" s="90"/>
       <c r="J13" s="45"/>
-      <c r="K13" s="91"/>
+      <c r="K13" s="90"/>
       <c r="L13" s="45"/>
-      <c r="M13" s="91"/>
+      <c r="M13" s="90"/>
       <c r="N13" s="45"/>
-      <c r="O13" s="91"/>
+      <c r="O13" s="90"/>
       <c r="P13" s="45"/>
-      <c r="Q13" s="91"/>
+      <c r="Q13" s="90"/>
       <c r="R13" s="45"/>
-      <c r="S13" s="93"/>
+      <c r="S13" s="92"/>
       <c r="T13" s="45"/>
-      <c r="U13" s="91"/>
+      <c r="U13" s="90"/>
       <c r="V13" s="45"/>
-      <c r="W13" s="91"/>
+      <c r="W13" s="90"/>
       <c r="X13" s="45"/>
-      <c r="Y13" s="91"/>
+      <c r="Y13" s="90"/>
       <c r="Z13" s="45"/>
-      <c r="AA13" s="91"/>
+      <c r="AA13" s="90"/>
       <c r="AB13" s="45"/>
-      <c r="AC13" s="91"/>
+      <c r="AC13" s="90"/>
       <c r="AD13" s="45"/>
-      <c r="AE13" s="92"/>
+      <c r="AE13" s="91"/>
       <c r="AF13" s="45"/>
-      <c r="AG13" s="92"/>
+      <c r="AG13" s="91"/>
       <c r="AH13" s="45"/>
-      <c r="AI13" s="92"/>
+      <c r="AI13" s="91"/>
       <c r="AJ13" s="45"/>
-      <c r="AK13" s="92"/>
+      <c r="AK13" s="91"/>
       <c r="AL13" s="45" t="s">
         <v>242</v>
       </c>
-      <c r="AM13" s="92"/>
+      <c r="AM13" s="91"/>
       <c r="AN13" s="45"/>
-      <c r="AO13" s="92"/>
+      <c r="AO13" s="91"/>
       <c r="AP13" s="45"/>
-      <c r="AQ13" s="92"/>
+      <c r="AQ13" s="91"/>
       <c r="AR13" s="45"/>
-      <c r="AS13" s="92"/>
+      <c r="AS13" s="91"/>
       <c r="AT13" s="45"/>
-      <c r="AU13" s="92"/>
+      <c r="AU13" s="91"/>
       <c r="AV13" s="45"/>
       <c r="AW13" s="74"/>
       <c r="AX13" s="73"/>
@@ -6701,55 +6742,55 @@
       <c r="A14" s="45">
         <v>9</v>
       </c>
-      <c r="B14" s="88" t="s">
+      <c r="B14" s="87" t="s">
         <v>209</v>
       </c>
       <c r="D14" s="45"/>
-      <c r="E14" s="91"/>
+      <c r="E14" s="90"/>
       <c r="F14" s="45"/>
-      <c r="G14" s="91"/>
+      <c r="G14" s="90"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="91"/>
+      <c r="I14" s="90"/>
       <c r="J14" s="45"/>
-      <c r="K14" s="91"/>
+      <c r="K14" s="90"/>
       <c r="L14" s="45"/>
-      <c r="M14" s="91"/>
+      <c r="M14" s="90"/>
       <c r="N14" s="45"/>
-      <c r="O14" s="91"/>
+      <c r="O14" s="90"/>
       <c r="P14" s="45"/>
-      <c r="Q14" s="91"/>
+      <c r="Q14" s="90"/>
       <c r="R14" s="45"/>
-      <c r="S14" s="91"/>
+      <c r="S14" s="90"/>
       <c r="T14" s="45"/>
-      <c r="U14" s="91"/>
+      <c r="U14" s="90"/>
       <c r="V14" s="45"/>
-      <c r="W14" s="91"/>
+      <c r="W14" s="90"/>
       <c r="X14" s="45"/>
-      <c r="Y14" s="91"/>
+      <c r="Y14" s="90"/>
       <c r="Z14" s="45"/>
-      <c r="AA14" s="91"/>
+      <c r="AA14" s="90"/>
       <c r="AB14" s="45"/>
-      <c r="AC14" s="91"/>
+      <c r="AC14" s="90"/>
       <c r="AD14" s="45"/>
-      <c r="AE14" s="92"/>
+      <c r="AE14" s="91"/>
       <c r="AF14" s="45"/>
-      <c r="AG14" s="92"/>
+      <c r="AG14" s="91"/>
       <c r="AH14" s="45"/>
-      <c r="AI14" s="92"/>
+      <c r="AI14" s="91"/>
       <c r="AJ14" s="45"/>
-      <c r="AK14" s="92"/>
+      <c r="AK14" s="91"/>
       <c r="AL14" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="AM14" s="92"/>
+      <c r="AM14" s="91"/>
       <c r="AN14" s="45"/>
-      <c r="AO14" s="92"/>
+      <c r="AO14" s="91"/>
       <c r="AP14" s="45"/>
-      <c r="AQ14" s="92"/>
+      <c r="AQ14" s="91"/>
       <c r="AR14" s="45"/>
-      <c r="AS14" s="92"/>
+      <c r="AS14" s="91"/>
       <c r="AT14" s="45"/>
-      <c r="AU14" s="92"/>
+      <c r="AU14" s="91"/>
       <c r="AV14" s="45"/>
       <c r="AW14" s="74"/>
       <c r="AX14" s="73"/>
@@ -6761,55 +6802,55 @@
       <c r="A15" s="45">
         <v>10</v>
       </c>
-      <c r="B15" s="89" t="s">
+      <c r="B15" s="88" t="s">
         <v>299</v>
       </c>
       <c r="D15" s="45"/>
-      <c r="E15" s="91"/>
+      <c r="E15" s="90"/>
       <c r="F15" s="45"/>
-      <c r="G15" s="91"/>
+      <c r="G15" s="90"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="91"/>
+      <c r="I15" s="90"/>
       <c r="J15" s="45"/>
-      <c r="K15" s="91"/>
+      <c r="K15" s="90"/>
       <c r="L15" s="45"/>
-      <c r="M15" s="91"/>
+      <c r="M15" s="90"/>
       <c r="N15" s="45"/>
-      <c r="O15" s="91"/>
+      <c r="O15" s="90"/>
       <c r="P15" s="45"/>
-      <c r="Q15" s="91"/>
+      <c r="Q15" s="90"/>
       <c r="R15" s="45"/>
-      <c r="S15" s="91"/>
+      <c r="S15" s="90"/>
       <c r="T15" s="45"/>
-      <c r="U15" s="91"/>
+      <c r="U15" s="90"/>
       <c r="V15" s="45"/>
-      <c r="W15" s="91"/>
+      <c r="W15" s="90"/>
       <c r="X15" s="45"/>
-      <c r="Y15" s="91"/>
+      <c r="Y15" s="90"/>
       <c r="Z15" s="45"/>
-      <c r="AA15" s="91"/>
+      <c r="AA15" s="90"/>
       <c r="AB15" s="45"/>
-      <c r="AC15" s="91"/>
+      <c r="AC15" s="90"/>
       <c r="AD15" s="45"/>
-      <c r="AE15" s="92"/>
+      <c r="AE15" s="91"/>
       <c r="AF15" s="45"/>
-      <c r="AG15" s="92"/>
+      <c r="AG15" s="91"/>
       <c r="AH15" s="45"/>
-      <c r="AI15" s="92"/>
+      <c r="AI15" s="91"/>
       <c r="AJ15" s="45"/>
-      <c r="AK15" s="92"/>
+      <c r="AK15" s="91"/>
       <c r="AL15" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="AM15" s="92"/>
+      <c r="AM15" s="91"/>
       <c r="AN15" s="45"/>
-      <c r="AO15" s="92"/>
+      <c r="AO15" s="91"/>
       <c r="AP15" s="45"/>
-      <c r="AQ15" s="92"/>
+      <c r="AQ15" s="91"/>
       <c r="AR15" s="45"/>
-      <c r="AS15" s="92"/>
+      <c r="AS15" s="91"/>
       <c r="AT15" s="45"/>
-      <c r="AU15" s="92"/>
+      <c r="AU15" s="91"/>
       <c r="AV15" s="45"/>
       <c r="AW15" s="74"/>
       <c r="AX15" s="73"/>
@@ -6821,53 +6862,53 @@
       <c r="A16" s="45">
         <v>11</v>
       </c>
-      <c r="B16" s="89" t="s">
+      <c r="B16" s="88" t="s">
         <v>292</v>
       </c>
       <c r="D16" s="45"/>
-      <c r="E16" s="91"/>
+      <c r="E16" s="90"/>
       <c r="F16" s="45"/>
-      <c r="G16" s="91"/>
+      <c r="G16" s="90"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="91"/>
+      <c r="I16" s="90"/>
       <c r="J16" s="45"/>
-      <c r="K16" s="91"/>
+      <c r="K16" s="90"/>
       <c r="L16" s="45"/>
-      <c r="M16" s="91"/>
+      <c r="M16" s="90"/>
       <c r="N16" s="45"/>
-      <c r="O16" s="91"/>
+      <c r="O16" s="90"/>
       <c r="P16" s="45"/>
-      <c r="Q16" s="91"/>
+      <c r="Q16" s="90"/>
       <c r="R16" s="45"/>
-      <c r="S16" s="91"/>
+      <c r="S16" s="90"/>
       <c r="T16" s="45"/>
-      <c r="U16" s="91"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="45"/>
-      <c r="W16" s="91"/>
+      <c r="W16" s="90"/>
       <c r="X16" s="45"/>
-      <c r="Y16" s="91"/>
+      <c r="Y16" s="90"/>
       <c r="Z16" s="45"/>
-      <c r="AA16" s="91"/>
+      <c r="AA16" s="90"/>
       <c r="AB16" s="45"/>
-      <c r="AC16" s="91"/>
+      <c r="AC16" s="90"/>
       <c r="AD16" s="45"/>
-      <c r="AE16" s="92"/>
+      <c r="AE16" s="91"/>
       <c r="AF16" s="45"/>
-      <c r="AG16" s="92"/>
+      <c r="AG16" s="91"/>
       <c r="AH16" s="45"/>
-      <c r="AI16" s="92"/>
+      <c r="AI16" s="91"/>
       <c r="AJ16" s="45"/>
-      <c r="AK16" s="92"/>
+      <c r="AK16" s="91"/>
       <c r="AL16" s="45"/>
-      <c r="AM16" s="92"/>
+      <c r="AM16" s="91"/>
       <c r="AN16" s="45"/>
-      <c r="AO16" s="92"/>
+      <c r="AO16" s="91"/>
       <c r="AP16" s="45"/>
-      <c r="AQ16" s="92"/>
+      <c r="AQ16" s="91"/>
       <c r="AR16" s="45"/>
-      <c r="AS16" s="92"/>
+      <c r="AS16" s="91"/>
       <c r="AT16" s="45"/>
-      <c r="AU16" s="92"/>
+      <c r="AU16" s="91"/>
       <c r="AV16" s="45"/>
       <c r="AW16" s="74"/>
       <c r="AX16" s="73"/>
@@ -6879,35 +6920,35 @@
       <c r="A17" s="45">
         <v>12</v>
       </c>
-      <c r="B17" s="89" t="s">
+      <c r="B17" s="88" t="s">
         <v>195</v>
       </c>
       <c r="D17" s="73"/>
-      <c r="E17" s="94"/>
+      <c r="E17" s="93"/>
       <c r="F17" s="73"/>
-      <c r="G17" s="94"/>
+      <c r="G17" s="93"/>
       <c r="H17" s="73"/>
-      <c r="I17" s="94"/>
+      <c r="I17" s="93"/>
       <c r="J17" s="73"/>
-      <c r="K17" s="94"/>
+      <c r="K17" s="93"/>
       <c r="L17" s="73"/>
-      <c r="M17" s="94"/>
+      <c r="M17" s="93"/>
       <c r="N17" s="73"/>
-      <c r="O17" s="94"/>
+      <c r="O17" s="93"/>
       <c r="P17" s="73"/>
-      <c r="Q17" s="94"/>
+      <c r="Q17" s="93"/>
       <c r="R17" s="73"/>
-      <c r="S17" s="94"/>
+      <c r="S17" s="93"/>
       <c r="T17" s="73"/>
-      <c r="U17" s="94"/>
+      <c r="U17" s="93"/>
       <c r="V17" s="73"/>
-      <c r="W17" s="94"/>
+      <c r="W17" s="93"/>
       <c r="X17" s="73"/>
-      <c r="Y17" s="94"/>
+      <c r="Y17" s="93"/>
       <c r="Z17" s="73"/>
-      <c r="AA17" s="94"/>
+      <c r="AA17" s="93"/>
       <c r="AB17" s="73"/>
-      <c r="AC17" s="94"/>
+      <c r="AC17" s="93"/>
       <c r="AD17" s="73"/>
       <c r="AE17" s="74"/>
       <c r="AF17" s="73"/>
@@ -6937,35 +6978,35 @@
       <c r="A18" s="45">
         <v>13</v>
       </c>
-      <c r="B18" s="88" t="s">
+      <c r="B18" s="87" t="s">
         <v>213</v>
       </c>
       <c r="D18" s="73"/>
-      <c r="E18" s="94"/>
+      <c r="E18" s="93"/>
       <c r="F18" s="73"/>
-      <c r="G18" s="94"/>
+      <c r="G18" s="93"/>
       <c r="H18" s="73"/>
-      <c r="I18" s="94"/>
+      <c r="I18" s="93"/>
       <c r="J18" s="73"/>
-      <c r="K18" s="94"/>
+      <c r="K18" s="93"/>
       <c r="L18" s="73"/>
-      <c r="M18" s="94"/>
+      <c r="M18" s="93"/>
       <c r="N18" s="73"/>
-      <c r="O18" s="94"/>
+      <c r="O18" s="93"/>
       <c r="P18" s="73"/>
-      <c r="Q18" s="94"/>
+      <c r="Q18" s="93"/>
       <c r="R18" s="73"/>
-      <c r="S18" s="94"/>
+      <c r="S18" s="93"/>
       <c r="T18" s="73"/>
-      <c r="U18" s="94"/>
+      <c r="U18" s="93"/>
       <c r="V18" s="73"/>
-      <c r="W18" s="94"/>
+      <c r="W18" s="93"/>
       <c r="X18" s="73"/>
-      <c r="Y18" s="94"/>
+      <c r="Y18" s="93"/>
       <c r="Z18" s="73"/>
-      <c r="AA18" s="94"/>
+      <c r="AA18" s="93"/>
       <c r="AB18" s="73"/>
-      <c r="AC18" s="94"/>
+      <c r="AC18" s="93"/>
       <c r="AD18" s="73"/>
       <c r="AE18" s="74"/>
       <c r="AF18" s="73"/>
@@ -6995,35 +7036,35 @@
       <c r="A19" s="45">
         <v>14</v>
       </c>
-      <c r="B19" s="89" t="s">
+      <c r="B19" s="88" t="s">
         <v>300</v>
       </c>
       <c r="D19" s="73"/>
-      <c r="E19" s="94"/>
+      <c r="E19" s="93"/>
       <c r="F19" s="73"/>
-      <c r="G19" s="94"/>
+      <c r="G19" s="93"/>
       <c r="H19" s="73"/>
-      <c r="I19" s="94"/>
+      <c r="I19" s="93"/>
       <c r="J19" s="73"/>
-      <c r="K19" s="94"/>
+      <c r="K19" s="93"/>
       <c r="L19" s="73"/>
-      <c r="M19" s="94"/>
+      <c r="M19" s="93"/>
       <c r="N19" s="73"/>
-      <c r="O19" s="94"/>
+      <c r="O19" s="93"/>
       <c r="P19" s="73"/>
-      <c r="Q19" s="94"/>
+      <c r="Q19" s="93"/>
       <c r="R19" s="73"/>
-      <c r="S19" s="94"/>
+      <c r="S19" s="93"/>
       <c r="T19" s="73"/>
-      <c r="U19" s="94"/>
+      <c r="U19" s="93"/>
       <c r="V19" s="73"/>
-      <c r="W19" s="94"/>
+      <c r="W19" s="93"/>
       <c r="X19" s="73"/>
-      <c r="Y19" s="94"/>
+      <c r="Y19" s="93"/>
       <c r="Z19" s="73"/>
-      <c r="AA19" s="94"/>
+      <c r="AA19" s="93"/>
       <c r="AB19" s="73"/>
-      <c r="AC19" s="94"/>
+      <c r="AC19" s="93"/>
       <c r="AD19" s="73"/>
       <c r="AE19" s="74"/>
       <c r="AF19" s="73"/>
@@ -7053,35 +7094,35 @@
       <c r="A20" s="45">
         <v>15</v>
       </c>
-      <c r="B20" s="89" t="s">
+      <c r="B20" s="88" t="s">
         <v>301</v>
       </c>
       <c r="D20" s="73"/>
-      <c r="E20" s="94"/>
+      <c r="E20" s="93"/>
       <c r="F20" s="73"/>
-      <c r="G20" s="94"/>
+      <c r="G20" s="93"/>
       <c r="H20" s="73"/>
-      <c r="I20" s="94"/>
+      <c r="I20" s="93"/>
       <c r="J20" s="73"/>
-      <c r="K20" s="94"/>
+      <c r="K20" s="93"/>
       <c r="L20" s="73"/>
-      <c r="M20" s="94"/>
+      <c r="M20" s="93"/>
       <c r="N20" s="73"/>
-      <c r="O20" s="94"/>
+      <c r="O20" s="93"/>
       <c r="P20" s="73"/>
-      <c r="Q20" s="94"/>
+      <c r="Q20" s="93"/>
       <c r="R20" s="73"/>
-      <c r="S20" s="94"/>
+      <c r="S20" s="93"/>
       <c r="T20" s="73"/>
-      <c r="U20" s="94"/>
+      <c r="U20" s="93"/>
       <c r="V20" s="73"/>
-      <c r="W20" s="94"/>
+      <c r="W20" s="93"/>
       <c r="X20" s="73"/>
-      <c r="Y20" s="94"/>
+      <c r="Y20" s="93"/>
       <c r="Z20" s="73"/>
-      <c r="AA20" s="94"/>
+      <c r="AA20" s="93"/>
       <c r="AB20" s="73"/>
-      <c r="AC20" s="94"/>
+      <c r="AC20" s="93"/>
       <c r="AD20" s="73"/>
       <c r="AE20" s="74"/>
       <c r="AF20" s="73"/>
@@ -7111,35 +7152,35 @@
       <c r="A21" s="45">
         <v>16</v>
       </c>
-      <c r="B21" s="89" t="s">
+      <c r="B21" s="88" t="s">
         <v>302</v>
       </c>
       <c r="D21" s="73"/>
-      <c r="E21" s="94"/>
+      <c r="E21" s="93"/>
       <c r="F21" s="73"/>
-      <c r="G21" s="94"/>
+      <c r="G21" s="93"/>
       <c r="H21" s="73"/>
-      <c r="I21" s="94"/>
+      <c r="I21" s="93"/>
       <c r="J21" s="73"/>
-      <c r="K21" s="94"/>
+      <c r="K21" s="93"/>
       <c r="L21" s="73"/>
-      <c r="M21" s="94"/>
+      <c r="M21" s="93"/>
       <c r="N21" s="73"/>
-      <c r="O21" s="94"/>
+      <c r="O21" s="93"/>
       <c r="P21" s="73"/>
-      <c r="Q21" s="94"/>
+      <c r="Q21" s="93"/>
       <c r="R21" s="73"/>
-      <c r="S21" s="94"/>
+      <c r="S21" s="93"/>
       <c r="T21" s="73"/>
-      <c r="U21" s="94"/>
+      <c r="U21" s="93"/>
       <c r="V21" s="73"/>
-      <c r="W21" s="94"/>
+      <c r="W21" s="93"/>
       <c r="X21" s="73"/>
-      <c r="Y21" s="94"/>
+      <c r="Y21" s="93"/>
       <c r="Z21" s="73"/>
-      <c r="AA21" s="94"/>
+      <c r="AA21" s="93"/>
       <c r="AB21" s="73"/>
-      <c r="AC21" s="94"/>
+      <c r="AC21" s="93"/>
       <c r="AD21" s="73"/>
       <c r="AE21" s="74"/>
       <c r="AF21" s="73"/>
@@ -7169,35 +7210,35 @@
       <c r="A22" s="45">
         <v>17</v>
       </c>
-      <c r="B22" s="89" t="s">
+      <c r="B22" s="88" t="s">
         <v>303</v>
       </c>
       <c r="D22" s="73"/>
-      <c r="E22" s="94"/>
+      <c r="E22" s="93"/>
       <c r="F22" s="73"/>
-      <c r="G22" s="94"/>
+      <c r="G22" s="93"/>
       <c r="H22" s="73"/>
-      <c r="I22" s="94"/>
+      <c r="I22" s="93"/>
       <c r="J22" s="73"/>
-      <c r="K22" s="94"/>
+      <c r="K22" s="93"/>
       <c r="L22" s="73"/>
-      <c r="M22" s="94"/>
+      <c r="M22" s="93"/>
       <c r="N22" s="73"/>
-      <c r="O22" s="94"/>
+      <c r="O22" s="93"/>
       <c r="P22" s="73"/>
-      <c r="Q22" s="94"/>
+      <c r="Q22" s="93"/>
       <c r="R22" s="73"/>
-      <c r="S22" s="94"/>
+      <c r="S22" s="93"/>
       <c r="T22" s="73"/>
-      <c r="U22" s="94"/>
+      <c r="U22" s="93"/>
       <c r="V22" s="73"/>
-      <c r="W22" s="94"/>
+      <c r="W22" s="93"/>
       <c r="X22" s="73"/>
-      <c r="Y22" s="94"/>
+      <c r="Y22" s="93"/>
       <c r="Z22" s="73"/>
-      <c r="AA22" s="94"/>
+      <c r="AA22" s="93"/>
       <c r="AB22" s="73"/>
-      <c r="AC22" s="94"/>
+      <c r="AC22" s="93"/>
       <c r="AD22" s="73"/>
       <c r="AE22" s="74"/>
       <c r="AF22" s="73"/>
@@ -7227,7 +7268,7 @@
       <c r="A23" s="45">
         <v>18</v>
       </c>
-      <c r="B23" s="88" t="s">
+      <c r="B23" s="87" t="s">
         <v>311</v>
       </c>
     </row>
@@ -7235,7 +7276,7 @@
       <c r="A24" s="45">
         <v>19</v>
       </c>
-      <c r="B24" s="89" t="s">
+      <c r="B24" s="88" t="s">
         <v>304</v>
       </c>
     </row>
@@ -7243,7 +7284,7 @@
       <c r="A25" s="45">
         <v>20</v>
       </c>
-      <c r="B25" s="89" t="s">
+      <c r="B25" s="88" t="s">
         <v>184</v>
       </c>
     </row>
@@ -7251,7 +7292,7 @@
       <c r="A26" s="45">
         <v>21</v>
       </c>
-      <c r="B26" s="89" t="s">
+      <c r="B26" s="88" t="s">
         <v>305</v>
       </c>
     </row>
@@ -7259,7 +7300,7 @@
       <c r="A27" s="45">
         <v>22</v>
       </c>
-      <c r="B27" s="89" t="s">
+      <c r="B27" s="88" t="s">
         <v>306</v>
       </c>
     </row>
@@ -7267,7 +7308,7 @@
       <c r="A28" s="45">
         <v>23</v>
       </c>
-      <c r="B28" s="88" t="s">
+      <c r="B28" s="87" t="s">
         <v>254</v>
       </c>
     </row>
@@ -7275,7 +7316,7 @@
       <c r="A29" s="45">
         <v>24</v>
       </c>
-      <c r="B29" s="89" t="s">
+      <c r="B29" s="88" t="s">
         <v>307</v>
       </c>
     </row>
@@ -7640,7 +7681,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8022,7 +8063,7 @@
       <c r="B6" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="99">
+      <c r="C6" s="98">
         <v>1111111111</v>
       </c>
       <c r="D6" s="47" t="s">
@@ -8112,17 +8153,17 @@
       <c r="H13" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="I13" s="119">
+      <c r="I13" s="118">
         <f>SUMIF(Tarakonesh[پرداخت کننده],FinancialAccountsTable[[#This Row],[نام حساب]],Tarakonesh[مبلغ (ریال)])</f>
         <v>20000</v>
       </c>
-      <c r="J13" s="119">
+      <c r="J13" s="118">
         <f>SUMIF(Tarakonesh[دریافت کننده],FinancialAccountsTable[[#This Row],[نام حساب]],Tarakonesh[مبلغ (ریال)])</f>
-        <v>500000</v>
-      </c>
-      <c r="K13" s="119">
+        <v>4500000</v>
+      </c>
+      <c r="K13" s="118">
         <f>(FinancialAccountsTable[[#This Row],[جمع دریافتی]]+FinancialAccountsTable[[#This Row],[موجودی اولیه]])-FinancialAccountsTable[[#This Row],[جمع پرداختی]]</f>
-        <v>2480000</v>
+        <v>6480000</v>
       </c>
       <c r="L13" s="53" t="str">
         <f>IF(FinancialAccountsTable[[#This Row],[مانده]]=0,"",IF(FinancialAccountsTable[[#This Row],[مانده]]&gt;0,"بدهکار","بستانکار"))</f>
@@ -8152,17 +8193,17 @@
       <c r="H14" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="I14" s="119">
+      <c r="I14" s="118">
         <f>SUMIF(Tarakonesh[پرداخت کننده],FinancialAccountsTable[[#This Row],[نام حساب]],Tarakonesh[مبلغ (ریال)])</f>
-        <v>80000</v>
-      </c>
-      <c r="J14" s="119">
+        <v>90000</v>
+      </c>
+      <c r="J14" s="118">
         <f>SUMIF(Tarakonesh[دریافت کننده],FinancialAccountsTable[[#This Row],[نام حساب]],Tarakonesh[مبلغ (ریال)])</f>
         <v>1020000</v>
       </c>
-      <c r="K14" s="119">
+      <c r="K14" s="118">
         <f>(FinancialAccountsTable[[#This Row],[جمع دریافتی]]+FinancialAccountsTable[[#This Row],[موجودی اولیه]])-FinancialAccountsTable[[#This Row],[جمع پرداختی]]</f>
-        <v>940000</v>
+        <v>930000</v>
       </c>
       <c r="L14" s="53" t="str">
         <f>IF(FinancialAccountsTable[[#This Row],[مانده]]=0,"",IF(FinancialAccountsTable[[#This Row],[مانده]]&gt;0,"بدهکار","بستانکار"))</f>
@@ -8190,21 +8231,21 @@
       <c r="H15" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="I15" s="119">
+      <c r="I15" s="118">
         <f>SUMIF(Tarakonesh[پرداخت کننده],FinancialAccountsTable[[#This Row],[نام حساب]],Tarakonesh[مبلغ (ریال)])</f>
-        <v>3000</v>
-      </c>
-      <c r="J15" s="119">
+        <v>3003000</v>
+      </c>
+      <c r="J15" s="118">
         <f>SUMIF(Tarakonesh[دریافت کننده],FinancialAccountsTable[[#This Row],[نام حساب]],Tarakonesh[مبلغ (ریال)])</f>
         <v>520000</v>
       </c>
-      <c r="K15" s="119">
+      <c r="K15" s="118">
         <f>(FinancialAccountsTable[[#This Row],[جمع دریافتی]]+FinancialAccountsTable[[#This Row],[موجودی اولیه]])-FinancialAccountsTable[[#This Row],[جمع پرداختی]]</f>
-        <v>517000</v>
+        <v>-2483000</v>
       </c>
       <c r="L15" s="53" t="str">
         <f>IF(FinancialAccountsTable[[#This Row],[مانده]]=0,"",IF(FinancialAccountsTable[[#This Row],[مانده]]&gt;0,"بدهکار","بستانکار"))</f>
-        <v>بدهکار</v>
+        <v>بستانکار</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -8228,15 +8269,15 @@
       <c r="H16" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="I16" s="119">
+      <c r="I16" s="118">
         <f>SUMIF(Tarakonesh[پرداخت کننده],FinancialAccountsTable[[#This Row],[نام حساب]],Tarakonesh[مبلغ (ریال)])</f>
         <v>500000</v>
       </c>
-      <c r="J16" s="119">
+      <c r="J16" s="118">
         <f>SUMIF(Tarakonesh[دریافت کننده],FinancialAccountsTable[[#This Row],[نام حساب]],Tarakonesh[مبلغ (ریال)])</f>
         <v>0</v>
       </c>
-      <c r="K16" s="119">
+      <c r="K16" s="118">
         <f>(FinancialAccountsTable[[#This Row],[جمع دریافتی]]+FinancialAccountsTable[[#This Row],[موجودی اولیه]])-FinancialAccountsTable[[#This Row],[جمع پرداختی]]</f>
         <v>-500000</v>
       </c>
@@ -8264,15 +8305,15 @@
       <c r="H17" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="I17" s="119">
+      <c r="I17" s="118">
         <f>SUMIF(Tarakonesh[پرداخت کننده],FinancialAccountsTable[[#This Row],[نام حساب]],Tarakonesh[مبلغ (ریال)])</f>
         <v>0</v>
       </c>
-      <c r="J17" s="119">
+      <c r="J17" s="118">
         <f>SUMIF(Tarakonesh[دریافت کننده],FinancialAccountsTable[[#This Row],[نام حساب]],Tarakonesh[مبلغ (ریال)])</f>
         <v>0</v>
       </c>
-      <c r="K17" s="119">
+      <c r="K17" s="118">
         <f>(FinancialAccountsTable[[#This Row],[جمع دریافتی]]+FinancialAccountsTable[[#This Row],[موجودی اولیه]])-FinancialAccountsTable[[#This Row],[جمع پرداختی]]</f>
         <v>0</v>
       </c>
@@ -8295,17 +8336,17 @@
       <c r="F18" s="69"/>
       <c r="G18" s="70"/>
       <c r="H18" s="70"/>
-      <c r="I18" s="120">
+      <c r="I18" s="119">
         <f>SUBTOTAL(109,FinancialAccountsTable[جمع پرداختی])</f>
-        <v>603000</v>
-      </c>
-      <c r="J18" s="120">
+        <v>3613000</v>
+      </c>
+      <c r="J18" s="119">
         <f>SUBTOTAL(109,FinancialAccountsTable[جمع دریافتی])</f>
-        <v>2040000</v>
-      </c>
-      <c r="K18" s="120">
+        <v>6040000</v>
+      </c>
+      <c r="K18" s="119">
         <f>SUBTOTAL(109,FinancialAccountsTable[مانده])</f>
-        <v>3437000</v>
+        <v>4427000</v>
       </c>
       <c r="L18" s="70"/>
     </row>
@@ -8602,7 +8643,8 @@
   <dimension ref="A1:S507"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8646,7 +8688,7 @@
       <c r="G1" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="131" t="s">
         <v>116</v>
       </c>
       <c r="I1" s="16" t="s">
@@ -8655,7 +8697,7 @@
       <c r="J1" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="132" t="s">
         <v>7</v>
       </c>
       <c r="L1" s="6"/>
@@ -8691,31 +8733,36 @@
       <c r="B3" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="123">
+      <c r="C3" s="122">
         <f>SUMIF(Tarakonesh[تراکنش],"دریافت_درآمد",Tarakonesh[مبلغ (ریال)])</f>
-        <v>1520000</v>
+        <v>5520000</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E3" s="122">
+      <c r="E3" s="121">
         <f>SUMIF(Tarakonesh[تراکنش],"پرداخت_هزینه",Tarakonesh[مبلغ (ریال)])</f>
-        <v>93000</v>
+        <v>3093000</v>
       </c>
       <c r="F3" s="39" t="s">
         <v>349</v>
       </c>
-      <c r="G3" s="121">
+      <c r="G3" s="120">
         <f>SUMIF(Tarakonesh[تراکنش],"انتقال",Tarakonesh[مبلغ (ریال)])</f>
         <v>520000</v>
       </c>
-      <c r="H3" s="86"/>
-      <c r="I3" s="124" t="s">
+      <c r="H3" s="126" t="s">
+        <v>352</v>
+      </c>
+      <c r="I3" s="128">
+        <f>FinancialAccountsTable[[#Totals],[مانده]]</f>
+        <v>4427000</v>
+      </c>
+      <c r="J3" s="129" t="s">
         <v>154</v>
       </c>
-      <c r="J3" s="124"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="6"/>
       <c r="M3" s="31"/>
       <c r="N3" s="6"/>
       <c r="O3" s="67"/>
@@ -8730,12 +8777,12 @@
       <c r="D4" s="79"/>
       <c r="E4" s="80"/>
       <c r="F4" s="80"/>
-      <c r="G4" s="79"/>
+      <c r="G4" s="127"/>
       <c r="H4" s="81"/>
-      <c r="I4" s="82"/>
+      <c r="I4" s="6"/>
       <c r="J4" s="82"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="6"/>
       <c r="M4" s="31"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
@@ -8754,17 +8801,17 @@
       </c>
       <c r="D5" s="79"/>
       <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="79"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="6"/>
       <c r="H5" s="81"/>
-      <c r="I5" s="78" t="s">
+      <c r="I5" s="6"/>
+      <c r="J5" s="78" t="s">
         <v>196</v>
       </c>
-      <c r="J5" s="87" t="s">
+      <c r="K5" s="86" t="s">
         <v>198</v>
       </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
+      <c r="L5" s="6"/>
       <c r="M5" s="31"/>
       <c r="N5" s="6"/>
       <c r="O5" s="67"/>
@@ -8876,7 +8923,7 @@
       <c r="K8" s="29" t="s">
         <v>342</v>
       </c>
-      <c r="L8" s="29">
+      <c r="L8" s="125">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال", "",(FinancialAccountsTable[[#Totals],[موجودی اولیه]] + IF(Tarakonesh[تراکنش]="دریافت_درآمد",Tarakonesh[[#This Row],[مبلغ (ریال)]],0))-IF(Tarakonesh[تراکنش]="پرداخت_هزینه",Tarakonesh[[#This Row],[مبلغ (ریال)]],0)))</f>
         <v>1920000</v>
       </c>
@@ -8916,8 +8963,8 @@
       <c r="K9" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="L9" s="29">
-        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال", "",IF(Tarakonesh[تراکنش]="دریافت_درآمد",Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L8),Tarakonesh[[#This Row],[مبلغ (ریال)]]-IF(Tarakonesh[تراکنش]="انتقال",0,L8))))</f>
+      <c r="L9" s="125">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L8,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L8)),((IF(Tarakonesh[تراکنش]="انتقال",0,L8))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v>2920000</v>
       </c>
       <c r="M9" s="33"/>
@@ -8950,10 +8997,13 @@
       <c r="K10" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="L10" s="29"/>
+      <c r="L10" s="125">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L9,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L9)),((IF(Tarakonesh[تراکنش]="انتقال",0,L9))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v>2920000</v>
+      </c>
       <c r="M10" s="33"/>
       <c r="N10" s="33"/>
-      <c r="R10" s="118"/>
+      <c r="R10" s="117"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
@@ -8983,10 +9033,13 @@
       <c r="K11" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="L11" s="29"/>
+      <c r="L11" s="125">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L10,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L10)),((IF(Tarakonesh[تراکنش]="انتقال",0,L10))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v>2940000</v>
+      </c>
       <c r="M11" s="33"/>
       <c r="N11" s="33"/>
-      <c r="R11" s="118"/>
+      <c r="R11" s="117"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
@@ -9010,7 +9063,10 @@
       <c r="K12" s="29" t="s">
         <v>339</v>
       </c>
-      <c r="L12" s="29"/>
+      <c r="L12" s="125">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L11,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L11)),((IF(Tarakonesh[تراکنش]="انتقال",0,L11))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v>2937000</v>
+      </c>
       <c r="M12" s="33"/>
       <c r="N12" s="33"/>
     </row>
@@ -9036,7 +9092,10 @@
       <c r="K13" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="L13" s="29"/>
+      <c r="L13" s="125">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L12,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L12)),((IF(Tarakonesh[تراکنش]="انتقال",0,L12))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v>3437000</v>
+      </c>
       <c r="M13" s="33"/>
       <c r="N13" s="33"/>
     </row>
@@ -9062,7 +9121,10 @@
       <c r="K14" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="L14" s="29"/>
+      <c r="L14" s="125">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L13,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L13)),((IF(Tarakonesh[تراکنش]="انتقال",0,L13))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v>3437000</v>
+      </c>
       <c r="M14" s="33"/>
       <c r="N14" s="33"/>
     </row>
@@ -9082,9 +9144,16 @@
       <c r="I15" s="27">
         <v>10000</v>
       </c>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
+      <c r="J15" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="L15" s="125">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L14,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L14)),((IF(Tarakonesh[تراکنش]="انتقال",0,L14))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v>3427000</v>
+      </c>
       <c r="M15" s="33"/>
       <c r="N15" s="33"/>
     </row>
@@ -9095,32 +9164,54 @@
       <c r="B16" s="29"/>
       <c r="C16" s="77"/>
       <c r="D16" s="33"/>
-      <c r="E16" s="41"/>
+      <c r="E16" s="41" t="s">
+        <v>291</v>
+      </c>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
+      <c r="I16" s="27">
+        <v>3000000</v>
+      </c>
+      <c r="J16" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="K16" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="L16" s="125">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L15,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L15)),((IF(Tarakonesh[تراکنش]="انتقال",0,L15))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v>427000</v>
+      </c>
       <c r="M16" s="33"/>
       <c r="N16" s="33"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>10</v>
       </c>
       <c r="B17" s="29"/>
       <c r="C17" s="77"/>
       <c r="D17" s="33"/>
-      <c r="E17" s="41"/>
+      <c r="E17" s="41" t="s">
+        <v>315</v>
+      </c>
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
+      <c r="I17" s="27">
+        <v>4000000</v>
+      </c>
+      <c r="J17" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="K17" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="L17" s="125">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L16,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L16)),((IF(Tarakonesh[تراکنش]="انتقال",0,L16))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v>4427000</v>
+      </c>
       <c r="M17" s="33"/>
       <c r="N17" s="33"/>
     </row>
@@ -9138,7 +9229,10 @@
       <c r="I18" s="27"/>
       <c r="J18" s="29"/>
       <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
+      <c r="L18" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L17,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L17)),((IF(Tarakonesh[تراکنش]="انتقال",0,L17))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M18" s="33"/>
       <c r="N18" s="33"/>
     </row>
@@ -9156,7 +9250,10 @@
       <c r="I19" s="27"/>
       <c r="J19" s="29"/>
       <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
+      <c r="L19" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L18,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L18)),((IF(Tarakonesh[تراکنش]="انتقال",0,L18))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M19" s="33"/>
       <c r="N19" s="33"/>
     </row>
@@ -9174,7 +9271,10 @@
       <c r="I20" s="27"/>
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
+      <c r="L20" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L19,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L19)),((IF(Tarakonesh[تراکنش]="انتقال",0,L19))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M20" s="33"/>
       <c r="N20" s="33"/>
     </row>
@@ -9192,7 +9292,10 @@
       <c r="I21" s="27"/>
       <c r="J21" s="29"/>
       <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
+      <c r="L21" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L20,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L20)),((IF(Tarakonesh[تراکنش]="انتقال",0,L20))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M21" s="33"/>
       <c r="N21" s="33"/>
     </row>
@@ -9210,7 +9313,10 @@
       <c r="I22" s="27"/>
       <c r="J22" s="29"/>
       <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
+      <c r="L22" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L21,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L21)),((IF(Tarakonesh[تراکنش]="انتقال",0,L21))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M22" s="33"/>
       <c r="N22" s="33"/>
     </row>
@@ -9228,7 +9334,10 @@
       <c r="I23" s="27"/>
       <c r="J23" s="29"/>
       <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
+      <c r="L23" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L22,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L22)),((IF(Tarakonesh[تراکنش]="انتقال",0,L22))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M23" s="33"/>
       <c r="N23" s="33"/>
     </row>
@@ -9246,7 +9355,10 @@
       <c r="I24" s="27"/>
       <c r="J24" s="29"/>
       <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
+      <c r="L24" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L23,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L23)),((IF(Tarakonesh[تراکنش]="انتقال",0,L23))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M24" s="33"/>
       <c r="N24" s="33"/>
     </row>
@@ -9264,7 +9376,10 @@
       <c r="I25" s="27"/>
       <c r="J25" s="29"/>
       <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
+      <c r="L25" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L24,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L24)),((IF(Tarakonesh[تراکنش]="انتقال",0,L24))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M25" s="33"/>
       <c r="N25" s="33"/>
     </row>
@@ -9282,7 +9397,10 @@
       <c r="I26" s="27"/>
       <c r="J26" s="29"/>
       <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
+      <c r="L26" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L25,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L25)),((IF(Tarakonesh[تراکنش]="انتقال",0,L25))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M26" s="33"/>
       <c r="N26" s="33"/>
     </row>
@@ -9300,7 +9418,10 @@
       <c r="I27" s="27"/>
       <c r="J27" s="29"/>
       <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
+      <c r="L27" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L26,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L26)),((IF(Tarakonesh[تراکنش]="انتقال",0,L26))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M27" s="33"/>
       <c r="N27" s="33"/>
     </row>
@@ -9318,7 +9439,10 @@
       <c r="I28" s="27"/>
       <c r="J28" s="29"/>
       <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
+      <c r="L28" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L27,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L27)),((IF(Tarakonesh[تراکنش]="انتقال",0,L27))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M28" s="33"/>
       <c r="N28" s="33"/>
     </row>
@@ -9336,7 +9460,10 @@
       <c r="I29" s="27"/>
       <c r="J29" s="29"/>
       <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
+      <c r="L29" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L28,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L28)),((IF(Tarakonesh[تراکنش]="انتقال",0,L28))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M29" s="33"/>
       <c r="N29" s="33"/>
     </row>
@@ -9354,7 +9481,10 @@
       <c r="I30" s="27"/>
       <c r="J30" s="29"/>
       <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
+      <c r="L30" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L29,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L29)),((IF(Tarakonesh[تراکنش]="انتقال",0,L29))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M30" s="33"/>
       <c r="N30" s="33"/>
     </row>
@@ -9372,7 +9502,10 @@
       <c r="I31" s="27"/>
       <c r="J31" s="29"/>
       <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
+      <c r="L31" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L30,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L30)),((IF(Tarakonesh[تراکنش]="انتقال",0,L30))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M31" s="33"/>
       <c r="N31" s="33"/>
     </row>
@@ -9390,7 +9523,10 @@
       <c r="I32" s="27"/>
       <c r="J32" s="29"/>
       <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
+      <c r="L32" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L31,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L31)),((IF(Tarakonesh[تراکنش]="انتقال",0,L31))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M32" s="33"/>
       <c r="N32" s="33"/>
     </row>
@@ -9408,7 +9544,10 @@
       <c r="I33" s="27"/>
       <c r="J33" s="29"/>
       <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
+      <c r="L33" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L32,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L32)),((IF(Tarakonesh[تراکنش]="انتقال",0,L32))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M33" s="33"/>
       <c r="N33" s="33"/>
     </row>
@@ -9426,7 +9565,10 @@
       <c r="I34" s="27"/>
       <c r="J34" s="29"/>
       <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
+      <c r="L34" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L33,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L33)),((IF(Tarakonesh[تراکنش]="انتقال",0,L33))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M34" s="33"/>
       <c r="N34" s="33"/>
     </row>
@@ -9444,7 +9586,10 @@
       <c r="I35" s="27"/>
       <c r="J35" s="29"/>
       <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
+      <c r="L35" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L34,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L34)),((IF(Tarakonesh[تراکنش]="انتقال",0,L34))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M35" s="33"/>
       <c r="N35" s="33"/>
     </row>
@@ -9462,7 +9607,10 @@
       <c r="I36" s="27"/>
       <c r="J36" s="29"/>
       <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
+      <c r="L36" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L35,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L35)),((IF(Tarakonesh[تراکنش]="انتقال",0,L35))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M36" s="33"/>
       <c r="N36" s="33"/>
     </row>
@@ -9480,7 +9628,10 @@
       <c r="I37" s="27"/>
       <c r="J37" s="29"/>
       <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
+      <c r="L37" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L36,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L36)),((IF(Tarakonesh[تراکنش]="انتقال",0,L36))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M37" s="33"/>
       <c r="N37" s="33"/>
     </row>
@@ -9498,7 +9649,10 @@
       <c r="I38" s="27"/>
       <c r="J38" s="29"/>
       <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
+      <c r="L38" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L37,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L37)),((IF(Tarakonesh[تراکنش]="انتقال",0,L37))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M38" s="33"/>
       <c r="N38" s="33"/>
     </row>
@@ -9516,7 +9670,10 @@
       <c r="I39" s="27"/>
       <c r="J39" s="29"/>
       <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
+      <c r="L39" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L38,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L38)),((IF(Tarakonesh[تراکنش]="انتقال",0,L38))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M39" s="33"/>
       <c r="N39" s="33"/>
     </row>
@@ -9534,7 +9691,10 @@
       <c r="I40" s="27"/>
       <c r="J40" s="29"/>
       <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
+      <c r="L40" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L39,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L39)),((IF(Tarakonesh[تراکنش]="انتقال",0,L39))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M40" s="33"/>
       <c r="N40" s="33"/>
     </row>
@@ -9552,7 +9712,10 @@
       <c r="I41" s="27"/>
       <c r="J41" s="29"/>
       <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
+      <c r="L41" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L40,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L40)),((IF(Tarakonesh[تراکنش]="انتقال",0,L40))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M41" s="33"/>
       <c r="N41" s="33"/>
     </row>
@@ -9570,7 +9733,10 @@
       <c r="I42" s="27"/>
       <c r="J42" s="29"/>
       <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
+      <c r="L42" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L41,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L41)),((IF(Tarakonesh[تراکنش]="انتقال",0,L41))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M42" s="33"/>
       <c r="N42" s="33"/>
     </row>
@@ -9588,7 +9754,10 @@
       <c r="I43" s="27"/>
       <c r="J43" s="29"/>
       <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
+      <c r="L43" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L42,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L42)),((IF(Tarakonesh[تراکنش]="انتقال",0,L42))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M43" s="33"/>
       <c r="N43" s="33"/>
     </row>
@@ -9606,7 +9775,10 @@
       <c r="I44" s="27"/>
       <c r="J44" s="29"/>
       <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
+      <c r="L44" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L43,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L43)),((IF(Tarakonesh[تراکنش]="انتقال",0,L43))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M44" s="33"/>
       <c r="N44" s="33"/>
     </row>
@@ -9624,7 +9796,10 @@
       <c r="I45" s="27"/>
       <c r="J45" s="29"/>
       <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
+      <c r="L45" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L44,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L44)),((IF(Tarakonesh[تراکنش]="انتقال",0,L44))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M45" s="33"/>
       <c r="N45" s="33"/>
     </row>
@@ -9642,7 +9817,10 @@
       <c r="I46" s="27"/>
       <c r="J46" s="29"/>
       <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
+      <c r="L46" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L45,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L45)),((IF(Tarakonesh[تراکنش]="انتقال",0,L45))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M46" s="33"/>
       <c r="N46" s="33"/>
     </row>
@@ -9660,7 +9838,10 @@
       <c r="I47" s="27"/>
       <c r="J47" s="29"/>
       <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
+      <c r="L47" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L46,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L46)),((IF(Tarakonesh[تراکنش]="انتقال",0,L46))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M47" s="33"/>
       <c r="N47" s="33"/>
     </row>
@@ -9678,7 +9859,10 @@
       <c r="I48" s="27"/>
       <c r="J48" s="29"/>
       <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
+      <c r="L48" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L47,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L47)),((IF(Tarakonesh[تراکنش]="انتقال",0,L47))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M48" s="33"/>
       <c r="N48" s="33"/>
     </row>
@@ -9696,7 +9880,10 @@
       <c r="I49" s="27"/>
       <c r="J49" s="29"/>
       <c r="K49" s="29"/>
-      <c r="L49" s="29"/>
+      <c r="L49" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L48,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L48)),((IF(Tarakonesh[تراکنش]="انتقال",0,L48))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M49" s="33"/>
       <c r="N49" s="33"/>
     </row>
@@ -9714,7 +9901,10 @@
       <c r="I50" s="27"/>
       <c r="J50" s="29"/>
       <c r="K50" s="29"/>
-      <c r="L50" s="29"/>
+      <c r="L50" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L49,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L49)),((IF(Tarakonesh[تراکنش]="انتقال",0,L49))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M50" s="33"/>
       <c r="N50" s="33"/>
     </row>
@@ -9732,7 +9922,10 @@
       <c r="I51" s="27"/>
       <c r="J51" s="29"/>
       <c r="K51" s="29"/>
-      <c r="L51" s="29"/>
+      <c r="L51" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L50,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L50)),((IF(Tarakonesh[تراکنش]="انتقال",0,L50))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M51" s="33"/>
       <c r="N51" s="33"/>
     </row>
@@ -9750,7 +9943,10 @@
       <c r="I52" s="27"/>
       <c r="J52" s="29"/>
       <c r="K52" s="29"/>
-      <c r="L52" s="29"/>
+      <c r="L52" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L51,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L51)),((IF(Tarakonesh[تراکنش]="انتقال",0,L51))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M52" s="33"/>
       <c r="N52" s="33"/>
     </row>
@@ -9768,7 +9964,10 @@
       <c r="I53" s="27"/>
       <c r="J53" s="29"/>
       <c r="K53" s="29"/>
-      <c r="L53" s="29"/>
+      <c r="L53" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L52,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L52)),((IF(Tarakonesh[تراکنش]="انتقال",0,L52))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M53" s="33"/>
       <c r="N53" s="33"/>
     </row>
@@ -9786,7 +9985,10 @@
       <c r="I54" s="27"/>
       <c r="J54" s="29"/>
       <c r="K54" s="29"/>
-      <c r="L54" s="29"/>
+      <c r="L54" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L53,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L53)),((IF(Tarakonesh[تراکنش]="انتقال",0,L53))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M54" s="33"/>
       <c r="N54" s="33"/>
     </row>
@@ -9804,7 +10006,10 @@
       <c r="I55" s="27"/>
       <c r="J55" s="29"/>
       <c r="K55" s="29"/>
-      <c r="L55" s="29"/>
+      <c r="L55" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L54,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L54)),((IF(Tarakonesh[تراکنش]="انتقال",0,L54))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M55" s="33"/>
       <c r="N55" s="33"/>
     </row>
@@ -9822,7 +10027,10 @@
       <c r="I56" s="27"/>
       <c r="J56" s="29"/>
       <c r="K56" s="29"/>
-      <c r="L56" s="29"/>
+      <c r="L56" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L55,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L55)),((IF(Tarakonesh[تراکنش]="انتقال",0,L55))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M56" s="33"/>
       <c r="N56" s="33"/>
     </row>
@@ -9840,7 +10048,10 @@
       <c r="I57" s="27"/>
       <c r="J57" s="29"/>
       <c r="K57" s="29"/>
-      <c r="L57" s="29"/>
+      <c r="L57" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L56,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L56)),((IF(Tarakonesh[تراکنش]="انتقال",0,L56))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M57" s="33"/>
       <c r="N57" s="33"/>
     </row>
@@ -9858,7 +10069,10 @@
       <c r="I58" s="27"/>
       <c r="J58" s="29"/>
       <c r="K58" s="29"/>
-      <c r="L58" s="29"/>
+      <c r="L58" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L57,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L57)),((IF(Tarakonesh[تراکنش]="انتقال",0,L57))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M58" s="33"/>
       <c r="N58" s="33"/>
     </row>
@@ -9876,7 +10090,10 @@
       <c r="I59" s="27"/>
       <c r="J59" s="29"/>
       <c r="K59" s="29"/>
-      <c r="L59" s="29"/>
+      <c r="L59" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L58,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L58)),((IF(Tarakonesh[تراکنش]="انتقال",0,L58))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M59" s="33"/>
       <c r="N59" s="33"/>
     </row>
@@ -9894,7 +10111,10 @@
       <c r="I60" s="27"/>
       <c r="J60" s="29"/>
       <c r="K60" s="29"/>
-      <c r="L60" s="29"/>
+      <c r="L60" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L59,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L59)),((IF(Tarakonesh[تراکنش]="انتقال",0,L59))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M60" s="33"/>
       <c r="N60" s="33"/>
     </row>
@@ -9912,7 +10132,10 @@
       <c r="I61" s="27"/>
       <c r="J61" s="29"/>
       <c r="K61" s="29"/>
-      <c r="L61" s="29"/>
+      <c r="L61" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L60,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L60)),((IF(Tarakonesh[تراکنش]="انتقال",0,L60))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M61" s="33"/>
       <c r="N61" s="33"/>
     </row>
@@ -9930,7 +10153,10 @@
       <c r="I62" s="27"/>
       <c r="J62" s="29"/>
       <c r="K62" s="29"/>
-      <c r="L62" s="29"/>
+      <c r="L62" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L61,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L61)),((IF(Tarakonesh[تراکنش]="انتقال",0,L61))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M62" s="33"/>
       <c r="N62" s="33"/>
     </row>
@@ -9948,7 +10174,10 @@
       <c r="I63" s="27"/>
       <c r="J63" s="29"/>
       <c r="K63" s="29"/>
-      <c r="L63" s="29"/>
+      <c r="L63" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L62,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L62)),((IF(Tarakonesh[تراکنش]="انتقال",0,L62))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M63" s="33"/>
       <c r="N63" s="33"/>
     </row>
@@ -9966,7 +10195,10 @@
       <c r="I64" s="27"/>
       <c r="J64" s="29"/>
       <c r="K64" s="29"/>
-      <c r="L64" s="29"/>
+      <c r="L64" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L63,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L63)),((IF(Tarakonesh[تراکنش]="انتقال",0,L63))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M64" s="33"/>
       <c r="N64" s="33"/>
     </row>
@@ -9984,7 +10216,10 @@
       <c r="I65" s="27"/>
       <c r="J65" s="29"/>
       <c r="K65" s="29"/>
-      <c r="L65" s="29"/>
+      <c r="L65" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L64,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L64)),((IF(Tarakonesh[تراکنش]="انتقال",0,L64))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M65" s="33"/>
       <c r="N65" s="33"/>
     </row>
@@ -10002,7 +10237,10 @@
       <c r="I66" s="27"/>
       <c r="J66" s="29"/>
       <c r="K66" s="29"/>
-      <c r="L66" s="29"/>
+      <c r="L66" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L65,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L65)),((IF(Tarakonesh[تراکنش]="انتقال",0,L65))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M66" s="33"/>
       <c r="N66" s="33"/>
     </row>
@@ -10020,7 +10258,10 @@
       <c r="I67" s="27"/>
       <c r="J67" s="29"/>
       <c r="K67" s="29"/>
-      <c r="L67" s="29"/>
+      <c r="L67" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L66,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L66)),((IF(Tarakonesh[تراکنش]="انتقال",0,L66))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M67" s="33"/>
       <c r="N67" s="33"/>
     </row>
@@ -10038,7 +10279,10 @@
       <c r="I68" s="27"/>
       <c r="J68" s="29"/>
       <c r="K68" s="29"/>
-      <c r="L68" s="29"/>
+      <c r="L68" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L67,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L67)),((IF(Tarakonesh[تراکنش]="انتقال",0,L67))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M68" s="33"/>
       <c r="N68" s="33"/>
     </row>
@@ -10056,7 +10300,10 @@
       <c r="I69" s="27"/>
       <c r="J69" s="29"/>
       <c r="K69" s="29"/>
-      <c r="L69" s="29"/>
+      <c r="L69" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L68,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L68)),((IF(Tarakonesh[تراکنش]="انتقال",0,L68))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M69" s="33"/>
       <c r="N69" s="33"/>
     </row>
@@ -10074,7 +10321,10 @@
       <c r="I70" s="27"/>
       <c r="J70" s="29"/>
       <c r="K70" s="29"/>
-      <c r="L70" s="29"/>
+      <c r="L70" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L69,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L69)),((IF(Tarakonesh[تراکنش]="انتقال",0,L69))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M70" s="33"/>
       <c r="N70" s="33"/>
     </row>
@@ -10092,7 +10342,10 @@
       <c r="I71" s="27"/>
       <c r="J71" s="29"/>
       <c r="K71" s="29"/>
-      <c r="L71" s="29"/>
+      <c r="L71" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L70,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L70)),((IF(Tarakonesh[تراکنش]="انتقال",0,L70))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M71" s="33"/>
       <c r="N71" s="33"/>
     </row>
@@ -10110,7 +10363,10 @@
       <c r="I72" s="27"/>
       <c r="J72" s="29"/>
       <c r="K72" s="29"/>
-      <c r="L72" s="29"/>
+      <c r="L72" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L71,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L71)),((IF(Tarakonesh[تراکنش]="انتقال",0,L71))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M72" s="33"/>
       <c r="N72" s="33"/>
     </row>
@@ -10128,7 +10384,10 @@
       <c r="I73" s="27"/>
       <c r="J73" s="29"/>
       <c r="K73" s="29"/>
-      <c r="L73" s="29"/>
+      <c r="L73" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L72,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L72)),((IF(Tarakonesh[تراکنش]="انتقال",0,L72))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M73" s="33"/>
       <c r="N73" s="33"/>
     </row>
@@ -10146,7 +10405,10 @@
       <c r="I74" s="27"/>
       <c r="J74" s="29"/>
       <c r="K74" s="29"/>
-      <c r="L74" s="29"/>
+      <c r="L74" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L73,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L73)),((IF(Tarakonesh[تراکنش]="انتقال",0,L73))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M74" s="33"/>
       <c r="N74" s="33"/>
     </row>
@@ -10164,7 +10426,10 @@
       <c r="I75" s="27"/>
       <c r="J75" s="29"/>
       <c r="K75" s="29"/>
-      <c r="L75" s="29"/>
+      <c r="L75" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L74,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L74)),((IF(Tarakonesh[تراکنش]="انتقال",0,L74))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M75" s="33"/>
       <c r="N75" s="33"/>
     </row>
@@ -10182,7 +10447,10 @@
       <c r="I76" s="27"/>
       <c r="J76" s="29"/>
       <c r="K76" s="29"/>
-      <c r="L76" s="29"/>
+      <c r="L76" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L75,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L75)),((IF(Tarakonesh[تراکنش]="انتقال",0,L75))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M76" s="33"/>
       <c r="N76" s="33"/>
     </row>
@@ -10200,7 +10468,10 @@
       <c r="I77" s="27"/>
       <c r="J77" s="29"/>
       <c r="K77" s="29"/>
-      <c r="L77" s="29"/>
+      <c r="L77" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L76,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L76)),((IF(Tarakonesh[تراکنش]="انتقال",0,L76))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M77" s="33"/>
       <c r="N77" s="33"/>
     </row>
@@ -10218,7 +10489,10 @@
       <c r="I78" s="27"/>
       <c r="J78" s="29"/>
       <c r="K78" s="29"/>
-      <c r="L78" s="29"/>
+      <c r="L78" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L77,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L77)),((IF(Tarakonesh[تراکنش]="انتقال",0,L77))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M78" s="33"/>
       <c r="N78" s="33"/>
     </row>
@@ -10236,7 +10510,10 @@
       <c r="I79" s="27"/>
       <c r="J79" s="29"/>
       <c r="K79" s="29"/>
-      <c r="L79" s="29"/>
+      <c r="L79" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L78,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L78)),((IF(Tarakonesh[تراکنش]="انتقال",0,L78))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M79" s="33"/>
       <c r="N79" s="33"/>
     </row>
@@ -10254,7 +10531,10 @@
       <c r="I80" s="27"/>
       <c r="J80" s="29"/>
       <c r="K80" s="29"/>
-      <c r="L80" s="29"/>
+      <c r="L80" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L79,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L79)),((IF(Tarakonesh[تراکنش]="انتقال",0,L79))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M80" s="33"/>
       <c r="N80" s="33"/>
     </row>
@@ -10272,7 +10552,10 @@
       <c r="I81" s="27"/>
       <c r="J81" s="29"/>
       <c r="K81" s="29"/>
-      <c r="L81" s="29"/>
+      <c r="L81" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L80,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L80)),((IF(Tarakonesh[تراکنش]="انتقال",0,L80))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M81" s="33"/>
       <c r="N81" s="33"/>
     </row>
@@ -10290,7 +10573,10 @@
       <c r="I82" s="27"/>
       <c r="J82" s="29"/>
       <c r="K82" s="29"/>
-      <c r="L82" s="29"/>
+      <c r="L82" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L81,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L81)),((IF(Tarakonesh[تراکنش]="انتقال",0,L81))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M82" s="33"/>
       <c r="N82" s="33"/>
     </row>
@@ -10308,7 +10594,10 @@
       <c r="I83" s="27"/>
       <c r="J83" s="29"/>
       <c r="K83" s="29"/>
-      <c r="L83" s="29"/>
+      <c r="L83" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L82,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L82)),((IF(Tarakonesh[تراکنش]="انتقال",0,L82))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M83" s="33"/>
       <c r="N83" s="33"/>
     </row>
@@ -10326,7 +10615,10 @@
       <c r="I84" s="27"/>
       <c r="J84" s="29"/>
       <c r="K84" s="29"/>
-      <c r="L84" s="29"/>
+      <c r="L84" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L83,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L83)),((IF(Tarakonesh[تراکنش]="انتقال",0,L83))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M84" s="33"/>
       <c r="N84" s="33"/>
     </row>
@@ -10344,7 +10636,10 @@
       <c r="I85" s="27"/>
       <c r="J85" s="29"/>
       <c r="K85" s="29"/>
-      <c r="L85" s="29"/>
+      <c r="L85" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L84,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L84)),((IF(Tarakonesh[تراکنش]="انتقال",0,L84))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M85" s="33"/>
       <c r="N85" s="33"/>
     </row>
@@ -10362,7 +10657,10 @@
       <c r="I86" s="27"/>
       <c r="J86" s="29"/>
       <c r="K86" s="29"/>
-      <c r="L86" s="29"/>
+      <c r="L86" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L85,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L85)),((IF(Tarakonesh[تراکنش]="انتقال",0,L85))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M86" s="33"/>
       <c r="N86" s="33"/>
     </row>
@@ -10380,7 +10678,10 @@
       <c r="I87" s="27"/>
       <c r="J87" s="29"/>
       <c r="K87" s="29"/>
-      <c r="L87" s="29"/>
+      <c r="L87" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L86,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L86)),((IF(Tarakonesh[تراکنش]="انتقال",0,L86))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M87" s="33"/>
       <c r="N87" s="33"/>
     </row>
@@ -10398,7 +10699,10 @@
       <c r="I88" s="27"/>
       <c r="J88" s="29"/>
       <c r="K88" s="29"/>
-      <c r="L88" s="29"/>
+      <c r="L88" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L87,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L87)),((IF(Tarakonesh[تراکنش]="انتقال",0,L87))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M88" s="33"/>
       <c r="N88" s="33"/>
     </row>
@@ -10416,7 +10720,10 @@
       <c r="I89" s="27"/>
       <c r="J89" s="29"/>
       <c r="K89" s="29"/>
-      <c r="L89" s="29"/>
+      <c r="L89" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L88,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L88)),((IF(Tarakonesh[تراکنش]="انتقال",0,L88))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M89" s="33"/>
       <c r="N89" s="33"/>
     </row>
@@ -10434,7 +10741,10 @@
       <c r="I90" s="27"/>
       <c r="J90" s="29"/>
       <c r="K90" s="29"/>
-      <c r="L90" s="29"/>
+      <c r="L90" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L89,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L89)),((IF(Tarakonesh[تراکنش]="انتقال",0,L89))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M90" s="33"/>
       <c r="N90" s="33"/>
     </row>
@@ -10452,7 +10762,10 @@
       <c r="I91" s="27"/>
       <c r="J91" s="29"/>
       <c r="K91" s="29"/>
-      <c r="L91" s="29"/>
+      <c r="L91" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L90,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L90)),((IF(Tarakonesh[تراکنش]="انتقال",0,L90))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M91" s="33"/>
       <c r="N91" s="33"/>
     </row>
@@ -10470,7 +10783,10 @@
       <c r="I92" s="27"/>
       <c r="J92" s="29"/>
       <c r="K92" s="29"/>
-      <c r="L92" s="29"/>
+      <c r="L92" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L91,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L91)),((IF(Tarakonesh[تراکنش]="انتقال",0,L91))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M92" s="33"/>
       <c r="N92" s="33"/>
     </row>
@@ -10488,7 +10804,10 @@
       <c r="I93" s="27"/>
       <c r="J93" s="29"/>
       <c r="K93" s="29"/>
-      <c r="L93" s="29"/>
+      <c r="L93" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L92,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L92)),((IF(Tarakonesh[تراکنش]="انتقال",0,L92))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M93" s="33"/>
       <c r="N93" s="33"/>
     </row>
@@ -10506,7 +10825,10 @@
       <c r="I94" s="27"/>
       <c r="J94" s="29"/>
       <c r="K94" s="29"/>
-      <c r="L94" s="29"/>
+      <c r="L94" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L93,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L93)),((IF(Tarakonesh[تراکنش]="انتقال",0,L93))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M94" s="33"/>
       <c r="N94" s="33"/>
     </row>
@@ -10524,7 +10846,10 @@
       <c r="I95" s="27"/>
       <c r="J95" s="29"/>
       <c r="K95" s="29"/>
-      <c r="L95" s="29"/>
+      <c r="L95" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L94,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L94)),((IF(Tarakonesh[تراکنش]="انتقال",0,L94))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M95" s="33"/>
       <c r="N95" s="33"/>
     </row>
@@ -10542,7 +10867,10 @@
       <c r="I96" s="27"/>
       <c r="J96" s="29"/>
       <c r="K96" s="29"/>
-      <c r="L96" s="29"/>
+      <c r="L96" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L95,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L95)),((IF(Tarakonesh[تراکنش]="انتقال",0,L95))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M96" s="33"/>
       <c r="N96" s="33"/>
     </row>
@@ -10560,7 +10888,10 @@
       <c r="I97" s="27"/>
       <c r="J97" s="29"/>
       <c r="K97" s="29"/>
-      <c r="L97" s="29"/>
+      <c r="L97" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L96,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L96)),((IF(Tarakonesh[تراکنش]="انتقال",0,L96))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M97" s="33"/>
       <c r="N97" s="33"/>
     </row>
@@ -10578,7 +10909,10 @@
       <c r="I98" s="27"/>
       <c r="J98" s="29"/>
       <c r="K98" s="29"/>
-      <c r="L98" s="29"/>
+      <c r="L98" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L97,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L97)),((IF(Tarakonesh[تراکنش]="انتقال",0,L97))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M98" s="33"/>
       <c r="N98" s="33"/>
     </row>
@@ -10596,7 +10930,10 @@
       <c r="I99" s="27"/>
       <c r="J99" s="29"/>
       <c r="K99" s="29"/>
-      <c r="L99" s="29"/>
+      <c r="L99" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L98,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L98)),((IF(Tarakonesh[تراکنش]="انتقال",0,L98))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M99" s="33"/>
       <c r="N99" s="33"/>
     </row>
@@ -10614,7 +10951,10 @@
       <c r="I100" s="27"/>
       <c r="J100" s="29"/>
       <c r="K100" s="29"/>
-      <c r="L100" s="29"/>
+      <c r="L100" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L99,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L99)),((IF(Tarakonesh[تراکنش]="انتقال",0,L99))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M100" s="33"/>
       <c r="N100" s="33"/>
     </row>
@@ -10632,7 +10972,10 @@
       <c r="I101" s="27"/>
       <c r="J101" s="29"/>
       <c r="K101" s="29"/>
-      <c r="L101" s="29"/>
+      <c r="L101" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L100,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L100)),((IF(Tarakonesh[تراکنش]="انتقال",0,L100))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M101" s="33"/>
       <c r="N101" s="33"/>
     </row>
@@ -10650,7 +10993,10 @@
       <c r="I102" s="27"/>
       <c r="J102" s="29"/>
       <c r="K102" s="29"/>
-      <c r="L102" s="29"/>
+      <c r="L102" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L101,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L101)),((IF(Tarakonesh[تراکنش]="انتقال",0,L101))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M102" s="33"/>
       <c r="N102" s="33"/>
     </row>
@@ -10668,7 +11014,10 @@
       <c r="I103" s="27"/>
       <c r="J103" s="29"/>
       <c r="K103" s="29"/>
-      <c r="L103" s="29"/>
+      <c r="L103" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L102,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L102)),((IF(Tarakonesh[تراکنش]="انتقال",0,L102))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M103" s="33"/>
       <c r="N103" s="33"/>
     </row>
@@ -10686,7 +11035,10 @@
       <c r="I104" s="27"/>
       <c r="J104" s="29"/>
       <c r="K104" s="29"/>
-      <c r="L104" s="29"/>
+      <c r="L104" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L103,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L103)),((IF(Tarakonesh[تراکنش]="انتقال",0,L103))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M104" s="33"/>
       <c r="N104" s="33"/>
     </row>
@@ -10704,7 +11056,10 @@
       <c r="I105" s="27"/>
       <c r="J105" s="29"/>
       <c r="K105" s="29"/>
-      <c r="L105" s="29"/>
+      <c r="L105" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L104,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L104)),((IF(Tarakonesh[تراکنش]="انتقال",0,L104))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M105" s="33"/>
       <c r="N105" s="33"/>
     </row>
@@ -10722,7 +11077,10 @@
       <c r="I106" s="27"/>
       <c r="J106" s="29"/>
       <c r="K106" s="29"/>
-      <c r="L106" s="29"/>
+      <c r="L106" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L105,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L105)),((IF(Tarakonesh[تراکنش]="انتقال",0,L105))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M106" s="33"/>
       <c r="N106" s="33"/>
     </row>
@@ -10740,7 +11098,10 @@
       <c r="I107" s="27"/>
       <c r="J107" s="29"/>
       <c r="K107" s="29"/>
-      <c r="L107" s="29"/>
+      <c r="L107" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L106,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L106)),((IF(Tarakonesh[تراکنش]="انتقال",0,L106))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M107" s="33"/>
       <c r="N107" s="33"/>
     </row>
@@ -10758,7 +11119,10 @@
       <c r="I108" s="27"/>
       <c r="J108" s="29"/>
       <c r="K108" s="29"/>
-      <c r="L108" s="29"/>
+      <c r="L108" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L107,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L107)),((IF(Tarakonesh[تراکنش]="انتقال",0,L107))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M108" s="33"/>
       <c r="N108" s="33"/>
     </row>
@@ -10776,7 +11140,10 @@
       <c r="I109" s="27"/>
       <c r="J109" s="29"/>
       <c r="K109" s="29"/>
-      <c r="L109" s="29"/>
+      <c r="L109" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L108,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L108)),((IF(Tarakonesh[تراکنش]="انتقال",0,L108))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M109" s="33"/>
       <c r="N109" s="33"/>
     </row>
@@ -10794,7 +11161,10 @@
       <c r="I110" s="27"/>
       <c r="J110" s="29"/>
       <c r="K110" s="29"/>
-      <c r="L110" s="29"/>
+      <c r="L110" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L109,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L109)),((IF(Tarakonesh[تراکنش]="انتقال",0,L109))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M110" s="33"/>
       <c r="N110" s="33"/>
     </row>
@@ -10812,7 +11182,10 @@
       <c r="I111" s="27"/>
       <c r="J111" s="29"/>
       <c r="K111" s="29"/>
-      <c r="L111" s="29"/>
+      <c r="L111" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L110,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L110)),((IF(Tarakonesh[تراکنش]="انتقال",0,L110))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M111" s="33"/>
       <c r="N111" s="33"/>
     </row>
@@ -10830,7 +11203,10 @@
       <c r="I112" s="27"/>
       <c r="J112" s="29"/>
       <c r="K112" s="29"/>
-      <c r="L112" s="29"/>
+      <c r="L112" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L111,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L111)),((IF(Tarakonesh[تراکنش]="انتقال",0,L111))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M112" s="33"/>
       <c r="N112" s="33"/>
     </row>
@@ -10848,7 +11224,10 @@
       <c r="I113" s="27"/>
       <c r="J113" s="29"/>
       <c r="K113" s="29"/>
-      <c r="L113" s="29"/>
+      <c r="L113" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L112,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L112)),((IF(Tarakonesh[تراکنش]="انتقال",0,L112))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M113" s="33"/>
       <c r="N113" s="33"/>
     </row>
@@ -10866,7 +11245,10 @@
       <c r="I114" s="27"/>
       <c r="J114" s="29"/>
       <c r="K114" s="29"/>
-      <c r="L114" s="29"/>
+      <c r="L114" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L113,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L113)),((IF(Tarakonesh[تراکنش]="انتقال",0,L113))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M114" s="33"/>
       <c r="N114" s="33"/>
     </row>
@@ -10884,7 +11266,10 @@
       <c r="I115" s="27"/>
       <c r="J115" s="29"/>
       <c r="K115" s="29"/>
-      <c r="L115" s="29"/>
+      <c r="L115" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L114,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L114)),((IF(Tarakonesh[تراکنش]="انتقال",0,L114))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M115" s="33"/>
       <c r="N115" s="33"/>
     </row>
@@ -10902,7 +11287,10 @@
       <c r="I116" s="27"/>
       <c r="J116" s="29"/>
       <c r="K116" s="29"/>
-      <c r="L116" s="29"/>
+      <c r="L116" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L115,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L115)),((IF(Tarakonesh[تراکنش]="انتقال",0,L115))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M116" s="33"/>
       <c r="N116" s="33"/>
     </row>
@@ -10920,7 +11308,10 @@
       <c r="I117" s="27"/>
       <c r="J117" s="29"/>
       <c r="K117" s="29"/>
-      <c r="L117" s="29"/>
+      <c r="L117" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L116,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L116)),((IF(Tarakonesh[تراکنش]="انتقال",0,L116))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M117" s="33"/>
       <c r="N117" s="33"/>
     </row>
@@ -10938,7 +11329,10 @@
       <c r="I118" s="27"/>
       <c r="J118" s="29"/>
       <c r="K118" s="29"/>
-      <c r="L118" s="29"/>
+      <c r="L118" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L117,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L117)),((IF(Tarakonesh[تراکنش]="انتقال",0,L117))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M118" s="33"/>
       <c r="N118" s="33"/>
     </row>
@@ -10956,7 +11350,10 @@
       <c r="I119" s="27"/>
       <c r="J119" s="29"/>
       <c r="K119" s="29"/>
-      <c r="L119" s="29"/>
+      <c r="L119" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L118,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L118)),((IF(Tarakonesh[تراکنش]="انتقال",0,L118))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M119" s="33"/>
       <c r="N119" s="33"/>
     </row>
@@ -10974,7 +11371,10 @@
       <c r="I120" s="27"/>
       <c r="J120" s="29"/>
       <c r="K120" s="29"/>
-      <c r="L120" s="29"/>
+      <c r="L120" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L119,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L119)),((IF(Tarakonesh[تراکنش]="انتقال",0,L119))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M120" s="33"/>
       <c r="N120" s="33"/>
     </row>
@@ -10992,7 +11392,10 @@
       <c r="I121" s="27"/>
       <c r="J121" s="29"/>
       <c r="K121" s="29"/>
-      <c r="L121" s="29"/>
+      <c r="L121" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L120,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L120)),((IF(Tarakonesh[تراکنش]="انتقال",0,L120))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M121" s="33"/>
       <c r="N121" s="33"/>
     </row>
@@ -11010,7 +11413,10 @@
       <c r="I122" s="27"/>
       <c r="J122" s="29"/>
       <c r="K122" s="29"/>
-      <c r="L122" s="29"/>
+      <c r="L122" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L121,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L121)),((IF(Tarakonesh[تراکنش]="انتقال",0,L121))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M122" s="33"/>
       <c r="N122" s="33"/>
     </row>
@@ -11028,7 +11434,10 @@
       <c r="I123" s="27"/>
       <c r="J123" s="29"/>
       <c r="K123" s="29"/>
-      <c r="L123" s="29"/>
+      <c r="L123" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L122,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L122)),((IF(Tarakonesh[تراکنش]="انتقال",0,L122))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M123" s="33"/>
       <c r="N123" s="33"/>
     </row>
@@ -11046,7 +11455,10 @@
       <c r="I124" s="27"/>
       <c r="J124" s="29"/>
       <c r="K124" s="29"/>
-      <c r="L124" s="29"/>
+      <c r="L124" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L123,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L123)),((IF(Tarakonesh[تراکنش]="انتقال",0,L123))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M124" s="33"/>
       <c r="N124" s="33"/>
     </row>
@@ -11064,7 +11476,10 @@
       <c r="I125" s="27"/>
       <c r="J125" s="29"/>
       <c r="K125" s="29"/>
-      <c r="L125" s="29"/>
+      <c r="L125" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L124,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L124)),((IF(Tarakonesh[تراکنش]="انتقال",0,L124))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M125" s="33"/>
       <c r="N125" s="33"/>
     </row>
@@ -11082,7 +11497,10 @@
       <c r="I126" s="27"/>
       <c r="J126" s="29"/>
       <c r="K126" s="29"/>
-      <c r="L126" s="29"/>
+      <c r="L126" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L125,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L125)),((IF(Tarakonesh[تراکنش]="انتقال",0,L125))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M126" s="33"/>
       <c r="N126" s="33"/>
     </row>
@@ -11100,7 +11518,10 @@
       <c r="I127" s="27"/>
       <c r="J127" s="29"/>
       <c r="K127" s="29"/>
-      <c r="L127" s="29"/>
+      <c r="L127" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L126,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L126)),((IF(Tarakonesh[تراکنش]="انتقال",0,L126))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M127" s="33"/>
       <c r="N127" s="33"/>
     </row>
@@ -11118,7 +11539,10 @@
       <c r="I128" s="27"/>
       <c r="J128" s="29"/>
       <c r="K128" s="29"/>
-      <c r="L128" s="29"/>
+      <c r="L128" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L127,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L127)),((IF(Tarakonesh[تراکنش]="انتقال",0,L127))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M128" s="33"/>
       <c r="N128" s="33"/>
     </row>
@@ -11136,7 +11560,10 @@
       <c r="I129" s="27"/>
       <c r="J129" s="29"/>
       <c r="K129" s="29"/>
-      <c r="L129" s="29"/>
+      <c r="L129" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L128,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L128)),((IF(Tarakonesh[تراکنش]="انتقال",0,L128))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M129" s="33"/>
       <c r="N129" s="33"/>
     </row>
@@ -11154,7 +11581,10 @@
       <c r="I130" s="27"/>
       <c r="J130" s="29"/>
       <c r="K130" s="29"/>
-      <c r="L130" s="29"/>
+      <c r="L130" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L129,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L129)),((IF(Tarakonesh[تراکنش]="انتقال",0,L129))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M130" s="33"/>
       <c r="N130" s="33"/>
     </row>
@@ -11172,7 +11602,10 @@
       <c r="I131" s="27"/>
       <c r="J131" s="29"/>
       <c r="K131" s="29"/>
-      <c r="L131" s="29"/>
+      <c r="L131" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L130,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L130)),((IF(Tarakonesh[تراکنش]="انتقال",0,L130))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M131" s="33"/>
       <c r="N131" s="33"/>
     </row>
@@ -11190,7 +11623,10 @@
       <c r="I132" s="27"/>
       <c r="J132" s="29"/>
       <c r="K132" s="29"/>
-      <c r="L132" s="29"/>
+      <c r="L132" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L131,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L131)),((IF(Tarakonesh[تراکنش]="انتقال",0,L131))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M132" s="33"/>
       <c r="N132" s="33"/>
     </row>
@@ -11208,7 +11644,10 @@
       <c r="I133" s="27"/>
       <c r="J133" s="29"/>
       <c r="K133" s="29"/>
-      <c r="L133" s="29"/>
+      <c r="L133" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L132,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L132)),((IF(Tarakonesh[تراکنش]="انتقال",0,L132))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M133" s="33"/>
       <c r="N133" s="33"/>
     </row>
@@ -11226,7 +11665,10 @@
       <c r="I134" s="27"/>
       <c r="J134" s="29"/>
       <c r="K134" s="29"/>
-      <c r="L134" s="29"/>
+      <c r="L134" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L133,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L133)),((IF(Tarakonesh[تراکنش]="انتقال",0,L133))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M134" s="33"/>
       <c r="N134" s="33"/>
     </row>
@@ -11244,7 +11686,10 @@
       <c r="I135" s="27"/>
       <c r="J135" s="29"/>
       <c r="K135" s="29"/>
-      <c r="L135" s="29"/>
+      <c r="L135" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L134,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L134)),((IF(Tarakonesh[تراکنش]="انتقال",0,L134))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M135" s="33"/>
       <c r="N135" s="33"/>
     </row>
@@ -11262,7 +11707,10 @@
       <c r="I136" s="27"/>
       <c r="J136" s="29"/>
       <c r="K136" s="29"/>
-      <c r="L136" s="29"/>
+      <c r="L136" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L135,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L135)),((IF(Tarakonesh[تراکنش]="انتقال",0,L135))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M136" s="33"/>
       <c r="N136" s="33"/>
     </row>
@@ -11280,7 +11728,10 @@
       <c r="I137" s="27"/>
       <c r="J137" s="29"/>
       <c r="K137" s="29"/>
-      <c r="L137" s="29"/>
+      <c r="L137" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L136,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L136)),((IF(Tarakonesh[تراکنش]="انتقال",0,L136))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M137" s="33"/>
       <c r="N137" s="33"/>
     </row>
@@ -11298,7 +11749,10 @@
       <c r="I138" s="27"/>
       <c r="J138" s="29"/>
       <c r="K138" s="29"/>
-      <c r="L138" s="29"/>
+      <c r="L138" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L137,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L137)),((IF(Tarakonesh[تراکنش]="انتقال",0,L137))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M138" s="33"/>
       <c r="N138" s="33"/>
     </row>
@@ -11316,7 +11770,10 @@
       <c r="I139" s="27"/>
       <c r="J139" s="29"/>
       <c r="K139" s="29"/>
-      <c r="L139" s="29"/>
+      <c r="L139" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L138,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L138)),((IF(Tarakonesh[تراکنش]="انتقال",0,L138))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M139" s="33"/>
       <c r="N139" s="33"/>
     </row>
@@ -11334,7 +11791,10 @@
       <c r="I140" s="27"/>
       <c r="J140" s="29"/>
       <c r="K140" s="29"/>
-      <c r="L140" s="29"/>
+      <c r="L140" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L139,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L139)),((IF(Tarakonesh[تراکنش]="انتقال",0,L139))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M140" s="33"/>
       <c r="N140" s="33"/>
     </row>
@@ -11352,7 +11812,10 @@
       <c r="I141" s="27"/>
       <c r="J141" s="29"/>
       <c r="K141" s="29"/>
-      <c r="L141" s="29"/>
+      <c r="L141" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L140,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L140)),((IF(Tarakonesh[تراکنش]="انتقال",0,L140))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M141" s="33"/>
       <c r="N141" s="33"/>
     </row>
@@ -11370,7 +11833,10 @@
       <c r="I142" s="27"/>
       <c r="J142" s="29"/>
       <c r="K142" s="29"/>
-      <c r="L142" s="29"/>
+      <c r="L142" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L141,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L141)),((IF(Tarakonesh[تراکنش]="انتقال",0,L141))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M142" s="33"/>
       <c r="N142" s="33"/>
     </row>
@@ -11388,7 +11854,10 @@
       <c r="I143" s="27"/>
       <c r="J143" s="29"/>
       <c r="K143" s="29"/>
-      <c r="L143" s="29"/>
+      <c r="L143" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L142,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L142)),((IF(Tarakonesh[تراکنش]="انتقال",0,L142))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M143" s="33"/>
       <c r="N143" s="33"/>
     </row>
@@ -11406,7 +11875,10 @@
       <c r="I144" s="27"/>
       <c r="J144" s="29"/>
       <c r="K144" s="29"/>
-      <c r="L144" s="29"/>
+      <c r="L144" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L143,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L143)),((IF(Tarakonesh[تراکنش]="انتقال",0,L143))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M144" s="33"/>
       <c r="N144" s="33"/>
     </row>
@@ -11424,7 +11896,10 @@
       <c r="I145" s="27"/>
       <c r="J145" s="29"/>
       <c r="K145" s="29"/>
-      <c r="L145" s="29"/>
+      <c r="L145" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L144,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L144)),((IF(Tarakonesh[تراکنش]="انتقال",0,L144))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M145" s="33"/>
       <c r="N145" s="33"/>
     </row>
@@ -11442,7 +11917,10 @@
       <c r="I146" s="27"/>
       <c r="J146" s="29"/>
       <c r="K146" s="29"/>
-      <c r="L146" s="29"/>
+      <c r="L146" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L145,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L145)),((IF(Tarakonesh[تراکنش]="انتقال",0,L145))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M146" s="33"/>
       <c r="N146" s="33"/>
     </row>
@@ -11460,7 +11938,10 @@
       <c r="I147" s="27"/>
       <c r="J147" s="29"/>
       <c r="K147" s="29"/>
-      <c r="L147" s="29"/>
+      <c r="L147" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L146,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L146)),((IF(Tarakonesh[تراکنش]="انتقال",0,L146))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M147" s="33"/>
       <c r="N147" s="33"/>
     </row>
@@ -11478,7 +11959,10 @@
       <c r="I148" s="27"/>
       <c r="J148" s="29"/>
       <c r="K148" s="29"/>
-      <c r="L148" s="29"/>
+      <c r="L148" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L147,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L147)),((IF(Tarakonesh[تراکنش]="انتقال",0,L147))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M148" s="33"/>
       <c r="N148" s="33"/>
     </row>
@@ -11496,7 +11980,10 @@
       <c r="I149" s="27"/>
       <c r="J149" s="29"/>
       <c r="K149" s="29"/>
-      <c r="L149" s="29"/>
+      <c r="L149" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L148,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L148)),((IF(Tarakonesh[تراکنش]="انتقال",0,L148))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M149" s="33"/>
       <c r="N149" s="33"/>
     </row>
@@ -11514,7 +12001,10 @@
       <c r="I150" s="27"/>
       <c r="J150" s="29"/>
       <c r="K150" s="29"/>
-      <c r="L150" s="29"/>
+      <c r="L150" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L149,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L149)),((IF(Tarakonesh[تراکنش]="انتقال",0,L149))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M150" s="33"/>
       <c r="N150" s="33"/>
     </row>
@@ -11532,7 +12022,10 @@
       <c r="I151" s="27"/>
       <c r="J151" s="29"/>
       <c r="K151" s="29"/>
-      <c r="L151" s="29"/>
+      <c r="L151" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L150,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L150)),((IF(Tarakonesh[تراکنش]="انتقال",0,L150))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M151" s="33"/>
       <c r="N151" s="33"/>
     </row>
@@ -11550,7 +12043,10 @@
       <c r="I152" s="27"/>
       <c r="J152" s="29"/>
       <c r="K152" s="29"/>
-      <c r="L152" s="29"/>
+      <c r="L152" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L151,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L151)),((IF(Tarakonesh[تراکنش]="انتقال",0,L151))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M152" s="33"/>
       <c r="N152" s="33"/>
     </row>
@@ -11568,7 +12064,10 @@
       <c r="I153" s="27"/>
       <c r="J153" s="29"/>
       <c r="K153" s="29"/>
-      <c r="L153" s="29"/>
+      <c r="L153" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L152,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L152)),((IF(Tarakonesh[تراکنش]="انتقال",0,L152))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M153" s="33"/>
       <c r="N153" s="33"/>
     </row>
@@ -11586,7 +12085,10 @@
       <c r="I154" s="27"/>
       <c r="J154" s="29"/>
       <c r="K154" s="29"/>
-      <c r="L154" s="29"/>
+      <c r="L154" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L153,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L153)),((IF(Tarakonesh[تراکنش]="انتقال",0,L153))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M154" s="33"/>
       <c r="N154" s="33"/>
     </row>
@@ -11604,7 +12106,10 @@
       <c r="I155" s="27"/>
       <c r="J155" s="29"/>
       <c r="K155" s="29"/>
-      <c r="L155" s="29"/>
+      <c r="L155" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L154,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L154)),((IF(Tarakonesh[تراکنش]="انتقال",0,L154))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M155" s="33"/>
       <c r="N155" s="33"/>
     </row>
@@ -11622,7 +12127,10 @@
       <c r="I156" s="27"/>
       <c r="J156" s="29"/>
       <c r="K156" s="29"/>
-      <c r="L156" s="29"/>
+      <c r="L156" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L155,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L155)),((IF(Tarakonesh[تراکنش]="انتقال",0,L155))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M156" s="33"/>
       <c r="N156" s="33"/>
     </row>
@@ -11640,7 +12148,10 @@
       <c r="I157" s="27"/>
       <c r="J157" s="29"/>
       <c r="K157" s="29"/>
-      <c r="L157" s="29"/>
+      <c r="L157" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L156,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L156)),((IF(Tarakonesh[تراکنش]="انتقال",0,L156))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M157" s="33"/>
       <c r="N157" s="33"/>
     </row>
@@ -11658,7 +12169,10 @@
       <c r="I158" s="27"/>
       <c r="J158" s="29"/>
       <c r="K158" s="29"/>
-      <c r="L158" s="29"/>
+      <c r="L158" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L157,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L157)),((IF(Tarakonesh[تراکنش]="انتقال",0,L157))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M158" s="33"/>
       <c r="N158" s="33"/>
     </row>
@@ -11676,7 +12190,10 @@
       <c r="I159" s="27"/>
       <c r="J159" s="29"/>
       <c r="K159" s="29"/>
-      <c r="L159" s="29"/>
+      <c r="L159" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L158,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L158)),((IF(Tarakonesh[تراکنش]="انتقال",0,L158))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M159" s="33"/>
       <c r="N159" s="33"/>
     </row>
@@ -11694,7 +12211,10 @@
       <c r="I160" s="27"/>
       <c r="J160" s="29"/>
       <c r="K160" s="29"/>
-      <c r="L160" s="29"/>
+      <c r="L160" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L159,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L159)),((IF(Tarakonesh[تراکنش]="انتقال",0,L159))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M160" s="33"/>
       <c r="N160" s="33"/>
     </row>
@@ -11712,7 +12232,10 @@
       <c r="I161" s="27"/>
       <c r="J161" s="29"/>
       <c r="K161" s="29"/>
-      <c r="L161" s="29"/>
+      <c r="L161" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L160,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L160)),((IF(Tarakonesh[تراکنش]="انتقال",0,L160))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M161" s="33"/>
       <c r="N161" s="33"/>
     </row>
@@ -11730,7 +12253,10 @@
       <c r="I162" s="27"/>
       <c r="J162" s="29"/>
       <c r="K162" s="29"/>
-      <c r="L162" s="29"/>
+      <c r="L162" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L161,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L161)),((IF(Tarakonesh[تراکنش]="انتقال",0,L161))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M162" s="33"/>
       <c r="N162" s="33"/>
     </row>
@@ -11748,7 +12274,10 @@
       <c r="I163" s="27"/>
       <c r="J163" s="29"/>
       <c r="K163" s="29"/>
-      <c r="L163" s="29"/>
+      <c r="L163" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L162,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L162)),((IF(Tarakonesh[تراکنش]="انتقال",0,L162))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M163" s="33"/>
       <c r="N163" s="33"/>
     </row>
@@ -11766,7 +12295,10 @@
       <c r="I164" s="27"/>
       <c r="J164" s="29"/>
       <c r="K164" s="29"/>
-      <c r="L164" s="29"/>
+      <c r="L164" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L163,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L163)),((IF(Tarakonesh[تراکنش]="انتقال",0,L163))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M164" s="33"/>
       <c r="N164" s="33"/>
     </row>
@@ -11784,7 +12316,10 @@
       <c r="I165" s="27"/>
       <c r="J165" s="29"/>
       <c r="K165" s="29"/>
-      <c r="L165" s="29"/>
+      <c r="L165" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L164,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L164)),((IF(Tarakonesh[تراکنش]="انتقال",0,L164))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M165" s="33"/>
       <c r="N165" s="33"/>
     </row>
@@ -11802,7 +12337,10 @@
       <c r="I166" s="27"/>
       <c r="J166" s="29"/>
       <c r="K166" s="29"/>
-      <c r="L166" s="29"/>
+      <c r="L166" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L165,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L165)),((IF(Tarakonesh[تراکنش]="انتقال",0,L165))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M166" s="33"/>
       <c r="N166" s="33"/>
     </row>
@@ -11820,7 +12358,10 @@
       <c r="I167" s="27"/>
       <c r="J167" s="29"/>
       <c r="K167" s="29"/>
-      <c r="L167" s="29"/>
+      <c r="L167" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L166,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L166)),((IF(Tarakonesh[تراکنش]="انتقال",0,L166))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M167" s="33"/>
       <c r="N167" s="33"/>
     </row>
@@ -11838,7 +12379,10 @@
       <c r="I168" s="27"/>
       <c r="J168" s="29"/>
       <c r="K168" s="29"/>
-      <c r="L168" s="29"/>
+      <c r="L168" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L167,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L167)),((IF(Tarakonesh[تراکنش]="انتقال",0,L167))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M168" s="33"/>
       <c r="N168" s="33"/>
     </row>
@@ -11856,7 +12400,10 @@
       <c r="I169" s="27"/>
       <c r="J169" s="29"/>
       <c r="K169" s="29"/>
-      <c r="L169" s="29"/>
+      <c r="L169" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L168,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L168)),((IF(Tarakonesh[تراکنش]="انتقال",0,L168))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M169" s="33"/>
       <c r="N169" s="33"/>
     </row>
@@ -11874,7 +12421,10 @@
       <c r="I170" s="27"/>
       <c r="J170" s="29"/>
       <c r="K170" s="29"/>
-      <c r="L170" s="29"/>
+      <c r="L170" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L169,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L169)),((IF(Tarakonesh[تراکنش]="انتقال",0,L169))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M170" s="33"/>
       <c r="N170" s="33"/>
     </row>
@@ -11892,7 +12442,10 @@
       <c r="I171" s="27"/>
       <c r="J171" s="29"/>
       <c r="K171" s="29"/>
-      <c r="L171" s="29"/>
+      <c r="L171" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L170,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L170)),((IF(Tarakonesh[تراکنش]="انتقال",0,L170))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M171" s="33"/>
       <c r="N171" s="33"/>
     </row>
@@ -11910,7 +12463,10 @@
       <c r="I172" s="27"/>
       <c r="J172" s="29"/>
       <c r="K172" s="29"/>
-      <c r="L172" s="29"/>
+      <c r="L172" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L171,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L171)),((IF(Tarakonesh[تراکنش]="انتقال",0,L171))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M172" s="33"/>
       <c r="N172" s="33"/>
     </row>
@@ -11928,7 +12484,10 @@
       <c r="I173" s="27"/>
       <c r="J173" s="29"/>
       <c r="K173" s="29"/>
-      <c r="L173" s="29"/>
+      <c r="L173" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L172,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L172)),((IF(Tarakonesh[تراکنش]="انتقال",0,L172))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M173" s="33"/>
       <c r="N173" s="33"/>
     </row>
@@ -11946,7 +12505,10 @@
       <c r="I174" s="27"/>
       <c r="J174" s="29"/>
       <c r="K174" s="29"/>
-      <c r="L174" s="29"/>
+      <c r="L174" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L173,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L173)),((IF(Tarakonesh[تراکنش]="انتقال",0,L173))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M174" s="33"/>
       <c r="N174" s="33"/>
     </row>
@@ -11964,7 +12526,10 @@
       <c r="I175" s="27"/>
       <c r="J175" s="29"/>
       <c r="K175" s="29"/>
-      <c r="L175" s="29"/>
+      <c r="L175" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L174,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L174)),((IF(Tarakonesh[تراکنش]="انتقال",0,L174))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M175" s="33"/>
       <c r="N175" s="33"/>
     </row>
@@ -11982,7 +12547,10 @@
       <c r="I176" s="27"/>
       <c r="J176" s="29"/>
       <c r="K176" s="29"/>
-      <c r="L176" s="29"/>
+      <c r="L176" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L175,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L175)),((IF(Tarakonesh[تراکنش]="انتقال",0,L175))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M176" s="33"/>
       <c r="N176" s="33"/>
     </row>
@@ -12000,7 +12568,10 @@
       <c r="I177" s="27"/>
       <c r="J177" s="29"/>
       <c r="K177" s="29"/>
-      <c r="L177" s="29"/>
+      <c r="L177" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L176,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L176)),((IF(Tarakonesh[تراکنش]="انتقال",0,L176))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M177" s="33"/>
       <c r="N177" s="33"/>
     </row>
@@ -12018,7 +12589,10 @@
       <c r="I178" s="27"/>
       <c r="J178" s="29"/>
       <c r="K178" s="29"/>
-      <c r="L178" s="29"/>
+      <c r="L178" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L177,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L177)),((IF(Tarakonesh[تراکنش]="انتقال",0,L177))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M178" s="33"/>
       <c r="N178" s="33"/>
     </row>
@@ -12036,7 +12610,10 @@
       <c r="I179" s="27"/>
       <c r="J179" s="29"/>
       <c r="K179" s="29"/>
-      <c r="L179" s="29"/>
+      <c r="L179" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L178,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L178)),((IF(Tarakonesh[تراکنش]="انتقال",0,L178))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M179" s="33"/>
       <c r="N179" s="33"/>
     </row>
@@ -12054,7 +12631,10 @@
       <c r="I180" s="27"/>
       <c r="J180" s="29"/>
       <c r="K180" s="29"/>
-      <c r="L180" s="29"/>
+      <c r="L180" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L179,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L179)),((IF(Tarakonesh[تراکنش]="انتقال",0,L179))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M180" s="33"/>
       <c r="N180" s="33"/>
     </row>
@@ -12072,7 +12652,10 @@
       <c r="I181" s="27"/>
       <c r="J181" s="29"/>
       <c r="K181" s="29"/>
-      <c r="L181" s="29"/>
+      <c r="L181" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L180,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L180)),((IF(Tarakonesh[تراکنش]="انتقال",0,L180))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M181" s="33"/>
       <c r="N181" s="33"/>
     </row>
@@ -12090,7 +12673,10 @@
       <c r="I182" s="27"/>
       <c r="J182" s="29"/>
       <c r="K182" s="29"/>
-      <c r="L182" s="29"/>
+      <c r="L182" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L181,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L181)),((IF(Tarakonesh[تراکنش]="انتقال",0,L181))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M182" s="33"/>
       <c r="N182" s="33"/>
     </row>
@@ -12108,7 +12694,10 @@
       <c r="I183" s="27"/>
       <c r="J183" s="29"/>
       <c r="K183" s="29"/>
-      <c r="L183" s="29"/>
+      <c r="L183" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L182,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L182)),((IF(Tarakonesh[تراکنش]="انتقال",0,L182))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M183" s="33"/>
       <c r="N183" s="33"/>
     </row>
@@ -12126,7 +12715,10 @@
       <c r="I184" s="27"/>
       <c r="J184" s="29"/>
       <c r="K184" s="29"/>
-      <c r="L184" s="29"/>
+      <c r="L184" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L183,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L183)),((IF(Tarakonesh[تراکنش]="انتقال",0,L183))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M184" s="33"/>
       <c r="N184" s="33"/>
     </row>
@@ -12144,7 +12736,10 @@
       <c r="I185" s="27"/>
       <c r="J185" s="29"/>
       <c r="K185" s="29"/>
-      <c r="L185" s="29"/>
+      <c r="L185" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L184,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L184)),((IF(Tarakonesh[تراکنش]="انتقال",0,L184))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M185" s="33"/>
       <c r="N185" s="33"/>
     </row>
@@ -12162,7 +12757,10 @@
       <c r="I186" s="27"/>
       <c r="J186" s="29"/>
       <c r="K186" s="29"/>
-      <c r="L186" s="29"/>
+      <c r="L186" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L185,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L185)),((IF(Tarakonesh[تراکنش]="انتقال",0,L185))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M186" s="33"/>
       <c r="N186" s="33"/>
     </row>
@@ -12180,7 +12778,10 @@
       <c r="I187" s="27"/>
       <c r="J187" s="29"/>
       <c r="K187" s="29"/>
-      <c r="L187" s="29"/>
+      <c r="L187" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L186,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L186)),((IF(Tarakonesh[تراکنش]="انتقال",0,L186))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M187" s="33"/>
       <c r="N187" s="33"/>
     </row>
@@ -12198,7 +12799,10 @@
       <c r="I188" s="27"/>
       <c r="J188" s="29"/>
       <c r="K188" s="29"/>
-      <c r="L188" s="29"/>
+      <c r="L188" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L187,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L187)),((IF(Tarakonesh[تراکنش]="انتقال",0,L187))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M188" s="33"/>
       <c r="N188" s="33"/>
     </row>
@@ -12216,7 +12820,10 @@
       <c r="I189" s="27"/>
       <c r="J189" s="29"/>
       <c r="K189" s="29"/>
-      <c r="L189" s="29"/>
+      <c r="L189" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L188,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L188)),((IF(Tarakonesh[تراکنش]="انتقال",0,L188))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M189" s="33"/>
       <c r="N189" s="33"/>
     </row>
@@ -12234,7 +12841,10 @@
       <c r="I190" s="27"/>
       <c r="J190" s="29"/>
       <c r="K190" s="29"/>
-      <c r="L190" s="29"/>
+      <c r="L190" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L189,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L189)),((IF(Tarakonesh[تراکنش]="انتقال",0,L189))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M190" s="33"/>
       <c r="N190" s="33"/>
     </row>
@@ -12252,7 +12862,10 @@
       <c r="I191" s="27"/>
       <c r="J191" s="29"/>
       <c r="K191" s="29"/>
-      <c r="L191" s="29"/>
+      <c r="L191" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L190,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L190)),((IF(Tarakonesh[تراکنش]="انتقال",0,L190))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M191" s="33"/>
       <c r="N191" s="33"/>
     </row>
@@ -12270,7 +12883,10 @@
       <c r="I192" s="27"/>
       <c r="J192" s="29"/>
       <c r="K192" s="29"/>
-      <c r="L192" s="29"/>
+      <c r="L192" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L191,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L191)),((IF(Tarakonesh[تراکنش]="انتقال",0,L191))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M192" s="33"/>
       <c r="N192" s="33"/>
     </row>
@@ -12288,7 +12904,10 @@
       <c r="I193" s="27"/>
       <c r="J193" s="29"/>
       <c r="K193" s="29"/>
-      <c r="L193" s="29"/>
+      <c r="L193" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L192,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L192)),((IF(Tarakonesh[تراکنش]="انتقال",0,L192))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M193" s="33"/>
       <c r="N193" s="33"/>
     </row>
@@ -12306,7 +12925,10 @@
       <c r="I194" s="27"/>
       <c r="J194" s="29"/>
       <c r="K194" s="29"/>
-      <c r="L194" s="29"/>
+      <c r="L194" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L193,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L193)),((IF(Tarakonesh[تراکنش]="انتقال",0,L193))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M194" s="33"/>
       <c r="N194" s="33"/>
     </row>
@@ -12324,7 +12946,10 @@
       <c r="I195" s="27"/>
       <c r="J195" s="29"/>
       <c r="K195" s="29"/>
-      <c r="L195" s="29"/>
+      <c r="L195" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L194,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L194)),((IF(Tarakonesh[تراکنش]="انتقال",0,L194))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M195" s="33"/>
       <c r="N195" s="33"/>
     </row>
@@ -12342,7 +12967,10 @@
       <c r="I196" s="27"/>
       <c r="J196" s="29"/>
       <c r="K196" s="29"/>
-      <c r="L196" s="29"/>
+      <c r="L196" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L195,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L195)),((IF(Tarakonesh[تراکنش]="انتقال",0,L195))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M196" s="33"/>
       <c r="N196" s="33"/>
     </row>
@@ -12360,7 +12988,10 @@
       <c r="I197" s="27"/>
       <c r="J197" s="29"/>
       <c r="K197" s="29"/>
-      <c r="L197" s="29"/>
+      <c r="L197" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L196,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L196)),((IF(Tarakonesh[تراکنش]="انتقال",0,L196))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M197" s="33"/>
       <c r="N197" s="33"/>
     </row>
@@ -12378,7 +13009,10 @@
       <c r="I198" s="27"/>
       <c r="J198" s="29"/>
       <c r="K198" s="29"/>
-      <c r="L198" s="29"/>
+      <c r="L198" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L197,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L197)),((IF(Tarakonesh[تراکنش]="انتقال",0,L197))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M198" s="33"/>
       <c r="N198" s="33"/>
     </row>
@@ -12396,7 +13030,10 @@
       <c r="I199" s="27"/>
       <c r="J199" s="29"/>
       <c r="K199" s="29"/>
-      <c r="L199" s="29"/>
+      <c r="L199" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L198,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L198)),((IF(Tarakonesh[تراکنش]="انتقال",0,L198))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M199" s="33"/>
       <c r="N199" s="33"/>
     </row>
@@ -12414,7 +13051,10 @@
       <c r="I200" s="27"/>
       <c r="J200" s="29"/>
       <c r="K200" s="29"/>
-      <c r="L200" s="29"/>
+      <c r="L200" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L199,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L199)),((IF(Tarakonesh[تراکنش]="انتقال",0,L199))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M200" s="33"/>
       <c r="N200" s="33"/>
     </row>
@@ -12432,7 +13072,10 @@
       <c r="I201" s="27"/>
       <c r="J201" s="29"/>
       <c r="K201" s="29"/>
-      <c r="L201" s="29"/>
+      <c r="L201" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L200,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L200)),((IF(Tarakonesh[تراکنش]="انتقال",0,L200))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M201" s="33"/>
       <c r="N201" s="33"/>
     </row>
@@ -12450,7 +13093,10 @@
       <c r="I202" s="27"/>
       <c r="J202" s="29"/>
       <c r="K202" s="29"/>
-      <c r="L202" s="29"/>
+      <c r="L202" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L201,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L201)),((IF(Tarakonesh[تراکنش]="انتقال",0,L201))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M202" s="33"/>
       <c r="N202" s="33"/>
     </row>
@@ -12468,7 +13114,10 @@
       <c r="I203" s="27"/>
       <c r="J203" s="29"/>
       <c r="K203" s="29"/>
-      <c r="L203" s="29"/>
+      <c r="L203" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L202,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L202)),((IF(Tarakonesh[تراکنش]="انتقال",0,L202))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M203" s="33"/>
       <c r="N203" s="33"/>
     </row>
@@ -12486,7 +13135,10 @@
       <c r="I204" s="27"/>
       <c r="J204" s="29"/>
       <c r="K204" s="29"/>
-      <c r="L204" s="29"/>
+      <c r="L204" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L203,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L203)),((IF(Tarakonesh[تراکنش]="انتقال",0,L203))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M204" s="33"/>
       <c r="N204" s="33"/>
     </row>
@@ -12504,7 +13156,10 @@
       <c r="I205" s="27"/>
       <c r="J205" s="29"/>
       <c r="K205" s="29"/>
-      <c r="L205" s="29"/>
+      <c r="L205" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L204,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L204)),((IF(Tarakonesh[تراکنش]="انتقال",0,L204))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M205" s="33"/>
       <c r="N205" s="33"/>
     </row>
@@ -12522,7 +13177,10 @@
       <c r="I206" s="27"/>
       <c r="J206" s="29"/>
       <c r="K206" s="29"/>
-      <c r="L206" s="29"/>
+      <c r="L206" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L205,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L205)),((IF(Tarakonesh[تراکنش]="انتقال",0,L205))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M206" s="33"/>
       <c r="N206" s="33"/>
     </row>
@@ -12540,7 +13198,10 @@
       <c r="I207" s="27"/>
       <c r="J207" s="29"/>
       <c r="K207" s="29"/>
-      <c r="L207" s="29"/>
+      <c r="L207" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L206,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L206)),((IF(Tarakonesh[تراکنش]="انتقال",0,L206))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M207" s="33"/>
       <c r="N207" s="33"/>
     </row>
@@ -12558,7 +13219,10 @@
       <c r="I208" s="27"/>
       <c r="J208" s="29"/>
       <c r="K208" s="29"/>
-      <c r="L208" s="29"/>
+      <c r="L208" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L207,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L207)),((IF(Tarakonesh[تراکنش]="انتقال",0,L207))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M208" s="33"/>
       <c r="N208" s="33"/>
     </row>
@@ -12576,7 +13240,10 @@
       <c r="I209" s="27"/>
       <c r="J209" s="29"/>
       <c r="K209" s="29"/>
-      <c r="L209" s="29"/>
+      <c r="L209" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L208,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L208)),((IF(Tarakonesh[تراکنش]="انتقال",0,L208))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M209" s="33"/>
       <c r="N209" s="33"/>
     </row>
@@ -12594,7 +13261,10 @@
       <c r="I210" s="27"/>
       <c r="J210" s="29"/>
       <c r="K210" s="29"/>
-      <c r="L210" s="29"/>
+      <c r="L210" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L209,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L209)),((IF(Tarakonesh[تراکنش]="انتقال",0,L209))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M210" s="33"/>
       <c r="N210" s="33"/>
     </row>
@@ -12612,7 +13282,10 @@
       <c r="I211" s="27"/>
       <c r="J211" s="29"/>
       <c r="K211" s="29"/>
-      <c r="L211" s="29"/>
+      <c r="L211" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L210,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L210)),((IF(Tarakonesh[تراکنش]="انتقال",0,L210))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M211" s="33"/>
       <c r="N211" s="33"/>
     </row>
@@ -12630,7 +13303,10 @@
       <c r="I212" s="27"/>
       <c r="J212" s="29"/>
       <c r="K212" s="29"/>
-      <c r="L212" s="29"/>
+      <c r="L212" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L211,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L211)),((IF(Tarakonesh[تراکنش]="انتقال",0,L211))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M212" s="33"/>
       <c r="N212" s="33"/>
     </row>
@@ -12648,7 +13324,10 @@
       <c r="I213" s="27"/>
       <c r="J213" s="29"/>
       <c r="K213" s="29"/>
-      <c r="L213" s="29"/>
+      <c r="L213" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L212,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L212)),((IF(Tarakonesh[تراکنش]="انتقال",0,L212))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M213" s="33"/>
       <c r="N213" s="33"/>
     </row>
@@ -12666,7 +13345,10 @@
       <c r="I214" s="27"/>
       <c r="J214" s="29"/>
       <c r="K214" s="29"/>
-      <c r="L214" s="29"/>
+      <c r="L214" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L213,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L213)),((IF(Tarakonesh[تراکنش]="انتقال",0,L213))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M214" s="33"/>
       <c r="N214" s="33"/>
     </row>
@@ -12684,7 +13366,10 @@
       <c r="I215" s="27"/>
       <c r="J215" s="29"/>
       <c r="K215" s="29"/>
-      <c r="L215" s="29"/>
+      <c r="L215" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L214,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L214)),((IF(Tarakonesh[تراکنش]="انتقال",0,L214))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M215" s="33"/>
       <c r="N215" s="33"/>
     </row>
@@ -12702,7 +13387,10 @@
       <c r="I216" s="27"/>
       <c r="J216" s="29"/>
       <c r="K216" s="29"/>
-      <c r="L216" s="29"/>
+      <c r="L216" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L215,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L215)),((IF(Tarakonesh[تراکنش]="انتقال",0,L215))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M216" s="33"/>
       <c r="N216" s="33"/>
     </row>
@@ -12720,7 +13408,10 @@
       <c r="I217" s="27"/>
       <c r="J217" s="29"/>
       <c r="K217" s="29"/>
-      <c r="L217" s="29"/>
+      <c r="L217" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L216,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L216)),((IF(Tarakonesh[تراکنش]="انتقال",0,L216))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M217" s="33"/>
       <c r="N217" s="33"/>
     </row>
@@ -12738,7 +13429,10 @@
       <c r="I218" s="27"/>
       <c r="J218" s="29"/>
       <c r="K218" s="29"/>
-      <c r="L218" s="29"/>
+      <c r="L218" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L217,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L217)),((IF(Tarakonesh[تراکنش]="انتقال",0,L217))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M218" s="33"/>
       <c r="N218" s="33"/>
     </row>
@@ -12756,7 +13450,10 @@
       <c r="I219" s="27"/>
       <c r="J219" s="29"/>
       <c r="K219" s="29"/>
-      <c r="L219" s="29"/>
+      <c r="L219" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L218,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L218)),((IF(Tarakonesh[تراکنش]="انتقال",0,L218))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M219" s="33"/>
       <c r="N219" s="33"/>
     </row>
@@ -12774,7 +13471,10 @@
       <c r="I220" s="27"/>
       <c r="J220" s="29"/>
       <c r="K220" s="29"/>
-      <c r="L220" s="29"/>
+      <c r="L220" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L219,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L219)),((IF(Tarakonesh[تراکنش]="انتقال",0,L219))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M220" s="33"/>
       <c r="N220" s="33"/>
     </row>
@@ -12792,7 +13492,10 @@
       <c r="I221" s="27"/>
       <c r="J221" s="29"/>
       <c r="K221" s="29"/>
-      <c r="L221" s="29"/>
+      <c r="L221" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L220,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L220)),((IF(Tarakonesh[تراکنش]="انتقال",0,L220))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M221" s="33"/>
       <c r="N221" s="33"/>
     </row>
@@ -12810,7 +13513,10 @@
       <c r="I222" s="27"/>
       <c r="J222" s="29"/>
       <c r="K222" s="29"/>
-      <c r="L222" s="29"/>
+      <c r="L222" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L221,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L221)),((IF(Tarakonesh[تراکنش]="انتقال",0,L221))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M222" s="33"/>
       <c r="N222" s="33"/>
     </row>
@@ -12828,7 +13534,10 @@
       <c r="I223" s="27"/>
       <c r="J223" s="29"/>
       <c r="K223" s="29"/>
-      <c r="L223" s="29"/>
+      <c r="L223" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L222,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L222)),((IF(Tarakonesh[تراکنش]="انتقال",0,L222))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M223" s="33"/>
       <c r="N223" s="33"/>
     </row>
@@ -12846,7 +13555,10 @@
       <c r="I224" s="27"/>
       <c r="J224" s="29"/>
       <c r="K224" s="29"/>
-      <c r="L224" s="29"/>
+      <c r="L224" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L223,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L223)),((IF(Tarakonesh[تراکنش]="انتقال",0,L223))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M224" s="33"/>
       <c r="N224" s="33"/>
     </row>
@@ -12864,7 +13576,10 @@
       <c r="I225" s="27"/>
       <c r="J225" s="29"/>
       <c r="K225" s="29"/>
-      <c r="L225" s="29"/>
+      <c r="L225" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L224,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L224)),((IF(Tarakonesh[تراکنش]="انتقال",0,L224))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M225" s="33"/>
       <c r="N225" s="33"/>
     </row>
@@ -12882,7 +13597,10 @@
       <c r="I226" s="27"/>
       <c r="J226" s="29"/>
       <c r="K226" s="29"/>
-      <c r="L226" s="29"/>
+      <c r="L226" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L225,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L225)),((IF(Tarakonesh[تراکنش]="انتقال",0,L225))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M226" s="33"/>
       <c r="N226" s="33"/>
     </row>
@@ -12900,7 +13618,10 @@
       <c r="I227" s="27"/>
       <c r="J227" s="29"/>
       <c r="K227" s="29"/>
-      <c r="L227" s="29"/>
+      <c r="L227" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L226,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L226)),((IF(Tarakonesh[تراکنش]="انتقال",0,L226))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M227" s="33"/>
       <c r="N227" s="33"/>
     </row>
@@ -12918,7 +13639,10 @@
       <c r="I228" s="27"/>
       <c r="J228" s="29"/>
       <c r="K228" s="29"/>
-      <c r="L228" s="29"/>
+      <c r="L228" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L227,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L227)),((IF(Tarakonesh[تراکنش]="انتقال",0,L227))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M228" s="33"/>
       <c r="N228" s="33"/>
     </row>
@@ -12936,7 +13660,10 @@
       <c r="I229" s="27"/>
       <c r="J229" s="29"/>
       <c r="K229" s="29"/>
-      <c r="L229" s="29"/>
+      <c r="L229" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L228,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L228)),((IF(Tarakonesh[تراکنش]="انتقال",0,L228))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M229" s="33"/>
       <c r="N229" s="33"/>
     </row>
@@ -12954,7 +13681,10 @@
       <c r="I230" s="27"/>
       <c r="J230" s="29"/>
       <c r="K230" s="29"/>
-      <c r="L230" s="29"/>
+      <c r="L230" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L229,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L229)),((IF(Tarakonesh[تراکنش]="انتقال",0,L229))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M230" s="33"/>
       <c r="N230" s="33"/>
     </row>
@@ -12972,7 +13702,10 @@
       <c r="I231" s="27"/>
       <c r="J231" s="29"/>
       <c r="K231" s="29"/>
-      <c r="L231" s="29"/>
+      <c r="L231" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L230,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L230)),((IF(Tarakonesh[تراکنش]="انتقال",0,L230))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M231" s="33"/>
       <c r="N231" s="33"/>
     </row>
@@ -12990,7 +13723,10 @@
       <c r="I232" s="27"/>
       <c r="J232" s="29"/>
       <c r="K232" s="29"/>
-      <c r="L232" s="29"/>
+      <c r="L232" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L231,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L231)),((IF(Tarakonesh[تراکنش]="انتقال",0,L231))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M232" s="33"/>
       <c r="N232" s="33"/>
     </row>
@@ -13008,7 +13744,10 @@
       <c r="I233" s="27"/>
       <c r="J233" s="29"/>
       <c r="K233" s="29"/>
-      <c r="L233" s="29"/>
+      <c r="L233" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L232,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L232)),((IF(Tarakonesh[تراکنش]="انتقال",0,L232))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M233" s="33"/>
       <c r="N233" s="33"/>
     </row>
@@ -13026,7 +13765,10 @@
       <c r="I234" s="27"/>
       <c r="J234" s="29"/>
       <c r="K234" s="29"/>
-      <c r="L234" s="29"/>
+      <c r="L234" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L233,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L233)),((IF(Tarakonesh[تراکنش]="انتقال",0,L233))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M234" s="33"/>
       <c r="N234" s="33"/>
     </row>
@@ -13044,7 +13786,10 @@
       <c r="I235" s="27"/>
       <c r="J235" s="29"/>
       <c r="K235" s="29"/>
-      <c r="L235" s="29"/>
+      <c r="L235" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L234,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L234)),((IF(Tarakonesh[تراکنش]="انتقال",0,L234))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M235" s="33"/>
       <c r="N235" s="33"/>
     </row>
@@ -13062,7 +13807,10 @@
       <c r="I236" s="27"/>
       <c r="J236" s="29"/>
       <c r="K236" s="29"/>
-      <c r="L236" s="29"/>
+      <c r="L236" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L235,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L235)),((IF(Tarakonesh[تراکنش]="انتقال",0,L235))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M236" s="33"/>
       <c r="N236" s="33"/>
     </row>
@@ -13080,7 +13828,10 @@
       <c r="I237" s="27"/>
       <c r="J237" s="29"/>
       <c r="K237" s="29"/>
-      <c r="L237" s="29"/>
+      <c r="L237" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L236,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L236)),((IF(Tarakonesh[تراکنش]="انتقال",0,L236))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M237" s="33"/>
       <c r="N237" s="33"/>
     </row>
@@ -13098,7 +13849,10 @@
       <c r="I238" s="27"/>
       <c r="J238" s="29"/>
       <c r="K238" s="29"/>
-      <c r="L238" s="29"/>
+      <c r="L238" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L237,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L237)),((IF(Tarakonesh[تراکنش]="انتقال",0,L237))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M238" s="33"/>
       <c r="N238" s="33"/>
     </row>
@@ -13116,7 +13870,10 @@
       <c r="I239" s="27"/>
       <c r="J239" s="29"/>
       <c r="K239" s="29"/>
-      <c r="L239" s="29"/>
+      <c r="L239" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L238,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L238)),((IF(Tarakonesh[تراکنش]="انتقال",0,L238))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M239" s="33"/>
       <c r="N239" s="33"/>
     </row>
@@ -13134,7 +13891,10 @@
       <c r="I240" s="27"/>
       <c r="J240" s="29"/>
       <c r="K240" s="29"/>
-      <c r="L240" s="29"/>
+      <c r="L240" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L239,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L239)),((IF(Tarakonesh[تراکنش]="انتقال",0,L239))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M240" s="33"/>
       <c r="N240" s="33"/>
     </row>
@@ -13152,7 +13912,10 @@
       <c r="I241" s="27"/>
       <c r="J241" s="29"/>
       <c r="K241" s="29"/>
-      <c r="L241" s="29"/>
+      <c r="L241" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L240,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L240)),((IF(Tarakonesh[تراکنش]="انتقال",0,L240))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M241" s="33"/>
       <c r="N241" s="33"/>
     </row>
@@ -13170,7 +13933,10 @@
       <c r="I242" s="27"/>
       <c r="J242" s="29"/>
       <c r="K242" s="29"/>
-      <c r="L242" s="29"/>
+      <c r="L242" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L241,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L241)),((IF(Tarakonesh[تراکنش]="انتقال",0,L241))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M242" s="33"/>
       <c r="N242" s="33"/>
     </row>
@@ -13188,7 +13954,10 @@
       <c r="I243" s="27"/>
       <c r="J243" s="29"/>
       <c r="K243" s="29"/>
-      <c r="L243" s="29"/>
+      <c r="L243" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L242,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L242)),((IF(Tarakonesh[تراکنش]="انتقال",0,L242))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M243" s="33"/>
       <c r="N243" s="33"/>
     </row>
@@ -13206,7 +13975,10 @@
       <c r="I244" s="27"/>
       <c r="J244" s="29"/>
       <c r="K244" s="29"/>
-      <c r="L244" s="29"/>
+      <c r="L244" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L243,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L243)),((IF(Tarakonesh[تراکنش]="انتقال",0,L243))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M244" s="33"/>
       <c r="N244" s="33"/>
     </row>
@@ -13224,7 +13996,10 @@
       <c r="I245" s="27"/>
       <c r="J245" s="29"/>
       <c r="K245" s="29"/>
-      <c r="L245" s="29"/>
+      <c r="L245" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L244,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L244)),((IF(Tarakonesh[تراکنش]="انتقال",0,L244))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M245" s="33"/>
       <c r="N245" s="33"/>
     </row>
@@ -13242,7 +14017,10 @@
       <c r="I246" s="27"/>
       <c r="J246" s="29"/>
       <c r="K246" s="29"/>
-      <c r="L246" s="29"/>
+      <c r="L246" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L245,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L245)),((IF(Tarakonesh[تراکنش]="انتقال",0,L245))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M246" s="33"/>
       <c r="N246" s="33"/>
     </row>
@@ -13260,7 +14038,10 @@
       <c r="I247" s="27"/>
       <c r="J247" s="29"/>
       <c r="K247" s="29"/>
-      <c r="L247" s="29"/>
+      <c r="L247" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L246,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L246)),((IF(Tarakonesh[تراکنش]="انتقال",0,L246))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M247" s="33"/>
       <c r="N247" s="33"/>
     </row>
@@ -13278,7 +14059,10 @@
       <c r="I248" s="27"/>
       <c r="J248" s="29"/>
       <c r="K248" s="29"/>
-      <c r="L248" s="29"/>
+      <c r="L248" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L247,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L247)),((IF(Tarakonesh[تراکنش]="انتقال",0,L247))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M248" s="33"/>
       <c r="N248" s="33"/>
     </row>
@@ -13296,7 +14080,10 @@
       <c r="I249" s="27"/>
       <c r="J249" s="29"/>
       <c r="K249" s="29"/>
-      <c r="L249" s="29"/>
+      <c r="L249" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L248,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L248)),((IF(Tarakonesh[تراکنش]="انتقال",0,L248))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M249" s="33"/>
       <c r="N249" s="33"/>
     </row>
@@ -13314,7 +14101,10 @@
       <c r="I250" s="27"/>
       <c r="J250" s="29"/>
       <c r="K250" s="29"/>
-      <c r="L250" s="29"/>
+      <c r="L250" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L249,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L249)),((IF(Tarakonesh[تراکنش]="انتقال",0,L249))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M250" s="33"/>
       <c r="N250" s="33"/>
     </row>
@@ -13332,7 +14122,10 @@
       <c r="I251" s="27"/>
       <c r="J251" s="29"/>
       <c r="K251" s="29"/>
-      <c r="L251" s="29"/>
+      <c r="L251" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L250,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L250)),((IF(Tarakonesh[تراکنش]="انتقال",0,L250))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M251" s="33"/>
       <c r="N251" s="33"/>
     </row>
@@ -13350,7 +14143,10 @@
       <c r="I252" s="27"/>
       <c r="J252" s="29"/>
       <c r="K252" s="29"/>
-      <c r="L252" s="29"/>
+      <c r="L252" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L251,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L251)),((IF(Tarakonesh[تراکنش]="انتقال",0,L251))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M252" s="33"/>
       <c r="N252" s="33"/>
     </row>
@@ -13368,7 +14164,10 @@
       <c r="I253" s="27"/>
       <c r="J253" s="29"/>
       <c r="K253" s="29"/>
-      <c r="L253" s="29"/>
+      <c r="L253" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L252,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L252)),((IF(Tarakonesh[تراکنش]="انتقال",0,L252))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M253" s="33"/>
       <c r="N253" s="33"/>
     </row>
@@ -13386,7 +14185,10 @@
       <c r="I254" s="27"/>
       <c r="J254" s="29"/>
       <c r="K254" s="29"/>
-      <c r="L254" s="29"/>
+      <c r="L254" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L253,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L253)),((IF(Tarakonesh[تراکنش]="انتقال",0,L253))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M254" s="33"/>
       <c r="N254" s="33"/>
     </row>
@@ -13404,7 +14206,10 @@
       <c r="I255" s="27"/>
       <c r="J255" s="29"/>
       <c r="K255" s="29"/>
-      <c r="L255" s="29"/>
+      <c r="L255" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L254,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L254)),((IF(Tarakonesh[تراکنش]="انتقال",0,L254))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M255" s="33"/>
       <c r="N255" s="33"/>
     </row>
@@ -13422,7 +14227,10 @@
       <c r="I256" s="27"/>
       <c r="J256" s="29"/>
       <c r="K256" s="29"/>
-      <c r="L256" s="29"/>
+      <c r="L256" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L255,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L255)),((IF(Tarakonesh[تراکنش]="انتقال",0,L255))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M256" s="33"/>
       <c r="N256" s="33"/>
     </row>
@@ -13440,7 +14248,10 @@
       <c r="I257" s="27"/>
       <c r="J257" s="29"/>
       <c r="K257" s="29"/>
-      <c r="L257" s="29"/>
+      <c r="L257" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L256,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L256)),((IF(Tarakonesh[تراکنش]="انتقال",0,L256))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M257" s="33"/>
       <c r="N257" s="33"/>
     </row>
@@ -13458,7 +14269,10 @@
       <c r="I258" s="27"/>
       <c r="J258" s="29"/>
       <c r="K258" s="29"/>
-      <c r="L258" s="29"/>
+      <c r="L258" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L257,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L257)),((IF(Tarakonesh[تراکنش]="انتقال",0,L257))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M258" s="33"/>
       <c r="N258" s="33"/>
     </row>
@@ -13476,7 +14290,10 @@
       <c r="I259" s="27"/>
       <c r="J259" s="29"/>
       <c r="K259" s="29"/>
-      <c r="L259" s="29"/>
+      <c r="L259" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L258,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L258)),((IF(Tarakonesh[تراکنش]="انتقال",0,L258))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M259" s="33"/>
       <c r="N259" s="33"/>
     </row>
@@ -13494,7 +14311,10 @@
       <c r="I260" s="27"/>
       <c r="J260" s="29"/>
       <c r="K260" s="29"/>
-      <c r="L260" s="29"/>
+      <c r="L260" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L259,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L259)),((IF(Tarakonesh[تراکنش]="انتقال",0,L259))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M260" s="33"/>
       <c r="N260" s="33"/>
     </row>
@@ -13512,7 +14332,10 @@
       <c r="I261" s="27"/>
       <c r="J261" s="29"/>
       <c r="K261" s="29"/>
-      <c r="L261" s="29"/>
+      <c r="L261" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L260,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L260)),((IF(Tarakonesh[تراکنش]="انتقال",0,L260))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M261" s="33"/>
       <c r="N261" s="33"/>
     </row>
@@ -13530,7 +14353,10 @@
       <c r="I262" s="27"/>
       <c r="J262" s="29"/>
       <c r="K262" s="29"/>
-      <c r="L262" s="29"/>
+      <c r="L262" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L261,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L261)),((IF(Tarakonesh[تراکنش]="انتقال",0,L261))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M262" s="33"/>
       <c r="N262" s="33"/>
     </row>
@@ -13548,7 +14374,10 @@
       <c r="I263" s="27"/>
       <c r="J263" s="29"/>
       <c r="K263" s="29"/>
-      <c r="L263" s="29"/>
+      <c r="L263" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L262,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L262)),((IF(Tarakonesh[تراکنش]="انتقال",0,L262))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M263" s="33"/>
       <c r="N263" s="33"/>
     </row>
@@ -13566,7 +14395,10 @@
       <c r="I264" s="27"/>
       <c r="J264" s="29"/>
       <c r="K264" s="29"/>
-      <c r="L264" s="29"/>
+      <c r="L264" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L263,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L263)),((IF(Tarakonesh[تراکنش]="انتقال",0,L263))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M264" s="33"/>
       <c r="N264" s="33"/>
     </row>
@@ -13584,7 +14416,10 @@
       <c r="I265" s="27"/>
       <c r="J265" s="29"/>
       <c r="K265" s="29"/>
-      <c r="L265" s="29"/>
+      <c r="L265" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L264,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L264)),((IF(Tarakonesh[تراکنش]="انتقال",0,L264))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M265" s="33"/>
       <c r="N265" s="33"/>
     </row>
@@ -13602,7 +14437,10 @@
       <c r="I266" s="27"/>
       <c r="J266" s="29"/>
       <c r="K266" s="29"/>
-      <c r="L266" s="29"/>
+      <c r="L266" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L265,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L265)),((IF(Tarakonesh[تراکنش]="انتقال",0,L265))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M266" s="33"/>
       <c r="N266" s="33"/>
     </row>
@@ -13620,7 +14458,10 @@
       <c r="I267" s="27"/>
       <c r="J267" s="29"/>
       <c r="K267" s="29"/>
-      <c r="L267" s="29"/>
+      <c r="L267" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L266,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L266)),((IF(Tarakonesh[تراکنش]="انتقال",0,L266))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M267" s="33"/>
       <c r="N267" s="33"/>
     </row>
@@ -13638,7 +14479,10 @@
       <c r="I268" s="27"/>
       <c r="J268" s="29"/>
       <c r="K268" s="29"/>
-      <c r="L268" s="29"/>
+      <c r="L268" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L267,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L267)),((IF(Tarakonesh[تراکنش]="انتقال",0,L267))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M268" s="33"/>
       <c r="N268" s="33"/>
     </row>
@@ -13656,7 +14500,10 @@
       <c r="I269" s="27"/>
       <c r="J269" s="29"/>
       <c r="K269" s="29"/>
-      <c r="L269" s="29"/>
+      <c r="L269" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L268,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L268)),((IF(Tarakonesh[تراکنش]="انتقال",0,L268))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M269" s="33"/>
       <c r="N269" s="33"/>
     </row>
@@ -13674,7 +14521,10 @@
       <c r="I270" s="27"/>
       <c r="J270" s="29"/>
       <c r="K270" s="29"/>
-      <c r="L270" s="29"/>
+      <c r="L270" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L269,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L269)),((IF(Tarakonesh[تراکنش]="انتقال",0,L269))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M270" s="33"/>
       <c r="N270" s="33"/>
     </row>
@@ -13692,7 +14542,10 @@
       <c r="I271" s="27"/>
       <c r="J271" s="29"/>
       <c r="K271" s="29"/>
-      <c r="L271" s="29"/>
+      <c r="L271" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L270,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L270)),((IF(Tarakonesh[تراکنش]="انتقال",0,L270))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M271" s="33"/>
       <c r="N271" s="33"/>
     </row>
@@ -13710,7 +14563,10 @@
       <c r="I272" s="27"/>
       <c r="J272" s="29"/>
       <c r="K272" s="29"/>
-      <c r="L272" s="29"/>
+      <c r="L272" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L271,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L271)),((IF(Tarakonesh[تراکنش]="انتقال",0,L271))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M272" s="33"/>
       <c r="N272" s="33"/>
     </row>
@@ -13728,7 +14584,10 @@
       <c r="I273" s="27"/>
       <c r="J273" s="29"/>
       <c r="K273" s="29"/>
-      <c r="L273" s="29"/>
+      <c r="L273" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L272,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L272)),((IF(Tarakonesh[تراکنش]="انتقال",0,L272))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M273" s="33"/>
       <c r="N273" s="33"/>
     </row>
@@ -13746,7 +14605,10 @@
       <c r="I274" s="27"/>
       <c r="J274" s="29"/>
       <c r="K274" s="29"/>
-      <c r="L274" s="29"/>
+      <c r="L274" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L273,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L273)),((IF(Tarakonesh[تراکنش]="انتقال",0,L273))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M274" s="33"/>
       <c r="N274" s="33"/>
     </row>
@@ -13764,7 +14626,10 @@
       <c r="I275" s="27"/>
       <c r="J275" s="29"/>
       <c r="K275" s="29"/>
-      <c r="L275" s="29"/>
+      <c r="L275" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L274,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L274)),((IF(Tarakonesh[تراکنش]="انتقال",0,L274))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M275" s="33"/>
       <c r="N275" s="33"/>
     </row>
@@ -13782,7 +14647,10 @@
       <c r="I276" s="27"/>
       <c r="J276" s="29"/>
       <c r="K276" s="29"/>
-      <c r="L276" s="29"/>
+      <c r="L276" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L275,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L275)),((IF(Tarakonesh[تراکنش]="انتقال",0,L275))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M276" s="33"/>
       <c r="N276" s="33"/>
     </row>
@@ -13800,7 +14668,10 @@
       <c r="I277" s="27"/>
       <c r="J277" s="29"/>
       <c r="K277" s="29"/>
-      <c r="L277" s="29"/>
+      <c r="L277" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L276,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L276)),((IF(Tarakonesh[تراکنش]="انتقال",0,L276))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M277" s="33"/>
       <c r="N277" s="33"/>
     </row>
@@ -13818,7 +14689,10 @@
       <c r="I278" s="27"/>
       <c r="J278" s="29"/>
       <c r="K278" s="29"/>
-      <c r="L278" s="29"/>
+      <c r="L278" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L277,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L277)),((IF(Tarakonesh[تراکنش]="انتقال",0,L277))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M278" s="33"/>
       <c r="N278" s="33"/>
     </row>
@@ -13836,7 +14710,10 @@
       <c r="I279" s="27"/>
       <c r="J279" s="29"/>
       <c r="K279" s="29"/>
-      <c r="L279" s="29"/>
+      <c r="L279" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L278,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L278)),((IF(Tarakonesh[تراکنش]="انتقال",0,L278))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M279" s="33"/>
       <c r="N279" s="33"/>
     </row>
@@ -13854,7 +14731,10 @@
       <c r="I280" s="27"/>
       <c r="J280" s="29"/>
       <c r="K280" s="29"/>
-      <c r="L280" s="29"/>
+      <c r="L280" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L279,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L279)),((IF(Tarakonesh[تراکنش]="انتقال",0,L279))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M280" s="33"/>
       <c r="N280" s="33"/>
     </row>
@@ -13872,7 +14752,10 @@
       <c r="I281" s="27"/>
       <c r="J281" s="29"/>
       <c r="K281" s="29"/>
-      <c r="L281" s="29"/>
+      <c r="L281" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L280,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L280)),((IF(Tarakonesh[تراکنش]="انتقال",0,L280))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M281" s="33"/>
       <c r="N281" s="33"/>
     </row>
@@ -13890,7 +14773,10 @@
       <c r="I282" s="27"/>
       <c r="J282" s="29"/>
       <c r="K282" s="29"/>
-      <c r="L282" s="29"/>
+      <c r="L282" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L281,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L281)),((IF(Tarakonesh[تراکنش]="انتقال",0,L281))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M282" s="33"/>
       <c r="N282" s="33"/>
     </row>
@@ -13908,7 +14794,10 @@
       <c r="I283" s="27"/>
       <c r="J283" s="29"/>
       <c r="K283" s="29"/>
-      <c r="L283" s="29"/>
+      <c r="L283" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L282,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L282)),((IF(Tarakonesh[تراکنش]="انتقال",0,L282))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M283" s="33"/>
       <c r="N283" s="33"/>
     </row>
@@ -13926,7 +14815,10 @@
       <c r="I284" s="27"/>
       <c r="J284" s="29"/>
       <c r="K284" s="29"/>
-      <c r="L284" s="29"/>
+      <c r="L284" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L283,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L283)),((IF(Tarakonesh[تراکنش]="انتقال",0,L283))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M284" s="33"/>
       <c r="N284" s="33"/>
     </row>
@@ -13944,7 +14836,10 @@
       <c r="I285" s="27"/>
       <c r="J285" s="29"/>
       <c r="K285" s="29"/>
-      <c r="L285" s="29"/>
+      <c r="L285" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L284,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L284)),((IF(Tarakonesh[تراکنش]="انتقال",0,L284))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M285" s="33"/>
       <c r="N285" s="33"/>
     </row>
@@ -13962,7 +14857,10 @@
       <c r="I286" s="27"/>
       <c r="J286" s="29"/>
       <c r="K286" s="29"/>
-      <c r="L286" s="29"/>
+      <c r="L286" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L285,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L285)),((IF(Tarakonesh[تراکنش]="انتقال",0,L285))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M286" s="33"/>
       <c r="N286" s="33"/>
     </row>
@@ -13980,7 +14878,10 @@
       <c r="I287" s="27"/>
       <c r="J287" s="29"/>
       <c r="K287" s="29"/>
-      <c r="L287" s="29"/>
+      <c r="L287" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L286,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L286)),((IF(Tarakonesh[تراکنش]="انتقال",0,L286))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M287" s="33"/>
       <c r="N287" s="33"/>
     </row>
@@ -13998,7 +14899,10 @@
       <c r="I288" s="27"/>
       <c r="J288" s="29"/>
       <c r="K288" s="29"/>
-      <c r="L288" s="29"/>
+      <c r="L288" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L287,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L287)),((IF(Tarakonesh[تراکنش]="انتقال",0,L287))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M288" s="33"/>
       <c r="N288" s="33"/>
     </row>
@@ -14016,7 +14920,10 @@
       <c r="I289" s="27"/>
       <c r="J289" s="29"/>
       <c r="K289" s="29"/>
-      <c r="L289" s="29"/>
+      <c r="L289" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L288,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L288)),((IF(Tarakonesh[تراکنش]="انتقال",0,L288))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M289" s="33"/>
       <c r="N289" s="33"/>
     </row>
@@ -14034,7 +14941,10 @@
       <c r="I290" s="27"/>
       <c r="J290" s="29"/>
       <c r="K290" s="29"/>
-      <c r="L290" s="29"/>
+      <c r="L290" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L289,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L289)),((IF(Tarakonesh[تراکنش]="انتقال",0,L289))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M290" s="33"/>
       <c r="N290" s="33"/>
     </row>
@@ -14052,7 +14962,10 @@
       <c r="I291" s="27"/>
       <c r="J291" s="29"/>
       <c r="K291" s="29"/>
-      <c r="L291" s="29"/>
+      <c r="L291" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L290,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L290)),((IF(Tarakonesh[تراکنش]="انتقال",0,L290))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M291" s="33"/>
       <c r="N291" s="33"/>
     </row>
@@ -14070,7 +14983,10 @@
       <c r="I292" s="27"/>
       <c r="J292" s="29"/>
       <c r="K292" s="29"/>
-      <c r="L292" s="29"/>
+      <c r="L292" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L291,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L291)),((IF(Tarakonesh[تراکنش]="انتقال",0,L291))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M292" s="33"/>
       <c r="N292" s="33"/>
     </row>
@@ -14088,7 +15004,10 @@
       <c r="I293" s="27"/>
       <c r="J293" s="29"/>
       <c r="K293" s="29"/>
-      <c r="L293" s="29"/>
+      <c r="L293" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L292,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L292)),((IF(Tarakonesh[تراکنش]="انتقال",0,L292))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M293" s="33"/>
       <c r="N293" s="33"/>
     </row>
@@ -14106,7 +15025,10 @@
       <c r="I294" s="27"/>
       <c r="J294" s="29"/>
       <c r="K294" s="29"/>
-      <c r="L294" s="29"/>
+      <c r="L294" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L293,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L293)),((IF(Tarakonesh[تراکنش]="انتقال",0,L293))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M294" s="33"/>
       <c r="N294" s="33"/>
     </row>
@@ -14124,7 +15046,10 @@
       <c r="I295" s="27"/>
       <c r="J295" s="29"/>
       <c r="K295" s="29"/>
-      <c r="L295" s="29"/>
+      <c r="L295" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L294,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L294)),((IF(Tarakonesh[تراکنش]="انتقال",0,L294))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M295" s="33"/>
       <c r="N295" s="33"/>
     </row>
@@ -14142,7 +15067,10 @@
       <c r="I296" s="27"/>
       <c r="J296" s="29"/>
       <c r="K296" s="29"/>
-      <c r="L296" s="29"/>
+      <c r="L296" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L295,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L295)),((IF(Tarakonesh[تراکنش]="انتقال",0,L295))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M296" s="33"/>
       <c r="N296" s="33"/>
     </row>
@@ -14160,7 +15088,10 @@
       <c r="I297" s="27"/>
       <c r="J297" s="29"/>
       <c r="K297" s="29"/>
-      <c r="L297" s="29"/>
+      <c r="L297" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L296,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L296)),((IF(Tarakonesh[تراکنش]="انتقال",0,L296))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M297" s="33"/>
       <c r="N297" s="33"/>
     </row>
@@ -14178,7 +15109,10 @@
       <c r="I298" s="27"/>
       <c r="J298" s="29"/>
       <c r="K298" s="29"/>
-      <c r="L298" s="29"/>
+      <c r="L298" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L297,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L297)),((IF(Tarakonesh[تراکنش]="انتقال",0,L297))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M298" s="33"/>
       <c r="N298" s="33"/>
     </row>
@@ -14196,7 +15130,10 @@
       <c r="I299" s="27"/>
       <c r="J299" s="29"/>
       <c r="K299" s="29"/>
-      <c r="L299" s="29"/>
+      <c r="L299" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L298,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L298)),((IF(Tarakonesh[تراکنش]="انتقال",0,L298))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M299" s="33"/>
       <c r="N299" s="33"/>
     </row>
@@ -14214,7 +15151,10 @@
       <c r="I300" s="27"/>
       <c r="J300" s="29"/>
       <c r="K300" s="29"/>
-      <c r="L300" s="29"/>
+      <c r="L300" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L299,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L299)),((IF(Tarakonesh[تراکنش]="انتقال",0,L299))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M300" s="33"/>
       <c r="N300" s="33"/>
     </row>
@@ -14232,7 +15172,10 @@
       <c r="I301" s="27"/>
       <c r="J301" s="29"/>
       <c r="K301" s="29"/>
-      <c r="L301" s="29"/>
+      <c r="L301" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L300,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L300)),((IF(Tarakonesh[تراکنش]="انتقال",0,L300))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M301" s="33"/>
       <c r="N301" s="33"/>
     </row>
@@ -14250,7 +15193,10 @@
       <c r="I302" s="27"/>
       <c r="J302" s="29"/>
       <c r="K302" s="29"/>
-      <c r="L302" s="29"/>
+      <c r="L302" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L301,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L301)),((IF(Tarakonesh[تراکنش]="انتقال",0,L301))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M302" s="33"/>
       <c r="N302" s="33"/>
     </row>
@@ -14268,7 +15214,10 @@
       <c r="I303" s="27"/>
       <c r="J303" s="29"/>
       <c r="K303" s="29"/>
-      <c r="L303" s="29"/>
+      <c r="L303" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L302,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L302)),((IF(Tarakonesh[تراکنش]="انتقال",0,L302))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M303" s="33"/>
       <c r="N303" s="33"/>
     </row>
@@ -14286,7 +15235,10 @@
       <c r="I304" s="27"/>
       <c r="J304" s="29"/>
       <c r="K304" s="29"/>
-      <c r="L304" s="29"/>
+      <c r="L304" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L303,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L303)),((IF(Tarakonesh[تراکنش]="انتقال",0,L303))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M304" s="33"/>
       <c r="N304" s="33"/>
     </row>
@@ -14304,7 +15256,10 @@
       <c r="I305" s="27"/>
       <c r="J305" s="29"/>
       <c r="K305" s="29"/>
-      <c r="L305" s="29"/>
+      <c r="L305" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L304,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L304)),((IF(Tarakonesh[تراکنش]="انتقال",0,L304))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M305" s="33"/>
       <c r="N305" s="33"/>
     </row>
@@ -14322,7 +15277,10 @@
       <c r="I306" s="27"/>
       <c r="J306" s="29"/>
       <c r="K306" s="29"/>
-      <c r="L306" s="29"/>
+      <c r="L306" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L305,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L305)),((IF(Tarakonesh[تراکنش]="انتقال",0,L305))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M306" s="33"/>
       <c r="N306" s="33"/>
     </row>
@@ -14340,7 +15298,10 @@
       <c r="I307" s="27"/>
       <c r="J307" s="29"/>
       <c r="K307" s="29"/>
-      <c r="L307" s="29"/>
+      <c r="L307" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L306,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L306)),((IF(Tarakonesh[تراکنش]="انتقال",0,L306))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M307" s="33"/>
       <c r="N307" s="33"/>
     </row>
@@ -14358,7 +15319,10 @@
       <c r="I308" s="27"/>
       <c r="J308" s="29"/>
       <c r="K308" s="29"/>
-      <c r="L308" s="29"/>
+      <c r="L308" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L307,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L307)),((IF(Tarakonesh[تراکنش]="انتقال",0,L307))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M308" s="33"/>
       <c r="N308" s="33"/>
     </row>
@@ -14376,7 +15340,10 @@
       <c r="I309" s="27"/>
       <c r="J309" s="29"/>
       <c r="K309" s="29"/>
-      <c r="L309" s="29"/>
+      <c r="L309" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L308,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L308)),((IF(Tarakonesh[تراکنش]="انتقال",0,L308))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M309" s="33"/>
       <c r="N309" s="33"/>
     </row>
@@ -14394,7 +15361,10 @@
       <c r="I310" s="27"/>
       <c r="J310" s="29"/>
       <c r="K310" s="29"/>
-      <c r="L310" s="29"/>
+      <c r="L310" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L309,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L309)),((IF(Tarakonesh[تراکنش]="انتقال",0,L309))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M310" s="33"/>
       <c r="N310" s="33"/>
     </row>
@@ -14412,7 +15382,10 @@
       <c r="I311" s="27"/>
       <c r="J311" s="29"/>
       <c r="K311" s="29"/>
-      <c r="L311" s="29"/>
+      <c r="L311" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L310,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L310)),((IF(Tarakonesh[تراکنش]="انتقال",0,L310))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M311" s="33"/>
       <c r="N311" s="33"/>
     </row>
@@ -14430,7 +15403,10 @@
       <c r="I312" s="27"/>
       <c r="J312" s="29"/>
       <c r="K312" s="29"/>
-      <c r="L312" s="29"/>
+      <c r="L312" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L311,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L311)),((IF(Tarakonesh[تراکنش]="انتقال",0,L311))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M312" s="33"/>
       <c r="N312" s="33"/>
     </row>
@@ -14448,7 +15424,10 @@
       <c r="I313" s="27"/>
       <c r="J313" s="29"/>
       <c r="K313" s="29"/>
-      <c r="L313" s="29"/>
+      <c r="L313" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L312,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L312)),((IF(Tarakonesh[تراکنش]="انتقال",0,L312))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M313" s="33"/>
       <c r="N313" s="33"/>
     </row>
@@ -14466,7 +15445,10 @@
       <c r="I314" s="27"/>
       <c r="J314" s="29"/>
       <c r="K314" s="29"/>
-      <c r="L314" s="29"/>
+      <c r="L314" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L313,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L313)),((IF(Tarakonesh[تراکنش]="انتقال",0,L313))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M314" s="33"/>
       <c r="N314" s="33"/>
     </row>
@@ -14484,7 +15466,10 @@
       <c r="I315" s="27"/>
       <c r="J315" s="29"/>
       <c r="K315" s="29"/>
-      <c r="L315" s="29"/>
+      <c r="L315" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L314,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L314)),((IF(Tarakonesh[تراکنش]="انتقال",0,L314))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M315" s="33"/>
       <c r="N315" s="33"/>
     </row>
@@ -14502,7 +15487,10 @@
       <c r="I316" s="27"/>
       <c r="J316" s="29"/>
       <c r="K316" s="29"/>
-      <c r="L316" s="29"/>
+      <c r="L316" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L315,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L315)),((IF(Tarakonesh[تراکنش]="انتقال",0,L315))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M316" s="33"/>
       <c r="N316" s="33"/>
     </row>
@@ -14520,7 +15508,10 @@
       <c r="I317" s="27"/>
       <c r="J317" s="29"/>
       <c r="K317" s="29"/>
-      <c r="L317" s="29"/>
+      <c r="L317" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L316,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L316)),((IF(Tarakonesh[تراکنش]="انتقال",0,L316))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M317" s="33"/>
       <c r="N317" s="33"/>
     </row>
@@ -14538,7 +15529,10 @@
       <c r="I318" s="27"/>
       <c r="J318" s="29"/>
       <c r="K318" s="29"/>
-      <c r="L318" s="29"/>
+      <c r="L318" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L317,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L317)),((IF(Tarakonesh[تراکنش]="انتقال",0,L317))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M318" s="33"/>
       <c r="N318" s="33"/>
     </row>
@@ -14556,7 +15550,10 @@
       <c r="I319" s="27"/>
       <c r="J319" s="29"/>
       <c r="K319" s="29"/>
-      <c r="L319" s="29"/>
+      <c r="L319" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L318,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L318)),((IF(Tarakonesh[تراکنش]="انتقال",0,L318))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M319" s="33"/>
       <c r="N319" s="33"/>
     </row>
@@ -14574,7 +15571,10 @@
       <c r="I320" s="27"/>
       <c r="J320" s="29"/>
       <c r="K320" s="29"/>
-      <c r="L320" s="29"/>
+      <c r="L320" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L319,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L319)),((IF(Tarakonesh[تراکنش]="انتقال",0,L319))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M320" s="33"/>
       <c r="N320" s="33"/>
     </row>
@@ -14592,7 +15592,10 @@
       <c r="I321" s="27"/>
       <c r="J321" s="29"/>
       <c r="K321" s="29"/>
-      <c r="L321" s="29"/>
+      <c r="L321" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L320,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L320)),((IF(Tarakonesh[تراکنش]="انتقال",0,L320))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M321" s="33"/>
       <c r="N321" s="33"/>
     </row>
@@ -14610,7 +15613,10 @@
       <c r="I322" s="27"/>
       <c r="J322" s="29"/>
       <c r="K322" s="29"/>
-      <c r="L322" s="29"/>
+      <c r="L322" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L321,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L321)),((IF(Tarakonesh[تراکنش]="انتقال",0,L321))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M322" s="33"/>
       <c r="N322" s="33"/>
     </row>
@@ -14628,7 +15634,10 @@
       <c r="I323" s="27"/>
       <c r="J323" s="29"/>
       <c r="K323" s="29"/>
-      <c r="L323" s="29"/>
+      <c r="L323" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L322,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L322)),((IF(Tarakonesh[تراکنش]="انتقال",0,L322))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M323" s="33"/>
       <c r="N323" s="33"/>
     </row>
@@ -14646,7 +15655,10 @@
       <c r="I324" s="27"/>
       <c r="J324" s="29"/>
       <c r="K324" s="29"/>
-      <c r="L324" s="29"/>
+      <c r="L324" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L323,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L323)),((IF(Tarakonesh[تراکنش]="انتقال",0,L323))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M324" s="33"/>
       <c r="N324" s="33"/>
     </row>
@@ -14664,7 +15676,10 @@
       <c r="I325" s="27"/>
       <c r="J325" s="29"/>
       <c r="K325" s="29"/>
-      <c r="L325" s="29"/>
+      <c r="L325" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L324,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L324)),((IF(Tarakonesh[تراکنش]="انتقال",0,L324))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M325" s="33"/>
       <c r="N325" s="33"/>
     </row>
@@ -14682,7 +15697,10 @@
       <c r="I326" s="27"/>
       <c r="J326" s="29"/>
       <c r="K326" s="29"/>
-      <c r="L326" s="29"/>
+      <c r="L326" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L325,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L325)),((IF(Tarakonesh[تراکنش]="انتقال",0,L325))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M326" s="33"/>
       <c r="N326" s="33"/>
     </row>
@@ -14700,7 +15718,10 @@
       <c r="I327" s="27"/>
       <c r="J327" s="29"/>
       <c r="K327" s="29"/>
-      <c r="L327" s="29"/>
+      <c r="L327" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L326,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L326)),((IF(Tarakonesh[تراکنش]="انتقال",0,L326))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M327" s="33"/>
       <c r="N327" s="33"/>
     </row>
@@ -14718,7 +15739,10 @@
       <c r="I328" s="27"/>
       <c r="J328" s="29"/>
       <c r="K328" s="29"/>
-      <c r="L328" s="29"/>
+      <c r="L328" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L327,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L327)),((IF(Tarakonesh[تراکنش]="انتقال",0,L327))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M328" s="33"/>
       <c r="N328" s="33"/>
     </row>
@@ -14736,7 +15760,10 @@
       <c r="I329" s="27"/>
       <c r="J329" s="29"/>
       <c r="K329" s="29"/>
-      <c r="L329" s="29"/>
+      <c r="L329" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L328,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L328)),((IF(Tarakonesh[تراکنش]="انتقال",0,L328))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M329" s="33"/>
       <c r="N329" s="33"/>
     </row>
@@ -14754,7 +15781,10 @@
       <c r="I330" s="27"/>
       <c r="J330" s="29"/>
       <c r="K330" s="29"/>
-      <c r="L330" s="29"/>
+      <c r="L330" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L329,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L329)),((IF(Tarakonesh[تراکنش]="انتقال",0,L329))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M330" s="33"/>
       <c r="N330" s="33"/>
     </row>
@@ -14772,7 +15802,10 @@
       <c r="I331" s="27"/>
       <c r="J331" s="29"/>
       <c r="K331" s="29"/>
-      <c r="L331" s="29"/>
+      <c r="L331" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L330,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L330)),((IF(Tarakonesh[تراکنش]="انتقال",0,L330))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M331" s="33"/>
       <c r="N331" s="33"/>
     </row>
@@ -14790,7 +15823,10 @@
       <c r="I332" s="27"/>
       <c r="J332" s="29"/>
       <c r="K332" s="29"/>
-      <c r="L332" s="29"/>
+      <c r="L332" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L331,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L331)),((IF(Tarakonesh[تراکنش]="انتقال",0,L331))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M332" s="33"/>
       <c r="N332" s="33"/>
     </row>
@@ -14808,7 +15844,10 @@
       <c r="I333" s="27"/>
       <c r="J333" s="29"/>
       <c r="K333" s="29"/>
-      <c r="L333" s="29"/>
+      <c r="L333" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L332,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L332)),((IF(Tarakonesh[تراکنش]="انتقال",0,L332))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M333" s="33"/>
       <c r="N333" s="33"/>
     </row>
@@ -14826,7 +15865,10 @@
       <c r="I334" s="27"/>
       <c r="J334" s="29"/>
       <c r="K334" s="29"/>
-      <c r="L334" s="29"/>
+      <c r="L334" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L333,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L333)),((IF(Tarakonesh[تراکنش]="انتقال",0,L333))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M334" s="33"/>
       <c r="N334" s="33"/>
     </row>
@@ -14844,7 +15886,10 @@
       <c r="I335" s="27"/>
       <c r="J335" s="29"/>
       <c r="K335" s="29"/>
-      <c r="L335" s="29"/>
+      <c r="L335" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L334,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L334)),((IF(Tarakonesh[تراکنش]="انتقال",0,L334))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M335" s="33"/>
       <c r="N335" s="33"/>
     </row>
@@ -14862,7 +15907,10 @@
       <c r="I336" s="27"/>
       <c r="J336" s="29"/>
       <c r="K336" s="29"/>
-      <c r="L336" s="29"/>
+      <c r="L336" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L335,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L335)),((IF(Tarakonesh[تراکنش]="انتقال",0,L335))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M336" s="33"/>
       <c r="N336" s="33"/>
     </row>
@@ -14880,7 +15928,10 @@
       <c r="I337" s="27"/>
       <c r="J337" s="29"/>
       <c r="K337" s="29"/>
-      <c r="L337" s="29"/>
+      <c r="L337" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L336,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L336)),((IF(Tarakonesh[تراکنش]="انتقال",0,L336))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M337" s="33"/>
       <c r="N337" s="33"/>
     </row>
@@ -14898,7 +15949,10 @@
       <c r="I338" s="27"/>
       <c r="J338" s="29"/>
       <c r="K338" s="29"/>
-      <c r="L338" s="29"/>
+      <c r="L338" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L337,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L337)),((IF(Tarakonesh[تراکنش]="انتقال",0,L337))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M338" s="33"/>
       <c r="N338" s="33"/>
     </row>
@@ -14916,7 +15970,10 @@
       <c r="I339" s="27"/>
       <c r="J339" s="29"/>
       <c r="K339" s="29"/>
-      <c r="L339" s="29"/>
+      <c r="L339" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L338,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L338)),((IF(Tarakonesh[تراکنش]="انتقال",0,L338))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M339" s="33"/>
       <c r="N339" s="33"/>
     </row>
@@ -14934,7 +15991,10 @@
       <c r="I340" s="27"/>
       <c r="J340" s="29"/>
       <c r="K340" s="29"/>
-      <c r="L340" s="29"/>
+      <c r="L340" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L339,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L339)),((IF(Tarakonesh[تراکنش]="انتقال",0,L339))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M340" s="33"/>
       <c r="N340" s="33"/>
     </row>
@@ -14952,7 +16012,10 @@
       <c r="I341" s="27"/>
       <c r="J341" s="29"/>
       <c r="K341" s="29"/>
-      <c r="L341" s="29"/>
+      <c r="L341" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L340,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L340)),((IF(Tarakonesh[تراکنش]="انتقال",0,L340))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M341" s="33"/>
       <c r="N341" s="33"/>
     </row>
@@ -14970,7 +16033,10 @@
       <c r="I342" s="27"/>
       <c r="J342" s="29"/>
       <c r="K342" s="29"/>
-      <c r="L342" s="29"/>
+      <c r="L342" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L341,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L341)),((IF(Tarakonesh[تراکنش]="انتقال",0,L341))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M342" s="33"/>
       <c r="N342" s="33"/>
     </row>
@@ -14988,7 +16054,10 @@
       <c r="I343" s="27"/>
       <c r="J343" s="29"/>
       <c r="K343" s="29"/>
-      <c r="L343" s="29"/>
+      <c r="L343" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L342,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L342)),((IF(Tarakonesh[تراکنش]="انتقال",0,L342))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M343" s="33"/>
       <c r="N343" s="33"/>
     </row>
@@ -15006,7 +16075,10 @@
       <c r="I344" s="27"/>
       <c r="J344" s="29"/>
       <c r="K344" s="29"/>
-      <c r="L344" s="29"/>
+      <c r="L344" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L343,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L343)),((IF(Tarakonesh[تراکنش]="انتقال",0,L343))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M344" s="33"/>
       <c r="N344" s="33"/>
     </row>
@@ -15024,7 +16096,10 @@
       <c r="I345" s="27"/>
       <c r="J345" s="29"/>
       <c r="K345" s="29"/>
-      <c r="L345" s="29"/>
+      <c r="L345" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L344,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L344)),((IF(Tarakonesh[تراکنش]="انتقال",0,L344))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M345" s="33"/>
       <c r="N345" s="33"/>
     </row>
@@ -15042,7 +16117,10 @@
       <c r="I346" s="27"/>
       <c r="J346" s="29"/>
       <c r="K346" s="29"/>
-      <c r="L346" s="29"/>
+      <c r="L346" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L345,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L345)),((IF(Tarakonesh[تراکنش]="انتقال",0,L345))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M346" s="33"/>
       <c r="N346" s="33"/>
     </row>
@@ -15060,7 +16138,10 @@
       <c r="I347" s="27"/>
       <c r="J347" s="29"/>
       <c r="K347" s="29"/>
-      <c r="L347" s="29"/>
+      <c r="L347" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L346,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L346)),((IF(Tarakonesh[تراکنش]="انتقال",0,L346))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M347" s="33"/>
       <c r="N347" s="33"/>
     </row>
@@ -15078,7 +16159,10 @@
       <c r="I348" s="27"/>
       <c r="J348" s="29"/>
       <c r="K348" s="29"/>
-      <c r="L348" s="29"/>
+      <c r="L348" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L347,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L347)),((IF(Tarakonesh[تراکنش]="انتقال",0,L347))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M348" s="33"/>
       <c r="N348" s="33"/>
     </row>
@@ -15096,7 +16180,10 @@
       <c r="I349" s="27"/>
       <c r="J349" s="29"/>
       <c r="K349" s="29"/>
-      <c r="L349" s="29"/>
+      <c r="L349" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L348,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L348)),((IF(Tarakonesh[تراکنش]="انتقال",0,L348))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M349" s="33"/>
       <c r="N349" s="33"/>
     </row>
@@ -15114,7 +16201,10 @@
       <c r="I350" s="27"/>
       <c r="J350" s="29"/>
       <c r="K350" s="29"/>
-      <c r="L350" s="29"/>
+      <c r="L350" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L349,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L349)),((IF(Tarakonesh[تراکنش]="انتقال",0,L349))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M350" s="33"/>
       <c r="N350" s="33"/>
     </row>
@@ -15132,7 +16222,10 @@
       <c r="I351" s="27"/>
       <c r="J351" s="29"/>
       <c r="K351" s="29"/>
-      <c r="L351" s="29"/>
+      <c r="L351" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L350,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L350)),((IF(Tarakonesh[تراکنش]="انتقال",0,L350))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M351" s="33"/>
       <c r="N351" s="33"/>
     </row>
@@ -15150,7 +16243,10 @@
       <c r="I352" s="27"/>
       <c r="J352" s="29"/>
       <c r="K352" s="29"/>
-      <c r="L352" s="29"/>
+      <c r="L352" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L351,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L351)),((IF(Tarakonesh[تراکنش]="انتقال",0,L351))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M352" s="33"/>
       <c r="N352" s="33"/>
     </row>
@@ -15168,7 +16264,10 @@
       <c r="I353" s="27"/>
       <c r="J353" s="29"/>
       <c r="K353" s="29"/>
-      <c r="L353" s="29"/>
+      <c r="L353" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L352,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L352)),((IF(Tarakonesh[تراکنش]="انتقال",0,L352))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M353" s="33"/>
       <c r="N353" s="33"/>
     </row>
@@ -15186,7 +16285,10 @@
       <c r="I354" s="27"/>
       <c r="J354" s="29"/>
       <c r="K354" s="29"/>
-      <c r="L354" s="29"/>
+      <c r="L354" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L353,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L353)),((IF(Tarakonesh[تراکنش]="انتقال",0,L353))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M354" s="33"/>
       <c r="N354" s="33"/>
     </row>
@@ -15204,7 +16306,10 @@
       <c r="I355" s="27"/>
       <c r="J355" s="29"/>
       <c r="K355" s="29"/>
-      <c r="L355" s="29"/>
+      <c r="L355" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L354,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L354)),((IF(Tarakonesh[تراکنش]="انتقال",0,L354))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M355" s="33"/>
       <c r="N355" s="33"/>
     </row>
@@ -15222,7 +16327,10 @@
       <c r="I356" s="27"/>
       <c r="J356" s="29"/>
       <c r="K356" s="29"/>
-      <c r="L356" s="29"/>
+      <c r="L356" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L355,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L355)),((IF(Tarakonesh[تراکنش]="انتقال",0,L355))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M356" s="33"/>
       <c r="N356" s="33"/>
     </row>
@@ -15240,7 +16348,10 @@
       <c r="I357" s="27"/>
       <c r="J357" s="29"/>
       <c r="K357" s="29"/>
-      <c r="L357" s="29"/>
+      <c r="L357" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L356,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L356)),((IF(Tarakonesh[تراکنش]="انتقال",0,L356))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M357" s="33"/>
       <c r="N357" s="33"/>
     </row>
@@ -15258,7 +16369,10 @@
       <c r="I358" s="27"/>
       <c r="J358" s="29"/>
       <c r="K358" s="29"/>
-      <c r="L358" s="29"/>
+      <c r="L358" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L357,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L357)),((IF(Tarakonesh[تراکنش]="انتقال",0,L357))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M358" s="33"/>
       <c r="N358" s="33"/>
     </row>
@@ -15276,7 +16390,10 @@
       <c r="I359" s="27"/>
       <c r="J359" s="29"/>
       <c r="K359" s="29"/>
-      <c r="L359" s="29"/>
+      <c r="L359" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L358,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L358)),((IF(Tarakonesh[تراکنش]="انتقال",0,L358))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M359" s="33"/>
       <c r="N359" s="33"/>
     </row>
@@ -15294,7 +16411,10 @@
       <c r="I360" s="27"/>
       <c r="J360" s="29"/>
       <c r="K360" s="29"/>
-      <c r="L360" s="29"/>
+      <c r="L360" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L359,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L359)),((IF(Tarakonesh[تراکنش]="انتقال",0,L359))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M360" s="33"/>
       <c r="N360" s="33"/>
     </row>
@@ -15312,7 +16432,10 @@
       <c r="I361" s="27"/>
       <c r="J361" s="29"/>
       <c r="K361" s="29"/>
-      <c r="L361" s="29"/>
+      <c r="L361" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L360,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L360)),((IF(Tarakonesh[تراکنش]="انتقال",0,L360))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M361" s="33"/>
       <c r="N361" s="33"/>
     </row>
@@ -15330,7 +16453,10 @@
       <c r="I362" s="27"/>
       <c r="J362" s="29"/>
       <c r="K362" s="29"/>
-      <c r="L362" s="29"/>
+      <c r="L362" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L361,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L361)),((IF(Tarakonesh[تراکنش]="انتقال",0,L361))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M362" s="33"/>
       <c r="N362" s="33"/>
     </row>
@@ -15348,7 +16474,10 @@
       <c r="I363" s="27"/>
       <c r="J363" s="29"/>
       <c r="K363" s="29"/>
-      <c r="L363" s="29"/>
+      <c r="L363" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L362,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L362)),((IF(Tarakonesh[تراکنش]="انتقال",0,L362))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M363" s="33"/>
       <c r="N363" s="33"/>
     </row>
@@ -15366,7 +16495,10 @@
       <c r="I364" s="27"/>
       <c r="J364" s="29"/>
       <c r="K364" s="29"/>
-      <c r="L364" s="29"/>
+      <c r="L364" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L363,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L363)),((IF(Tarakonesh[تراکنش]="انتقال",0,L363))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M364" s="33"/>
       <c r="N364" s="33"/>
     </row>
@@ -15384,7 +16516,10 @@
       <c r="I365" s="27"/>
       <c r="J365" s="29"/>
       <c r="K365" s="29"/>
-      <c r="L365" s="29"/>
+      <c r="L365" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L364,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L364)),((IF(Tarakonesh[تراکنش]="انتقال",0,L364))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M365" s="33"/>
       <c r="N365" s="33"/>
     </row>
@@ -15402,7 +16537,10 @@
       <c r="I366" s="27"/>
       <c r="J366" s="29"/>
       <c r="K366" s="29"/>
-      <c r="L366" s="29"/>
+      <c r="L366" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L365,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L365)),((IF(Tarakonesh[تراکنش]="انتقال",0,L365))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M366" s="33"/>
       <c r="N366" s="33"/>
     </row>
@@ -15420,7 +16558,10 @@
       <c r="I367" s="27"/>
       <c r="J367" s="29"/>
       <c r="K367" s="29"/>
-      <c r="L367" s="29"/>
+      <c r="L367" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L366,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L366)),((IF(Tarakonesh[تراکنش]="انتقال",0,L366))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M367" s="33"/>
       <c r="N367" s="33"/>
     </row>
@@ -15438,7 +16579,10 @@
       <c r="I368" s="27"/>
       <c r="J368" s="29"/>
       <c r="K368" s="29"/>
-      <c r="L368" s="29"/>
+      <c r="L368" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L367,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L367)),((IF(Tarakonesh[تراکنش]="انتقال",0,L367))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M368" s="33"/>
       <c r="N368" s="33"/>
     </row>
@@ -15456,7 +16600,10 @@
       <c r="I369" s="27"/>
       <c r="J369" s="29"/>
       <c r="K369" s="29"/>
-      <c r="L369" s="29"/>
+      <c r="L369" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L368,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L368)),((IF(Tarakonesh[تراکنش]="انتقال",0,L368))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M369" s="33"/>
       <c r="N369" s="33"/>
     </row>
@@ -15474,7 +16621,10 @@
       <c r="I370" s="27"/>
       <c r="J370" s="29"/>
       <c r="K370" s="29"/>
-      <c r="L370" s="29"/>
+      <c r="L370" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L369,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L369)),((IF(Tarakonesh[تراکنش]="انتقال",0,L369))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M370" s="33"/>
       <c r="N370" s="33"/>
     </row>
@@ -15492,7 +16642,10 @@
       <c r="I371" s="27"/>
       <c r="J371" s="29"/>
       <c r="K371" s="29"/>
-      <c r="L371" s="29"/>
+      <c r="L371" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L370,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L370)),((IF(Tarakonesh[تراکنش]="انتقال",0,L370))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M371" s="33"/>
       <c r="N371" s="33"/>
     </row>
@@ -15510,7 +16663,10 @@
       <c r="I372" s="27"/>
       <c r="J372" s="29"/>
       <c r="K372" s="29"/>
-      <c r="L372" s="29"/>
+      <c r="L372" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L371,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L371)),((IF(Tarakonesh[تراکنش]="انتقال",0,L371))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M372" s="33"/>
       <c r="N372" s="33"/>
     </row>
@@ -15528,7 +16684,10 @@
       <c r="I373" s="27"/>
       <c r="J373" s="29"/>
       <c r="K373" s="29"/>
-      <c r="L373" s="29"/>
+      <c r="L373" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L372,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L372)),((IF(Tarakonesh[تراکنش]="انتقال",0,L372))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M373" s="33"/>
       <c r="N373" s="33"/>
     </row>
@@ -15546,7 +16705,10 @@
       <c r="I374" s="27"/>
       <c r="J374" s="29"/>
       <c r="K374" s="29"/>
-      <c r="L374" s="29"/>
+      <c r="L374" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L373,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L373)),((IF(Tarakonesh[تراکنش]="انتقال",0,L373))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M374" s="33"/>
       <c r="N374" s="33"/>
     </row>
@@ -15564,7 +16726,10 @@
       <c r="I375" s="27"/>
       <c r="J375" s="29"/>
       <c r="K375" s="29"/>
-      <c r="L375" s="29"/>
+      <c r="L375" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L374,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L374)),((IF(Tarakonesh[تراکنش]="انتقال",0,L374))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M375" s="33"/>
       <c r="N375" s="33"/>
     </row>
@@ -15582,7 +16747,10 @@
       <c r="I376" s="27"/>
       <c r="J376" s="29"/>
       <c r="K376" s="29"/>
-      <c r="L376" s="29"/>
+      <c r="L376" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L375,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L375)),((IF(Tarakonesh[تراکنش]="انتقال",0,L375))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M376" s="33"/>
       <c r="N376" s="33"/>
     </row>
@@ -15600,7 +16768,10 @@
       <c r="I377" s="27"/>
       <c r="J377" s="29"/>
       <c r="K377" s="29"/>
-      <c r="L377" s="29"/>
+      <c r="L377" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L376,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L376)),((IF(Tarakonesh[تراکنش]="انتقال",0,L376))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M377" s="33"/>
       <c r="N377" s="33"/>
     </row>
@@ -15618,7 +16789,10 @@
       <c r="I378" s="27"/>
       <c r="J378" s="29"/>
       <c r="K378" s="29"/>
-      <c r="L378" s="29"/>
+      <c r="L378" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L377,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L377)),((IF(Tarakonesh[تراکنش]="انتقال",0,L377))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M378" s="33"/>
       <c r="N378" s="33"/>
     </row>
@@ -15636,7 +16810,10 @@
       <c r="I379" s="27"/>
       <c r="J379" s="29"/>
       <c r="K379" s="29"/>
-      <c r="L379" s="29"/>
+      <c r="L379" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L378,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L378)),((IF(Tarakonesh[تراکنش]="انتقال",0,L378))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M379" s="33"/>
       <c r="N379" s="33"/>
     </row>
@@ -15654,7 +16831,10 @@
       <c r="I380" s="27"/>
       <c r="J380" s="29"/>
       <c r="K380" s="29"/>
-      <c r="L380" s="29"/>
+      <c r="L380" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L379,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L379)),((IF(Tarakonesh[تراکنش]="انتقال",0,L379))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M380" s="33"/>
       <c r="N380" s="33"/>
     </row>
@@ -15672,7 +16852,10 @@
       <c r="I381" s="27"/>
       <c r="J381" s="29"/>
       <c r="K381" s="29"/>
-      <c r="L381" s="29"/>
+      <c r="L381" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L380,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L380)),((IF(Tarakonesh[تراکنش]="انتقال",0,L380))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M381" s="33"/>
       <c r="N381" s="33"/>
     </row>
@@ -15690,7 +16873,10 @@
       <c r="I382" s="27"/>
       <c r="J382" s="29"/>
       <c r="K382" s="29"/>
-      <c r="L382" s="29"/>
+      <c r="L382" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L381,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L381)),((IF(Tarakonesh[تراکنش]="انتقال",0,L381))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M382" s="33"/>
       <c r="N382" s="33"/>
     </row>
@@ -15708,7 +16894,10 @@
       <c r="I383" s="27"/>
       <c r="J383" s="29"/>
       <c r="K383" s="29"/>
-      <c r="L383" s="29"/>
+      <c r="L383" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L382,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L382)),((IF(Tarakonesh[تراکنش]="انتقال",0,L382))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M383" s="33"/>
       <c r="N383" s="33"/>
     </row>
@@ -15726,7 +16915,10 @@
       <c r="I384" s="27"/>
       <c r="J384" s="29"/>
       <c r="K384" s="29"/>
-      <c r="L384" s="29"/>
+      <c r="L384" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L383,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L383)),((IF(Tarakonesh[تراکنش]="انتقال",0,L383))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M384" s="33"/>
       <c r="N384" s="33"/>
     </row>
@@ -15744,7 +16936,10 @@
       <c r="I385" s="27"/>
       <c r="J385" s="29"/>
       <c r="K385" s="29"/>
-      <c r="L385" s="29"/>
+      <c r="L385" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L384,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L384)),((IF(Tarakonesh[تراکنش]="انتقال",0,L384))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M385" s="33"/>
       <c r="N385" s="33"/>
     </row>
@@ -15762,7 +16957,10 @@
       <c r="I386" s="27"/>
       <c r="J386" s="29"/>
       <c r="K386" s="29"/>
-      <c r="L386" s="29"/>
+      <c r="L386" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L385,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L385)),((IF(Tarakonesh[تراکنش]="انتقال",0,L385))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M386" s="33"/>
       <c r="N386" s="33"/>
     </row>
@@ -15780,7 +16978,10 @@
       <c r="I387" s="27"/>
       <c r="J387" s="29"/>
       <c r="K387" s="29"/>
-      <c r="L387" s="29"/>
+      <c r="L387" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L386,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L386)),((IF(Tarakonesh[تراکنش]="انتقال",0,L386))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M387" s="33"/>
       <c r="N387" s="33"/>
     </row>
@@ -15798,7 +16999,10 @@
       <c r="I388" s="27"/>
       <c r="J388" s="29"/>
       <c r="K388" s="29"/>
-      <c r="L388" s="29"/>
+      <c r="L388" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L387,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L387)),((IF(Tarakonesh[تراکنش]="انتقال",0,L387))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M388" s="33"/>
       <c r="N388" s="33"/>
     </row>
@@ -15816,7 +17020,10 @@
       <c r="I389" s="27"/>
       <c r="J389" s="29"/>
       <c r="K389" s="29"/>
-      <c r="L389" s="29"/>
+      <c r="L389" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L388,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L388)),((IF(Tarakonesh[تراکنش]="انتقال",0,L388))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M389" s="33"/>
       <c r="N389" s="33"/>
     </row>
@@ -15834,7 +17041,10 @@
       <c r="I390" s="27"/>
       <c r="J390" s="29"/>
       <c r="K390" s="29"/>
-      <c r="L390" s="29"/>
+      <c r="L390" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L389,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L389)),((IF(Tarakonesh[تراکنش]="انتقال",0,L389))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M390" s="33"/>
       <c r="N390" s="33"/>
     </row>
@@ -15852,7 +17062,10 @@
       <c r="I391" s="27"/>
       <c r="J391" s="29"/>
       <c r="K391" s="29"/>
-      <c r="L391" s="29"/>
+      <c r="L391" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L390,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L390)),((IF(Tarakonesh[تراکنش]="انتقال",0,L390))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M391" s="33"/>
       <c r="N391" s="33"/>
     </row>
@@ -15870,7 +17083,10 @@
       <c r="I392" s="27"/>
       <c r="J392" s="29"/>
       <c r="K392" s="29"/>
-      <c r="L392" s="29"/>
+      <c r="L392" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L391,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L391)),((IF(Tarakonesh[تراکنش]="انتقال",0,L391))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M392" s="33"/>
       <c r="N392" s="33"/>
     </row>
@@ -15888,7 +17104,10 @@
       <c r="I393" s="27"/>
       <c r="J393" s="29"/>
       <c r="K393" s="29"/>
-      <c r="L393" s="29"/>
+      <c r="L393" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L392,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L392)),((IF(Tarakonesh[تراکنش]="انتقال",0,L392))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M393" s="33"/>
       <c r="N393" s="33"/>
     </row>
@@ -15906,7 +17125,10 @@
       <c r="I394" s="27"/>
       <c r="J394" s="29"/>
       <c r="K394" s="29"/>
-      <c r="L394" s="29"/>
+      <c r="L394" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L393,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L393)),((IF(Tarakonesh[تراکنش]="انتقال",0,L393))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M394" s="33"/>
       <c r="N394" s="33"/>
     </row>
@@ -15924,7 +17146,10 @@
       <c r="I395" s="27"/>
       <c r="J395" s="29"/>
       <c r="K395" s="29"/>
-      <c r="L395" s="29"/>
+      <c r="L395" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L394,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L394)),((IF(Tarakonesh[تراکنش]="انتقال",0,L394))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M395" s="33"/>
       <c r="N395" s="33"/>
     </row>
@@ -15942,7 +17167,10 @@
       <c r="I396" s="27"/>
       <c r="J396" s="29"/>
       <c r="K396" s="29"/>
-      <c r="L396" s="29"/>
+      <c r="L396" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L395,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L395)),((IF(Tarakonesh[تراکنش]="انتقال",0,L395))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M396" s="33"/>
       <c r="N396" s="33"/>
     </row>
@@ -15960,7 +17188,10 @@
       <c r="I397" s="27"/>
       <c r="J397" s="29"/>
       <c r="K397" s="29"/>
-      <c r="L397" s="29"/>
+      <c r="L397" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L396,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L396)),((IF(Tarakonesh[تراکنش]="انتقال",0,L396))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M397" s="33"/>
       <c r="N397" s="33"/>
     </row>
@@ -15978,7 +17209,10 @@
       <c r="I398" s="27"/>
       <c r="J398" s="29"/>
       <c r="K398" s="29"/>
-      <c r="L398" s="29"/>
+      <c r="L398" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L397,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L397)),((IF(Tarakonesh[تراکنش]="انتقال",0,L397))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M398" s="33"/>
       <c r="N398" s="33"/>
     </row>
@@ -15996,7 +17230,10 @@
       <c r="I399" s="27"/>
       <c r="J399" s="29"/>
       <c r="K399" s="29"/>
-      <c r="L399" s="29"/>
+      <c r="L399" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L398,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L398)),((IF(Tarakonesh[تراکنش]="انتقال",0,L398))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M399" s="33"/>
       <c r="N399" s="33"/>
     </row>
@@ -16014,7 +17251,10 @@
       <c r="I400" s="27"/>
       <c r="J400" s="29"/>
       <c r="K400" s="29"/>
-      <c r="L400" s="29"/>
+      <c r="L400" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L399,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L399)),((IF(Tarakonesh[تراکنش]="انتقال",0,L399))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M400" s="33"/>
       <c r="N400" s="33"/>
     </row>
@@ -16032,7 +17272,10 @@
       <c r="I401" s="27"/>
       <c r="J401" s="29"/>
       <c r="K401" s="29"/>
-      <c r="L401" s="29"/>
+      <c r="L401" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L400,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L400)),((IF(Tarakonesh[تراکنش]="انتقال",0,L400))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M401" s="33"/>
       <c r="N401" s="33"/>
     </row>
@@ -16050,7 +17293,10 @@
       <c r="I402" s="27"/>
       <c r="J402" s="29"/>
       <c r="K402" s="29"/>
-      <c r="L402" s="29"/>
+      <c r="L402" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L401,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L401)),((IF(Tarakonesh[تراکنش]="انتقال",0,L401))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M402" s="33"/>
       <c r="N402" s="33"/>
     </row>
@@ -16068,7 +17314,10 @@
       <c r="I403" s="27"/>
       <c r="J403" s="29"/>
       <c r="K403" s="29"/>
-      <c r="L403" s="29"/>
+      <c r="L403" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L402,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L402)),((IF(Tarakonesh[تراکنش]="انتقال",0,L402))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M403" s="33"/>
       <c r="N403" s="33"/>
     </row>
@@ -16086,7 +17335,10 @@
       <c r="I404" s="27"/>
       <c r="J404" s="29"/>
       <c r="K404" s="29"/>
-      <c r="L404" s="29"/>
+      <c r="L404" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L403,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L403)),((IF(Tarakonesh[تراکنش]="انتقال",0,L403))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M404" s="33"/>
       <c r="N404" s="33"/>
     </row>
@@ -16104,7 +17356,10 @@
       <c r="I405" s="27"/>
       <c r="J405" s="29"/>
       <c r="K405" s="29"/>
-      <c r="L405" s="29"/>
+      <c r="L405" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L404,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L404)),((IF(Tarakonesh[تراکنش]="انتقال",0,L404))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M405" s="33"/>
       <c r="N405" s="33"/>
     </row>
@@ -16122,7 +17377,10 @@
       <c r="I406" s="27"/>
       <c r="J406" s="29"/>
       <c r="K406" s="29"/>
-      <c r="L406" s="29"/>
+      <c r="L406" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L405,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L405)),((IF(Tarakonesh[تراکنش]="انتقال",0,L405))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M406" s="33"/>
       <c r="N406" s="33"/>
     </row>
@@ -16140,7 +17398,10 @@
       <c r="I407" s="27"/>
       <c r="J407" s="29"/>
       <c r="K407" s="29"/>
-      <c r="L407" s="29"/>
+      <c r="L407" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L406,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L406)),((IF(Tarakonesh[تراکنش]="انتقال",0,L406))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M407" s="33"/>
       <c r="N407" s="33"/>
     </row>
@@ -16158,7 +17419,10 @@
       <c r="I408" s="27"/>
       <c r="J408" s="29"/>
       <c r="K408" s="29"/>
-      <c r="L408" s="29"/>
+      <c r="L408" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L407,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L407)),((IF(Tarakonesh[تراکنش]="انتقال",0,L407))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M408" s="33"/>
       <c r="N408" s="33"/>
     </row>
@@ -16176,7 +17440,10 @@
       <c r="I409" s="27"/>
       <c r="J409" s="29"/>
       <c r="K409" s="29"/>
-      <c r="L409" s="29"/>
+      <c r="L409" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L408,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L408)),((IF(Tarakonesh[تراکنش]="انتقال",0,L408))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M409" s="33"/>
       <c r="N409" s="33"/>
     </row>
@@ -16194,7 +17461,10 @@
       <c r="I410" s="27"/>
       <c r="J410" s="29"/>
       <c r="K410" s="29"/>
-      <c r="L410" s="29"/>
+      <c r="L410" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L409,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L409)),((IF(Tarakonesh[تراکنش]="انتقال",0,L409))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M410" s="33"/>
       <c r="N410" s="33"/>
     </row>
@@ -16212,7 +17482,10 @@
       <c r="I411" s="27"/>
       <c r="J411" s="29"/>
       <c r="K411" s="29"/>
-      <c r="L411" s="29"/>
+      <c r="L411" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L410,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L410)),((IF(Tarakonesh[تراکنش]="انتقال",0,L410))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M411" s="33"/>
       <c r="N411" s="33"/>
     </row>
@@ -16230,7 +17503,10 @@
       <c r="I412" s="27"/>
       <c r="J412" s="29"/>
       <c r="K412" s="29"/>
-      <c r="L412" s="29"/>
+      <c r="L412" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L411,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L411)),((IF(Tarakonesh[تراکنش]="انتقال",0,L411))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M412" s="33"/>
       <c r="N412" s="33"/>
     </row>
@@ -16248,7 +17524,10 @@
       <c r="I413" s="27"/>
       <c r="J413" s="29"/>
       <c r="K413" s="29"/>
-      <c r="L413" s="29"/>
+      <c r="L413" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L412,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L412)),((IF(Tarakonesh[تراکنش]="انتقال",0,L412))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M413" s="33"/>
       <c r="N413" s="33"/>
     </row>
@@ -16266,7 +17545,10 @@
       <c r="I414" s="27"/>
       <c r="J414" s="29"/>
       <c r="K414" s="29"/>
-      <c r="L414" s="29"/>
+      <c r="L414" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L413,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L413)),((IF(Tarakonesh[تراکنش]="انتقال",0,L413))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M414" s="33"/>
       <c r="N414" s="33"/>
     </row>
@@ -16284,7 +17566,10 @@
       <c r="I415" s="27"/>
       <c r="J415" s="29"/>
       <c r="K415" s="29"/>
-      <c r="L415" s="29"/>
+      <c r="L415" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L414,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L414)),((IF(Tarakonesh[تراکنش]="انتقال",0,L414))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M415" s="33"/>
       <c r="N415" s="33"/>
     </row>
@@ -16302,7 +17587,10 @@
       <c r="I416" s="27"/>
       <c r="J416" s="29"/>
       <c r="K416" s="29"/>
-      <c r="L416" s="29"/>
+      <c r="L416" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L415,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L415)),((IF(Tarakonesh[تراکنش]="انتقال",0,L415))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M416" s="33"/>
       <c r="N416" s="33"/>
     </row>
@@ -16320,7 +17608,10 @@
       <c r="I417" s="27"/>
       <c r="J417" s="29"/>
       <c r="K417" s="29"/>
-      <c r="L417" s="29"/>
+      <c r="L417" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L416,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L416)),((IF(Tarakonesh[تراکنش]="انتقال",0,L416))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M417" s="33"/>
       <c r="N417" s="33"/>
     </row>
@@ -16338,7 +17629,10 @@
       <c r="I418" s="27"/>
       <c r="J418" s="29"/>
       <c r="K418" s="29"/>
-      <c r="L418" s="29"/>
+      <c r="L418" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L417,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L417)),((IF(Tarakonesh[تراکنش]="انتقال",0,L417))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M418" s="33"/>
       <c r="N418" s="33"/>
     </row>
@@ -16356,7 +17650,10 @@
       <c r="I419" s="27"/>
       <c r="J419" s="29"/>
       <c r="K419" s="29"/>
-      <c r="L419" s="29"/>
+      <c r="L419" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L418,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L418)),((IF(Tarakonesh[تراکنش]="انتقال",0,L418))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M419" s="33"/>
       <c r="N419" s="33"/>
     </row>
@@ -16374,7 +17671,10 @@
       <c r="I420" s="27"/>
       <c r="J420" s="29"/>
       <c r="K420" s="29"/>
-      <c r="L420" s="29"/>
+      <c r="L420" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L419,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L419)),((IF(Tarakonesh[تراکنش]="انتقال",0,L419))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M420" s="33"/>
       <c r="N420" s="33"/>
     </row>
@@ -16392,7 +17692,10 @@
       <c r="I421" s="27"/>
       <c r="J421" s="29"/>
       <c r="K421" s="29"/>
-      <c r="L421" s="29"/>
+      <c r="L421" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L420,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L420)),((IF(Tarakonesh[تراکنش]="انتقال",0,L420))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M421" s="33"/>
       <c r="N421" s="33"/>
     </row>
@@ -16410,7 +17713,10 @@
       <c r="I422" s="27"/>
       <c r="J422" s="29"/>
       <c r="K422" s="29"/>
-      <c r="L422" s="29"/>
+      <c r="L422" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L421,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L421)),((IF(Tarakonesh[تراکنش]="انتقال",0,L421))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M422" s="33"/>
       <c r="N422" s="33"/>
     </row>
@@ -16428,7 +17734,10 @@
       <c r="I423" s="27"/>
       <c r="J423" s="29"/>
       <c r="K423" s="29"/>
-      <c r="L423" s="29"/>
+      <c r="L423" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L422,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L422)),((IF(Tarakonesh[تراکنش]="انتقال",0,L422))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M423" s="33"/>
       <c r="N423" s="33"/>
     </row>
@@ -16446,7 +17755,10 @@
       <c r="I424" s="27"/>
       <c r="J424" s="29"/>
       <c r="K424" s="29"/>
-      <c r="L424" s="29"/>
+      <c r="L424" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L423,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L423)),((IF(Tarakonesh[تراکنش]="انتقال",0,L423))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M424" s="33"/>
       <c r="N424" s="33"/>
     </row>
@@ -16464,7 +17776,10 @@
       <c r="I425" s="27"/>
       <c r="J425" s="29"/>
       <c r="K425" s="29"/>
-      <c r="L425" s="29"/>
+      <c r="L425" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L424,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L424)),((IF(Tarakonesh[تراکنش]="انتقال",0,L424))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M425" s="33"/>
       <c r="N425" s="33"/>
     </row>
@@ -16482,7 +17797,10 @@
       <c r="I426" s="27"/>
       <c r="J426" s="29"/>
       <c r="K426" s="29"/>
-      <c r="L426" s="29"/>
+      <c r="L426" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L425,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L425)),((IF(Tarakonesh[تراکنش]="انتقال",0,L425))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M426" s="33"/>
       <c r="N426" s="33"/>
     </row>
@@ -16500,7 +17818,10 @@
       <c r="I427" s="27"/>
       <c r="J427" s="29"/>
       <c r="K427" s="29"/>
-      <c r="L427" s="29"/>
+      <c r="L427" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L426,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L426)),((IF(Tarakonesh[تراکنش]="انتقال",0,L426))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M427" s="33"/>
       <c r="N427" s="33"/>
     </row>
@@ -16518,7 +17839,10 @@
       <c r="I428" s="27"/>
       <c r="J428" s="29"/>
       <c r="K428" s="29"/>
-      <c r="L428" s="29"/>
+      <c r="L428" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L427,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L427)),((IF(Tarakonesh[تراکنش]="انتقال",0,L427))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M428" s="33"/>
       <c r="N428" s="33"/>
     </row>
@@ -16536,7 +17860,10 @@
       <c r="I429" s="27"/>
       <c r="J429" s="29"/>
       <c r="K429" s="29"/>
-      <c r="L429" s="29"/>
+      <c r="L429" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L428,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L428)),((IF(Tarakonesh[تراکنش]="انتقال",0,L428))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M429" s="33"/>
       <c r="N429" s="33"/>
     </row>
@@ -16554,7 +17881,10 @@
       <c r="I430" s="27"/>
       <c r="J430" s="29"/>
       <c r="K430" s="29"/>
-      <c r="L430" s="29"/>
+      <c r="L430" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L429,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L429)),((IF(Tarakonesh[تراکنش]="انتقال",0,L429))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M430" s="33"/>
       <c r="N430" s="33"/>
     </row>
@@ -16572,7 +17902,10 @@
       <c r="I431" s="27"/>
       <c r="J431" s="29"/>
       <c r="K431" s="29"/>
-      <c r="L431" s="29"/>
+      <c r="L431" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L430,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L430)),((IF(Tarakonesh[تراکنش]="انتقال",0,L430))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M431" s="33"/>
       <c r="N431" s="33"/>
     </row>
@@ -16590,7 +17923,10 @@
       <c r="I432" s="27"/>
       <c r="J432" s="29"/>
       <c r="K432" s="29"/>
-      <c r="L432" s="29"/>
+      <c r="L432" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L431,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L431)),((IF(Tarakonesh[تراکنش]="انتقال",0,L431))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M432" s="33"/>
       <c r="N432" s="33"/>
     </row>
@@ -16608,7 +17944,10 @@
       <c r="I433" s="27"/>
       <c r="J433" s="29"/>
       <c r="K433" s="29"/>
-      <c r="L433" s="29"/>
+      <c r="L433" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L432,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L432)),((IF(Tarakonesh[تراکنش]="انتقال",0,L432))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M433" s="33"/>
       <c r="N433" s="33"/>
     </row>
@@ -16626,7 +17965,10 @@
       <c r="I434" s="27"/>
       <c r="J434" s="29"/>
       <c r="K434" s="29"/>
-      <c r="L434" s="29"/>
+      <c r="L434" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L433,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L433)),((IF(Tarakonesh[تراکنش]="انتقال",0,L433))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M434" s="33"/>
       <c r="N434" s="33"/>
     </row>
@@ -16644,7 +17986,10 @@
       <c r="I435" s="27"/>
       <c r="J435" s="29"/>
       <c r="K435" s="29"/>
-      <c r="L435" s="29"/>
+      <c r="L435" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L434,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L434)),((IF(Tarakonesh[تراکنش]="انتقال",0,L434))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M435" s="33"/>
       <c r="N435" s="33"/>
     </row>
@@ -16662,7 +18007,10 @@
       <c r="I436" s="27"/>
       <c r="J436" s="29"/>
       <c r="K436" s="29"/>
-      <c r="L436" s="29"/>
+      <c r="L436" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L435,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L435)),((IF(Tarakonesh[تراکنش]="انتقال",0,L435))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M436" s="33"/>
       <c r="N436" s="33"/>
     </row>
@@ -16680,7 +18028,10 @@
       <c r="I437" s="27"/>
       <c r="J437" s="29"/>
       <c r="K437" s="29"/>
-      <c r="L437" s="29"/>
+      <c r="L437" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L436,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L436)),((IF(Tarakonesh[تراکنش]="انتقال",0,L436))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M437" s="33"/>
       <c r="N437" s="33"/>
     </row>
@@ -16698,7 +18049,10 @@
       <c r="I438" s="27"/>
       <c r="J438" s="29"/>
       <c r="K438" s="29"/>
-      <c r="L438" s="29"/>
+      <c r="L438" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L437,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L437)),((IF(Tarakonesh[تراکنش]="انتقال",0,L437))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M438" s="33"/>
       <c r="N438" s="33"/>
     </row>
@@ -16716,7 +18070,10 @@
       <c r="I439" s="27"/>
       <c r="J439" s="29"/>
       <c r="K439" s="29"/>
-      <c r="L439" s="29"/>
+      <c r="L439" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L438,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L438)),((IF(Tarakonesh[تراکنش]="انتقال",0,L438))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M439" s="33"/>
       <c r="N439" s="33"/>
     </row>
@@ -16734,7 +18091,10 @@
       <c r="I440" s="27"/>
       <c r="J440" s="29"/>
       <c r="K440" s="29"/>
-      <c r="L440" s="29"/>
+      <c r="L440" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L439,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L439)),((IF(Tarakonesh[تراکنش]="انتقال",0,L439))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M440" s="33"/>
       <c r="N440" s="33"/>
     </row>
@@ -16752,7 +18112,10 @@
       <c r="I441" s="27"/>
       <c r="J441" s="29"/>
       <c r="K441" s="29"/>
-      <c r="L441" s="29"/>
+      <c r="L441" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L440,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L440)),((IF(Tarakonesh[تراکنش]="انتقال",0,L440))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M441" s="33"/>
       <c r="N441" s="33"/>
     </row>
@@ -16770,7 +18133,10 @@
       <c r="I442" s="27"/>
       <c r="J442" s="29"/>
       <c r="K442" s="29"/>
-      <c r="L442" s="29"/>
+      <c r="L442" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L441,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L441)),((IF(Tarakonesh[تراکنش]="انتقال",0,L441))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M442" s="33"/>
       <c r="N442" s="33"/>
     </row>
@@ -16788,7 +18154,10 @@
       <c r="I443" s="27"/>
       <c r="J443" s="29"/>
       <c r="K443" s="29"/>
-      <c r="L443" s="29"/>
+      <c r="L443" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L442,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L442)),((IF(Tarakonesh[تراکنش]="انتقال",0,L442))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M443" s="33"/>
       <c r="N443" s="33"/>
     </row>
@@ -16806,7 +18175,10 @@
       <c r="I444" s="27"/>
       <c r="J444" s="29"/>
       <c r="K444" s="29"/>
-      <c r="L444" s="29"/>
+      <c r="L444" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L443,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L443)),((IF(Tarakonesh[تراکنش]="انتقال",0,L443))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M444" s="33"/>
       <c r="N444" s="33"/>
     </row>
@@ -16824,7 +18196,10 @@
       <c r="I445" s="27"/>
       <c r="J445" s="29"/>
       <c r="K445" s="29"/>
-      <c r="L445" s="29"/>
+      <c r="L445" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L444,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L444)),((IF(Tarakonesh[تراکنش]="انتقال",0,L444))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M445" s="33"/>
       <c r="N445" s="33"/>
     </row>
@@ -16842,7 +18217,10 @@
       <c r="I446" s="27"/>
       <c r="J446" s="29"/>
       <c r="K446" s="29"/>
-      <c r="L446" s="29"/>
+      <c r="L446" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L445,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L445)),((IF(Tarakonesh[تراکنش]="انتقال",0,L445))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M446" s="33"/>
       <c r="N446" s="33"/>
     </row>
@@ -16860,7 +18238,10 @@
       <c r="I447" s="27"/>
       <c r="J447" s="29"/>
       <c r="K447" s="29"/>
-      <c r="L447" s="29"/>
+      <c r="L447" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L446,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L446)),((IF(Tarakonesh[تراکنش]="انتقال",0,L446))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M447" s="33"/>
       <c r="N447" s="33"/>
     </row>
@@ -16878,7 +18259,10 @@
       <c r="I448" s="27"/>
       <c r="J448" s="29"/>
       <c r="K448" s="29"/>
-      <c r="L448" s="29"/>
+      <c r="L448" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L447,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L447)),((IF(Tarakonesh[تراکنش]="انتقال",0,L447))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M448" s="33"/>
       <c r="N448" s="33"/>
     </row>
@@ -16896,7 +18280,10 @@
       <c r="I449" s="27"/>
       <c r="J449" s="29"/>
       <c r="K449" s="29"/>
-      <c r="L449" s="29"/>
+      <c r="L449" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L448,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L448)),((IF(Tarakonesh[تراکنش]="انتقال",0,L448))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M449" s="33"/>
       <c r="N449" s="33"/>
     </row>
@@ -16914,7 +18301,10 @@
       <c r="I450" s="27"/>
       <c r="J450" s="29"/>
       <c r="K450" s="29"/>
-      <c r="L450" s="29"/>
+      <c r="L450" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L449,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L449)),((IF(Tarakonesh[تراکنش]="انتقال",0,L449))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M450" s="33"/>
       <c r="N450" s="33"/>
     </row>
@@ -16932,7 +18322,10 @@
       <c r="I451" s="27"/>
       <c r="J451" s="29"/>
       <c r="K451" s="29"/>
-      <c r="L451" s="29"/>
+      <c r="L451" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L450,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L450)),((IF(Tarakonesh[تراکنش]="انتقال",0,L450))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M451" s="33"/>
       <c r="N451" s="33"/>
     </row>
@@ -16950,7 +18343,10 @@
       <c r="I452" s="27"/>
       <c r="J452" s="29"/>
       <c r="K452" s="29"/>
-      <c r="L452" s="29"/>
+      <c r="L452" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L451,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L451)),((IF(Tarakonesh[تراکنش]="انتقال",0,L451))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M452" s="33"/>
       <c r="N452" s="33"/>
     </row>
@@ -16968,7 +18364,10 @@
       <c r="I453" s="27"/>
       <c r="J453" s="29"/>
       <c r="K453" s="29"/>
-      <c r="L453" s="29"/>
+      <c r="L453" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L452,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L452)),((IF(Tarakonesh[تراکنش]="انتقال",0,L452))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M453" s="33"/>
       <c r="N453" s="33"/>
     </row>
@@ -16986,7 +18385,10 @@
       <c r="I454" s="27"/>
       <c r="J454" s="29"/>
       <c r="K454" s="29"/>
-      <c r="L454" s="29"/>
+      <c r="L454" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L453,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L453)),((IF(Tarakonesh[تراکنش]="انتقال",0,L453))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M454" s="33"/>
       <c r="N454" s="33"/>
     </row>
@@ -17004,7 +18406,10 @@
       <c r="I455" s="27"/>
       <c r="J455" s="29"/>
       <c r="K455" s="29"/>
-      <c r="L455" s="29"/>
+      <c r="L455" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L454,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L454)),((IF(Tarakonesh[تراکنش]="انتقال",0,L454))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M455" s="33"/>
       <c r="N455" s="33"/>
     </row>
@@ -17022,7 +18427,10 @@
       <c r="I456" s="27"/>
       <c r="J456" s="29"/>
       <c r="K456" s="29"/>
-      <c r="L456" s="29"/>
+      <c r="L456" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L455,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L455)),((IF(Tarakonesh[تراکنش]="انتقال",0,L455))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M456" s="33"/>
       <c r="N456" s="33"/>
     </row>
@@ -17040,7 +18448,10 @@
       <c r="I457" s="27"/>
       <c r="J457" s="29"/>
       <c r="K457" s="29"/>
-      <c r="L457" s="29"/>
+      <c r="L457" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L456,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L456)),((IF(Tarakonesh[تراکنش]="انتقال",0,L456))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M457" s="33"/>
       <c r="N457" s="33"/>
     </row>
@@ -17058,7 +18469,10 @@
       <c r="I458" s="27"/>
       <c r="J458" s="29"/>
       <c r="K458" s="29"/>
-      <c r="L458" s="29"/>
+      <c r="L458" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L457,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L457)),((IF(Tarakonesh[تراکنش]="انتقال",0,L457))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M458" s="33"/>
       <c r="N458" s="33"/>
     </row>
@@ -17076,7 +18490,10 @@
       <c r="I459" s="27"/>
       <c r="J459" s="29"/>
       <c r="K459" s="29"/>
-      <c r="L459" s="29"/>
+      <c r="L459" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L458,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L458)),((IF(Tarakonesh[تراکنش]="انتقال",0,L458))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M459" s="33"/>
       <c r="N459" s="33"/>
     </row>
@@ -17094,7 +18511,10 @@
       <c r="I460" s="27"/>
       <c r="J460" s="29"/>
       <c r="K460" s="29"/>
-      <c r="L460" s="29"/>
+      <c r="L460" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L459,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L459)),((IF(Tarakonesh[تراکنش]="انتقال",0,L459))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M460" s="33"/>
       <c r="N460" s="33"/>
     </row>
@@ -17112,7 +18532,10 @@
       <c r="I461" s="27"/>
       <c r="J461" s="29"/>
       <c r="K461" s="29"/>
-      <c r="L461" s="29"/>
+      <c r="L461" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L460,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L460)),((IF(Tarakonesh[تراکنش]="انتقال",0,L460))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M461" s="33"/>
       <c r="N461" s="33"/>
     </row>
@@ -17130,7 +18553,10 @@
       <c r="I462" s="27"/>
       <c r="J462" s="29"/>
       <c r="K462" s="29"/>
-      <c r="L462" s="29"/>
+      <c r="L462" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L461,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L461)),((IF(Tarakonesh[تراکنش]="انتقال",0,L461))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M462" s="33"/>
       <c r="N462" s="33"/>
     </row>
@@ -17148,7 +18574,10 @@
       <c r="I463" s="27"/>
       <c r="J463" s="29"/>
       <c r="K463" s="29"/>
-      <c r="L463" s="29"/>
+      <c r="L463" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L462,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L462)),((IF(Tarakonesh[تراکنش]="انتقال",0,L462))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M463" s="33"/>
       <c r="N463" s="33"/>
     </row>
@@ -17166,7 +18595,10 @@
       <c r="I464" s="27"/>
       <c r="J464" s="29"/>
       <c r="K464" s="29"/>
-      <c r="L464" s="29"/>
+      <c r="L464" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L463,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L463)),((IF(Tarakonesh[تراکنش]="انتقال",0,L463))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M464" s="33"/>
       <c r="N464" s="33"/>
     </row>
@@ -17184,7 +18616,10 @@
       <c r="I465" s="27"/>
       <c r="J465" s="29"/>
       <c r="K465" s="29"/>
-      <c r="L465" s="29"/>
+      <c r="L465" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L464,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L464)),((IF(Tarakonesh[تراکنش]="انتقال",0,L464))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M465" s="33"/>
       <c r="N465" s="33"/>
     </row>
@@ -17202,7 +18637,10 @@
       <c r="I466" s="27"/>
       <c r="J466" s="29"/>
       <c r="K466" s="29"/>
-      <c r="L466" s="29"/>
+      <c r="L466" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L465,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L465)),((IF(Tarakonesh[تراکنش]="انتقال",0,L465))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M466" s="33"/>
       <c r="N466" s="33"/>
     </row>
@@ -17220,7 +18658,10 @@
       <c r="I467" s="27"/>
       <c r="J467" s="29"/>
       <c r="K467" s="29"/>
-      <c r="L467" s="29"/>
+      <c r="L467" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L466,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L466)),((IF(Tarakonesh[تراکنش]="انتقال",0,L466))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M467" s="33"/>
       <c r="N467" s="33"/>
     </row>
@@ -17238,7 +18679,10 @@
       <c r="I468" s="27"/>
       <c r="J468" s="29"/>
       <c r="K468" s="29"/>
-      <c r="L468" s="29"/>
+      <c r="L468" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L467,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L467)),((IF(Tarakonesh[تراکنش]="انتقال",0,L467))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M468" s="33"/>
       <c r="N468" s="33"/>
     </row>
@@ -17256,7 +18700,10 @@
       <c r="I469" s="27"/>
       <c r="J469" s="29"/>
       <c r="K469" s="29"/>
-      <c r="L469" s="29"/>
+      <c r="L469" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L468,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L468)),((IF(Tarakonesh[تراکنش]="انتقال",0,L468))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M469" s="33"/>
       <c r="N469" s="33"/>
     </row>
@@ -17274,7 +18721,10 @@
       <c r="I470" s="27"/>
       <c r="J470" s="29"/>
       <c r="K470" s="29"/>
-      <c r="L470" s="29"/>
+      <c r="L470" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L469,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L469)),((IF(Tarakonesh[تراکنش]="انتقال",0,L469))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M470" s="33"/>
       <c r="N470" s="33"/>
     </row>
@@ -17292,7 +18742,10 @@
       <c r="I471" s="27"/>
       <c r="J471" s="29"/>
       <c r="K471" s="29"/>
-      <c r="L471" s="29"/>
+      <c r="L471" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L470,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L470)),((IF(Tarakonesh[تراکنش]="انتقال",0,L470))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M471" s="33"/>
       <c r="N471" s="33"/>
     </row>
@@ -17310,7 +18763,10 @@
       <c r="I472" s="27"/>
       <c r="J472" s="29"/>
       <c r="K472" s="29"/>
-      <c r="L472" s="29"/>
+      <c r="L472" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L471,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L471)),((IF(Tarakonesh[تراکنش]="انتقال",0,L471))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M472" s="33"/>
       <c r="N472" s="33"/>
     </row>
@@ -17328,7 +18784,10 @@
       <c r="I473" s="27"/>
       <c r="J473" s="29"/>
       <c r="K473" s="29"/>
-      <c r="L473" s="29"/>
+      <c r="L473" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L472,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L472)),((IF(Tarakonesh[تراکنش]="انتقال",0,L472))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M473" s="33"/>
       <c r="N473" s="33"/>
     </row>
@@ -17346,7 +18805,10 @@
       <c r="I474" s="27"/>
       <c r="J474" s="29"/>
       <c r="K474" s="29"/>
-      <c r="L474" s="29"/>
+      <c r="L474" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L473,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L473)),((IF(Tarakonesh[تراکنش]="انتقال",0,L473))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M474" s="33"/>
       <c r="N474" s="33"/>
     </row>
@@ -17364,7 +18826,10 @@
       <c r="I475" s="27"/>
       <c r="J475" s="29"/>
       <c r="K475" s="29"/>
-      <c r="L475" s="29"/>
+      <c r="L475" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L474,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L474)),((IF(Tarakonesh[تراکنش]="انتقال",0,L474))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M475" s="33"/>
       <c r="N475" s="33"/>
     </row>
@@ -17382,7 +18847,10 @@
       <c r="I476" s="27"/>
       <c r="J476" s="29"/>
       <c r="K476" s="29"/>
-      <c r="L476" s="29"/>
+      <c r="L476" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L475,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L475)),((IF(Tarakonesh[تراکنش]="انتقال",0,L475))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M476" s="33"/>
       <c r="N476" s="33"/>
     </row>
@@ -17400,7 +18868,10 @@
       <c r="I477" s="27"/>
       <c r="J477" s="29"/>
       <c r="K477" s="29"/>
-      <c r="L477" s="29"/>
+      <c r="L477" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L476,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L476)),((IF(Tarakonesh[تراکنش]="انتقال",0,L476))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M477" s="33"/>
       <c r="N477" s="33"/>
     </row>
@@ -17418,7 +18889,10 @@
       <c r="I478" s="27"/>
       <c r="J478" s="29"/>
       <c r="K478" s="29"/>
-      <c r="L478" s="29"/>
+      <c r="L478" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L477,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L477)),((IF(Tarakonesh[تراکنش]="انتقال",0,L477))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M478" s="33"/>
       <c r="N478" s="33"/>
     </row>
@@ -17436,7 +18910,10 @@
       <c r="I479" s="27"/>
       <c r="J479" s="29"/>
       <c r="K479" s="29"/>
-      <c r="L479" s="29"/>
+      <c r="L479" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L478,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L478)),((IF(Tarakonesh[تراکنش]="انتقال",0,L478))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M479" s="33"/>
       <c r="N479" s="33"/>
     </row>
@@ -17454,7 +18931,10 @@
       <c r="I480" s="27"/>
       <c r="J480" s="29"/>
       <c r="K480" s="29"/>
-      <c r="L480" s="29"/>
+      <c r="L480" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L479,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L479)),((IF(Tarakonesh[تراکنش]="انتقال",0,L479))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M480" s="33"/>
       <c r="N480" s="33"/>
     </row>
@@ -17472,7 +18952,10 @@
       <c r="I481" s="27"/>
       <c r="J481" s="29"/>
       <c r="K481" s="29"/>
-      <c r="L481" s="29"/>
+      <c r="L481" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L480,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L480)),((IF(Tarakonesh[تراکنش]="انتقال",0,L480))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M481" s="33"/>
       <c r="N481" s="33"/>
     </row>
@@ -17490,7 +18973,10 @@
       <c r="I482" s="27"/>
       <c r="J482" s="29"/>
       <c r="K482" s="29"/>
-      <c r="L482" s="29"/>
+      <c r="L482" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L481,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L481)),((IF(Tarakonesh[تراکنش]="انتقال",0,L481))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M482" s="33"/>
       <c r="N482" s="33"/>
     </row>
@@ -17508,7 +18994,10 @@
       <c r="I483" s="27"/>
       <c r="J483" s="29"/>
       <c r="K483" s="29"/>
-      <c r="L483" s="29"/>
+      <c r="L483" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L482,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L482)),((IF(Tarakonesh[تراکنش]="انتقال",0,L482))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M483" s="33"/>
       <c r="N483" s="33"/>
     </row>
@@ -17526,7 +19015,10 @@
       <c r="I484" s="27"/>
       <c r="J484" s="29"/>
       <c r="K484" s="29"/>
-      <c r="L484" s="29"/>
+      <c r="L484" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L483,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L483)),((IF(Tarakonesh[تراکنش]="انتقال",0,L483))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M484" s="33"/>
       <c r="N484" s="33"/>
     </row>
@@ -17544,7 +19036,10 @@
       <c r="I485" s="27"/>
       <c r="J485" s="29"/>
       <c r="K485" s="29"/>
-      <c r="L485" s="29"/>
+      <c r="L485" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L484,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L484)),((IF(Tarakonesh[تراکنش]="انتقال",0,L484))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M485" s="33"/>
       <c r="N485" s="33"/>
     </row>
@@ -17562,7 +19057,10 @@
       <c r="I486" s="27"/>
       <c r="J486" s="29"/>
       <c r="K486" s="29"/>
-      <c r="L486" s="29"/>
+      <c r="L486" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L485,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L485)),((IF(Tarakonesh[تراکنش]="انتقال",0,L485))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M486" s="33"/>
       <c r="N486" s="33"/>
     </row>
@@ -17580,7 +19078,10 @@
       <c r="I487" s="27"/>
       <c r="J487" s="29"/>
       <c r="K487" s="29"/>
-      <c r="L487" s="29"/>
+      <c r="L487" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L486,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L486)),((IF(Tarakonesh[تراکنش]="انتقال",0,L486))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M487" s="33"/>
       <c r="N487" s="33"/>
     </row>
@@ -17598,7 +19099,10 @@
       <c r="I488" s="27"/>
       <c r="J488" s="29"/>
       <c r="K488" s="29"/>
-      <c r="L488" s="29"/>
+      <c r="L488" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L487,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L487)),((IF(Tarakonesh[تراکنش]="انتقال",0,L487))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M488" s="33"/>
       <c r="N488" s="33"/>
     </row>
@@ -17616,7 +19120,10 @@
       <c r="I489" s="27"/>
       <c r="J489" s="29"/>
       <c r="K489" s="29"/>
-      <c r="L489" s="29"/>
+      <c r="L489" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L488,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L488)),((IF(Tarakonesh[تراکنش]="انتقال",0,L488))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M489" s="33"/>
       <c r="N489" s="33"/>
     </row>
@@ -17634,7 +19141,10 @@
       <c r="I490" s="27"/>
       <c r="J490" s="29"/>
       <c r="K490" s="29"/>
-      <c r="L490" s="29"/>
+      <c r="L490" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L489,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L489)),((IF(Tarakonesh[تراکنش]="انتقال",0,L489))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M490" s="33"/>
       <c r="N490" s="33"/>
     </row>
@@ -17652,7 +19162,10 @@
       <c r="I491" s="27"/>
       <c r="J491" s="29"/>
       <c r="K491" s="29"/>
-      <c r="L491" s="29"/>
+      <c r="L491" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L490,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L490)),((IF(Tarakonesh[تراکنش]="انتقال",0,L490))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M491" s="33"/>
       <c r="N491" s="33"/>
     </row>
@@ -17670,7 +19183,10 @@
       <c r="I492" s="27"/>
       <c r="J492" s="29"/>
       <c r="K492" s="29"/>
-      <c r="L492" s="29"/>
+      <c r="L492" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L491,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L491)),((IF(Tarakonesh[تراکنش]="انتقال",0,L491))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M492" s="33"/>
       <c r="N492" s="33"/>
     </row>
@@ -17688,7 +19204,10 @@
       <c r="I493" s="27"/>
       <c r="J493" s="29"/>
       <c r="K493" s="29"/>
-      <c r="L493" s="29"/>
+      <c r="L493" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L492,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L492)),((IF(Tarakonesh[تراکنش]="انتقال",0,L492))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M493" s="33"/>
       <c r="N493" s="33"/>
     </row>
@@ -17706,7 +19225,10 @@
       <c r="I494" s="27"/>
       <c r="J494" s="29"/>
       <c r="K494" s="29"/>
-      <c r="L494" s="29"/>
+      <c r="L494" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L493,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L493)),((IF(Tarakonesh[تراکنش]="انتقال",0,L493))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M494" s="33"/>
       <c r="N494" s="33"/>
     </row>
@@ -17724,7 +19246,10 @@
       <c r="I495" s="27"/>
       <c r="J495" s="29"/>
       <c r="K495" s="29"/>
-      <c r="L495" s="29"/>
+      <c r="L495" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L494,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L494)),((IF(Tarakonesh[تراکنش]="انتقال",0,L494))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M495" s="33"/>
       <c r="N495" s="33"/>
     </row>
@@ -17742,7 +19267,10 @@
       <c r="I496" s="27"/>
       <c r="J496" s="29"/>
       <c r="K496" s="29"/>
-      <c r="L496" s="29"/>
+      <c r="L496" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L495,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L495)),((IF(Tarakonesh[تراکنش]="انتقال",0,L495))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M496" s="33"/>
       <c r="N496" s="33"/>
     </row>
@@ -17760,7 +19288,10 @@
       <c r="I497" s="27"/>
       <c r="J497" s="29"/>
       <c r="K497" s="29"/>
-      <c r="L497" s="29"/>
+      <c r="L497" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L496,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L496)),((IF(Tarakonesh[تراکنش]="انتقال",0,L496))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M497" s="33"/>
       <c r="N497" s="33"/>
     </row>
@@ -17778,7 +19309,10 @@
       <c r="I498" s="27"/>
       <c r="J498" s="29"/>
       <c r="K498" s="29"/>
-      <c r="L498" s="29"/>
+      <c r="L498" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L497,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L497)),((IF(Tarakonesh[تراکنش]="انتقال",0,L497))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M498" s="33"/>
       <c r="N498" s="33"/>
     </row>
@@ -17796,7 +19330,10 @@
       <c r="I499" s="27"/>
       <c r="J499" s="29"/>
       <c r="K499" s="29"/>
-      <c r="L499" s="29"/>
+      <c r="L499" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L498,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L498)),((IF(Tarakonesh[تراکنش]="انتقال",0,L498))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M499" s="33"/>
       <c r="N499" s="33"/>
     </row>
@@ -17814,7 +19351,10 @@
       <c r="I500" s="27"/>
       <c r="J500" s="29"/>
       <c r="K500" s="29"/>
-      <c r="L500" s="29"/>
+      <c r="L500" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L499,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L499)),((IF(Tarakonesh[تراکنش]="انتقال",0,L499))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M500" s="33"/>
       <c r="N500" s="33"/>
     </row>
@@ -17832,7 +19372,10 @@
       <c r="I501" s="27"/>
       <c r="J501" s="29"/>
       <c r="K501" s="29"/>
-      <c r="L501" s="29"/>
+      <c r="L501" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L500,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L500)),((IF(Tarakonesh[تراکنش]="انتقال",0,L500))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M501" s="33"/>
       <c r="N501" s="33"/>
     </row>
@@ -17850,7 +19393,10 @@
       <c r="I502" s="27"/>
       <c r="J502" s="29"/>
       <c r="K502" s="29"/>
-      <c r="L502" s="29"/>
+      <c r="L502" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L501,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L501)),((IF(Tarakonesh[تراکنش]="انتقال",0,L501))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M502" s="33"/>
       <c r="N502" s="33"/>
     </row>
@@ -17868,7 +19414,10 @@
       <c r="I503" s="27"/>
       <c r="J503" s="29"/>
       <c r="K503" s="29"/>
-      <c r="L503" s="29"/>
+      <c r="L503" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L502,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L502)),((IF(Tarakonesh[تراکنش]="انتقال",0,L502))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M503" s="33"/>
       <c r="N503" s="33"/>
     </row>
@@ -17886,7 +19435,10 @@
       <c r="I504" s="27"/>
       <c r="J504" s="29"/>
       <c r="K504" s="29"/>
-      <c r="L504" s="29"/>
+      <c r="L504" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L503,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L503)),((IF(Tarakonesh[تراکنش]="انتقال",0,L503))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M504" s="33"/>
       <c r="N504" s="33"/>
     </row>
@@ -17904,7 +19456,10 @@
       <c r="I505" s="27"/>
       <c r="J505" s="29"/>
       <c r="K505" s="29"/>
-      <c r="L505" s="29"/>
+      <c r="L505" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L504,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L504)),((IF(Tarakonesh[تراکنش]="انتقال",0,L504))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M505" s="33"/>
       <c r="N505" s="33"/>
     </row>
@@ -17922,7 +19477,10 @@
       <c r="I506" s="27"/>
       <c r="J506" s="29"/>
       <c r="K506" s="29"/>
-      <c r="L506" s="29"/>
+      <c r="L506" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L505,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L505)),((IF(Tarakonesh[تراکنش]="انتقال",0,L505))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M506" s="33"/>
       <c r="N506" s="33"/>
     </row>
@@ -17940,14 +19498,17 @@
       <c r="I507" s="27"/>
       <c r="J507" s="29"/>
       <c r="K507" s="29"/>
-      <c r="L507" s="29"/>
+      <c r="L507" s="125" t="str">
+        <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L506,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L506)),((IF(Tarakonesh[تراکنش]="انتقال",0,L506))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
+        <v/>
+      </c>
       <c r="M507" s="33"/>
       <c r="N507" s="33"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="1">
-    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="J3:K3"/>
   </mergeCells>
   <dataValidations xWindow="680" yWindow="432" count="14">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="نوع خرج باید از گزینه‌های موجود در لیست کشویی باشد." promptTitle="راهنما" prompt="نوع خرج را مشخص کنید._x000a_نا مشخص_x000a_خرج صحیح_x000a_خرج اضافی" sqref="M8:M507">
@@ -18001,10 +19562,10 @@
     <hyperlink ref="H1" location="'بودجه بندی'!A1" display="بودجه بندی"/>
     <hyperlink ref="I1" location="'گزارش فعالیت‌های ماه جاری'!A1" display="ماه جاری"/>
     <hyperlink ref="J1" location="'جست و جو'!A1" display="جست و جو"/>
-    <hyperlink ref="I3:J3" location="'دریافت کنندگان - پرداخت کنندگان'!A1" display="دریافت کنندگان - پرداخت کنندگان"/>
-    <hyperlink ref="I5" location="'گروه‌‌های (بابت‌ها) هزینه'!A1" display="گروه‌های هزینه"/>
-    <hyperlink ref="J5" location="'گروه‌‌های درآمدی'!A1" display="گروه‌های درآمد"/>
+    <hyperlink ref="J5" location="'گروه‌‌های (بابت‌ها) هزینه'!A1" display="گروه‌های هزینه"/>
+    <hyperlink ref="K5" location="'گروه‌‌های درآمدی'!A1" display="گروه‌های درآمد"/>
     <hyperlink ref="K1" location="'تنظیمات حساب'!A1" display="تنظیمات حساب"/>
+    <hyperlink ref="J3:K3" location="'دریافت کنندگان - پرداخت کنندگان'!A1" display="دریافت کنندگان - پرداخت کنندگان"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Personal accounting office.xlsx
+++ b/Personal accounting office.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8100" windowWidth="25200" windowHeight="12015" tabRatio="907" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="8550" windowWidth="25200" windowHeight="12015" tabRatio="907" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="چک نویس" sheetId="22" r:id="rId1"/>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="353">
   <si>
     <t>تاریخ</t>
   </si>
@@ -1175,7 +1175,7 @@
     <numFmt numFmtId="167" formatCode="[$-960429]dddd\,\ d\ mmmm\ yyyy;@"/>
     <numFmt numFmtId="168" formatCode="_ * #,##0_-[$ريال-429]_ ;_ * #,##0\-[$ريال-429]_ ;_ * &quot;-&quot;_-[$ريال-429]_ ;_ @_ "/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1304,8 +1304,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="29">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1473,6 +1493,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -1529,7 +1555,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1887,12 +1913,6 @@
     <xf numFmtId="165" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
@@ -1905,15 +1925,30 @@
     <xf numFmtId="165" fontId="4" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="28" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1922,53 +1957,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="165">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="#,##0_-[$ريال-429]"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -3863,6 +3851,53 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="#,##0_-[$ريال-429]"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
       <protection locked="0" hidden="0"/>
     </dxf>
@@ -4087,425 +4122,425 @@
     <tableColumn id="3" name="روش تراکنش" dataDxfId="155"/>
     <tableColumn id="8" name="مبلغ (ریال)" dataDxfId="154"/>
     <tableColumn id="9" name="پرداخت کننده" dataDxfId="153"/>
-    <tableColumn id="10" name="دریافت کننده" dataDxfId="2"/>
-    <tableColumn id="11" name="مانده حساب‌ها" dataDxfId="0" dataCellStyle="Currency"/>
-    <tableColumn id="12" name="نوع خرج" dataDxfId="1"/>
-    <tableColumn id="13" name="شرح" dataDxfId="152"/>
+    <tableColumn id="10" name="دریافت کننده" dataDxfId="152"/>
+    <tableColumn id="11" name="مانده حساب‌ها" dataDxfId="151" dataCellStyle="Currency"/>
+    <tableColumn id="12" name="نوع خرج" dataDxfId="150"/>
+    <tableColumn id="13" name="شرح" dataDxfId="149"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="RightsTable" displayName="RightsTable" ref="D5:D6" totalsRowShown="0" headerRowDxfId="126" dataDxfId="125">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="RightsTable" displayName="RightsTable" ref="D5:D6" totalsRowShown="0" headerRowDxfId="123" dataDxfId="122">
   <autoFilter ref="D5:D6"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="حقوق" dataDxfId="124"/>
+    <tableColumn id="1" name="حقوق" dataDxfId="121"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="CostGroupsTable" displayName="CostGroupsTable" ref="A5:B29" totalsRowShown="0" headerRowDxfId="123">
-  <autoFilter ref="A5:B29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="CostGroupsTable" displayName="CostGroupsTable" ref="A5:B30" totalsRowShown="0" headerRowDxfId="120">
+  <autoFilter ref="A5:B30"/>
   <sortState ref="A5:B28">
     <sortCondition ref="B4:B28"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" name="کد گروه هزینه" dataDxfId="122"/>
-    <tableColumn id="2" name="نام گروه هزینه" dataDxfId="121"/>
+    <tableColumn id="1" name="کد گروه هزینه" dataDxfId="119"/>
+    <tableColumn id="2" name="نام گروه هزینه" dataDxfId="118"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="TravelCostsTable" displayName="TravelCostsTable" ref="F4:F13" totalsRowShown="0" headerRowDxfId="120" dataDxfId="119">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="TravelCostsTable" displayName="TravelCostsTable" ref="F4:F13" totalsRowShown="0" headerRowDxfId="117" dataDxfId="116">
   <autoFilter ref="F4:F13"/>
   <sortState ref="F4:F12">
     <sortCondition ref="F3:F12"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="ایاب و ذهاب" dataDxfId="118"/>
+    <tableColumn id="1" name="ایاب و ذهاب" dataDxfId="115"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="NetworkCostsTable" displayName="NetworkCostsTable" ref="D4:D8" totalsRowShown="0" headerRowDxfId="117" dataDxfId="116">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="NetworkCostsTable" displayName="NetworkCostsTable" ref="D4:D8" totalsRowShown="0" headerRowDxfId="114" dataDxfId="113">
   <autoFilter ref="D4:D8"/>
   <sortState ref="D4:D7">
     <sortCondition ref="D3:D7"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="ارتباطات" dataDxfId="115"/>
+    <tableColumn id="1" name="ارتباطات" dataDxfId="112"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="HealthCareCostsTable" displayName="HealthCareCostsTable" ref="H4:H9" totalsRowShown="0" headerRowDxfId="114" dataDxfId="113">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="HealthCareCostsTable" displayName="HealthCareCostsTable" ref="H4:H9" totalsRowShown="0" headerRowDxfId="111" dataDxfId="110">
   <autoFilter ref="H4:H9"/>
   <sortState ref="H4:H8">
     <sortCondition ref="H3:H8"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="بهداشت و درمان" dataDxfId="112"/>
+    <tableColumn id="1" name="بهداشت و درمان" dataDxfId="109"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="PersonalCleaningCostsTable" displayName="PersonalCleaningCostsTable" ref="J4:J9" totalsRowShown="0" headerRowDxfId="111" dataDxfId="110">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="PersonalCleaningCostsTable" displayName="PersonalCleaningCostsTable" ref="J4:J9" totalsRowShown="0" headerRowDxfId="108" dataDxfId="107">
   <autoFilter ref="J4:J9"/>
   <sortState ref="J4:J8">
     <sortCondition ref="J3:J8"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="بهداشت و نظافت فردی" dataDxfId="109"/>
+    <tableColumn id="1" name="بهداشت و نظافت فردی" dataDxfId="106"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="EnvironmentalHealthCostsTable" displayName="EnvironmentalHealthCostsTable" ref="L4:L6" totalsRowShown="0" headerRowDxfId="108" dataDxfId="107">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="EnvironmentalHealthCostsTable" displayName="EnvironmentalHealthCostsTable" ref="L4:L6" totalsRowShown="0" headerRowDxfId="105" dataDxfId="104">
   <autoFilter ref="L4:L6"/>
   <sortState ref="L4:L5">
     <sortCondition ref="L3:L5"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="بهداشت و نظافت محیط" dataDxfId="106"/>
+    <tableColumn id="1" name="بهداشت و نظافت محیط" dataDxfId="103"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="InsuranceCostsTable" displayName="InsuranceCostsTable" ref="N4:N8" totalsRowShown="0" headerRowDxfId="105" dataDxfId="104">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="InsuranceCostsTable" displayName="InsuranceCostsTable" ref="N4:N8" totalsRowShown="0" headerRowDxfId="102" dataDxfId="101">
   <autoFilter ref="N4:N8"/>
   <sortState ref="N4:N7">
     <sortCondition ref="N3:N7"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="بیمه" dataDxfId="103"/>
+    <tableColumn id="1" name="بیمه" dataDxfId="100"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="InstallmentPaymentCostsTable" displayName="InstallmentPaymentCostsTable" ref="P4:P6" totalsRowShown="0" headerRowDxfId="102" dataDxfId="101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="InstallmentPaymentCostsTable" displayName="InstallmentPaymentCostsTable" ref="P4:P6" totalsRowShown="0" headerRowDxfId="99" dataDxfId="98">
   <autoFilter ref="P4:P6"/>
   <sortState ref="P4">
     <sortCondition ref="P3:P4"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="پرداخت اقساط" dataDxfId="100"/>
+    <tableColumn id="1" name="پرداخت اقساط" dataDxfId="97"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="CostsOfClothingAndFootwearTable" displayName="CostsOfClothingAndFootwearTable" ref="R4:R8" totalsRowShown="0" headerRowDxfId="99" dataDxfId="98">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="CostsOfClothingAndFootwearTable" displayName="CostsOfClothingAndFootwearTable" ref="R4:R8" totalsRowShown="0" headerRowDxfId="96" dataDxfId="95">
   <autoFilter ref="R4:R8"/>
   <sortState ref="R4:R7">
     <sortCondition ref="R3:R7"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="پوشاک و کفش" dataDxfId="97"/>
+    <tableColumn id="1" name="پوشاک و کفش" dataDxfId="94"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="RevenueGroupTable" displayName="RevenueGroupTable" ref="A4:B12" totalsRowShown="0" headerRowDxfId="151" dataDxfId="150">
-  <autoFilter ref="A4:B12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="RevenueGroupTable" displayName="RevenueGroupTable" ref="A4:B13" totalsRowShown="0" headerRowDxfId="148" dataDxfId="147">
+  <autoFilter ref="A4:B13"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="کد گروه درآمدی" dataDxfId="149"/>
-    <tableColumn id="2" name="نام گروه درآمد" dataDxfId="148"/>
+    <tableColumn id="1" name="کد گروه درآمدی" dataDxfId="146"/>
+    <tableColumn id="2" name="نام گروه درآمد" dataDxfId="145"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="CarCostsTable" displayName="CarCostsTable" ref="T4:T9" totalsRowShown="0" headerRowDxfId="96" dataDxfId="95">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="CarCostsTable" displayName="CarCostsTable" ref="T4:T9" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
   <autoFilter ref="T4:T9"/>
   <sortState ref="T4:T8">
     <sortCondition ref="T3:T8"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="خودرو" dataDxfId="94"/>
+    <tableColumn id="1" name="خودرو" dataDxfId="91"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="CostsOfFoodAndBeveragesTable" displayName="CostsOfFoodAndBeveragesTable" ref="V4:V8" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="CostsOfFoodAndBeveragesTable" displayName="CostsOfFoodAndBeveragesTable" ref="V4:V8" totalsRowShown="0" headerRowDxfId="90" dataDxfId="89">
   <autoFilter ref="V4:V8"/>
   <sortState ref="V4:V7">
     <sortCondition ref="V3:V7"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="خوراکی‌ها و آشامیدنی‌ها" dataDxfId="91"/>
+    <tableColumn id="1" name="خوراکی‌ها و آشامیدنی‌ها" dataDxfId="88"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="CharityAndCulturalExpensesTable" displayName="CharityAndCulturalExpensesTable" ref="X4:X6" totalsRowShown="0" headerRowDxfId="90" dataDxfId="89">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="CharityAndCulturalExpensesTable" displayName="CharityAndCulturalExpensesTable" ref="X4:X6" totalsRowShown="0" headerRowDxfId="87" dataDxfId="86">
   <autoFilter ref="X4:X6"/>
   <sortState ref="X4">
     <sortCondition ref="X3:X4"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="خیریه و امور فرهنگی" dataDxfId="88"/>
+    <tableColumn id="1" name="خیریه و امور فرهنگی" dataDxfId="85"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="TobaccoCostsTable" displayName="TobaccoCostsTable" ref="Z4:Z6" totalsRowShown="0" headerRowDxfId="87" dataDxfId="86">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="TobaccoCostsTable" displayName="TobaccoCostsTable" ref="Z4:Z6" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83">
   <autoFilter ref="Z4:Z6"/>
   <sortState ref="Z4:Z5">
     <sortCondition ref="Z3:Z5"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="دخانیات" dataDxfId="85"/>
+    <tableColumn id="1" name="دخانیات" dataDxfId="82"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="BicycleCostsTable" displayName="BicycleCostsTable" ref="AB4:AB6" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="BicycleCostsTable" displayName="BicycleCostsTable" ref="AB4:AB6" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
   <autoFilter ref="AB4:AB6"/>
   <sortState ref="AB4:AB5">
     <sortCondition ref="AB3:AB5"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="دوچرخه" dataDxfId="82"/>
+    <tableColumn id="1" name="دوچرخه" dataDxfId="79"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="CostsOfCapitalJewelryTable" displayName="CostsOfCapitalJewelryTable" ref="AD4:AD8" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="CostsOfCapitalJewelryTable" displayName="CostsOfCapitalJewelryTable" ref="AD4:AD8" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
   <autoFilter ref="AD4:AD8"/>
   <sortState ref="AD4:AD7">
     <sortCondition ref="AD3:AD7"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="زیورآلات سرمایه" dataDxfId="79"/>
+    <tableColumn id="1" name="زیورآلات سرمایه" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Non_CapitalJewelryCostsTable" displayName="Non_CapitalJewelryCostsTable" ref="AF4:AF6" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Non_CapitalJewelryCostsTable" displayName="Non_CapitalJewelryCostsTable" ref="AF4:AF6" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
   <autoFilter ref="AF4:AF6"/>
   <sortState ref="AF4">
     <sortCondition ref="AF3:AF4"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name=" زیورآلات غیر سرمایه" dataDxfId="76"/>
+    <tableColumn id="1" name=" زیورآلات غیر سرمایه" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="InvestmentCostsTable" displayName="InvestmentCostsTable" ref="AH4:AH6" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="InvestmentCostsTable" displayName="InvestmentCostsTable" ref="AH4:AH6" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
   <autoFilter ref="AH4:AH6"/>
   <sortState ref="AH5:AH6">
     <sortCondition ref="AH4:AH6"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name=" سرمایه گذاری" dataDxfId="73"/>
+    <tableColumn id="1" name=" سرمایه گذاری" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="TravelAndTourExpensesTable" displayName="TravelAndTourExpensesTable" ref="AJ4:AJ6" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="TravelAndTourExpensesTable" displayName="TravelAndTourExpensesTable" ref="AJ4:AJ6" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
   <autoFilter ref="AJ4:AJ6"/>
   <sortState ref="AJ4">
     <sortCondition ref="AJ3:AJ4"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="سفر و گردش" dataDxfId="70"/>
+    <tableColumn id="1" name="سفر و گردش" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="HousingBillCostsTable" displayName="HousingBillCostsTable" ref="AL4:AL15" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="HousingBillCostsTable" displayName="HousingBillCostsTable" ref="AL4:AL15" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
   <autoFilter ref="AL4:AL15"/>
   <sortState ref="AL4:AL14">
     <sortCondition ref="AL3:AL14"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="صورتحاب‌های مسکن" dataDxfId="67"/>
+    <tableColumn id="1" name="صورتحاب‌های مسکن" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="SalaryTable" displayName="SalaryTable" ref="F5:F6" totalsRowShown="0" headerRowDxfId="147" dataDxfId="146">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="SalaryTable" displayName="SalaryTable" ref="F5:F6" totalsRowShown="0" headerRowDxfId="144" dataDxfId="143">
   <autoFilter ref="F5:F6"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="دستمزد" dataDxfId="145"/>
+    <tableColumn id="1" name="دستمزد" dataDxfId="142"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="36" name="LeisureAndEntertainmentExpensesTable" displayName="LeisureAndEntertainmentExpensesTable" ref="AN4:AN8" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="36" name="LeisureAndEntertainmentExpensesTable" displayName="LeisureAndEntertainmentExpensesTable" ref="AN4:AN8" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
   <autoFilter ref="AN4:AN8"/>
   <sortState ref="AN4:AN7">
     <sortCondition ref="AN3:AN7"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="فراغت و سرگرمی" dataDxfId="64"/>
+    <tableColumn id="1" name="فراغت و سرگرمی" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="TaxCostsTable" displayName="TaxCostsTable" ref="AP4:AP8" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="TaxCostsTable" displayName="TaxCostsTable" ref="AP4:AP8" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
   <autoFilter ref="AP4:AP8"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="مالیات" dataDxfId="61"/>
+    <tableColumn id="1" name="مالیات" dataDxfId="58"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="38" name="DegreeAndTuitionFeesTable" displayName="DegreeAndTuitionFeesTable" ref="AR4:AR6" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="38" name="DegreeAndTuitionFeesTable" displayName="DegreeAndTuitionFeesTable" ref="AR4:AR6" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
   <autoFilter ref="AR4:AR6"/>
   <sortState ref="AR4">
     <sortCondition ref="AR3:AR4"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name=" مدرک و تحصیل" dataDxfId="58"/>
+    <tableColumn id="1" name=" مدرک و تحصیل" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="39" name="ExerciseCostsTable" displayName="ExerciseCostsTable" ref="AT4:AT7" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="39" name="ExerciseCostsTable" displayName="ExerciseCostsTable" ref="AT4:AT7" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
   <autoFilter ref="AT4:AT7"/>
   <sortState ref="AT4:AT6">
     <sortCondition ref="AT3:AT6"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="ورزش" dataDxfId="55"/>
+    <tableColumn id="1" name="ورزش" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="40" name="GiftCostsTable" displayName="GiftCostsTable" ref="AV4:AV11" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="40" name="GiftCostsTable" displayName="GiftCostsTable" ref="AV4:AV11" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
   <autoFilter ref="AV4:AV11"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="هدیه و کادو" dataDxfId="52"/>
+    <tableColumn id="1" name="هدیه و کادو" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="LearningAndIndividualDevelopmentCostsTable" displayName="LearningAndIndividualDevelopmentCostsTable" ref="AX4:AX7" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="LearningAndIndividualDevelopmentCostsTable" displayName="LearningAndIndividualDevelopmentCostsTable" ref="AX4:AX7" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
   <autoFilter ref="AX4:AX7"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="یادگیری و توسعه فردی" dataDxfId="49"/>
+    <tableColumn id="1" name="یادگیری و توسعه فردی" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ReceiversAndPayersTable" displayName="ReceiversAndPayersTable" ref="A3:A14" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ReceiversAndPayersTable" displayName="ReceiversAndPayersTable" ref="A3:A14" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44" dataCellStyle="Normal">
   <autoFilter ref="A3:A14"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="دریافت کننده - پرداخت کنندگان" dataDxfId="46" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="دریافت کننده - پرداخت کنندگان" dataDxfId="43" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table37.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Accounts_and_ReceiversAndPayers_AppendTabel" displayName="Accounts_and_ReceiversAndPayers_AppendTabel" ref="C3:E19" tableType="queryTable" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Accounts_and_ReceiversAndPayers_AppendTabel" displayName="Accounts_and_ReceiversAndPayers_AppendTabel" ref="C3:E19" tableType="queryTable" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
   <autoFilter ref="C3:E19"/>
   <tableColumns count="3">
-    <tableColumn id="4" uniqueName="4" name="Accounts" queryTableFieldId="1" dataDxfId="43"/>
-    <tableColumn id="5" uniqueName="5" name="ReceiversAndPayers" queryTableFieldId="2" dataDxfId="42"/>
-    <tableColumn id="6" uniqueName="6" name="Accounts and ReceiversAndPayers" queryTableFieldId="3" dataDxfId="41"/>
+    <tableColumn id="4" uniqueName="4" name="Accounts" queryTableFieldId="1" dataDxfId="40"/>
+    <tableColumn id="5" uniqueName="5" name="ReceiversAndPayers" queryTableFieldId="2" dataDxfId="39"/>
+    <tableColumn id="6" uniqueName="6" name="Accounts and ReceiversAndPayers" queryTableFieldId="3" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table38.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="PersonsTable" displayName="PersonsTable" ref="A5:I6" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="PersonsTable" displayName="PersonsTable" ref="A5:I6" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <autoFilter ref="A5:I6"/>
   <tableColumns count="9">
-    <tableColumn id="6" name="ID" dataDxfId="38"/>
-    <tableColumn id="1" name="افراد" dataDxfId="37"/>
-    <tableColumn id="2" name="کد ملی" dataDxfId="36"/>
-    <tableColumn id="3" name="شماره تماس" dataDxfId="35"/>
-    <tableColumn id="4" name="آدرس ایمیل" dataDxfId="34" dataCellStyle="Hyperlink"/>
-    <tableColumn id="5" name="سایت اینترنتی" dataDxfId="33"/>
-    <tableColumn id="7" name="آدرس محل کار" dataDxfId="32"/>
-    <tableColumn id="8" name="آدرس منزل" dataDxfId="31"/>
-    <tableColumn id="9" name="توضیحات" dataDxfId="30"/>
+    <tableColumn id="6" name="ID" dataDxfId="35"/>
+    <tableColumn id="1" name="افراد" dataDxfId="34"/>
+    <tableColumn id="2" name="کد ملی" dataDxfId="33"/>
+    <tableColumn id="3" name="شماره تماس" dataDxfId="32"/>
+    <tableColumn id="4" name="آدرس ایمیل" dataDxfId="31" dataCellStyle="Hyperlink"/>
+    <tableColumn id="5" name="سایت اینترنتی" dataDxfId="30"/>
+    <tableColumn id="7" name="آدرس محل کار" dataDxfId="29"/>
+    <tableColumn id="8" name="آدرس منزل" dataDxfId="28"/>
+    <tableColumn id="9" name="توضیحات" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table39.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="FinancialAccountsTable" displayName="FinancialAccountsTable" ref="A12:L18" totalsRowCount="1" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="FinancialAccountsTable" displayName="FinancialAccountsTable" ref="A12:L18" totalsRowCount="1" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A12:L17"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="ID" totalsRowLabel="Total" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="2" name="نام حساب" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="3" name="نوع حساب" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="4" name="موجودی اولیه" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="5" name="شماره حساب" totalsRowDxfId="19"/>
-    <tableColumn id="6" name="شماره کارت" totalsRowDxfId="18"/>
-    <tableColumn id="7" name="تاریخ انقضاء کارت" totalsRowDxfId="17"/>
-    <tableColumn id="8" name="CVV2" totalsRowDxfId="16"/>
-    <tableColumn id="9" name="جمع پرداختی" totalsRowFunction="sum" totalsRowDxfId="15">
+    <tableColumn id="1" name="ID" totalsRowLabel="Total" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="2" name="نام حساب" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="3" name="نوع حساب" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="4" name="موجودی اولیه" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="5" name="شماره حساب" totalsRowDxfId="16"/>
+    <tableColumn id="6" name="شماره کارت" totalsRowDxfId="15"/>
+    <tableColumn id="7" name="تاریخ انقضاء کارت" totalsRowDxfId="14"/>
+    <tableColumn id="8" name="CVV2" totalsRowDxfId="13"/>
+    <tableColumn id="9" name="جمع پرداختی" totalsRowFunction="sum" totalsRowDxfId="12">
       <calculatedColumnFormula>SUMIF(Tarakonesh[پرداخت کننده],FinancialAccountsTable[[#This Row],[نام حساب]],Tarakonesh[مبلغ (ریال)])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="جمع دریافتی" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="13">
+    <tableColumn id="11" name="جمع دریافتی" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10">
       <calculatedColumnFormula>SUMIF(Tarakonesh[دریافت کننده],FinancialAccountsTable[[#This Row],[نام حساب]],Tarakonesh[مبلغ (ریال)])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="مانده" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="11">
+    <tableColumn id="12" name="مانده" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8">
       <calculatedColumnFormula>(FinancialAccountsTable[[#This Row],[جمع دریافتی]]+FinancialAccountsTable[[#This Row],[موجودی اولیه]])-FinancialAccountsTable[[#This Row],[جمع پرداختی]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="وضعیت فعلی" dataDxfId="10" totalsRowDxfId="9">
+    <tableColumn id="13" name="وضعیت فعلی" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>IF(FinancialAccountsTable[[#This Row],[مانده]]=0,"",IF(FinancialAccountsTable[[#This Row],[مانده]]&gt;0,"بدهکار","بستانکار"))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4514,30 +4549,30 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="ProfitOfAcquisitionTable" displayName="ProfitOfAcquisitionTable" ref="H5:H6" totalsRowShown="0" headerRowDxfId="144" dataDxfId="143">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="ProfitOfAcquisitionTable" displayName="ProfitOfAcquisitionTable" ref="H5:H6" totalsRowShown="0" headerRowDxfId="141" dataDxfId="140">
   <autoFilter ref="H5:H6"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="منفعت کسب" dataDxfId="142"/>
+    <tableColumn id="1" name="منفعت کسب" dataDxfId="139"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table40.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TypeOfExpenditureTable" displayName="TypeOfExpenditureTable" ref="A3:A6" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TypeOfExpenditureTable" displayName="TypeOfExpenditureTable" ref="A3:A6" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A3:A6"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="نوع خرج" dataDxfId="6"/>
+    <tableColumn id="1" name="نوع خرج" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table41.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="TypeOfTransactionTable" displayName="TypeOfTransactionTable" ref="B3:B6" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="B3:B6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="TypeOfTransactionTable" displayName="TypeOfTransactionTable" ref="B3:B7" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="B3:B7"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="نوع تراکنش" dataDxfId="3"/>
+    <tableColumn id="1" name="نوع تراکنش" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4554,53 +4589,53 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="ProfitableInvestmentTable" displayName="ProfitableInvestmentTable" ref="J5:J6" totalsRowShown="0" headerRowDxfId="141" dataDxfId="140">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="ProfitableInvestmentTable" displayName="ProfitableInvestmentTable" ref="J5:J6" totalsRowShown="0" headerRowDxfId="138" dataDxfId="137">
   <autoFilter ref="J5:J6"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="سود سرمایه‌گذاری" dataDxfId="139"/>
+    <tableColumn id="1" name="سود سرمایه‌گذاری" dataDxfId="136"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="IncentivesPrizesAndFeastsTable" displayName="IncentivesPrizesAndFeastsTable" ref="L5:L8" totalsRowShown="0" headerRowDxfId="138" dataDxfId="137">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="IncentivesPrizesAndFeastsTable" displayName="IncentivesPrizesAndFeastsTable" ref="L5:L8" totalsRowShown="0" headerRowDxfId="135" dataDxfId="134">
   <autoFilter ref="L5:L8"/>
   <sortState ref="L6:L8">
     <sortCondition ref="L5:L8"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="تشویقی‌ها، جوایز و عیدی‌ها" dataDxfId="136"/>
+    <tableColumn id="1" name="تشویقی‌ها، جوایز و عیدی‌ها" dataDxfId="133"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="GetAMortgageAndRentTable" displayName="GetAMortgageAndRentTable" ref="N5:N6" totalsRowShown="0" headerRowDxfId="135" dataDxfId="134">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="GetAMortgageAndRentTable" displayName="GetAMortgageAndRentTable" ref="N5:N6" totalsRowShown="0" headerRowDxfId="132" dataDxfId="131">
   <autoFilter ref="N5:N6"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="دریافت رهن و اجاره" dataDxfId="133"/>
+    <tableColumn id="1" name="دریافت رهن و اجاره" dataDxfId="130"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="GetALoanTable" displayName="GetALoanTable" ref="P5:P6" totalsRowShown="0" headerRowDxfId="132" dataDxfId="131">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="GetALoanTable" displayName="GetALoanTable" ref="P5:P6" totalsRowShown="0" headerRowDxfId="129" dataDxfId="128">
   <autoFilter ref="P5:P6"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="دریافت وام" dataDxfId="130"/>
+    <tableColumn id="1" name="دریافت وام" dataDxfId="127"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="MiscellaneousIncomeTable" displayName="MiscellaneousIncomeTable" ref="R5:R6" totalsRowShown="0" headerRowDxfId="129" dataDxfId="128">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="MiscellaneousIncomeTable" displayName="MiscellaneousIncomeTable" ref="R5:R6" totalsRowShown="0" headerRowDxfId="126" dataDxfId="125">
   <autoFilter ref="R5:R6"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="درآمد متفرقه" dataDxfId="127"/>
+    <tableColumn id="1" name="درآمد متفرقه" dataDxfId="124"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4869,10 +4904,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AC23"/>
+  <sheetPr codeName="Sheet12"/>
+  <dimension ref="A4:AC28"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4889,7 +4925,7 @@
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" customWidth="1"/>
+    <col min="13" max="13" width="30.140625" customWidth="1"/>
     <col min="14" max="14" width="4.5703125" customWidth="1"/>
     <col min="16" max="16" width="5.140625" customWidth="1"/>
     <col min="17" max="17" width="17.28515625" customWidth="1"/>
@@ -5161,17 +5197,17 @@
         <v>350</v>
       </c>
     </row>
-    <row r="17" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:17" x14ac:dyDescent="0.25">
       <c r="Q17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:17" x14ac:dyDescent="0.25">
       <c r="Q18">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:17" x14ac:dyDescent="0.25">
       <c r="O20">
         <f>IF(Q16:Q22="",1,0)</f>
         <v>0</v>
@@ -5180,21 +5216,50 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="9:17" x14ac:dyDescent="0.25">
       <c r="Q21">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="9:17" x14ac:dyDescent="0.25">
       <c r="Q22">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K23" s="130"/>
+    <row r="23" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="K23" s="127"/>
+      <c r="M23" t="str">
+        <f>REPLACE(Q25,1,LEN(Q25),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <f>LEN(M23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <f>IFERROR(M25,5)</f>
+        <v>7</v>
+      </c>
+      <c r="M25">
+        <f>7</f>
+        <v>7</v>
+      </c>
+      <c r="Q25">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="28" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="M28" t="e">
+        <f>CL</f>
+        <v>#NAME?</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="12">
+  <dataValidations disablePrompts="1" count="12">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V8">
       <formula1>INDIRECT($F$10)</formula1>
     </dataValidation>
@@ -5448,11 +5513,11 @@
   <sheetPr codeName="Sheet19">
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5501,10 +5566,10 @@
     </row>
     <row r="2" spans="1:23" s="43" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="131" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="123"/>
+      <c r="B3" s="131"/>
       <c r="D3" s="43"/>
       <c r="F3" s="43"/>
       <c r="H3" s="43"/>
@@ -5543,12 +5608,10 @@
       <c r="W4" s="43"/>
     </row>
     <row r="5" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="45">
-        <v>1</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>317</v>
-      </c>
+      <c r="A5" s="135">
+        <v>0</v>
+      </c>
+      <c r="B5" s="45"/>
       <c r="D5" s="96" t="s">
         <v>317</v>
       </c>
@@ -5581,10 +5644,10 @@
     </row>
     <row r="6" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="45">
-        <v>2</v>
-      </c>
-      <c r="B6" s="94" t="s">
-        <v>168</v>
+        <v>1</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>317</v>
       </c>
       <c r="D6" s="96" t="s">
         <v>328</v>
@@ -5619,10 +5682,10 @@
     </row>
     <row r="7" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="45">
-        <v>3</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>321</v>
+        <v>2</v>
+      </c>
+      <c r="B7" s="94" t="s">
+        <v>168</v>
       </c>
       <c r="F7" s="73"/>
       <c r="G7" s="74"/>
@@ -5641,10 +5704,10 @@
     </row>
     <row r="8" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F8" s="73"/>
       <c r="G8" s="74"/>
@@ -5663,10 +5726,10 @@
     </row>
     <row r="9" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H9" s="73"/>
       <c r="I9" s="74"/>
@@ -5679,33 +5742,37 @@
     </row>
     <row r="10" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="45">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="L10" s="73"/>
     </row>
     <row r="11" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="45">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L11" s="73"/>
     </row>
     <row r="12" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="45">
+        <v>7</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="45">
         <v>8</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B13" s="45" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
     </row>
     <row r="14" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="45"/>
@@ -5714,6 +5781,10 @@
     <row r="15" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
       <c r="B15" s="45"/>
+    </row>
+    <row r="16" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5724,8 +5795,8 @@
     <hyperlink ref="B1" location="تراکنش‌ها!A1" display="تراکنش‌ها"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="9">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -5734,6 +5805,7 @@
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5771,7 +5843,7 @@
   <sheetPr codeName="Sheet17">
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:BC29"/>
+  <dimension ref="A1:BC30"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A2" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -5929,10 +6001,10 @@
       <c r="AC3" s="89"/>
     </row>
     <row r="4" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="124" t="s">
+      <c r="A4" s="132" t="s">
         <v>176</v>
       </c>
-      <c r="B4" s="124"/>
+      <c r="B4" s="132"/>
       <c r="D4" s="45" t="s">
         <v>194</v>
       </c>
@@ -6139,12 +6211,10 @@
       <c r="BA5" s="73"/>
     </row>
     <row r="6" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="45">
-        <v>1</v>
-      </c>
-      <c r="B6" s="87" t="s">
-        <v>194</v>
-      </c>
+      <c r="A6" s="134">
+        <v>0</v>
+      </c>
+      <c r="B6" s="88"/>
       <c r="D6" s="45" t="s">
         <v>275</v>
       </c>
@@ -6246,10 +6316,10 @@
     </row>
     <row r="7" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="45">
-        <v>2</v>
-      </c>
-      <c r="B7" s="88" t="s">
-        <v>293</v>
+        <v>1</v>
+      </c>
+      <c r="B7" s="87" t="s">
+        <v>194</v>
       </c>
       <c r="D7" s="45" t="s">
         <v>272</v>
@@ -6334,10 +6404,10 @@
     </row>
     <row r="8" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="88" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D8" s="45" t="s">
         <v>273</v>
@@ -6418,10 +6488,10 @@
     </row>
     <row r="9" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="45">
-        <v>4</v>
-      </c>
-      <c r="B9" s="87" t="s">
-        <v>295</v>
+        <v>3</v>
+      </c>
+      <c r="B9" s="88" t="s">
+        <v>294</v>
       </c>
       <c r="D9" s="45"/>
       <c r="E9" s="90"/>
@@ -6488,10 +6558,10 @@
     </row>
     <row r="10" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="87" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D10" s="45"/>
       <c r="E10" s="90"/>
@@ -6552,10 +6622,10 @@
     </row>
     <row r="11" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="45">
-        <v>6</v>
-      </c>
-      <c r="B11" s="88" t="s">
-        <v>183</v>
+        <v>5</v>
+      </c>
+      <c r="B11" s="87" t="s">
+        <v>296</v>
       </c>
       <c r="D11" s="45"/>
       <c r="E11" s="90"/>
@@ -6616,10 +6686,10 @@
     </row>
     <row r="12" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="45">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="88" t="s">
-        <v>297</v>
+        <v>183</v>
       </c>
       <c r="D12" s="45"/>
       <c r="E12" s="90"/>
@@ -6678,10 +6748,10 @@
     </row>
     <row r="13" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="45">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="88" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D13" s="45"/>
       <c r="E13" s="90"/>
@@ -6740,10 +6810,10 @@
     </row>
     <row r="14" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="45">
-        <v>9</v>
-      </c>
-      <c r="B14" s="87" t="s">
-        <v>209</v>
+        <v>8</v>
+      </c>
+      <c r="B14" s="88" t="s">
+        <v>298</v>
       </c>
       <c r="D14" s="45"/>
       <c r="E14" s="90"/>
@@ -6800,10 +6870,10 @@
     </row>
     <row r="15" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="45">
-        <v>10</v>
-      </c>
-      <c r="B15" s="88" t="s">
-        <v>299</v>
+        <v>9</v>
+      </c>
+      <c r="B15" s="87" t="s">
+        <v>209</v>
       </c>
       <c r="D15" s="45"/>
       <c r="E15" s="90"/>
@@ -6860,10 +6930,10 @@
     </row>
     <row r="16" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="45">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="88" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="D16" s="45"/>
       <c r="E16" s="90"/>
@@ -6918,10 +6988,10 @@
     </row>
     <row r="17" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="45">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="88" t="s">
-        <v>195</v>
+        <v>292</v>
       </c>
       <c r="D17" s="73"/>
       <c r="E17" s="93"/>
@@ -6976,10 +7046,10 @@
     </row>
     <row r="18" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="45">
-        <v>13</v>
-      </c>
-      <c r="B18" s="87" t="s">
-        <v>213</v>
+        <v>12</v>
+      </c>
+      <c r="B18" s="88" t="s">
+        <v>195</v>
       </c>
       <c r="D18" s="73"/>
       <c r="E18" s="93"/>
@@ -7034,10 +7104,10 @@
     </row>
     <row r="19" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="45">
-        <v>14</v>
-      </c>
-      <c r="B19" s="88" t="s">
-        <v>300</v>
+        <v>13</v>
+      </c>
+      <c r="B19" s="87" t="s">
+        <v>213</v>
       </c>
       <c r="D19" s="73"/>
       <c r="E19" s="93"/>
@@ -7092,10 +7162,10 @@
     </row>
     <row r="20" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="45">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="88" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D20" s="73"/>
       <c r="E20" s="93"/>
@@ -7150,10 +7220,10 @@
     </row>
     <row r="21" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="45">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="88" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D21" s="73"/>
       <c r="E21" s="93"/>
@@ -7208,10 +7278,10 @@
     </row>
     <row r="22" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="45">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="88" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D22" s="73"/>
       <c r="E22" s="93"/>
@@ -7266,57 +7336,65 @@
     </row>
     <row r="23" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="45">
-        <v>18</v>
-      </c>
-      <c r="B23" s="87" t="s">
-        <v>311</v>
+        <v>17</v>
+      </c>
+      <c r="B23" s="88" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="45">
-        <v>19</v>
-      </c>
-      <c r="B24" s="88" t="s">
-        <v>304</v>
+        <v>18</v>
+      </c>
+      <c r="B24" s="87" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="25" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="45">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" s="88" t="s">
-        <v>184</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="45">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" s="88" t="s">
-        <v>305</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="45">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="88" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="28" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="45">
-        <v>23</v>
-      </c>
-      <c r="B28" s="87" t="s">
-        <v>254</v>
+        <v>22</v>
+      </c>
+      <c r="B28" s="88" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="45">
+        <v>23</v>
+      </c>
+      <c r="B29" s="87" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="45">
         <v>24</v>
       </c>
-      <c r="B29" s="88" t="s">
+      <c r="B30" s="88" t="s">
         <v>307</v>
       </c>
     </row>
@@ -7392,7 +7470,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet21">
     <tabColor theme="2"/>
   </sheetPr>
   <dimension ref="D4:D6"/>
@@ -7425,7 +7503,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet22">
     <tabColor theme="2"/>
   </sheetPr>
   <dimension ref="A1"/>
@@ -7674,7 +7752,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet23">
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:J19"/>
@@ -7976,9 +8054,7 @@
   </sheetPr>
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8407,7 +8483,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8465,9 +8541,7 @@
       <c r="A4" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="44" t="s">
-        <v>291</v>
-      </c>
+      <c r="B4" s="133"/>
       <c r="C4" t="s">
         <v>161</v>
       </c>
@@ -8477,7 +8551,7 @@
         <v>119</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="C5" t="s">
         <v>158</v>
@@ -8488,13 +8562,16 @@
         <v>147</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>146</v>
+        <v>315</v>
       </c>
       <c r="C6" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="44" t="s">
+        <v>146</v>
+      </c>
       <c r="C7" t="s">
         <v>316</v>
       </c>
@@ -8558,7 +8635,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet24">
     <tabColor theme="7" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:J10"/>
@@ -8642,9 +8719,9 @@
   </sheetPr>
   <dimension ref="A1:S507"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8688,7 +8765,7 @@
       <c r="G1" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="131" t="s">
+      <c r="H1" s="128" t="s">
         <v>116</v>
       </c>
       <c r="I1" s="16" t="s">
@@ -8697,7 +8774,7 @@
       <c r="J1" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="K1" s="132" t="s">
+      <c r="K1" s="129" t="s">
         <v>7</v>
       </c>
       <c r="L1" s="6"/>
@@ -8735,14 +8812,14 @@
       </c>
       <c r="C3" s="122">
         <f>SUMIF(Tarakonesh[تراکنش],"دریافت_درآمد",Tarakonesh[مبلغ (ریال)])</f>
-        <v>5520000</v>
+        <v>5600000</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>114</v>
       </c>
       <c r="E3" s="121">
         <f>SUMIF(Tarakonesh[تراکنش],"پرداخت_هزینه",Tarakonesh[مبلغ (ریال)])</f>
-        <v>3093000</v>
+        <v>3013000</v>
       </c>
       <c r="F3" s="39" t="s">
         <v>349</v>
@@ -8751,17 +8828,17 @@
         <f>SUMIF(Tarakonesh[تراکنش],"انتقال",Tarakonesh[مبلغ (ریال)])</f>
         <v>520000</v>
       </c>
-      <c r="H3" s="126" t="s">
+      <c r="H3" s="124" t="s">
         <v>352</v>
       </c>
-      <c r="I3" s="128">
+      <c r="I3" s="126">
         <f>FinancialAccountsTable[[#Totals],[مانده]]</f>
         <v>4427000</v>
       </c>
-      <c r="J3" s="129" t="s">
+      <c r="J3" s="130" t="s">
         <v>154</v>
       </c>
-      <c r="K3" s="129"/>
+      <c r="K3" s="130"/>
       <c r="L3" s="6"/>
       <c r="M3" s="31"/>
       <c r="N3" s="6"/>
@@ -8777,7 +8854,7 @@
       <c r="D4" s="79"/>
       <c r="E4" s="80"/>
       <c r="F4" s="80"/>
-      <c r="G4" s="127"/>
+      <c r="G4" s="125"/>
       <c r="H4" s="81"/>
       <c r="I4" s="6"/>
       <c r="J4" s="82"/>
@@ -8903,13 +8980,11 @@
         <v>164</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>291</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>194</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="F8" s="29"/>
       <c r="G8" s="29" t="s">
-        <v>272</v>
+        <v>329</v>
       </c>
       <c r="H8" s="29" t="s">
         <v>316</v>
@@ -8923,9 +8998,9 @@
       <c r="K8" s="29" t="s">
         <v>342</v>
       </c>
-      <c r="L8" s="125">
+      <c r="L8" s="123">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال", "",(FinancialAccountsTable[[#Totals],[موجودی اولیه]] + IF(Tarakonesh[تراکنش]="دریافت_درآمد",Tarakonesh[[#This Row],[مبلغ (ریال)]],0))-IF(Tarakonesh[تراکنش]="پرداخت_هزینه",Tarakonesh[[#This Row],[مبلغ (ریال)]],0)))</f>
-        <v>1920000</v>
+        <v>2080000</v>
       </c>
       <c r="M8" s="33" t="s">
         <v>118</v>
@@ -8963,9 +9038,9 @@
       <c r="K9" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="L9" s="125">
+      <c r="L9" s="123">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L8,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L8)),((IF(Tarakonesh[تراکنش]="انتقال",0,L8))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
-        <v>2920000</v>
+        <v>3080000</v>
       </c>
       <c r="M9" s="33"/>
       <c r="N9" s="33"/>
@@ -8997,9 +9072,9 @@
       <c r="K10" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="L10" s="125">
+      <c r="L10" s="123">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L9,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L9)),((IF(Tarakonesh[تراکنش]="انتقال",0,L9))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
-        <v>2920000</v>
+        <v>3080000</v>
       </c>
       <c r="M10" s="33"/>
       <c r="N10" s="33"/>
@@ -9033,9 +9108,9 @@
       <c r="K11" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="L11" s="125">
+      <c r="L11" s="123">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L10,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L10)),((IF(Tarakonesh[تراکنش]="انتقال",0,L10))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
-        <v>2940000</v>
+        <v>3100000</v>
       </c>
       <c r="M11" s="33"/>
       <c r="N11" s="33"/>
@@ -9063,9 +9138,9 @@
       <c r="K12" s="29" t="s">
         <v>339</v>
       </c>
-      <c r="L12" s="125">
+      <c r="L12" s="123">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L11,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L11)),((IF(Tarakonesh[تراکنش]="انتقال",0,L11))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
-        <v>2937000</v>
+        <v>3097000</v>
       </c>
       <c r="M12" s="33"/>
       <c r="N12" s="33"/>
@@ -9092,9 +9167,9 @@
       <c r="K13" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="L13" s="125">
+      <c r="L13" s="123">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L12,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L12)),((IF(Tarakonesh[تراکنش]="انتقال",0,L12))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
-        <v>3437000</v>
+        <v>3597000</v>
       </c>
       <c r="M13" s="33"/>
       <c r="N13" s="33"/>
@@ -9121,9 +9196,9 @@
       <c r="K14" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="L14" s="125">
+      <c r="L14" s="123">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L13,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L13)),((IF(Tarakonesh[تراکنش]="انتقال",0,L13))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
-        <v>3437000</v>
+        <v>3597000</v>
       </c>
       <c r="M14" s="33"/>
       <c r="N14" s="33"/>
@@ -9150,9 +9225,9 @@
       <c r="K15" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="L15" s="125">
+      <c r="L15" s="123">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L14,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L14)),((IF(Tarakonesh[تراکنش]="انتقال",0,L14))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
-        <v>3427000</v>
+        <v>3587000</v>
       </c>
       <c r="M15" s="33"/>
       <c r="N15" s="33"/>
@@ -9179,9 +9254,9 @@
       <c r="K16" s="29" t="s">
         <v>337</v>
       </c>
-      <c r="L16" s="125">
+      <c r="L16" s="123">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L15,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L15)),((IF(Tarakonesh[تراکنش]="انتقال",0,L15))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
-        <v>427000</v>
+        <v>587000</v>
       </c>
       <c r="M16" s="33"/>
       <c r="N16" s="33"/>
@@ -9208,9 +9283,9 @@
       <c r="K17" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="L17" s="125">
+      <c r="L17" s="123">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L16,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L16)),((IF(Tarakonesh[تراکنش]="انتقال",0,L16))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
-        <v>4427000</v>
+        <v>4587000</v>
       </c>
       <c r="M17" s="33"/>
       <c r="N17" s="33"/>
@@ -9229,7 +9304,7 @@
       <c r="I18" s="27"/>
       <c r="J18" s="29"/>
       <c r="K18" s="29"/>
-      <c r="L18" s="125" t="str">
+      <c r="L18" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L17,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L17)),((IF(Tarakonesh[تراکنش]="انتقال",0,L17))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -9250,7 +9325,7 @@
       <c r="I19" s="27"/>
       <c r="J19" s="29"/>
       <c r="K19" s="29"/>
-      <c r="L19" s="125" t="str">
+      <c r="L19" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L18,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L18)),((IF(Tarakonesh[تراکنش]="انتقال",0,L18))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -9271,7 +9346,7 @@
       <c r="I20" s="27"/>
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
-      <c r="L20" s="125" t="str">
+      <c r="L20" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L19,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L19)),((IF(Tarakonesh[تراکنش]="انتقال",0,L19))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -9292,7 +9367,7 @@
       <c r="I21" s="27"/>
       <c r="J21" s="29"/>
       <c r="K21" s="29"/>
-      <c r="L21" s="125" t="str">
+      <c r="L21" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L20,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L20)),((IF(Tarakonesh[تراکنش]="انتقال",0,L20))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -9313,7 +9388,7 @@
       <c r="I22" s="27"/>
       <c r="J22" s="29"/>
       <c r="K22" s="29"/>
-      <c r="L22" s="125" t="str">
+      <c r="L22" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L21,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L21)),((IF(Tarakonesh[تراکنش]="انتقال",0,L21))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -9334,7 +9409,7 @@
       <c r="I23" s="27"/>
       <c r="J23" s="29"/>
       <c r="K23" s="29"/>
-      <c r="L23" s="125" t="str">
+      <c r="L23" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L22,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L22)),((IF(Tarakonesh[تراکنش]="انتقال",0,L22))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -9355,7 +9430,7 @@
       <c r="I24" s="27"/>
       <c r="J24" s="29"/>
       <c r="K24" s="29"/>
-      <c r="L24" s="125" t="str">
+      <c r="L24" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L23,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L23)),((IF(Tarakonesh[تراکنش]="انتقال",0,L23))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -9376,7 +9451,7 @@
       <c r="I25" s="27"/>
       <c r="J25" s="29"/>
       <c r="K25" s="29"/>
-      <c r="L25" s="125" t="str">
+      <c r="L25" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L24,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L24)),((IF(Tarakonesh[تراکنش]="انتقال",0,L24))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -9397,7 +9472,7 @@
       <c r="I26" s="27"/>
       <c r="J26" s="29"/>
       <c r="K26" s="29"/>
-      <c r="L26" s="125" t="str">
+      <c r="L26" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L25,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L25)),((IF(Tarakonesh[تراکنش]="انتقال",0,L25))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -9418,7 +9493,7 @@
       <c r="I27" s="27"/>
       <c r="J27" s="29"/>
       <c r="K27" s="29"/>
-      <c r="L27" s="125" t="str">
+      <c r="L27" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L26,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L26)),((IF(Tarakonesh[تراکنش]="انتقال",0,L26))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -9439,7 +9514,7 @@
       <c r="I28" s="27"/>
       <c r="J28" s="29"/>
       <c r="K28" s="29"/>
-      <c r="L28" s="125" t="str">
+      <c r="L28" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L27,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L27)),((IF(Tarakonesh[تراکنش]="انتقال",0,L27))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -9460,7 +9535,7 @@
       <c r="I29" s="27"/>
       <c r="J29" s="29"/>
       <c r="K29" s="29"/>
-      <c r="L29" s="125" t="str">
+      <c r="L29" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L28,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L28)),((IF(Tarakonesh[تراکنش]="انتقال",0,L28))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -9481,7 +9556,7 @@
       <c r="I30" s="27"/>
       <c r="J30" s="29"/>
       <c r="K30" s="29"/>
-      <c r="L30" s="125" t="str">
+      <c r="L30" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L29,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L29)),((IF(Tarakonesh[تراکنش]="انتقال",0,L29))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -9502,7 +9577,7 @@
       <c r="I31" s="27"/>
       <c r="J31" s="29"/>
       <c r="K31" s="29"/>
-      <c r="L31" s="125" t="str">
+      <c r="L31" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L30,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L30)),((IF(Tarakonesh[تراکنش]="انتقال",0,L30))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -9523,7 +9598,7 @@
       <c r="I32" s="27"/>
       <c r="J32" s="29"/>
       <c r="K32" s="29"/>
-      <c r="L32" s="125" t="str">
+      <c r="L32" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L31,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L31)),((IF(Tarakonesh[تراکنش]="انتقال",0,L31))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -9544,7 +9619,7 @@
       <c r="I33" s="27"/>
       <c r="J33" s="29"/>
       <c r="K33" s="29"/>
-      <c r="L33" s="125" t="str">
+      <c r="L33" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L32,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L32)),((IF(Tarakonesh[تراکنش]="انتقال",0,L32))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -9565,7 +9640,7 @@
       <c r="I34" s="27"/>
       <c r="J34" s="29"/>
       <c r="K34" s="29"/>
-      <c r="L34" s="125" t="str">
+      <c r="L34" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L33,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L33)),((IF(Tarakonesh[تراکنش]="انتقال",0,L33))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -9586,7 +9661,7 @@
       <c r="I35" s="27"/>
       <c r="J35" s="29"/>
       <c r="K35" s="29"/>
-      <c r="L35" s="125" t="str">
+      <c r="L35" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L34,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L34)),((IF(Tarakonesh[تراکنش]="انتقال",0,L34))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -9607,7 +9682,7 @@
       <c r="I36" s="27"/>
       <c r="J36" s="29"/>
       <c r="K36" s="29"/>
-      <c r="L36" s="125" t="str">
+      <c r="L36" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L35,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L35)),((IF(Tarakonesh[تراکنش]="انتقال",0,L35))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -9628,7 +9703,7 @@
       <c r="I37" s="27"/>
       <c r="J37" s="29"/>
       <c r="K37" s="29"/>
-      <c r="L37" s="125" t="str">
+      <c r="L37" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L36,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L36)),((IF(Tarakonesh[تراکنش]="انتقال",0,L36))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -9649,7 +9724,7 @@
       <c r="I38" s="27"/>
       <c r="J38" s="29"/>
       <c r="K38" s="29"/>
-      <c r="L38" s="125" t="str">
+      <c r="L38" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L37,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L37)),((IF(Tarakonesh[تراکنش]="انتقال",0,L37))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -9670,7 +9745,7 @@
       <c r="I39" s="27"/>
       <c r="J39" s="29"/>
       <c r="K39" s="29"/>
-      <c r="L39" s="125" t="str">
+      <c r="L39" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L38,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L38)),((IF(Tarakonesh[تراکنش]="انتقال",0,L38))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -9691,7 +9766,7 @@
       <c r="I40" s="27"/>
       <c r="J40" s="29"/>
       <c r="K40" s="29"/>
-      <c r="L40" s="125" t="str">
+      <c r="L40" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L39,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L39)),((IF(Tarakonesh[تراکنش]="انتقال",0,L39))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -9712,7 +9787,7 @@
       <c r="I41" s="27"/>
       <c r="J41" s="29"/>
       <c r="K41" s="29"/>
-      <c r="L41" s="125" t="str">
+      <c r="L41" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L40,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L40)),((IF(Tarakonesh[تراکنش]="انتقال",0,L40))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -9733,7 +9808,7 @@
       <c r="I42" s="27"/>
       <c r="J42" s="29"/>
       <c r="K42" s="29"/>
-      <c r="L42" s="125" t="str">
+      <c r="L42" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L41,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L41)),((IF(Tarakonesh[تراکنش]="انتقال",0,L41))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -9754,7 +9829,7 @@
       <c r="I43" s="27"/>
       <c r="J43" s="29"/>
       <c r="K43" s="29"/>
-      <c r="L43" s="125" t="str">
+      <c r="L43" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L42,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L42)),((IF(Tarakonesh[تراکنش]="انتقال",0,L42))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -9775,7 +9850,7 @@
       <c r="I44" s="27"/>
       <c r="J44" s="29"/>
       <c r="K44" s="29"/>
-      <c r="L44" s="125" t="str">
+      <c r="L44" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L43,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L43)),((IF(Tarakonesh[تراکنش]="انتقال",0,L43))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -9796,7 +9871,7 @@
       <c r="I45" s="27"/>
       <c r="J45" s="29"/>
       <c r="K45" s="29"/>
-      <c r="L45" s="125" t="str">
+      <c r="L45" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L44,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L44)),((IF(Tarakonesh[تراکنش]="انتقال",0,L44))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -9817,7 +9892,7 @@
       <c r="I46" s="27"/>
       <c r="J46" s="29"/>
       <c r="K46" s="29"/>
-      <c r="L46" s="125" t="str">
+      <c r="L46" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L45,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L45)),((IF(Tarakonesh[تراکنش]="انتقال",0,L45))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -9838,7 +9913,7 @@
       <c r="I47" s="27"/>
       <c r="J47" s="29"/>
       <c r="K47" s="29"/>
-      <c r="L47" s="125" t="str">
+      <c r="L47" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L46,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L46)),((IF(Tarakonesh[تراکنش]="انتقال",0,L46))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -9859,7 +9934,7 @@
       <c r="I48" s="27"/>
       <c r="J48" s="29"/>
       <c r="K48" s="29"/>
-      <c r="L48" s="125" t="str">
+      <c r="L48" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L47,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L47)),((IF(Tarakonesh[تراکنش]="انتقال",0,L47))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -9880,7 +9955,7 @@
       <c r="I49" s="27"/>
       <c r="J49" s="29"/>
       <c r="K49" s="29"/>
-      <c r="L49" s="125" t="str">
+      <c r="L49" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L48,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L48)),((IF(Tarakonesh[تراکنش]="انتقال",0,L48))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -9901,7 +9976,7 @@
       <c r="I50" s="27"/>
       <c r="J50" s="29"/>
       <c r="K50" s="29"/>
-      <c r="L50" s="125" t="str">
+      <c r="L50" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L49,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L49)),((IF(Tarakonesh[تراکنش]="انتقال",0,L49))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -9922,7 +9997,7 @@
       <c r="I51" s="27"/>
       <c r="J51" s="29"/>
       <c r="K51" s="29"/>
-      <c r="L51" s="125" t="str">
+      <c r="L51" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L50,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L50)),((IF(Tarakonesh[تراکنش]="انتقال",0,L50))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -9943,7 +10018,7 @@
       <c r="I52" s="27"/>
       <c r="J52" s="29"/>
       <c r="K52" s="29"/>
-      <c r="L52" s="125" t="str">
+      <c r="L52" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L51,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L51)),((IF(Tarakonesh[تراکنش]="انتقال",0,L51))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -9964,7 +10039,7 @@
       <c r="I53" s="27"/>
       <c r="J53" s="29"/>
       <c r="K53" s="29"/>
-      <c r="L53" s="125" t="str">
+      <c r="L53" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L52,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L52)),((IF(Tarakonesh[تراکنش]="انتقال",0,L52))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -9985,7 +10060,7 @@
       <c r="I54" s="27"/>
       <c r="J54" s="29"/>
       <c r="K54" s="29"/>
-      <c r="L54" s="125" t="str">
+      <c r="L54" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L53,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L53)),((IF(Tarakonesh[تراکنش]="انتقال",0,L53))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -10006,7 +10081,7 @@
       <c r="I55" s="27"/>
       <c r="J55" s="29"/>
       <c r="K55" s="29"/>
-      <c r="L55" s="125" t="str">
+      <c r="L55" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L54,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L54)),((IF(Tarakonesh[تراکنش]="انتقال",0,L54))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -10027,7 +10102,7 @@
       <c r="I56" s="27"/>
       <c r="J56" s="29"/>
       <c r="K56" s="29"/>
-      <c r="L56" s="125" t="str">
+      <c r="L56" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L55,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L55)),((IF(Tarakonesh[تراکنش]="انتقال",0,L55))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -10048,7 +10123,7 @@
       <c r="I57" s="27"/>
       <c r="J57" s="29"/>
       <c r="K57" s="29"/>
-      <c r="L57" s="125" t="str">
+      <c r="L57" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L56,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L56)),((IF(Tarakonesh[تراکنش]="انتقال",0,L56))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -10069,7 +10144,7 @@
       <c r="I58" s="27"/>
       <c r="J58" s="29"/>
       <c r="K58" s="29"/>
-      <c r="L58" s="125" t="str">
+      <c r="L58" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L57,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L57)),((IF(Tarakonesh[تراکنش]="انتقال",0,L57))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -10090,7 +10165,7 @@
       <c r="I59" s="27"/>
       <c r="J59" s="29"/>
       <c r="K59" s="29"/>
-      <c r="L59" s="125" t="str">
+      <c r="L59" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L58,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L58)),((IF(Tarakonesh[تراکنش]="انتقال",0,L58))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -10111,7 +10186,7 @@
       <c r="I60" s="27"/>
       <c r="J60" s="29"/>
       <c r="K60" s="29"/>
-      <c r="L60" s="125" t="str">
+      <c r="L60" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L59,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L59)),((IF(Tarakonesh[تراکنش]="انتقال",0,L59))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -10132,7 +10207,7 @@
       <c r="I61" s="27"/>
       <c r="J61" s="29"/>
       <c r="K61" s="29"/>
-      <c r="L61" s="125" t="str">
+      <c r="L61" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L60,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L60)),((IF(Tarakonesh[تراکنش]="انتقال",0,L60))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -10153,7 +10228,7 @@
       <c r="I62" s="27"/>
       <c r="J62" s="29"/>
       <c r="K62" s="29"/>
-      <c r="L62" s="125" t="str">
+      <c r="L62" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L61,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L61)),((IF(Tarakonesh[تراکنش]="انتقال",0,L61))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -10174,7 +10249,7 @@
       <c r="I63" s="27"/>
       <c r="J63" s="29"/>
       <c r="K63" s="29"/>
-      <c r="L63" s="125" t="str">
+      <c r="L63" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L62,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L62)),((IF(Tarakonesh[تراکنش]="انتقال",0,L62))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -10195,7 +10270,7 @@
       <c r="I64" s="27"/>
       <c r="J64" s="29"/>
       <c r="K64" s="29"/>
-      <c r="L64" s="125" t="str">
+      <c r="L64" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L63,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L63)),((IF(Tarakonesh[تراکنش]="انتقال",0,L63))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -10216,7 +10291,7 @@
       <c r="I65" s="27"/>
       <c r="J65" s="29"/>
       <c r="K65" s="29"/>
-      <c r="L65" s="125" t="str">
+      <c r="L65" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L64,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L64)),((IF(Tarakonesh[تراکنش]="انتقال",0,L64))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -10237,7 +10312,7 @@
       <c r="I66" s="27"/>
       <c r="J66" s="29"/>
       <c r="K66" s="29"/>
-      <c r="L66" s="125" t="str">
+      <c r="L66" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L65,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L65)),((IF(Tarakonesh[تراکنش]="انتقال",0,L65))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -10258,7 +10333,7 @@
       <c r="I67" s="27"/>
       <c r="J67" s="29"/>
       <c r="K67" s="29"/>
-      <c r="L67" s="125" t="str">
+      <c r="L67" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L66,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L66)),((IF(Tarakonesh[تراکنش]="انتقال",0,L66))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -10279,7 +10354,7 @@
       <c r="I68" s="27"/>
       <c r="J68" s="29"/>
       <c r="K68" s="29"/>
-      <c r="L68" s="125" t="str">
+      <c r="L68" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L67,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L67)),((IF(Tarakonesh[تراکنش]="انتقال",0,L67))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -10300,7 +10375,7 @@
       <c r="I69" s="27"/>
       <c r="J69" s="29"/>
       <c r="K69" s="29"/>
-      <c r="L69" s="125" t="str">
+      <c r="L69" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L68,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L68)),((IF(Tarakonesh[تراکنش]="انتقال",0,L68))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -10321,7 +10396,7 @@
       <c r="I70" s="27"/>
       <c r="J70" s="29"/>
       <c r="K70" s="29"/>
-      <c r="L70" s="125" t="str">
+      <c r="L70" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L69,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L69)),((IF(Tarakonesh[تراکنش]="انتقال",0,L69))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -10342,7 +10417,7 @@
       <c r="I71" s="27"/>
       <c r="J71" s="29"/>
       <c r="K71" s="29"/>
-      <c r="L71" s="125" t="str">
+      <c r="L71" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L70,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L70)),((IF(Tarakonesh[تراکنش]="انتقال",0,L70))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -10363,7 +10438,7 @@
       <c r="I72" s="27"/>
       <c r="J72" s="29"/>
       <c r="K72" s="29"/>
-      <c r="L72" s="125" t="str">
+      <c r="L72" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L71,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L71)),((IF(Tarakonesh[تراکنش]="انتقال",0,L71))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -10384,7 +10459,7 @@
       <c r="I73" s="27"/>
       <c r="J73" s="29"/>
       <c r="K73" s="29"/>
-      <c r="L73" s="125" t="str">
+      <c r="L73" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L72,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L72)),((IF(Tarakonesh[تراکنش]="انتقال",0,L72))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -10405,7 +10480,7 @@
       <c r="I74" s="27"/>
       <c r="J74" s="29"/>
       <c r="K74" s="29"/>
-      <c r="L74" s="125" t="str">
+      <c r="L74" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L73,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L73)),((IF(Tarakonesh[تراکنش]="انتقال",0,L73))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -10426,7 +10501,7 @@
       <c r="I75" s="27"/>
       <c r="J75" s="29"/>
       <c r="K75" s="29"/>
-      <c r="L75" s="125" t="str">
+      <c r="L75" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L74,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L74)),((IF(Tarakonesh[تراکنش]="انتقال",0,L74))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -10447,7 +10522,7 @@
       <c r="I76" s="27"/>
       <c r="J76" s="29"/>
       <c r="K76" s="29"/>
-      <c r="L76" s="125" t="str">
+      <c r="L76" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L75,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L75)),((IF(Tarakonesh[تراکنش]="انتقال",0,L75))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -10468,7 +10543,7 @@
       <c r="I77" s="27"/>
       <c r="J77" s="29"/>
       <c r="K77" s="29"/>
-      <c r="L77" s="125" t="str">
+      <c r="L77" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L76,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L76)),((IF(Tarakonesh[تراکنش]="انتقال",0,L76))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -10489,7 +10564,7 @@
       <c r="I78" s="27"/>
       <c r="J78" s="29"/>
       <c r="K78" s="29"/>
-      <c r="L78" s="125" t="str">
+      <c r="L78" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L77,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L77)),((IF(Tarakonesh[تراکنش]="انتقال",0,L77))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -10510,7 +10585,7 @@
       <c r="I79" s="27"/>
       <c r="J79" s="29"/>
       <c r="K79" s="29"/>
-      <c r="L79" s="125" t="str">
+      <c r="L79" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L78,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L78)),((IF(Tarakonesh[تراکنش]="انتقال",0,L78))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -10531,7 +10606,7 @@
       <c r="I80" s="27"/>
       <c r="J80" s="29"/>
       <c r="K80" s="29"/>
-      <c r="L80" s="125" t="str">
+      <c r="L80" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L79,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L79)),((IF(Tarakonesh[تراکنش]="انتقال",0,L79))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -10552,7 +10627,7 @@
       <c r="I81" s="27"/>
       <c r="J81" s="29"/>
       <c r="K81" s="29"/>
-      <c r="L81" s="125" t="str">
+      <c r="L81" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L80,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L80)),((IF(Tarakonesh[تراکنش]="انتقال",0,L80))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -10573,7 +10648,7 @@
       <c r="I82" s="27"/>
       <c r="J82" s="29"/>
       <c r="K82" s="29"/>
-      <c r="L82" s="125" t="str">
+      <c r="L82" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L81,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L81)),((IF(Tarakonesh[تراکنش]="انتقال",0,L81))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -10594,7 +10669,7 @@
       <c r="I83" s="27"/>
       <c r="J83" s="29"/>
       <c r="K83" s="29"/>
-      <c r="L83" s="125" t="str">
+      <c r="L83" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L82,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L82)),((IF(Tarakonesh[تراکنش]="انتقال",0,L82))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -10615,7 +10690,7 @@
       <c r="I84" s="27"/>
       <c r="J84" s="29"/>
       <c r="K84" s="29"/>
-      <c r="L84" s="125" t="str">
+      <c r="L84" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L83,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L83)),((IF(Tarakonesh[تراکنش]="انتقال",0,L83))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -10636,7 +10711,7 @@
       <c r="I85" s="27"/>
       <c r="J85" s="29"/>
       <c r="K85" s="29"/>
-      <c r="L85" s="125" t="str">
+      <c r="L85" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L84,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L84)),((IF(Tarakonesh[تراکنش]="انتقال",0,L84))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -10657,7 +10732,7 @@
       <c r="I86" s="27"/>
       <c r="J86" s="29"/>
       <c r="K86" s="29"/>
-      <c r="L86" s="125" t="str">
+      <c r="L86" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L85,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L85)),((IF(Tarakonesh[تراکنش]="انتقال",0,L85))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -10678,7 +10753,7 @@
       <c r="I87" s="27"/>
       <c r="J87" s="29"/>
       <c r="K87" s="29"/>
-      <c r="L87" s="125" t="str">
+      <c r="L87" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L86,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L86)),((IF(Tarakonesh[تراکنش]="انتقال",0,L86))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -10699,7 +10774,7 @@
       <c r="I88" s="27"/>
       <c r="J88" s="29"/>
       <c r="K88" s="29"/>
-      <c r="L88" s="125" t="str">
+      <c r="L88" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L87,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L87)),((IF(Tarakonesh[تراکنش]="انتقال",0,L87))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -10720,7 +10795,7 @@
       <c r="I89" s="27"/>
       <c r="J89" s="29"/>
       <c r="K89" s="29"/>
-      <c r="L89" s="125" t="str">
+      <c r="L89" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L88,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L88)),((IF(Tarakonesh[تراکنش]="انتقال",0,L88))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -10741,7 +10816,7 @@
       <c r="I90" s="27"/>
       <c r="J90" s="29"/>
       <c r="K90" s="29"/>
-      <c r="L90" s="125" t="str">
+      <c r="L90" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L89,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L89)),((IF(Tarakonesh[تراکنش]="انتقال",0,L89))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -10762,7 +10837,7 @@
       <c r="I91" s="27"/>
       <c r="J91" s="29"/>
       <c r="K91" s="29"/>
-      <c r="L91" s="125" t="str">
+      <c r="L91" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L90,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L90)),((IF(Tarakonesh[تراکنش]="انتقال",0,L90))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -10783,7 +10858,7 @@
       <c r="I92" s="27"/>
       <c r="J92" s="29"/>
       <c r="K92" s="29"/>
-      <c r="L92" s="125" t="str">
+      <c r="L92" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L91,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L91)),((IF(Tarakonesh[تراکنش]="انتقال",0,L91))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -10804,7 +10879,7 @@
       <c r="I93" s="27"/>
       <c r="J93" s="29"/>
       <c r="K93" s="29"/>
-      <c r="L93" s="125" t="str">
+      <c r="L93" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L92,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L92)),((IF(Tarakonesh[تراکنش]="انتقال",0,L92))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -10825,7 +10900,7 @@
       <c r="I94" s="27"/>
       <c r="J94" s="29"/>
       <c r="K94" s="29"/>
-      <c r="L94" s="125" t="str">
+      <c r="L94" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L93,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L93)),((IF(Tarakonesh[تراکنش]="انتقال",0,L93))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -10846,7 +10921,7 @@
       <c r="I95" s="27"/>
       <c r="J95" s="29"/>
       <c r="K95" s="29"/>
-      <c r="L95" s="125" t="str">
+      <c r="L95" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L94,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L94)),((IF(Tarakonesh[تراکنش]="انتقال",0,L94))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -10867,7 +10942,7 @@
       <c r="I96" s="27"/>
       <c r="J96" s="29"/>
       <c r="K96" s="29"/>
-      <c r="L96" s="125" t="str">
+      <c r="L96" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L95,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L95)),((IF(Tarakonesh[تراکنش]="انتقال",0,L95))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -10888,7 +10963,7 @@
       <c r="I97" s="27"/>
       <c r="J97" s="29"/>
       <c r="K97" s="29"/>
-      <c r="L97" s="125" t="str">
+      <c r="L97" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L96,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L96)),((IF(Tarakonesh[تراکنش]="انتقال",0,L96))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -10909,7 +10984,7 @@
       <c r="I98" s="27"/>
       <c r="J98" s="29"/>
       <c r="K98" s="29"/>
-      <c r="L98" s="125" t="str">
+      <c r="L98" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L97,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L97)),((IF(Tarakonesh[تراکنش]="انتقال",0,L97))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -10930,7 +11005,7 @@
       <c r="I99" s="27"/>
       <c r="J99" s="29"/>
       <c r="K99" s="29"/>
-      <c r="L99" s="125" t="str">
+      <c r="L99" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L98,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L98)),((IF(Tarakonesh[تراکنش]="انتقال",0,L98))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -10951,7 +11026,7 @@
       <c r="I100" s="27"/>
       <c r="J100" s="29"/>
       <c r="K100" s="29"/>
-      <c r="L100" s="125" t="str">
+      <c r="L100" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L99,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L99)),((IF(Tarakonesh[تراکنش]="انتقال",0,L99))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -10972,7 +11047,7 @@
       <c r="I101" s="27"/>
       <c r="J101" s="29"/>
       <c r="K101" s="29"/>
-      <c r="L101" s="125" t="str">
+      <c r="L101" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L100,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L100)),((IF(Tarakonesh[تراکنش]="انتقال",0,L100))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -10993,7 +11068,7 @@
       <c r="I102" s="27"/>
       <c r="J102" s="29"/>
       <c r="K102" s="29"/>
-      <c r="L102" s="125" t="str">
+      <c r="L102" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L101,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L101)),((IF(Tarakonesh[تراکنش]="انتقال",0,L101))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -11014,7 +11089,7 @@
       <c r="I103" s="27"/>
       <c r="J103" s="29"/>
       <c r="K103" s="29"/>
-      <c r="L103" s="125" t="str">
+      <c r="L103" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L102,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L102)),((IF(Tarakonesh[تراکنش]="انتقال",0,L102))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -11035,7 +11110,7 @@
       <c r="I104" s="27"/>
       <c r="J104" s="29"/>
       <c r="K104" s="29"/>
-      <c r="L104" s="125" t="str">
+      <c r="L104" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L103,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L103)),((IF(Tarakonesh[تراکنش]="انتقال",0,L103))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -11056,7 +11131,7 @@
       <c r="I105" s="27"/>
       <c r="J105" s="29"/>
       <c r="K105" s="29"/>
-      <c r="L105" s="125" t="str">
+      <c r="L105" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L104,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L104)),((IF(Tarakonesh[تراکنش]="انتقال",0,L104))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -11077,7 +11152,7 @@
       <c r="I106" s="27"/>
       <c r="J106" s="29"/>
       <c r="K106" s="29"/>
-      <c r="L106" s="125" t="str">
+      <c r="L106" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L105,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L105)),((IF(Tarakonesh[تراکنش]="انتقال",0,L105))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -11098,7 +11173,7 @@
       <c r="I107" s="27"/>
       <c r="J107" s="29"/>
       <c r="K107" s="29"/>
-      <c r="L107" s="125" t="str">
+      <c r="L107" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L106,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L106)),((IF(Tarakonesh[تراکنش]="انتقال",0,L106))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -11119,7 +11194,7 @@
       <c r="I108" s="27"/>
       <c r="J108" s="29"/>
       <c r="K108" s="29"/>
-      <c r="L108" s="125" t="str">
+      <c r="L108" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L107,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L107)),((IF(Tarakonesh[تراکنش]="انتقال",0,L107))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -11140,7 +11215,7 @@
       <c r="I109" s="27"/>
       <c r="J109" s="29"/>
       <c r="K109" s="29"/>
-      <c r="L109" s="125" t="str">
+      <c r="L109" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L108,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L108)),((IF(Tarakonesh[تراکنش]="انتقال",0,L108))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -11161,7 +11236,7 @@
       <c r="I110" s="27"/>
       <c r="J110" s="29"/>
       <c r="K110" s="29"/>
-      <c r="L110" s="125" t="str">
+      <c r="L110" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L109,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L109)),((IF(Tarakonesh[تراکنش]="انتقال",0,L109))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -11182,7 +11257,7 @@
       <c r="I111" s="27"/>
       <c r="J111" s="29"/>
       <c r="K111" s="29"/>
-      <c r="L111" s="125" t="str">
+      <c r="L111" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L110,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L110)),((IF(Tarakonesh[تراکنش]="انتقال",0,L110))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -11203,7 +11278,7 @@
       <c r="I112" s="27"/>
       <c r="J112" s="29"/>
       <c r="K112" s="29"/>
-      <c r="L112" s="125" t="str">
+      <c r="L112" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L111,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L111)),((IF(Tarakonesh[تراکنش]="انتقال",0,L111))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -11224,7 +11299,7 @@
       <c r="I113" s="27"/>
       <c r="J113" s="29"/>
       <c r="K113" s="29"/>
-      <c r="L113" s="125" t="str">
+      <c r="L113" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L112,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L112)),((IF(Tarakonesh[تراکنش]="انتقال",0,L112))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -11245,7 +11320,7 @@
       <c r="I114" s="27"/>
       <c r="J114" s="29"/>
       <c r="K114" s="29"/>
-      <c r="L114" s="125" t="str">
+      <c r="L114" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L113,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L113)),((IF(Tarakonesh[تراکنش]="انتقال",0,L113))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -11266,7 +11341,7 @@
       <c r="I115" s="27"/>
       <c r="J115" s="29"/>
       <c r="K115" s="29"/>
-      <c r="L115" s="125" t="str">
+      <c r="L115" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L114,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L114)),((IF(Tarakonesh[تراکنش]="انتقال",0,L114))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -11287,7 +11362,7 @@
       <c r="I116" s="27"/>
       <c r="J116" s="29"/>
       <c r="K116" s="29"/>
-      <c r="L116" s="125" t="str">
+      <c r="L116" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L115,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L115)),((IF(Tarakonesh[تراکنش]="انتقال",0,L115))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -11308,7 +11383,7 @@
       <c r="I117" s="27"/>
       <c r="J117" s="29"/>
       <c r="K117" s="29"/>
-      <c r="L117" s="125" t="str">
+      <c r="L117" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L116,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L116)),((IF(Tarakonesh[تراکنش]="انتقال",0,L116))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -11329,7 +11404,7 @@
       <c r="I118" s="27"/>
       <c r="J118" s="29"/>
       <c r="K118" s="29"/>
-      <c r="L118" s="125" t="str">
+      <c r="L118" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L117,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L117)),((IF(Tarakonesh[تراکنش]="انتقال",0,L117))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -11350,7 +11425,7 @@
       <c r="I119" s="27"/>
       <c r="J119" s="29"/>
       <c r="K119" s="29"/>
-      <c r="L119" s="125" t="str">
+      <c r="L119" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L118,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L118)),((IF(Tarakonesh[تراکنش]="انتقال",0,L118))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -11371,7 +11446,7 @@
       <c r="I120" s="27"/>
       <c r="J120" s="29"/>
       <c r="K120" s="29"/>
-      <c r="L120" s="125" t="str">
+      <c r="L120" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L119,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L119)),((IF(Tarakonesh[تراکنش]="انتقال",0,L119))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -11392,7 +11467,7 @@
       <c r="I121" s="27"/>
       <c r="J121" s="29"/>
       <c r="K121" s="29"/>
-      <c r="L121" s="125" t="str">
+      <c r="L121" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L120,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L120)),((IF(Tarakonesh[تراکنش]="انتقال",0,L120))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -11413,7 +11488,7 @@
       <c r="I122" s="27"/>
       <c r="J122" s="29"/>
       <c r="K122" s="29"/>
-      <c r="L122" s="125" t="str">
+      <c r="L122" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L121,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L121)),((IF(Tarakonesh[تراکنش]="انتقال",0,L121))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -11434,7 +11509,7 @@
       <c r="I123" s="27"/>
       <c r="J123" s="29"/>
       <c r="K123" s="29"/>
-      <c r="L123" s="125" t="str">
+      <c r="L123" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L122,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L122)),((IF(Tarakonesh[تراکنش]="انتقال",0,L122))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -11455,7 +11530,7 @@
       <c r="I124" s="27"/>
       <c r="J124" s="29"/>
       <c r="K124" s="29"/>
-      <c r="L124" s="125" t="str">
+      <c r="L124" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L123,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L123)),((IF(Tarakonesh[تراکنش]="انتقال",0,L123))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -11476,7 +11551,7 @@
       <c r="I125" s="27"/>
       <c r="J125" s="29"/>
       <c r="K125" s="29"/>
-      <c r="L125" s="125" t="str">
+      <c r="L125" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L124,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L124)),((IF(Tarakonesh[تراکنش]="انتقال",0,L124))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -11497,7 +11572,7 @@
       <c r="I126" s="27"/>
       <c r="J126" s="29"/>
       <c r="K126" s="29"/>
-      <c r="L126" s="125" t="str">
+      <c r="L126" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L125,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L125)),((IF(Tarakonesh[تراکنش]="انتقال",0,L125))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -11518,7 +11593,7 @@
       <c r="I127" s="27"/>
       <c r="J127" s="29"/>
       <c r="K127" s="29"/>
-      <c r="L127" s="125" t="str">
+      <c r="L127" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L126,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L126)),((IF(Tarakonesh[تراکنش]="انتقال",0,L126))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -11539,7 +11614,7 @@
       <c r="I128" s="27"/>
       <c r="J128" s="29"/>
       <c r="K128" s="29"/>
-      <c r="L128" s="125" t="str">
+      <c r="L128" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L127,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L127)),((IF(Tarakonesh[تراکنش]="انتقال",0,L127))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -11560,7 +11635,7 @@
       <c r="I129" s="27"/>
       <c r="J129" s="29"/>
       <c r="K129" s="29"/>
-      <c r="L129" s="125" t="str">
+      <c r="L129" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L128,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L128)),((IF(Tarakonesh[تراکنش]="انتقال",0,L128))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -11581,7 +11656,7 @@
       <c r="I130" s="27"/>
       <c r="J130" s="29"/>
       <c r="K130" s="29"/>
-      <c r="L130" s="125" t="str">
+      <c r="L130" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L129,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L129)),((IF(Tarakonesh[تراکنش]="انتقال",0,L129))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -11602,7 +11677,7 @@
       <c r="I131" s="27"/>
       <c r="J131" s="29"/>
       <c r="K131" s="29"/>
-      <c r="L131" s="125" t="str">
+      <c r="L131" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L130,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L130)),((IF(Tarakonesh[تراکنش]="انتقال",0,L130))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -11623,7 +11698,7 @@
       <c r="I132" s="27"/>
       <c r="J132" s="29"/>
       <c r="K132" s="29"/>
-      <c r="L132" s="125" t="str">
+      <c r="L132" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L131,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L131)),((IF(Tarakonesh[تراکنش]="انتقال",0,L131))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -11644,7 +11719,7 @@
       <c r="I133" s="27"/>
       <c r="J133" s="29"/>
       <c r="K133" s="29"/>
-      <c r="L133" s="125" t="str">
+      <c r="L133" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L132,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L132)),((IF(Tarakonesh[تراکنش]="انتقال",0,L132))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -11665,7 +11740,7 @@
       <c r="I134" s="27"/>
       <c r="J134" s="29"/>
       <c r="K134" s="29"/>
-      <c r="L134" s="125" t="str">
+      <c r="L134" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L133,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L133)),((IF(Tarakonesh[تراکنش]="انتقال",0,L133))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -11686,7 +11761,7 @@
       <c r="I135" s="27"/>
       <c r="J135" s="29"/>
       <c r="K135" s="29"/>
-      <c r="L135" s="125" t="str">
+      <c r="L135" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L134,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L134)),((IF(Tarakonesh[تراکنش]="انتقال",0,L134))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -11707,7 +11782,7 @@
       <c r="I136" s="27"/>
       <c r="J136" s="29"/>
       <c r="K136" s="29"/>
-      <c r="L136" s="125" t="str">
+      <c r="L136" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L135,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L135)),((IF(Tarakonesh[تراکنش]="انتقال",0,L135))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -11728,7 +11803,7 @@
       <c r="I137" s="27"/>
       <c r="J137" s="29"/>
       <c r="K137" s="29"/>
-      <c r="L137" s="125" t="str">
+      <c r="L137" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L136,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L136)),((IF(Tarakonesh[تراکنش]="انتقال",0,L136))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -11749,7 +11824,7 @@
       <c r="I138" s="27"/>
       <c r="J138" s="29"/>
       <c r="K138" s="29"/>
-      <c r="L138" s="125" t="str">
+      <c r="L138" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L137,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L137)),((IF(Tarakonesh[تراکنش]="انتقال",0,L137))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -11770,7 +11845,7 @@
       <c r="I139" s="27"/>
       <c r="J139" s="29"/>
       <c r="K139" s="29"/>
-      <c r="L139" s="125" t="str">
+      <c r="L139" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L138,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L138)),((IF(Tarakonesh[تراکنش]="انتقال",0,L138))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -11791,7 +11866,7 @@
       <c r="I140" s="27"/>
       <c r="J140" s="29"/>
       <c r="K140" s="29"/>
-      <c r="L140" s="125" t="str">
+      <c r="L140" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L139,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L139)),((IF(Tarakonesh[تراکنش]="انتقال",0,L139))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -11812,7 +11887,7 @@
       <c r="I141" s="27"/>
       <c r="J141" s="29"/>
       <c r="K141" s="29"/>
-      <c r="L141" s="125" t="str">
+      <c r="L141" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L140,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L140)),((IF(Tarakonesh[تراکنش]="انتقال",0,L140))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -11833,7 +11908,7 @@
       <c r="I142" s="27"/>
       <c r="J142" s="29"/>
       <c r="K142" s="29"/>
-      <c r="L142" s="125" t="str">
+      <c r="L142" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L141,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L141)),((IF(Tarakonesh[تراکنش]="انتقال",0,L141))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -11854,7 +11929,7 @@
       <c r="I143" s="27"/>
       <c r="J143" s="29"/>
       <c r="K143" s="29"/>
-      <c r="L143" s="125" t="str">
+      <c r="L143" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L142,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L142)),((IF(Tarakonesh[تراکنش]="انتقال",0,L142))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -11875,7 +11950,7 @@
       <c r="I144" s="27"/>
       <c r="J144" s="29"/>
       <c r="K144" s="29"/>
-      <c r="L144" s="125" t="str">
+      <c r="L144" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L143,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L143)),((IF(Tarakonesh[تراکنش]="انتقال",0,L143))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -11896,7 +11971,7 @@
       <c r="I145" s="27"/>
       <c r="J145" s="29"/>
       <c r="K145" s="29"/>
-      <c r="L145" s="125" t="str">
+      <c r="L145" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L144,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L144)),((IF(Tarakonesh[تراکنش]="انتقال",0,L144))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -11917,7 +11992,7 @@
       <c r="I146" s="27"/>
       <c r="J146" s="29"/>
       <c r="K146" s="29"/>
-      <c r="L146" s="125" t="str">
+      <c r="L146" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L145,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L145)),((IF(Tarakonesh[تراکنش]="انتقال",0,L145))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -11938,7 +12013,7 @@
       <c r="I147" s="27"/>
       <c r="J147" s="29"/>
       <c r="K147" s="29"/>
-      <c r="L147" s="125" t="str">
+      <c r="L147" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L146,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L146)),((IF(Tarakonesh[تراکنش]="انتقال",0,L146))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -11959,7 +12034,7 @@
       <c r="I148" s="27"/>
       <c r="J148" s="29"/>
       <c r="K148" s="29"/>
-      <c r="L148" s="125" t="str">
+      <c r="L148" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L147,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L147)),((IF(Tarakonesh[تراکنش]="انتقال",0,L147))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -11980,7 +12055,7 @@
       <c r="I149" s="27"/>
       <c r="J149" s="29"/>
       <c r="K149" s="29"/>
-      <c r="L149" s="125" t="str">
+      <c r="L149" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L148,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L148)),((IF(Tarakonesh[تراکنش]="انتقال",0,L148))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -12001,7 +12076,7 @@
       <c r="I150" s="27"/>
       <c r="J150" s="29"/>
       <c r="K150" s="29"/>
-      <c r="L150" s="125" t="str">
+      <c r="L150" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L149,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L149)),((IF(Tarakonesh[تراکنش]="انتقال",0,L149))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -12022,7 +12097,7 @@
       <c r="I151" s="27"/>
       <c r="J151" s="29"/>
       <c r="K151" s="29"/>
-      <c r="L151" s="125" t="str">
+      <c r="L151" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L150,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L150)),((IF(Tarakonesh[تراکنش]="انتقال",0,L150))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -12043,7 +12118,7 @@
       <c r="I152" s="27"/>
       <c r="J152" s="29"/>
       <c r="K152" s="29"/>
-      <c r="L152" s="125" t="str">
+      <c r="L152" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L151,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L151)),((IF(Tarakonesh[تراکنش]="انتقال",0,L151))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -12064,7 +12139,7 @@
       <c r="I153" s="27"/>
       <c r="J153" s="29"/>
       <c r="K153" s="29"/>
-      <c r="L153" s="125" t="str">
+      <c r="L153" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L152,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L152)),((IF(Tarakonesh[تراکنش]="انتقال",0,L152))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -12085,7 +12160,7 @@
       <c r="I154" s="27"/>
       <c r="J154" s="29"/>
       <c r="K154" s="29"/>
-      <c r="L154" s="125" t="str">
+      <c r="L154" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L153,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L153)),((IF(Tarakonesh[تراکنش]="انتقال",0,L153))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -12106,7 +12181,7 @@
       <c r="I155" s="27"/>
       <c r="J155" s="29"/>
       <c r="K155" s="29"/>
-      <c r="L155" s="125" t="str">
+      <c r="L155" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L154,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L154)),((IF(Tarakonesh[تراکنش]="انتقال",0,L154))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -12127,7 +12202,7 @@
       <c r="I156" s="27"/>
       <c r="J156" s="29"/>
       <c r="K156" s="29"/>
-      <c r="L156" s="125" t="str">
+      <c r="L156" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L155,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L155)),((IF(Tarakonesh[تراکنش]="انتقال",0,L155))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -12148,7 +12223,7 @@
       <c r="I157" s="27"/>
       <c r="J157" s="29"/>
       <c r="K157" s="29"/>
-      <c r="L157" s="125" t="str">
+      <c r="L157" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L156,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L156)),((IF(Tarakonesh[تراکنش]="انتقال",0,L156))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -12169,7 +12244,7 @@
       <c r="I158" s="27"/>
       <c r="J158" s="29"/>
       <c r="K158" s="29"/>
-      <c r="L158" s="125" t="str">
+      <c r="L158" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L157,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L157)),((IF(Tarakonesh[تراکنش]="انتقال",0,L157))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -12190,7 +12265,7 @@
       <c r="I159" s="27"/>
       <c r="J159" s="29"/>
       <c r="K159" s="29"/>
-      <c r="L159" s="125" t="str">
+      <c r="L159" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L158,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L158)),((IF(Tarakonesh[تراکنش]="انتقال",0,L158))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -12211,7 +12286,7 @@
       <c r="I160" s="27"/>
       <c r="J160" s="29"/>
       <c r="K160" s="29"/>
-      <c r="L160" s="125" t="str">
+      <c r="L160" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L159,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L159)),((IF(Tarakonesh[تراکنش]="انتقال",0,L159))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -12232,7 +12307,7 @@
       <c r="I161" s="27"/>
       <c r="J161" s="29"/>
       <c r="K161" s="29"/>
-      <c r="L161" s="125" t="str">
+      <c r="L161" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L160,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L160)),((IF(Tarakonesh[تراکنش]="انتقال",0,L160))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -12253,7 +12328,7 @@
       <c r="I162" s="27"/>
       <c r="J162" s="29"/>
       <c r="K162" s="29"/>
-      <c r="L162" s="125" t="str">
+      <c r="L162" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L161,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L161)),((IF(Tarakonesh[تراکنش]="انتقال",0,L161))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -12274,7 +12349,7 @@
       <c r="I163" s="27"/>
       <c r="J163" s="29"/>
       <c r="K163" s="29"/>
-      <c r="L163" s="125" t="str">
+      <c r="L163" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L162,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L162)),((IF(Tarakonesh[تراکنش]="انتقال",0,L162))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -12295,7 +12370,7 @@
       <c r="I164" s="27"/>
       <c r="J164" s="29"/>
       <c r="K164" s="29"/>
-      <c r="L164" s="125" t="str">
+      <c r="L164" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L163,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L163)),((IF(Tarakonesh[تراکنش]="انتقال",0,L163))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -12316,7 +12391,7 @@
       <c r="I165" s="27"/>
       <c r="J165" s="29"/>
       <c r="K165" s="29"/>
-      <c r="L165" s="125" t="str">
+      <c r="L165" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L164,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L164)),((IF(Tarakonesh[تراکنش]="انتقال",0,L164))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -12337,7 +12412,7 @@
       <c r="I166" s="27"/>
       <c r="J166" s="29"/>
       <c r="K166" s="29"/>
-      <c r="L166" s="125" t="str">
+      <c r="L166" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L165,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L165)),((IF(Tarakonesh[تراکنش]="انتقال",0,L165))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -12358,7 +12433,7 @@
       <c r="I167" s="27"/>
       <c r="J167" s="29"/>
       <c r="K167" s="29"/>
-      <c r="L167" s="125" t="str">
+      <c r="L167" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L166,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L166)),((IF(Tarakonesh[تراکنش]="انتقال",0,L166))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -12379,7 +12454,7 @@
       <c r="I168" s="27"/>
       <c r="J168" s="29"/>
       <c r="K168" s="29"/>
-      <c r="L168" s="125" t="str">
+      <c r="L168" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L167,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L167)),((IF(Tarakonesh[تراکنش]="انتقال",0,L167))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -12400,7 +12475,7 @@
       <c r="I169" s="27"/>
       <c r="J169" s="29"/>
       <c r="K169" s="29"/>
-      <c r="L169" s="125" t="str">
+      <c r="L169" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L168,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L168)),((IF(Tarakonesh[تراکنش]="انتقال",0,L168))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -12421,7 +12496,7 @@
       <c r="I170" s="27"/>
       <c r="J170" s="29"/>
       <c r="K170" s="29"/>
-      <c r="L170" s="125" t="str">
+      <c r="L170" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L169,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L169)),((IF(Tarakonesh[تراکنش]="انتقال",0,L169))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -12442,7 +12517,7 @@
       <c r="I171" s="27"/>
       <c r="J171" s="29"/>
       <c r="K171" s="29"/>
-      <c r="L171" s="125" t="str">
+      <c r="L171" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L170,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L170)),((IF(Tarakonesh[تراکنش]="انتقال",0,L170))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -12463,7 +12538,7 @@
       <c r="I172" s="27"/>
       <c r="J172" s="29"/>
       <c r="K172" s="29"/>
-      <c r="L172" s="125" t="str">
+      <c r="L172" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L171,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L171)),((IF(Tarakonesh[تراکنش]="انتقال",0,L171))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -12484,7 +12559,7 @@
       <c r="I173" s="27"/>
       <c r="J173" s="29"/>
       <c r="K173" s="29"/>
-      <c r="L173" s="125" t="str">
+      <c r="L173" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L172,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L172)),((IF(Tarakonesh[تراکنش]="انتقال",0,L172))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -12505,7 +12580,7 @@
       <c r="I174" s="27"/>
       <c r="J174" s="29"/>
       <c r="K174" s="29"/>
-      <c r="L174" s="125" t="str">
+      <c r="L174" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L173,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L173)),((IF(Tarakonesh[تراکنش]="انتقال",0,L173))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -12526,7 +12601,7 @@
       <c r="I175" s="27"/>
       <c r="J175" s="29"/>
       <c r="K175" s="29"/>
-      <c r="L175" s="125" t="str">
+      <c r="L175" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L174,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L174)),((IF(Tarakonesh[تراکنش]="انتقال",0,L174))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -12547,7 +12622,7 @@
       <c r="I176" s="27"/>
       <c r="J176" s="29"/>
       <c r="K176" s="29"/>
-      <c r="L176" s="125" t="str">
+      <c r="L176" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L175,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L175)),((IF(Tarakonesh[تراکنش]="انتقال",0,L175))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -12568,7 +12643,7 @@
       <c r="I177" s="27"/>
       <c r="J177" s="29"/>
       <c r="K177" s="29"/>
-      <c r="L177" s="125" t="str">
+      <c r="L177" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L176,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L176)),((IF(Tarakonesh[تراکنش]="انتقال",0,L176))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -12589,7 +12664,7 @@
       <c r="I178" s="27"/>
       <c r="J178" s="29"/>
       <c r="K178" s="29"/>
-      <c r="L178" s="125" t="str">
+      <c r="L178" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L177,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L177)),((IF(Tarakonesh[تراکنش]="انتقال",0,L177))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -12610,7 +12685,7 @@
       <c r="I179" s="27"/>
       <c r="J179" s="29"/>
       <c r="K179" s="29"/>
-      <c r="L179" s="125" t="str">
+      <c r="L179" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L178,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L178)),((IF(Tarakonesh[تراکنش]="انتقال",0,L178))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -12631,7 +12706,7 @@
       <c r="I180" s="27"/>
       <c r="J180" s="29"/>
       <c r="K180" s="29"/>
-      <c r="L180" s="125" t="str">
+      <c r="L180" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L179,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L179)),((IF(Tarakonesh[تراکنش]="انتقال",0,L179))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -12652,7 +12727,7 @@
       <c r="I181" s="27"/>
       <c r="J181" s="29"/>
       <c r="K181" s="29"/>
-      <c r="L181" s="125" t="str">
+      <c r="L181" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L180,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L180)),((IF(Tarakonesh[تراکنش]="انتقال",0,L180))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -12673,7 +12748,7 @@
       <c r="I182" s="27"/>
       <c r="J182" s="29"/>
       <c r="K182" s="29"/>
-      <c r="L182" s="125" t="str">
+      <c r="L182" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L181,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L181)),((IF(Tarakonesh[تراکنش]="انتقال",0,L181))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -12694,7 +12769,7 @@
       <c r="I183" s="27"/>
       <c r="J183" s="29"/>
       <c r="K183" s="29"/>
-      <c r="L183" s="125" t="str">
+      <c r="L183" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L182,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L182)),((IF(Tarakonesh[تراکنش]="انتقال",0,L182))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -12715,7 +12790,7 @@
       <c r="I184" s="27"/>
       <c r="J184" s="29"/>
       <c r="K184" s="29"/>
-      <c r="L184" s="125" t="str">
+      <c r="L184" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L183,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L183)),((IF(Tarakonesh[تراکنش]="انتقال",0,L183))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -12736,7 +12811,7 @@
       <c r="I185" s="27"/>
       <c r="J185" s="29"/>
       <c r="K185" s="29"/>
-      <c r="L185" s="125" t="str">
+      <c r="L185" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L184,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L184)),((IF(Tarakonesh[تراکنش]="انتقال",0,L184))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -12757,7 +12832,7 @@
       <c r="I186" s="27"/>
       <c r="J186" s="29"/>
       <c r="K186" s="29"/>
-      <c r="L186" s="125" t="str">
+      <c r="L186" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L185,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L185)),((IF(Tarakonesh[تراکنش]="انتقال",0,L185))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -12778,7 +12853,7 @@
       <c r="I187" s="27"/>
       <c r="J187" s="29"/>
       <c r="K187" s="29"/>
-      <c r="L187" s="125" t="str">
+      <c r="L187" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L186,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L186)),((IF(Tarakonesh[تراکنش]="انتقال",0,L186))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -12799,7 +12874,7 @@
       <c r="I188" s="27"/>
       <c r="J188" s="29"/>
       <c r="K188" s="29"/>
-      <c r="L188" s="125" t="str">
+      <c r="L188" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L187,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L187)),((IF(Tarakonesh[تراکنش]="انتقال",0,L187))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -12820,7 +12895,7 @@
       <c r="I189" s="27"/>
       <c r="J189" s="29"/>
       <c r="K189" s="29"/>
-      <c r="L189" s="125" t="str">
+      <c r="L189" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L188,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L188)),((IF(Tarakonesh[تراکنش]="انتقال",0,L188))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -12841,7 +12916,7 @@
       <c r="I190" s="27"/>
       <c r="J190" s="29"/>
       <c r="K190" s="29"/>
-      <c r="L190" s="125" t="str">
+      <c r="L190" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L189,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L189)),((IF(Tarakonesh[تراکنش]="انتقال",0,L189))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -12862,7 +12937,7 @@
       <c r="I191" s="27"/>
       <c r="J191" s="29"/>
       <c r="K191" s="29"/>
-      <c r="L191" s="125" t="str">
+      <c r="L191" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L190,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L190)),((IF(Tarakonesh[تراکنش]="انتقال",0,L190))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -12883,7 +12958,7 @@
       <c r="I192" s="27"/>
       <c r="J192" s="29"/>
       <c r="K192" s="29"/>
-      <c r="L192" s="125" t="str">
+      <c r="L192" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L191,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L191)),((IF(Tarakonesh[تراکنش]="انتقال",0,L191))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -12904,7 +12979,7 @@
       <c r="I193" s="27"/>
       <c r="J193" s="29"/>
       <c r="K193" s="29"/>
-      <c r="L193" s="125" t="str">
+      <c r="L193" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L192,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L192)),((IF(Tarakonesh[تراکنش]="انتقال",0,L192))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -12925,7 +13000,7 @@
       <c r="I194" s="27"/>
       <c r="J194" s="29"/>
       <c r="K194" s="29"/>
-      <c r="L194" s="125" t="str">
+      <c r="L194" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L193,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L193)),((IF(Tarakonesh[تراکنش]="انتقال",0,L193))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -12946,7 +13021,7 @@
       <c r="I195" s="27"/>
       <c r="J195" s="29"/>
       <c r="K195" s="29"/>
-      <c r="L195" s="125" t="str">
+      <c r="L195" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L194,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L194)),((IF(Tarakonesh[تراکنش]="انتقال",0,L194))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -12967,7 +13042,7 @@
       <c r="I196" s="27"/>
       <c r="J196" s="29"/>
       <c r="K196" s="29"/>
-      <c r="L196" s="125" t="str">
+      <c r="L196" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L195,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L195)),((IF(Tarakonesh[تراکنش]="انتقال",0,L195))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -12988,7 +13063,7 @@
       <c r="I197" s="27"/>
       <c r="J197" s="29"/>
       <c r="K197" s="29"/>
-      <c r="L197" s="125" t="str">
+      <c r="L197" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L196,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L196)),((IF(Tarakonesh[تراکنش]="انتقال",0,L196))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -13009,7 +13084,7 @@
       <c r="I198" s="27"/>
       <c r="J198" s="29"/>
       <c r="K198" s="29"/>
-      <c r="L198" s="125" t="str">
+      <c r="L198" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L197,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L197)),((IF(Tarakonesh[تراکنش]="انتقال",0,L197))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -13030,7 +13105,7 @@
       <c r="I199" s="27"/>
       <c r="J199" s="29"/>
       <c r="K199" s="29"/>
-      <c r="L199" s="125" t="str">
+      <c r="L199" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L198,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L198)),((IF(Tarakonesh[تراکنش]="انتقال",0,L198))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -13051,7 +13126,7 @@
       <c r="I200" s="27"/>
       <c r="J200" s="29"/>
       <c r="K200" s="29"/>
-      <c r="L200" s="125" t="str">
+      <c r="L200" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L199,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L199)),((IF(Tarakonesh[تراکنش]="انتقال",0,L199))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -13072,7 +13147,7 @@
       <c r="I201" s="27"/>
       <c r="J201" s="29"/>
       <c r="K201" s="29"/>
-      <c r="L201" s="125" t="str">
+      <c r="L201" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L200,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L200)),((IF(Tarakonesh[تراکنش]="انتقال",0,L200))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -13093,7 +13168,7 @@
       <c r="I202" s="27"/>
       <c r="J202" s="29"/>
       <c r="K202" s="29"/>
-      <c r="L202" s="125" t="str">
+      <c r="L202" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L201,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L201)),((IF(Tarakonesh[تراکنش]="انتقال",0,L201))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -13114,7 +13189,7 @@
       <c r="I203" s="27"/>
       <c r="J203" s="29"/>
       <c r="K203" s="29"/>
-      <c r="L203" s="125" t="str">
+      <c r="L203" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L202,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L202)),((IF(Tarakonesh[تراکنش]="انتقال",0,L202))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -13135,7 +13210,7 @@
       <c r="I204" s="27"/>
       <c r="J204" s="29"/>
       <c r="K204" s="29"/>
-      <c r="L204" s="125" t="str">
+      <c r="L204" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L203,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L203)),((IF(Tarakonesh[تراکنش]="انتقال",0,L203))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -13156,7 +13231,7 @@
       <c r="I205" s="27"/>
       <c r="J205" s="29"/>
       <c r="K205" s="29"/>
-      <c r="L205" s="125" t="str">
+      <c r="L205" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L204,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L204)),((IF(Tarakonesh[تراکنش]="انتقال",0,L204))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -13177,7 +13252,7 @@
       <c r="I206" s="27"/>
       <c r="J206" s="29"/>
       <c r="K206" s="29"/>
-      <c r="L206" s="125" t="str">
+      <c r="L206" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L205,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L205)),((IF(Tarakonesh[تراکنش]="انتقال",0,L205))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -13198,7 +13273,7 @@
       <c r="I207" s="27"/>
       <c r="J207" s="29"/>
       <c r="K207" s="29"/>
-      <c r="L207" s="125" t="str">
+      <c r="L207" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L206,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L206)),((IF(Tarakonesh[تراکنش]="انتقال",0,L206))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -13219,7 +13294,7 @@
       <c r="I208" s="27"/>
       <c r="J208" s="29"/>
       <c r="K208" s="29"/>
-      <c r="L208" s="125" t="str">
+      <c r="L208" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L207,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L207)),((IF(Tarakonesh[تراکنش]="انتقال",0,L207))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -13240,7 +13315,7 @@
       <c r="I209" s="27"/>
       <c r="J209" s="29"/>
       <c r="K209" s="29"/>
-      <c r="L209" s="125" t="str">
+      <c r="L209" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L208,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L208)),((IF(Tarakonesh[تراکنش]="انتقال",0,L208))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -13261,7 +13336,7 @@
       <c r="I210" s="27"/>
       <c r="J210" s="29"/>
       <c r="K210" s="29"/>
-      <c r="L210" s="125" t="str">
+      <c r="L210" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L209,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L209)),((IF(Tarakonesh[تراکنش]="انتقال",0,L209))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -13282,7 +13357,7 @@
       <c r="I211" s="27"/>
       <c r="J211" s="29"/>
       <c r="K211" s="29"/>
-      <c r="L211" s="125" t="str">
+      <c r="L211" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L210,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L210)),((IF(Tarakonesh[تراکنش]="انتقال",0,L210))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -13303,7 +13378,7 @@
       <c r="I212" s="27"/>
       <c r="J212" s="29"/>
       <c r="K212" s="29"/>
-      <c r="L212" s="125" t="str">
+      <c r="L212" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L211,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L211)),((IF(Tarakonesh[تراکنش]="انتقال",0,L211))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -13324,7 +13399,7 @@
       <c r="I213" s="27"/>
       <c r="J213" s="29"/>
       <c r="K213" s="29"/>
-      <c r="L213" s="125" t="str">
+      <c r="L213" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L212,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L212)),((IF(Tarakonesh[تراکنش]="انتقال",0,L212))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -13345,7 +13420,7 @@
       <c r="I214" s="27"/>
       <c r="J214" s="29"/>
       <c r="K214" s="29"/>
-      <c r="L214" s="125" t="str">
+      <c r="L214" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L213,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L213)),((IF(Tarakonesh[تراکنش]="انتقال",0,L213))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -13366,7 +13441,7 @@
       <c r="I215" s="27"/>
       <c r="J215" s="29"/>
       <c r="K215" s="29"/>
-      <c r="L215" s="125" t="str">
+      <c r="L215" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L214,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L214)),((IF(Tarakonesh[تراکنش]="انتقال",0,L214))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -13387,7 +13462,7 @@
       <c r="I216" s="27"/>
       <c r="J216" s="29"/>
       <c r="K216" s="29"/>
-      <c r="L216" s="125" t="str">
+      <c r="L216" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L215,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L215)),((IF(Tarakonesh[تراکنش]="انتقال",0,L215))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -13408,7 +13483,7 @@
       <c r="I217" s="27"/>
       <c r="J217" s="29"/>
       <c r="K217" s="29"/>
-      <c r="L217" s="125" t="str">
+      <c r="L217" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L216,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L216)),((IF(Tarakonesh[تراکنش]="انتقال",0,L216))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -13429,7 +13504,7 @@
       <c r="I218" s="27"/>
       <c r="J218" s="29"/>
       <c r="K218" s="29"/>
-      <c r="L218" s="125" t="str">
+      <c r="L218" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L217,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L217)),((IF(Tarakonesh[تراکنش]="انتقال",0,L217))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -13450,7 +13525,7 @@
       <c r="I219" s="27"/>
       <c r="J219" s="29"/>
       <c r="K219" s="29"/>
-      <c r="L219" s="125" t="str">
+      <c r="L219" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L218,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L218)),((IF(Tarakonesh[تراکنش]="انتقال",0,L218))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -13471,7 +13546,7 @@
       <c r="I220" s="27"/>
       <c r="J220" s="29"/>
       <c r="K220" s="29"/>
-      <c r="L220" s="125" t="str">
+      <c r="L220" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L219,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L219)),((IF(Tarakonesh[تراکنش]="انتقال",0,L219))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -13492,7 +13567,7 @@
       <c r="I221" s="27"/>
       <c r="J221" s="29"/>
       <c r="K221" s="29"/>
-      <c r="L221" s="125" t="str">
+      <c r="L221" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L220,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L220)),((IF(Tarakonesh[تراکنش]="انتقال",0,L220))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -13513,7 +13588,7 @@
       <c r="I222" s="27"/>
       <c r="J222" s="29"/>
       <c r="K222" s="29"/>
-      <c r="L222" s="125" t="str">
+      <c r="L222" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L221,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L221)),((IF(Tarakonesh[تراکنش]="انتقال",0,L221))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -13534,7 +13609,7 @@
       <c r="I223" s="27"/>
       <c r="J223" s="29"/>
       <c r="K223" s="29"/>
-      <c r="L223" s="125" t="str">
+      <c r="L223" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L222,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L222)),((IF(Tarakonesh[تراکنش]="انتقال",0,L222))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -13555,7 +13630,7 @@
       <c r="I224" s="27"/>
       <c r="J224" s="29"/>
       <c r="K224" s="29"/>
-      <c r="L224" s="125" t="str">
+      <c r="L224" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L223,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L223)),((IF(Tarakonesh[تراکنش]="انتقال",0,L223))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -13576,7 +13651,7 @@
       <c r="I225" s="27"/>
       <c r="J225" s="29"/>
       <c r="K225" s="29"/>
-      <c r="L225" s="125" t="str">
+      <c r="L225" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L224,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L224)),((IF(Tarakonesh[تراکنش]="انتقال",0,L224))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -13597,7 +13672,7 @@
       <c r="I226" s="27"/>
       <c r="J226" s="29"/>
       <c r="K226" s="29"/>
-      <c r="L226" s="125" t="str">
+      <c r="L226" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L225,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L225)),((IF(Tarakonesh[تراکنش]="انتقال",0,L225))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -13618,7 +13693,7 @@
       <c r="I227" s="27"/>
       <c r="J227" s="29"/>
       <c r="K227" s="29"/>
-      <c r="L227" s="125" t="str">
+      <c r="L227" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L226,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L226)),((IF(Tarakonesh[تراکنش]="انتقال",0,L226))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -13639,7 +13714,7 @@
       <c r="I228" s="27"/>
       <c r="J228" s="29"/>
       <c r="K228" s="29"/>
-      <c r="L228" s="125" t="str">
+      <c r="L228" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L227,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L227)),((IF(Tarakonesh[تراکنش]="انتقال",0,L227))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -13660,7 +13735,7 @@
       <c r="I229" s="27"/>
       <c r="J229" s="29"/>
       <c r="K229" s="29"/>
-      <c r="L229" s="125" t="str">
+      <c r="L229" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L228,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L228)),((IF(Tarakonesh[تراکنش]="انتقال",0,L228))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -13681,7 +13756,7 @@
       <c r="I230" s="27"/>
       <c r="J230" s="29"/>
       <c r="K230" s="29"/>
-      <c r="L230" s="125" t="str">
+      <c r="L230" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L229,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L229)),((IF(Tarakonesh[تراکنش]="انتقال",0,L229))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -13702,7 +13777,7 @@
       <c r="I231" s="27"/>
       <c r="J231" s="29"/>
       <c r="K231" s="29"/>
-      <c r="L231" s="125" t="str">
+      <c r="L231" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L230,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L230)),((IF(Tarakonesh[تراکنش]="انتقال",0,L230))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -13723,7 +13798,7 @@
       <c r="I232" s="27"/>
       <c r="J232" s="29"/>
       <c r="K232" s="29"/>
-      <c r="L232" s="125" t="str">
+      <c r="L232" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L231,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L231)),((IF(Tarakonesh[تراکنش]="انتقال",0,L231))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -13744,7 +13819,7 @@
       <c r="I233" s="27"/>
       <c r="J233" s="29"/>
       <c r="K233" s="29"/>
-      <c r="L233" s="125" t="str">
+      <c r="L233" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L232,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L232)),((IF(Tarakonesh[تراکنش]="انتقال",0,L232))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -13765,7 +13840,7 @@
       <c r="I234" s="27"/>
       <c r="J234" s="29"/>
       <c r="K234" s="29"/>
-      <c r="L234" s="125" t="str">
+      <c r="L234" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L233,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L233)),((IF(Tarakonesh[تراکنش]="انتقال",0,L233))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -13786,7 +13861,7 @@
       <c r="I235" s="27"/>
       <c r="J235" s="29"/>
       <c r="K235" s="29"/>
-      <c r="L235" s="125" t="str">
+      <c r="L235" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L234,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L234)),((IF(Tarakonesh[تراکنش]="انتقال",0,L234))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -13807,7 +13882,7 @@
       <c r="I236" s="27"/>
       <c r="J236" s="29"/>
       <c r="K236" s="29"/>
-      <c r="L236" s="125" t="str">
+      <c r="L236" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L235,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L235)),((IF(Tarakonesh[تراکنش]="انتقال",0,L235))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -13828,7 +13903,7 @@
       <c r="I237" s="27"/>
       <c r="J237" s="29"/>
       <c r="K237" s="29"/>
-      <c r="L237" s="125" t="str">
+      <c r="L237" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L236,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L236)),((IF(Tarakonesh[تراکنش]="انتقال",0,L236))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -13849,7 +13924,7 @@
       <c r="I238" s="27"/>
       <c r="J238" s="29"/>
       <c r="K238" s="29"/>
-      <c r="L238" s="125" t="str">
+      <c r="L238" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L237,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L237)),((IF(Tarakonesh[تراکنش]="انتقال",0,L237))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -13870,7 +13945,7 @@
       <c r="I239" s="27"/>
       <c r="J239" s="29"/>
       <c r="K239" s="29"/>
-      <c r="L239" s="125" t="str">
+      <c r="L239" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L238,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L238)),((IF(Tarakonesh[تراکنش]="انتقال",0,L238))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -13891,7 +13966,7 @@
       <c r="I240" s="27"/>
       <c r="J240" s="29"/>
       <c r="K240" s="29"/>
-      <c r="L240" s="125" t="str">
+      <c r="L240" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L239,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L239)),((IF(Tarakonesh[تراکنش]="انتقال",0,L239))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -13912,7 +13987,7 @@
       <c r="I241" s="27"/>
       <c r="J241" s="29"/>
       <c r="K241" s="29"/>
-      <c r="L241" s="125" t="str">
+      <c r="L241" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L240,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L240)),((IF(Tarakonesh[تراکنش]="انتقال",0,L240))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -13933,7 +14008,7 @@
       <c r="I242" s="27"/>
       <c r="J242" s="29"/>
       <c r="K242" s="29"/>
-      <c r="L242" s="125" t="str">
+      <c r="L242" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L241,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L241)),((IF(Tarakonesh[تراکنش]="انتقال",0,L241))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -13954,7 +14029,7 @@
       <c r="I243" s="27"/>
       <c r="J243" s="29"/>
       <c r="K243" s="29"/>
-      <c r="L243" s="125" t="str">
+      <c r="L243" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L242,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L242)),((IF(Tarakonesh[تراکنش]="انتقال",0,L242))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -13975,7 +14050,7 @@
       <c r="I244" s="27"/>
       <c r="J244" s="29"/>
       <c r="K244" s="29"/>
-      <c r="L244" s="125" t="str">
+      <c r="L244" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L243,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L243)),((IF(Tarakonesh[تراکنش]="انتقال",0,L243))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -13996,7 +14071,7 @@
       <c r="I245" s="27"/>
       <c r="J245" s="29"/>
       <c r="K245" s="29"/>
-      <c r="L245" s="125" t="str">
+      <c r="L245" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L244,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L244)),((IF(Tarakonesh[تراکنش]="انتقال",0,L244))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -14017,7 +14092,7 @@
       <c r="I246" s="27"/>
       <c r="J246" s="29"/>
       <c r="K246" s="29"/>
-      <c r="L246" s="125" t="str">
+      <c r="L246" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L245,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L245)),((IF(Tarakonesh[تراکنش]="انتقال",0,L245))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -14038,7 +14113,7 @@
       <c r="I247" s="27"/>
       <c r="J247" s="29"/>
       <c r="K247" s="29"/>
-      <c r="L247" s="125" t="str">
+      <c r="L247" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L246,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L246)),((IF(Tarakonesh[تراکنش]="انتقال",0,L246))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -14059,7 +14134,7 @@
       <c r="I248" s="27"/>
       <c r="J248" s="29"/>
       <c r="K248" s="29"/>
-      <c r="L248" s="125" t="str">
+      <c r="L248" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L247,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L247)),((IF(Tarakonesh[تراکنش]="انتقال",0,L247))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -14080,7 +14155,7 @@
       <c r="I249" s="27"/>
       <c r="J249" s="29"/>
       <c r="K249" s="29"/>
-      <c r="L249" s="125" t="str">
+      <c r="L249" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L248,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L248)),((IF(Tarakonesh[تراکنش]="انتقال",0,L248))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -14101,7 +14176,7 @@
       <c r="I250" s="27"/>
       <c r="J250" s="29"/>
       <c r="K250" s="29"/>
-      <c r="L250" s="125" t="str">
+      <c r="L250" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L249,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L249)),((IF(Tarakonesh[تراکنش]="انتقال",0,L249))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -14122,7 +14197,7 @@
       <c r="I251" s="27"/>
       <c r="J251" s="29"/>
       <c r="K251" s="29"/>
-      <c r="L251" s="125" t="str">
+      <c r="L251" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L250,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L250)),((IF(Tarakonesh[تراکنش]="انتقال",0,L250))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -14143,7 +14218,7 @@
       <c r="I252" s="27"/>
       <c r="J252" s="29"/>
       <c r="K252" s="29"/>
-      <c r="L252" s="125" t="str">
+      <c r="L252" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L251,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L251)),((IF(Tarakonesh[تراکنش]="انتقال",0,L251))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -14164,7 +14239,7 @@
       <c r="I253" s="27"/>
       <c r="J253" s="29"/>
       <c r="K253" s="29"/>
-      <c r="L253" s="125" t="str">
+      <c r="L253" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L252,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L252)),((IF(Tarakonesh[تراکنش]="انتقال",0,L252))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -14185,7 +14260,7 @@
       <c r="I254" s="27"/>
       <c r="J254" s="29"/>
       <c r="K254" s="29"/>
-      <c r="L254" s="125" t="str">
+      <c r="L254" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L253,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L253)),((IF(Tarakonesh[تراکنش]="انتقال",0,L253))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -14206,7 +14281,7 @@
       <c r="I255" s="27"/>
       <c r="J255" s="29"/>
       <c r="K255" s="29"/>
-      <c r="L255" s="125" t="str">
+      <c r="L255" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L254,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L254)),((IF(Tarakonesh[تراکنش]="انتقال",0,L254))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -14227,7 +14302,7 @@
       <c r="I256" s="27"/>
       <c r="J256" s="29"/>
       <c r="K256" s="29"/>
-      <c r="L256" s="125" t="str">
+      <c r="L256" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L255,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L255)),((IF(Tarakonesh[تراکنش]="انتقال",0,L255))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -14248,7 +14323,7 @@
       <c r="I257" s="27"/>
       <c r="J257" s="29"/>
       <c r="K257" s="29"/>
-      <c r="L257" s="125" t="str">
+      <c r="L257" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L256,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L256)),((IF(Tarakonesh[تراکنش]="انتقال",0,L256))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -14269,7 +14344,7 @@
       <c r="I258" s="27"/>
       <c r="J258" s="29"/>
       <c r="K258" s="29"/>
-      <c r="L258" s="125" t="str">
+      <c r="L258" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L257,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L257)),((IF(Tarakonesh[تراکنش]="انتقال",0,L257))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -14290,7 +14365,7 @@
       <c r="I259" s="27"/>
       <c r="J259" s="29"/>
       <c r="K259" s="29"/>
-      <c r="L259" s="125" t="str">
+      <c r="L259" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L258,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L258)),((IF(Tarakonesh[تراکنش]="انتقال",0,L258))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -14311,7 +14386,7 @@
       <c r="I260" s="27"/>
       <c r="J260" s="29"/>
       <c r="K260" s="29"/>
-      <c r="L260" s="125" t="str">
+      <c r="L260" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L259,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L259)),((IF(Tarakonesh[تراکنش]="انتقال",0,L259))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -14332,7 +14407,7 @@
       <c r="I261" s="27"/>
       <c r="J261" s="29"/>
       <c r="K261" s="29"/>
-      <c r="L261" s="125" t="str">
+      <c r="L261" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L260,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L260)),((IF(Tarakonesh[تراکنش]="انتقال",0,L260))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -14353,7 +14428,7 @@
       <c r="I262" s="27"/>
       <c r="J262" s="29"/>
       <c r="K262" s="29"/>
-      <c r="L262" s="125" t="str">
+      <c r="L262" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L261,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L261)),((IF(Tarakonesh[تراکنش]="انتقال",0,L261))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -14374,7 +14449,7 @@
       <c r="I263" s="27"/>
       <c r="J263" s="29"/>
       <c r="K263" s="29"/>
-      <c r="L263" s="125" t="str">
+      <c r="L263" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L262,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L262)),((IF(Tarakonesh[تراکنش]="انتقال",0,L262))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -14395,7 +14470,7 @@
       <c r="I264" s="27"/>
       <c r="J264" s="29"/>
       <c r="K264" s="29"/>
-      <c r="L264" s="125" t="str">
+      <c r="L264" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L263,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L263)),((IF(Tarakonesh[تراکنش]="انتقال",0,L263))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -14416,7 +14491,7 @@
       <c r="I265" s="27"/>
       <c r="J265" s="29"/>
       <c r="K265" s="29"/>
-      <c r="L265" s="125" t="str">
+      <c r="L265" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L264,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L264)),((IF(Tarakonesh[تراکنش]="انتقال",0,L264))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -14437,7 +14512,7 @@
       <c r="I266" s="27"/>
       <c r="J266" s="29"/>
       <c r="K266" s="29"/>
-      <c r="L266" s="125" t="str">
+      <c r="L266" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L265,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L265)),((IF(Tarakonesh[تراکنش]="انتقال",0,L265))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -14458,7 +14533,7 @@
       <c r="I267" s="27"/>
       <c r="J267" s="29"/>
       <c r="K267" s="29"/>
-      <c r="L267" s="125" t="str">
+      <c r="L267" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L266,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L266)),((IF(Tarakonesh[تراکنش]="انتقال",0,L266))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -14479,7 +14554,7 @@
       <c r="I268" s="27"/>
       <c r="J268" s="29"/>
       <c r="K268" s="29"/>
-      <c r="L268" s="125" t="str">
+      <c r="L268" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L267,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L267)),((IF(Tarakonesh[تراکنش]="انتقال",0,L267))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -14500,7 +14575,7 @@
       <c r="I269" s="27"/>
       <c r="J269" s="29"/>
       <c r="K269" s="29"/>
-      <c r="L269" s="125" t="str">
+      <c r="L269" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L268,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L268)),((IF(Tarakonesh[تراکنش]="انتقال",0,L268))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -14521,7 +14596,7 @@
       <c r="I270" s="27"/>
       <c r="J270" s="29"/>
       <c r="K270" s="29"/>
-      <c r="L270" s="125" t="str">
+      <c r="L270" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L269,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L269)),((IF(Tarakonesh[تراکنش]="انتقال",0,L269))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -14542,7 +14617,7 @@
       <c r="I271" s="27"/>
       <c r="J271" s="29"/>
       <c r="K271" s="29"/>
-      <c r="L271" s="125" t="str">
+      <c r="L271" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L270,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L270)),((IF(Tarakonesh[تراکنش]="انتقال",0,L270))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -14563,7 +14638,7 @@
       <c r="I272" s="27"/>
       <c r="J272" s="29"/>
       <c r="K272" s="29"/>
-      <c r="L272" s="125" t="str">
+      <c r="L272" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L271,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L271)),((IF(Tarakonesh[تراکنش]="انتقال",0,L271))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -14584,7 +14659,7 @@
       <c r="I273" s="27"/>
       <c r="J273" s="29"/>
       <c r="K273" s="29"/>
-      <c r="L273" s="125" t="str">
+      <c r="L273" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L272,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L272)),((IF(Tarakonesh[تراکنش]="انتقال",0,L272))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -14605,7 +14680,7 @@
       <c r="I274" s="27"/>
       <c r="J274" s="29"/>
       <c r="K274" s="29"/>
-      <c r="L274" s="125" t="str">
+      <c r="L274" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L273,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L273)),((IF(Tarakonesh[تراکنش]="انتقال",0,L273))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -14626,7 +14701,7 @@
       <c r="I275" s="27"/>
       <c r="J275" s="29"/>
       <c r="K275" s="29"/>
-      <c r="L275" s="125" t="str">
+      <c r="L275" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L274,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L274)),((IF(Tarakonesh[تراکنش]="انتقال",0,L274))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -14647,7 +14722,7 @@
       <c r="I276" s="27"/>
       <c r="J276" s="29"/>
       <c r="K276" s="29"/>
-      <c r="L276" s="125" t="str">
+      <c r="L276" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L275,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L275)),((IF(Tarakonesh[تراکنش]="انتقال",0,L275))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -14668,7 +14743,7 @@
       <c r="I277" s="27"/>
       <c r="J277" s="29"/>
       <c r="K277" s="29"/>
-      <c r="L277" s="125" t="str">
+      <c r="L277" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L276,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L276)),((IF(Tarakonesh[تراکنش]="انتقال",0,L276))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -14689,7 +14764,7 @@
       <c r="I278" s="27"/>
       <c r="J278" s="29"/>
       <c r="K278" s="29"/>
-      <c r="L278" s="125" t="str">
+      <c r="L278" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L277,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L277)),((IF(Tarakonesh[تراکنش]="انتقال",0,L277))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -14710,7 +14785,7 @@
       <c r="I279" s="27"/>
       <c r="J279" s="29"/>
       <c r="K279" s="29"/>
-      <c r="L279" s="125" t="str">
+      <c r="L279" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L278,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L278)),((IF(Tarakonesh[تراکنش]="انتقال",0,L278))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -14731,7 +14806,7 @@
       <c r="I280" s="27"/>
       <c r="J280" s="29"/>
       <c r="K280" s="29"/>
-      <c r="L280" s="125" t="str">
+      <c r="L280" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L279,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L279)),((IF(Tarakonesh[تراکنش]="انتقال",0,L279))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -14752,7 +14827,7 @@
       <c r="I281" s="27"/>
       <c r="J281" s="29"/>
       <c r="K281" s="29"/>
-      <c r="L281" s="125" t="str">
+      <c r="L281" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L280,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L280)),((IF(Tarakonesh[تراکنش]="انتقال",0,L280))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -14773,7 +14848,7 @@
       <c r="I282" s="27"/>
       <c r="J282" s="29"/>
       <c r="K282" s="29"/>
-      <c r="L282" s="125" t="str">
+      <c r="L282" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L281,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L281)),((IF(Tarakonesh[تراکنش]="انتقال",0,L281))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -14794,7 +14869,7 @@
       <c r="I283" s="27"/>
       <c r="J283" s="29"/>
       <c r="K283" s="29"/>
-      <c r="L283" s="125" t="str">
+      <c r="L283" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L282,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L282)),((IF(Tarakonesh[تراکنش]="انتقال",0,L282))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -14815,7 +14890,7 @@
       <c r="I284" s="27"/>
       <c r="J284" s="29"/>
       <c r="K284" s="29"/>
-      <c r="L284" s="125" t="str">
+      <c r="L284" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L283,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L283)),((IF(Tarakonesh[تراکنش]="انتقال",0,L283))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -14836,7 +14911,7 @@
       <c r="I285" s="27"/>
       <c r="J285" s="29"/>
       <c r="K285" s="29"/>
-      <c r="L285" s="125" t="str">
+      <c r="L285" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L284,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L284)),((IF(Tarakonesh[تراکنش]="انتقال",0,L284))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -14857,7 +14932,7 @@
       <c r="I286" s="27"/>
       <c r="J286" s="29"/>
       <c r="K286" s="29"/>
-      <c r="L286" s="125" t="str">
+      <c r="L286" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L285,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L285)),((IF(Tarakonesh[تراکنش]="انتقال",0,L285))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -14878,7 +14953,7 @@
       <c r="I287" s="27"/>
       <c r="J287" s="29"/>
       <c r="K287" s="29"/>
-      <c r="L287" s="125" t="str">
+      <c r="L287" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L286,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L286)),((IF(Tarakonesh[تراکنش]="انتقال",0,L286))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -14899,7 +14974,7 @@
       <c r="I288" s="27"/>
       <c r="J288" s="29"/>
       <c r="K288" s="29"/>
-      <c r="L288" s="125" t="str">
+      <c r="L288" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L287,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L287)),((IF(Tarakonesh[تراکنش]="انتقال",0,L287))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -14920,7 +14995,7 @@
       <c r="I289" s="27"/>
       <c r="J289" s="29"/>
       <c r="K289" s="29"/>
-      <c r="L289" s="125" t="str">
+      <c r="L289" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L288,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L288)),((IF(Tarakonesh[تراکنش]="انتقال",0,L288))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -14941,7 +15016,7 @@
       <c r="I290" s="27"/>
       <c r="J290" s="29"/>
       <c r="K290" s="29"/>
-      <c r="L290" s="125" t="str">
+      <c r="L290" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L289,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L289)),((IF(Tarakonesh[تراکنش]="انتقال",0,L289))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -14962,7 +15037,7 @@
       <c r="I291" s="27"/>
       <c r="J291" s="29"/>
       <c r="K291" s="29"/>
-      <c r="L291" s="125" t="str">
+      <c r="L291" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L290,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L290)),((IF(Tarakonesh[تراکنش]="انتقال",0,L290))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -14983,7 +15058,7 @@
       <c r="I292" s="27"/>
       <c r="J292" s="29"/>
       <c r="K292" s="29"/>
-      <c r="L292" s="125" t="str">
+      <c r="L292" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L291,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L291)),((IF(Tarakonesh[تراکنش]="انتقال",0,L291))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -15004,7 +15079,7 @@
       <c r="I293" s="27"/>
       <c r="J293" s="29"/>
       <c r="K293" s="29"/>
-      <c r="L293" s="125" t="str">
+      <c r="L293" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L292,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L292)),((IF(Tarakonesh[تراکنش]="انتقال",0,L292))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -15025,7 +15100,7 @@
       <c r="I294" s="27"/>
       <c r="J294" s="29"/>
       <c r="K294" s="29"/>
-      <c r="L294" s="125" t="str">
+      <c r="L294" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L293,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L293)),((IF(Tarakonesh[تراکنش]="انتقال",0,L293))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -15046,7 +15121,7 @@
       <c r="I295" s="27"/>
       <c r="J295" s="29"/>
       <c r="K295" s="29"/>
-      <c r="L295" s="125" t="str">
+      <c r="L295" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L294,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L294)),((IF(Tarakonesh[تراکنش]="انتقال",0,L294))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -15067,7 +15142,7 @@
       <c r="I296" s="27"/>
       <c r="J296" s="29"/>
       <c r="K296" s="29"/>
-      <c r="L296" s="125" t="str">
+      <c r="L296" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L295,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L295)),((IF(Tarakonesh[تراکنش]="انتقال",0,L295))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -15088,7 +15163,7 @@
       <c r="I297" s="27"/>
       <c r="J297" s="29"/>
       <c r="K297" s="29"/>
-      <c r="L297" s="125" t="str">
+      <c r="L297" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L296,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L296)),((IF(Tarakonesh[تراکنش]="انتقال",0,L296))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -15109,7 +15184,7 @@
       <c r="I298" s="27"/>
       <c r="J298" s="29"/>
       <c r="K298" s="29"/>
-      <c r="L298" s="125" t="str">
+      <c r="L298" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L297,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L297)),((IF(Tarakonesh[تراکنش]="انتقال",0,L297))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -15130,7 +15205,7 @@
       <c r="I299" s="27"/>
       <c r="J299" s="29"/>
       <c r="K299" s="29"/>
-      <c r="L299" s="125" t="str">
+      <c r="L299" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L298,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L298)),((IF(Tarakonesh[تراکنش]="انتقال",0,L298))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -15151,7 +15226,7 @@
       <c r="I300" s="27"/>
       <c r="J300" s="29"/>
       <c r="K300" s="29"/>
-      <c r="L300" s="125" t="str">
+      <c r="L300" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L299,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L299)),((IF(Tarakonesh[تراکنش]="انتقال",0,L299))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -15172,7 +15247,7 @@
       <c r="I301" s="27"/>
       <c r="J301" s="29"/>
       <c r="K301" s="29"/>
-      <c r="L301" s="125" t="str">
+      <c r="L301" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L300,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L300)),((IF(Tarakonesh[تراکنش]="انتقال",0,L300))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -15193,7 +15268,7 @@
       <c r="I302" s="27"/>
       <c r="J302" s="29"/>
       <c r="K302" s="29"/>
-      <c r="L302" s="125" t="str">
+      <c r="L302" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L301,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L301)),((IF(Tarakonesh[تراکنش]="انتقال",0,L301))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -15214,7 +15289,7 @@
       <c r="I303" s="27"/>
       <c r="J303" s="29"/>
       <c r="K303" s="29"/>
-      <c r="L303" s="125" t="str">
+      <c r="L303" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L302,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L302)),((IF(Tarakonesh[تراکنش]="انتقال",0,L302))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -15235,7 +15310,7 @@
       <c r="I304" s="27"/>
       <c r="J304" s="29"/>
       <c r="K304" s="29"/>
-      <c r="L304" s="125" t="str">
+      <c r="L304" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L303,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L303)),((IF(Tarakonesh[تراکنش]="انتقال",0,L303))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -15256,7 +15331,7 @@
       <c r="I305" s="27"/>
       <c r="J305" s="29"/>
       <c r="K305" s="29"/>
-      <c r="L305" s="125" t="str">
+      <c r="L305" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L304,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L304)),((IF(Tarakonesh[تراکنش]="انتقال",0,L304))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -15277,7 +15352,7 @@
       <c r="I306" s="27"/>
       <c r="J306" s="29"/>
       <c r="K306" s="29"/>
-      <c r="L306" s="125" t="str">
+      <c r="L306" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L305,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L305)),((IF(Tarakonesh[تراکنش]="انتقال",0,L305))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -15298,7 +15373,7 @@
       <c r="I307" s="27"/>
       <c r="J307" s="29"/>
       <c r="K307" s="29"/>
-      <c r="L307" s="125" t="str">
+      <c r="L307" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L306,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L306)),((IF(Tarakonesh[تراکنش]="انتقال",0,L306))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -15319,7 +15394,7 @@
       <c r="I308" s="27"/>
       <c r="J308" s="29"/>
       <c r="K308" s="29"/>
-      <c r="L308" s="125" t="str">
+      <c r="L308" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L307,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L307)),((IF(Tarakonesh[تراکنش]="انتقال",0,L307))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -15340,7 +15415,7 @@
       <c r="I309" s="27"/>
       <c r="J309" s="29"/>
       <c r="K309" s="29"/>
-      <c r="L309" s="125" t="str">
+      <c r="L309" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L308,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L308)),((IF(Tarakonesh[تراکنش]="انتقال",0,L308))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -15361,7 +15436,7 @@
       <c r="I310" s="27"/>
       <c r="J310" s="29"/>
       <c r="K310" s="29"/>
-      <c r="L310" s="125" t="str">
+      <c r="L310" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L309,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L309)),((IF(Tarakonesh[تراکنش]="انتقال",0,L309))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -15382,7 +15457,7 @@
       <c r="I311" s="27"/>
       <c r="J311" s="29"/>
       <c r="K311" s="29"/>
-      <c r="L311" s="125" t="str">
+      <c r="L311" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L310,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L310)),((IF(Tarakonesh[تراکنش]="انتقال",0,L310))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -15403,7 +15478,7 @@
       <c r="I312" s="27"/>
       <c r="J312" s="29"/>
       <c r="K312" s="29"/>
-      <c r="L312" s="125" t="str">
+      <c r="L312" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L311,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L311)),((IF(Tarakonesh[تراکنش]="انتقال",0,L311))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -15424,7 +15499,7 @@
       <c r="I313" s="27"/>
       <c r="J313" s="29"/>
       <c r="K313" s="29"/>
-      <c r="L313" s="125" t="str">
+      <c r="L313" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L312,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L312)),((IF(Tarakonesh[تراکنش]="انتقال",0,L312))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -15445,7 +15520,7 @@
       <c r="I314" s="27"/>
       <c r="J314" s="29"/>
       <c r="K314" s="29"/>
-      <c r="L314" s="125" t="str">
+      <c r="L314" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L313,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L313)),((IF(Tarakonesh[تراکنش]="انتقال",0,L313))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -15466,7 +15541,7 @@
       <c r="I315" s="27"/>
       <c r="J315" s="29"/>
       <c r="K315" s="29"/>
-      <c r="L315" s="125" t="str">
+      <c r="L315" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L314,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L314)),((IF(Tarakonesh[تراکنش]="انتقال",0,L314))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -15487,7 +15562,7 @@
       <c r="I316" s="27"/>
       <c r="J316" s="29"/>
       <c r="K316" s="29"/>
-      <c r="L316" s="125" t="str">
+      <c r="L316" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L315,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L315)),((IF(Tarakonesh[تراکنش]="انتقال",0,L315))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -15508,7 +15583,7 @@
       <c r="I317" s="27"/>
       <c r="J317" s="29"/>
       <c r="K317" s="29"/>
-      <c r="L317" s="125" t="str">
+      <c r="L317" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L316,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L316)),((IF(Tarakonesh[تراکنش]="انتقال",0,L316))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -15529,7 +15604,7 @@
       <c r="I318" s="27"/>
       <c r="J318" s="29"/>
       <c r="K318" s="29"/>
-      <c r="L318" s="125" t="str">
+      <c r="L318" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L317,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L317)),((IF(Tarakonesh[تراکنش]="انتقال",0,L317))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -15550,7 +15625,7 @@
       <c r="I319" s="27"/>
       <c r="J319" s="29"/>
       <c r="K319" s="29"/>
-      <c r="L319" s="125" t="str">
+      <c r="L319" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L318,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L318)),((IF(Tarakonesh[تراکنش]="انتقال",0,L318))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -15571,7 +15646,7 @@
       <c r="I320" s="27"/>
       <c r="J320" s="29"/>
       <c r="K320" s="29"/>
-      <c r="L320" s="125" t="str">
+      <c r="L320" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L319,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L319)),((IF(Tarakonesh[تراکنش]="انتقال",0,L319))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -15592,7 +15667,7 @@
       <c r="I321" s="27"/>
       <c r="J321" s="29"/>
       <c r="K321" s="29"/>
-      <c r="L321" s="125" t="str">
+      <c r="L321" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L320,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L320)),((IF(Tarakonesh[تراکنش]="انتقال",0,L320))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -15613,7 +15688,7 @@
       <c r="I322" s="27"/>
       <c r="J322" s="29"/>
       <c r="K322" s="29"/>
-      <c r="L322" s="125" t="str">
+      <c r="L322" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L321,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L321)),((IF(Tarakonesh[تراکنش]="انتقال",0,L321))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -15634,7 +15709,7 @@
       <c r="I323" s="27"/>
       <c r="J323" s="29"/>
       <c r="K323" s="29"/>
-      <c r="L323" s="125" t="str">
+      <c r="L323" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L322,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L322)),((IF(Tarakonesh[تراکنش]="انتقال",0,L322))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -15655,7 +15730,7 @@
       <c r="I324" s="27"/>
       <c r="J324" s="29"/>
       <c r="K324" s="29"/>
-      <c r="L324" s="125" t="str">
+      <c r="L324" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L323,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L323)),((IF(Tarakonesh[تراکنش]="انتقال",0,L323))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -15676,7 +15751,7 @@
       <c r="I325" s="27"/>
       <c r="J325" s="29"/>
       <c r="K325" s="29"/>
-      <c r="L325" s="125" t="str">
+      <c r="L325" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L324,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L324)),((IF(Tarakonesh[تراکنش]="انتقال",0,L324))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -15697,7 +15772,7 @@
       <c r="I326" s="27"/>
       <c r="J326" s="29"/>
       <c r="K326" s="29"/>
-      <c r="L326" s="125" t="str">
+      <c r="L326" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L325,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L325)),((IF(Tarakonesh[تراکنش]="انتقال",0,L325))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -15718,7 +15793,7 @@
       <c r="I327" s="27"/>
       <c r="J327" s="29"/>
       <c r="K327" s="29"/>
-      <c r="L327" s="125" t="str">
+      <c r="L327" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L326,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L326)),((IF(Tarakonesh[تراکنش]="انتقال",0,L326))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -15739,7 +15814,7 @@
       <c r="I328" s="27"/>
       <c r="J328" s="29"/>
       <c r="K328" s="29"/>
-      <c r="L328" s="125" t="str">
+      <c r="L328" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L327,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L327)),((IF(Tarakonesh[تراکنش]="انتقال",0,L327))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -15760,7 +15835,7 @@
       <c r="I329" s="27"/>
       <c r="J329" s="29"/>
       <c r="K329" s="29"/>
-      <c r="L329" s="125" t="str">
+      <c r="L329" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L328,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L328)),((IF(Tarakonesh[تراکنش]="انتقال",0,L328))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -15781,7 +15856,7 @@
       <c r="I330" s="27"/>
       <c r="J330" s="29"/>
       <c r="K330" s="29"/>
-      <c r="L330" s="125" t="str">
+      <c r="L330" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L329,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L329)),((IF(Tarakonesh[تراکنش]="انتقال",0,L329))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -15802,7 +15877,7 @@
       <c r="I331" s="27"/>
       <c r="J331" s="29"/>
       <c r="K331" s="29"/>
-      <c r="L331" s="125" t="str">
+      <c r="L331" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L330,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L330)),((IF(Tarakonesh[تراکنش]="انتقال",0,L330))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -15823,7 +15898,7 @@
       <c r="I332" s="27"/>
       <c r="J332" s="29"/>
       <c r="K332" s="29"/>
-      <c r="L332" s="125" t="str">
+      <c r="L332" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L331,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L331)),((IF(Tarakonesh[تراکنش]="انتقال",0,L331))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -15844,7 +15919,7 @@
       <c r="I333" s="27"/>
       <c r="J333" s="29"/>
       <c r="K333" s="29"/>
-      <c r="L333" s="125" t="str">
+      <c r="L333" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L332,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L332)),((IF(Tarakonesh[تراکنش]="انتقال",0,L332))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -15865,7 +15940,7 @@
       <c r="I334" s="27"/>
       <c r="J334" s="29"/>
       <c r="K334" s="29"/>
-      <c r="L334" s="125" t="str">
+      <c r="L334" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L333,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L333)),((IF(Tarakonesh[تراکنش]="انتقال",0,L333))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -15886,7 +15961,7 @@
       <c r="I335" s="27"/>
       <c r="J335" s="29"/>
       <c r="K335" s="29"/>
-      <c r="L335" s="125" t="str">
+      <c r="L335" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L334,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L334)),((IF(Tarakonesh[تراکنش]="انتقال",0,L334))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -15907,7 +15982,7 @@
       <c r="I336" s="27"/>
       <c r="J336" s="29"/>
       <c r="K336" s="29"/>
-      <c r="L336" s="125" t="str">
+      <c r="L336" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L335,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L335)),((IF(Tarakonesh[تراکنش]="انتقال",0,L335))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -15928,7 +16003,7 @@
       <c r="I337" s="27"/>
       <c r="J337" s="29"/>
       <c r="K337" s="29"/>
-      <c r="L337" s="125" t="str">
+      <c r="L337" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L336,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L336)),((IF(Tarakonesh[تراکنش]="انتقال",0,L336))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -15949,7 +16024,7 @@
       <c r="I338" s="27"/>
       <c r="J338" s="29"/>
       <c r="K338" s="29"/>
-      <c r="L338" s="125" t="str">
+      <c r="L338" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L337,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L337)),((IF(Tarakonesh[تراکنش]="انتقال",0,L337))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -15970,7 +16045,7 @@
       <c r="I339" s="27"/>
       <c r="J339" s="29"/>
       <c r="K339" s="29"/>
-      <c r="L339" s="125" t="str">
+      <c r="L339" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L338,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L338)),((IF(Tarakonesh[تراکنش]="انتقال",0,L338))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -15991,7 +16066,7 @@
       <c r="I340" s="27"/>
       <c r="J340" s="29"/>
       <c r="K340" s="29"/>
-      <c r="L340" s="125" t="str">
+      <c r="L340" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L339,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L339)),((IF(Tarakonesh[تراکنش]="انتقال",0,L339))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -16012,7 +16087,7 @@
       <c r="I341" s="27"/>
       <c r="J341" s="29"/>
       <c r="K341" s="29"/>
-      <c r="L341" s="125" t="str">
+      <c r="L341" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L340,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L340)),((IF(Tarakonesh[تراکنش]="انتقال",0,L340))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -16033,7 +16108,7 @@
       <c r="I342" s="27"/>
       <c r="J342" s="29"/>
       <c r="K342" s="29"/>
-      <c r="L342" s="125" t="str">
+      <c r="L342" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L341,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L341)),((IF(Tarakonesh[تراکنش]="انتقال",0,L341))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -16054,7 +16129,7 @@
       <c r="I343" s="27"/>
       <c r="J343" s="29"/>
       <c r="K343" s="29"/>
-      <c r="L343" s="125" t="str">
+      <c r="L343" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L342,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L342)),((IF(Tarakonesh[تراکنش]="انتقال",0,L342))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -16075,7 +16150,7 @@
       <c r="I344" s="27"/>
       <c r="J344" s="29"/>
       <c r="K344" s="29"/>
-      <c r="L344" s="125" t="str">
+      <c r="L344" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L343,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L343)),((IF(Tarakonesh[تراکنش]="انتقال",0,L343))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -16096,7 +16171,7 @@
       <c r="I345" s="27"/>
       <c r="J345" s="29"/>
       <c r="K345" s="29"/>
-      <c r="L345" s="125" t="str">
+      <c r="L345" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L344,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L344)),((IF(Tarakonesh[تراکنش]="انتقال",0,L344))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -16117,7 +16192,7 @@
       <c r="I346" s="27"/>
       <c r="J346" s="29"/>
       <c r="K346" s="29"/>
-      <c r="L346" s="125" t="str">
+      <c r="L346" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L345,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L345)),((IF(Tarakonesh[تراکنش]="انتقال",0,L345))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -16138,7 +16213,7 @@
       <c r="I347" s="27"/>
       <c r="J347" s="29"/>
       <c r="K347" s="29"/>
-      <c r="L347" s="125" t="str">
+      <c r="L347" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L346,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L346)),((IF(Tarakonesh[تراکنش]="انتقال",0,L346))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -16159,7 +16234,7 @@
       <c r="I348" s="27"/>
       <c r="J348" s="29"/>
       <c r="K348" s="29"/>
-      <c r="L348" s="125" t="str">
+      <c r="L348" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L347,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L347)),((IF(Tarakonesh[تراکنش]="انتقال",0,L347))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -16180,7 +16255,7 @@
       <c r="I349" s="27"/>
       <c r="J349" s="29"/>
       <c r="K349" s="29"/>
-      <c r="L349" s="125" t="str">
+      <c r="L349" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L348,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L348)),((IF(Tarakonesh[تراکنش]="انتقال",0,L348))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -16201,7 +16276,7 @@
       <c r="I350" s="27"/>
       <c r="J350" s="29"/>
       <c r="K350" s="29"/>
-      <c r="L350" s="125" t="str">
+      <c r="L350" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L349,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L349)),((IF(Tarakonesh[تراکنش]="انتقال",0,L349))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -16222,7 +16297,7 @@
       <c r="I351" s="27"/>
       <c r="J351" s="29"/>
       <c r="K351" s="29"/>
-      <c r="L351" s="125" t="str">
+      <c r="L351" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L350,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L350)),((IF(Tarakonesh[تراکنش]="انتقال",0,L350))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -16243,7 +16318,7 @@
       <c r="I352" s="27"/>
       <c r="J352" s="29"/>
       <c r="K352" s="29"/>
-      <c r="L352" s="125" t="str">
+      <c r="L352" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L351,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L351)),((IF(Tarakonesh[تراکنش]="انتقال",0,L351))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -16264,7 +16339,7 @@
       <c r="I353" s="27"/>
       <c r="J353" s="29"/>
       <c r="K353" s="29"/>
-      <c r="L353" s="125" t="str">
+      <c r="L353" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L352,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L352)),((IF(Tarakonesh[تراکنش]="انتقال",0,L352))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -16285,7 +16360,7 @@
       <c r="I354" s="27"/>
       <c r="J354" s="29"/>
       <c r="K354" s="29"/>
-      <c r="L354" s="125" t="str">
+      <c r="L354" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L353,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L353)),((IF(Tarakonesh[تراکنش]="انتقال",0,L353))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -16306,7 +16381,7 @@
       <c r="I355" s="27"/>
       <c r="J355" s="29"/>
       <c r="K355" s="29"/>
-      <c r="L355" s="125" t="str">
+      <c r="L355" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L354,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L354)),((IF(Tarakonesh[تراکنش]="انتقال",0,L354))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -16327,7 +16402,7 @@
       <c r="I356" s="27"/>
       <c r="J356" s="29"/>
       <c r="K356" s="29"/>
-      <c r="L356" s="125" t="str">
+      <c r="L356" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L355,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L355)),((IF(Tarakonesh[تراکنش]="انتقال",0,L355))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -16348,7 +16423,7 @@
       <c r="I357" s="27"/>
       <c r="J357" s="29"/>
       <c r="K357" s="29"/>
-      <c r="L357" s="125" t="str">
+      <c r="L357" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L356,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L356)),((IF(Tarakonesh[تراکنش]="انتقال",0,L356))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -16369,7 +16444,7 @@
       <c r="I358" s="27"/>
       <c r="J358" s="29"/>
       <c r="K358" s="29"/>
-      <c r="L358" s="125" t="str">
+      <c r="L358" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L357,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L357)),((IF(Tarakonesh[تراکنش]="انتقال",0,L357))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -16390,7 +16465,7 @@
       <c r="I359" s="27"/>
       <c r="J359" s="29"/>
       <c r="K359" s="29"/>
-      <c r="L359" s="125" t="str">
+      <c r="L359" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L358,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L358)),((IF(Tarakonesh[تراکنش]="انتقال",0,L358))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -16411,7 +16486,7 @@
       <c r="I360" s="27"/>
       <c r="J360" s="29"/>
       <c r="K360" s="29"/>
-      <c r="L360" s="125" t="str">
+      <c r="L360" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L359,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L359)),((IF(Tarakonesh[تراکنش]="انتقال",0,L359))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -16432,7 +16507,7 @@
       <c r="I361" s="27"/>
       <c r="J361" s="29"/>
       <c r="K361" s="29"/>
-      <c r="L361" s="125" t="str">
+      <c r="L361" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L360,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L360)),((IF(Tarakonesh[تراکنش]="انتقال",0,L360))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -16453,7 +16528,7 @@
       <c r="I362" s="27"/>
       <c r="J362" s="29"/>
       <c r="K362" s="29"/>
-      <c r="L362" s="125" t="str">
+      <c r="L362" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L361,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L361)),((IF(Tarakonesh[تراکنش]="انتقال",0,L361))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -16474,7 +16549,7 @@
       <c r="I363" s="27"/>
       <c r="J363" s="29"/>
       <c r="K363" s="29"/>
-      <c r="L363" s="125" t="str">
+      <c r="L363" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L362,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L362)),((IF(Tarakonesh[تراکنش]="انتقال",0,L362))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -16495,7 +16570,7 @@
       <c r="I364" s="27"/>
       <c r="J364" s="29"/>
       <c r="K364" s="29"/>
-      <c r="L364" s="125" t="str">
+      <c r="L364" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L363,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L363)),((IF(Tarakonesh[تراکنش]="انتقال",0,L363))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -16516,7 +16591,7 @@
       <c r="I365" s="27"/>
       <c r="J365" s="29"/>
       <c r="K365" s="29"/>
-      <c r="L365" s="125" t="str">
+      <c r="L365" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L364,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L364)),((IF(Tarakonesh[تراکنش]="انتقال",0,L364))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -16537,7 +16612,7 @@
       <c r="I366" s="27"/>
       <c r="J366" s="29"/>
       <c r="K366" s="29"/>
-      <c r="L366" s="125" t="str">
+      <c r="L366" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L365,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L365)),((IF(Tarakonesh[تراکنش]="انتقال",0,L365))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -16558,7 +16633,7 @@
       <c r="I367" s="27"/>
       <c r="J367" s="29"/>
       <c r="K367" s="29"/>
-      <c r="L367" s="125" t="str">
+      <c r="L367" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L366,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L366)),((IF(Tarakonesh[تراکنش]="انتقال",0,L366))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -16579,7 +16654,7 @@
       <c r="I368" s="27"/>
       <c r="J368" s="29"/>
       <c r="K368" s="29"/>
-      <c r="L368" s="125" t="str">
+      <c r="L368" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L367,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L367)),((IF(Tarakonesh[تراکنش]="انتقال",0,L367))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -16600,7 +16675,7 @@
       <c r="I369" s="27"/>
       <c r="J369" s="29"/>
       <c r="K369" s="29"/>
-      <c r="L369" s="125" t="str">
+      <c r="L369" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L368,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L368)),((IF(Tarakonesh[تراکنش]="انتقال",0,L368))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -16621,7 +16696,7 @@
       <c r="I370" s="27"/>
       <c r="J370" s="29"/>
       <c r="K370" s="29"/>
-      <c r="L370" s="125" t="str">
+      <c r="L370" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L369,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L369)),((IF(Tarakonesh[تراکنش]="انتقال",0,L369))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -16642,7 +16717,7 @@
       <c r="I371" s="27"/>
       <c r="J371" s="29"/>
       <c r="K371" s="29"/>
-      <c r="L371" s="125" t="str">
+      <c r="L371" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L370,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L370)),((IF(Tarakonesh[تراکنش]="انتقال",0,L370))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -16663,7 +16738,7 @@
       <c r="I372" s="27"/>
       <c r="J372" s="29"/>
       <c r="K372" s="29"/>
-      <c r="L372" s="125" t="str">
+      <c r="L372" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L371,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L371)),((IF(Tarakonesh[تراکنش]="انتقال",0,L371))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -16684,7 +16759,7 @@
       <c r="I373" s="27"/>
       <c r="J373" s="29"/>
       <c r="K373" s="29"/>
-      <c r="L373" s="125" t="str">
+      <c r="L373" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L372,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L372)),((IF(Tarakonesh[تراکنش]="انتقال",0,L372))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -16705,7 +16780,7 @@
       <c r="I374" s="27"/>
       <c r="J374" s="29"/>
       <c r="K374" s="29"/>
-      <c r="L374" s="125" t="str">
+      <c r="L374" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L373,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L373)),((IF(Tarakonesh[تراکنش]="انتقال",0,L373))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -16726,7 +16801,7 @@
       <c r="I375" s="27"/>
       <c r="J375" s="29"/>
       <c r="K375" s="29"/>
-      <c r="L375" s="125" t="str">
+      <c r="L375" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L374,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L374)),((IF(Tarakonesh[تراکنش]="انتقال",0,L374))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -16747,7 +16822,7 @@
       <c r="I376" s="27"/>
       <c r="J376" s="29"/>
       <c r="K376" s="29"/>
-      <c r="L376" s="125" t="str">
+      <c r="L376" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L375,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L375)),((IF(Tarakonesh[تراکنش]="انتقال",0,L375))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -16768,7 +16843,7 @@
       <c r="I377" s="27"/>
       <c r="J377" s="29"/>
       <c r="K377" s="29"/>
-      <c r="L377" s="125" t="str">
+      <c r="L377" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L376,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L376)),((IF(Tarakonesh[تراکنش]="انتقال",0,L376))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -16789,7 +16864,7 @@
       <c r="I378" s="27"/>
       <c r="J378" s="29"/>
       <c r="K378" s="29"/>
-      <c r="L378" s="125" t="str">
+      <c r="L378" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L377,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L377)),((IF(Tarakonesh[تراکنش]="انتقال",0,L377))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -16810,7 +16885,7 @@
       <c r="I379" s="27"/>
       <c r="J379" s="29"/>
       <c r="K379" s="29"/>
-      <c r="L379" s="125" t="str">
+      <c r="L379" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L378,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L378)),((IF(Tarakonesh[تراکنش]="انتقال",0,L378))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -16831,7 +16906,7 @@
       <c r="I380" s="27"/>
       <c r="J380" s="29"/>
       <c r="K380" s="29"/>
-      <c r="L380" s="125" t="str">
+      <c r="L380" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L379,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L379)),((IF(Tarakonesh[تراکنش]="انتقال",0,L379))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -16852,7 +16927,7 @@
       <c r="I381" s="27"/>
       <c r="J381" s="29"/>
       <c r="K381" s="29"/>
-      <c r="L381" s="125" t="str">
+      <c r="L381" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L380,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L380)),((IF(Tarakonesh[تراکنش]="انتقال",0,L380))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -16873,7 +16948,7 @@
       <c r="I382" s="27"/>
       <c r="J382" s="29"/>
       <c r="K382" s="29"/>
-      <c r="L382" s="125" t="str">
+      <c r="L382" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L381,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L381)),((IF(Tarakonesh[تراکنش]="انتقال",0,L381))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -16894,7 +16969,7 @@
       <c r="I383" s="27"/>
       <c r="J383" s="29"/>
       <c r="K383" s="29"/>
-      <c r="L383" s="125" t="str">
+      <c r="L383" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L382,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L382)),((IF(Tarakonesh[تراکنش]="انتقال",0,L382))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -16915,7 +16990,7 @@
       <c r="I384" s="27"/>
       <c r="J384" s="29"/>
       <c r="K384" s="29"/>
-      <c r="L384" s="125" t="str">
+      <c r="L384" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L383,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L383)),((IF(Tarakonesh[تراکنش]="انتقال",0,L383))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -16936,7 +17011,7 @@
       <c r="I385" s="27"/>
       <c r="J385" s="29"/>
       <c r="K385" s="29"/>
-      <c r="L385" s="125" t="str">
+      <c r="L385" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L384,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L384)),((IF(Tarakonesh[تراکنش]="انتقال",0,L384))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -16957,7 +17032,7 @@
       <c r="I386" s="27"/>
       <c r="J386" s="29"/>
       <c r="K386" s="29"/>
-      <c r="L386" s="125" t="str">
+      <c r="L386" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L385,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L385)),((IF(Tarakonesh[تراکنش]="انتقال",0,L385))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -16978,7 +17053,7 @@
       <c r="I387" s="27"/>
       <c r="J387" s="29"/>
       <c r="K387" s="29"/>
-      <c r="L387" s="125" t="str">
+      <c r="L387" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L386,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L386)),((IF(Tarakonesh[تراکنش]="انتقال",0,L386))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -16999,7 +17074,7 @@
       <c r="I388" s="27"/>
       <c r="J388" s="29"/>
       <c r="K388" s="29"/>
-      <c r="L388" s="125" t="str">
+      <c r="L388" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L387,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L387)),((IF(Tarakonesh[تراکنش]="انتقال",0,L387))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -17020,7 +17095,7 @@
       <c r="I389" s="27"/>
       <c r="J389" s="29"/>
       <c r="K389" s="29"/>
-      <c r="L389" s="125" t="str">
+      <c r="L389" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L388,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L388)),((IF(Tarakonesh[تراکنش]="انتقال",0,L388))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -17041,7 +17116,7 @@
       <c r="I390" s="27"/>
       <c r="J390" s="29"/>
       <c r="K390" s="29"/>
-      <c r="L390" s="125" t="str">
+      <c r="L390" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L389,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L389)),((IF(Tarakonesh[تراکنش]="انتقال",0,L389))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -17062,7 +17137,7 @@
       <c r="I391" s="27"/>
       <c r="J391" s="29"/>
       <c r="K391" s="29"/>
-      <c r="L391" s="125" t="str">
+      <c r="L391" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L390,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L390)),((IF(Tarakonesh[تراکنش]="انتقال",0,L390))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -17083,7 +17158,7 @@
       <c r="I392" s="27"/>
       <c r="J392" s="29"/>
       <c r="K392" s="29"/>
-      <c r="L392" s="125" t="str">
+      <c r="L392" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L391,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L391)),((IF(Tarakonesh[تراکنش]="انتقال",0,L391))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -17104,7 +17179,7 @@
       <c r="I393" s="27"/>
       <c r="J393" s="29"/>
       <c r="K393" s="29"/>
-      <c r="L393" s="125" t="str">
+      <c r="L393" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L392,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L392)),((IF(Tarakonesh[تراکنش]="انتقال",0,L392))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -17125,7 +17200,7 @@
       <c r="I394" s="27"/>
       <c r="J394" s="29"/>
       <c r="K394" s="29"/>
-      <c r="L394" s="125" t="str">
+      <c r="L394" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L393,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L393)),((IF(Tarakonesh[تراکنش]="انتقال",0,L393))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -17146,7 +17221,7 @@
       <c r="I395" s="27"/>
       <c r="J395" s="29"/>
       <c r="K395" s="29"/>
-      <c r="L395" s="125" t="str">
+      <c r="L395" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L394,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L394)),((IF(Tarakonesh[تراکنش]="انتقال",0,L394))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -17167,7 +17242,7 @@
       <c r="I396" s="27"/>
       <c r="J396" s="29"/>
       <c r="K396" s="29"/>
-      <c r="L396" s="125" t="str">
+      <c r="L396" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L395,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L395)),((IF(Tarakonesh[تراکنش]="انتقال",0,L395))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -17188,7 +17263,7 @@
       <c r="I397" s="27"/>
       <c r="J397" s="29"/>
       <c r="K397" s="29"/>
-      <c r="L397" s="125" t="str">
+      <c r="L397" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L396,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L396)),((IF(Tarakonesh[تراکنش]="انتقال",0,L396))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -17209,7 +17284,7 @@
       <c r="I398" s="27"/>
       <c r="J398" s="29"/>
       <c r="K398" s="29"/>
-      <c r="L398" s="125" t="str">
+      <c r="L398" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L397,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L397)),((IF(Tarakonesh[تراکنش]="انتقال",0,L397))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -17230,7 +17305,7 @@
       <c r="I399" s="27"/>
       <c r="J399" s="29"/>
       <c r="K399" s="29"/>
-      <c r="L399" s="125" t="str">
+      <c r="L399" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L398,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L398)),((IF(Tarakonesh[تراکنش]="انتقال",0,L398))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -17251,7 +17326,7 @@
       <c r="I400" s="27"/>
       <c r="J400" s="29"/>
       <c r="K400" s="29"/>
-      <c r="L400" s="125" t="str">
+      <c r="L400" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L399,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L399)),((IF(Tarakonesh[تراکنش]="انتقال",0,L399))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -17272,7 +17347,7 @@
       <c r="I401" s="27"/>
       <c r="J401" s="29"/>
       <c r="K401" s="29"/>
-      <c r="L401" s="125" t="str">
+      <c r="L401" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L400,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L400)),((IF(Tarakonesh[تراکنش]="انتقال",0,L400))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -17293,7 +17368,7 @@
       <c r="I402" s="27"/>
       <c r="J402" s="29"/>
       <c r="K402" s="29"/>
-      <c r="L402" s="125" t="str">
+      <c r="L402" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L401,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L401)),((IF(Tarakonesh[تراکنش]="انتقال",0,L401))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -17314,7 +17389,7 @@
       <c r="I403" s="27"/>
       <c r="J403" s="29"/>
       <c r="K403" s="29"/>
-      <c r="L403" s="125" t="str">
+      <c r="L403" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L402,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L402)),((IF(Tarakonesh[تراکنش]="انتقال",0,L402))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -17335,7 +17410,7 @@
       <c r="I404" s="27"/>
       <c r="J404" s="29"/>
       <c r="K404" s="29"/>
-      <c r="L404" s="125" t="str">
+      <c r="L404" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L403,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L403)),((IF(Tarakonesh[تراکنش]="انتقال",0,L403))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -17356,7 +17431,7 @@
       <c r="I405" s="27"/>
       <c r="J405" s="29"/>
       <c r="K405" s="29"/>
-      <c r="L405" s="125" t="str">
+      <c r="L405" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L404,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L404)),((IF(Tarakonesh[تراکنش]="انتقال",0,L404))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -17377,7 +17452,7 @@
       <c r="I406" s="27"/>
       <c r="J406" s="29"/>
       <c r="K406" s="29"/>
-      <c r="L406" s="125" t="str">
+      <c r="L406" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L405,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L405)),((IF(Tarakonesh[تراکنش]="انتقال",0,L405))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -17398,7 +17473,7 @@
       <c r="I407" s="27"/>
       <c r="J407" s="29"/>
       <c r="K407" s="29"/>
-      <c r="L407" s="125" t="str">
+      <c r="L407" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L406,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L406)),((IF(Tarakonesh[تراکنش]="انتقال",0,L406))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -17419,7 +17494,7 @@
       <c r="I408" s="27"/>
       <c r="J408" s="29"/>
       <c r="K408" s="29"/>
-      <c r="L408" s="125" t="str">
+      <c r="L408" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L407,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L407)),((IF(Tarakonesh[تراکنش]="انتقال",0,L407))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -17440,7 +17515,7 @@
       <c r="I409" s="27"/>
       <c r="J409" s="29"/>
       <c r="K409" s="29"/>
-      <c r="L409" s="125" t="str">
+      <c r="L409" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L408,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L408)),((IF(Tarakonesh[تراکنش]="انتقال",0,L408))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -17461,7 +17536,7 @@
       <c r="I410" s="27"/>
       <c r="J410" s="29"/>
       <c r="K410" s="29"/>
-      <c r="L410" s="125" t="str">
+      <c r="L410" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L409,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L409)),((IF(Tarakonesh[تراکنش]="انتقال",0,L409))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -17482,7 +17557,7 @@
       <c r="I411" s="27"/>
       <c r="J411" s="29"/>
       <c r="K411" s="29"/>
-      <c r="L411" s="125" t="str">
+      <c r="L411" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L410,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L410)),((IF(Tarakonesh[تراکنش]="انتقال",0,L410))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -17503,7 +17578,7 @@
       <c r="I412" s="27"/>
       <c r="J412" s="29"/>
       <c r="K412" s="29"/>
-      <c r="L412" s="125" t="str">
+      <c r="L412" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L411,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L411)),((IF(Tarakonesh[تراکنش]="انتقال",0,L411))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -17524,7 +17599,7 @@
       <c r="I413" s="27"/>
       <c r="J413" s="29"/>
       <c r="K413" s="29"/>
-      <c r="L413" s="125" t="str">
+      <c r="L413" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L412,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L412)),((IF(Tarakonesh[تراکنش]="انتقال",0,L412))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -17545,7 +17620,7 @@
       <c r="I414" s="27"/>
       <c r="J414" s="29"/>
       <c r="K414" s="29"/>
-      <c r="L414" s="125" t="str">
+      <c r="L414" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L413,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L413)),((IF(Tarakonesh[تراکنش]="انتقال",0,L413))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -17566,7 +17641,7 @@
       <c r="I415" s="27"/>
       <c r="J415" s="29"/>
       <c r="K415" s="29"/>
-      <c r="L415" s="125" t="str">
+      <c r="L415" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L414,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L414)),((IF(Tarakonesh[تراکنش]="انتقال",0,L414))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -17587,7 +17662,7 @@
       <c r="I416" s="27"/>
       <c r="J416" s="29"/>
       <c r="K416" s="29"/>
-      <c r="L416" s="125" t="str">
+      <c r="L416" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L415,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L415)),((IF(Tarakonesh[تراکنش]="انتقال",0,L415))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -17608,7 +17683,7 @@
       <c r="I417" s="27"/>
       <c r="J417" s="29"/>
       <c r="K417" s="29"/>
-      <c r="L417" s="125" t="str">
+      <c r="L417" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L416,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L416)),((IF(Tarakonesh[تراکنش]="انتقال",0,L416))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -17629,7 +17704,7 @@
       <c r="I418" s="27"/>
       <c r="J418" s="29"/>
       <c r="K418" s="29"/>
-      <c r="L418" s="125" t="str">
+      <c r="L418" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L417,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L417)),((IF(Tarakonesh[تراکنش]="انتقال",0,L417))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -17650,7 +17725,7 @@
       <c r="I419" s="27"/>
       <c r="J419" s="29"/>
       <c r="K419" s="29"/>
-      <c r="L419" s="125" t="str">
+      <c r="L419" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L418,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L418)),((IF(Tarakonesh[تراکنش]="انتقال",0,L418))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -17671,7 +17746,7 @@
       <c r="I420" s="27"/>
       <c r="J420" s="29"/>
       <c r="K420" s="29"/>
-      <c r="L420" s="125" t="str">
+      <c r="L420" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L419,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L419)),((IF(Tarakonesh[تراکنش]="انتقال",0,L419))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -17692,7 +17767,7 @@
       <c r="I421" s="27"/>
       <c r="J421" s="29"/>
       <c r="K421" s="29"/>
-      <c r="L421" s="125" t="str">
+      <c r="L421" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L420,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L420)),((IF(Tarakonesh[تراکنش]="انتقال",0,L420))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -17713,7 +17788,7 @@
       <c r="I422" s="27"/>
       <c r="J422" s="29"/>
       <c r="K422" s="29"/>
-      <c r="L422" s="125" t="str">
+      <c r="L422" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L421,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L421)),((IF(Tarakonesh[تراکنش]="انتقال",0,L421))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -17734,7 +17809,7 @@
       <c r="I423" s="27"/>
       <c r="J423" s="29"/>
       <c r="K423" s="29"/>
-      <c r="L423" s="125" t="str">
+      <c r="L423" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L422,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L422)),((IF(Tarakonesh[تراکنش]="انتقال",0,L422))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -17755,7 +17830,7 @@
       <c r="I424" s="27"/>
       <c r="J424" s="29"/>
       <c r="K424" s="29"/>
-      <c r="L424" s="125" t="str">
+      <c r="L424" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L423,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L423)),((IF(Tarakonesh[تراکنش]="انتقال",0,L423))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -17776,7 +17851,7 @@
       <c r="I425" s="27"/>
       <c r="J425" s="29"/>
       <c r="K425" s="29"/>
-      <c r="L425" s="125" t="str">
+      <c r="L425" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L424,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L424)),((IF(Tarakonesh[تراکنش]="انتقال",0,L424))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -17797,7 +17872,7 @@
       <c r="I426" s="27"/>
       <c r="J426" s="29"/>
       <c r="K426" s="29"/>
-      <c r="L426" s="125" t="str">
+      <c r="L426" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L425,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L425)),((IF(Tarakonesh[تراکنش]="انتقال",0,L425))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -17818,7 +17893,7 @@
       <c r="I427" s="27"/>
       <c r="J427" s="29"/>
       <c r="K427" s="29"/>
-      <c r="L427" s="125" t="str">
+      <c r="L427" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L426,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L426)),((IF(Tarakonesh[تراکنش]="انتقال",0,L426))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -17839,7 +17914,7 @@
       <c r="I428" s="27"/>
       <c r="J428" s="29"/>
       <c r="K428" s="29"/>
-      <c r="L428" s="125" t="str">
+      <c r="L428" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L427,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L427)),((IF(Tarakonesh[تراکنش]="انتقال",0,L427))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -17860,7 +17935,7 @@
       <c r="I429" s="27"/>
       <c r="J429" s="29"/>
       <c r="K429" s="29"/>
-      <c r="L429" s="125" t="str">
+      <c r="L429" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L428,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L428)),((IF(Tarakonesh[تراکنش]="انتقال",0,L428))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -17881,7 +17956,7 @@
       <c r="I430" s="27"/>
       <c r="J430" s="29"/>
       <c r="K430" s="29"/>
-      <c r="L430" s="125" t="str">
+      <c r="L430" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L429,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L429)),((IF(Tarakonesh[تراکنش]="انتقال",0,L429))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -17902,7 +17977,7 @@
       <c r="I431" s="27"/>
       <c r="J431" s="29"/>
       <c r="K431" s="29"/>
-      <c r="L431" s="125" t="str">
+      <c r="L431" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L430,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L430)),((IF(Tarakonesh[تراکنش]="انتقال",0,L430))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -17923,7 +17998,7 @@
       <c r="I432" s="27"/>
       <c r="J432" s="29"/>
       <c r="K432" s="29"/>
-      <c r="L432" s="125" t="str">
+      <c r="L432" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L431,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L431)),((IF(Tarakonesh[تراکنش]="انتقال",0,L431))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -17944,7 +18019,7 @@
       <c r="I433" s="27"/>
       <c r="J433" s="29"/>
       <c r="K433" s="29"/>
-      <c r="L433" s="125" t="str">
+      <c r="L433" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L432,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L432)),((IF(Tarakonesh[تراکنش]="انتقال",0,L432))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -17965,7 +18040,7 @@
       <c r="I434" s="27"/>
       <c r="J434" s="29"/>
       <c r="K434" s="29"/>
-      <c r="L434" s="125" t="str">
+      <c r="L434" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L433,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L433)),((IF(Tarakonesh[تراکنش]="انتقال",0,L433))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -17986,7 +18061,7 @@
       <c r="I435" s="27"/>
       <c r="J435" s="29"/>
       <c r="K435" s="29"/>
-      <c r="L435" s="125" t="str">
+      <c r="L435" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L434,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L434)),((IF(Tarakonesh[تراکنش]="انتقال",0,L434))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -18007,7 +18082,7 @@
       <c r="I436" s="27"/>
       <c r="J436" s="29"/>
       <c r="K436" s="29"/>
-      <c r="L436" s="125" t="str">
+      <c r="L436" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L435,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L435)),((IF(Tarakonesh[تراکنش]="انتقال",0,L435))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -18028,7 +18103,7 @@
       <c r="I437" s="27"/>
       <c r="J437" s="29"/>
       <c r="K437" s="29"/>
-      <c r="L437" s="125" t="str">
+      <c r="L437" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L436,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L436)),((IF(Tarakonesh[تراکنش]="انتقال",0,L436))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -18049,7 +18124,7 @@
       <c r="I438" s="27"/>
       <c r="J438" s="29"/>
       <c r="K438" s="29"/>
-      <c r="L438" s="125" t="str">
+      <c r="L438" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L437,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L437)),((IF(Tarakonesh[تراکنش]="انتقال",0,L437))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -18070,7 +18145,7 @@
       <c r="I439" s="27"/>
       <c r="J439" s="29"/>
       <c r="K439" s="29"/>
-      <c r="L439" s="125" t="str">
+      <c r="L439" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L438,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L438)),((IF(Tarakonesh[تراکنش]="انتقال",0,L438))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -18091,7 +18166,7 @@
       <c r="I440" s="27"/>
       <c r="J440" s="29"/>
       <c r="K440" s="29"/>
-      <c r="L440" s="125" t="str">
+      <c r="L440" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L439,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L439)),((IF(Tarakonesh[تراکنش]="انتقال",0,L439))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -18112,7 +18187,7 @@
       <c r="I441" s="27"/>
       <c r="J441" s="29"/>
       <c r="K441" s="29"/>
-      <c r="L441" s="125" t="str">
+      <c r="L441" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L440,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L440)),((IF(Tarakonesh[تراکنش]="انتقال",0,L440))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -18133,7 +18208,7 @@
       <c r="I442" s="27"/>
       <c r="J442" s="29"/>
       <c r="K442" s="29"/>
-      <c r="L442" s="125" t="str">
+      <c r="L442" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L441,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L441)),((IF(Tarakonesh[تراکنش]="انتقال",0,L441))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -18154,7 +18229,7 @@
       <c r="I443" s="27"/>
       <c r="J443" s="29"/>
       <c r="K443" s="29"/>
-      <c r="L443" s="125" t="str">
+      <c r="L443" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L442,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L442)),((IF(Tarakonesh[تراکنش]="انتقال",0,L442))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -18175,7 +18250,7 @@
       <c r="I444" s="27"/>
       <c r="J444" s="29"/>
       <c r="K444" s="29"/>
-      <c r="L444" s="125" t="str">
+      <c r="L444" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L443,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L443)),((IF(Tarakonesh[تراکنش]="انتقال",0,L443))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -18196,7 +18271,7 @@
       <c r="I445" s="27"/>
       <c r="J445" s="29"/>
       <c r="K445" s="29"/>
-      <c r="L445" s="125" t="str">
+      <c r="L445" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L444,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L444)),((IF(Tarakonesh[تراکنش]="انتقال",0,L444))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -18217,7 +18292,7 @@
       <c r="I446" s="27"/>
       <c r="J446" s="29"/>
       <c r="K446" s="29"/>
-      <c r="L446" s="125" t="str">
+      <c r="L446" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L445,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L445)),((IF(Tarakonesh[تراکنش]="انتقال",0,L445))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -18238,7 +18313,7 @@
       <c r="I447" s="27"/>
       <c r="J447" s="29"/>
       <c r="K447" s="29"/>
-      <c r="L447" s="125" t="str">
+      <c r="L447" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L446,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L446)),((IF(Tarakonesh[تراکنش]="انتقال",0,L446))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -18259,7 +18334,7 @@
       <c r="I448" s="27"/>
       <c r="J448" s="29"/>
       <c r="K448" s="29"/>
-      <c r="L448" s="125" t="str">
+      <c r="L448" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L447,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L447)),((IF(Tarakonesh[تراکنش]="انتقال",0,L447))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -18280,7 +18355,7 @@
       <c r="I449" s="27"/>
       <c r="J449" s="29"/>
       <c r="K449" s="29"/>
-      <c r="L449" s="125" t="str">
+      <c r="L449" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L448,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L448)),((IF(Tarakonesh[تراکنش]="انتقال",0,L448))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -18301,7 +18376,7 @@
       <c r="I450" s="27"/>
       <c r="J450" s="29"/>
       <c r="K450" s="29"/>
-      <c r="L450" s="125" t="str">
+      <c r="L450" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L449,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L449)),((IF(Tarakonesh[تراکنش]="انتقال",0,L449))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -18322,7 +18397,7 @@
       <c r="I451" s="27"/>
       <c r="J451" s="29"/>
       <c r="K451" s="29"/>
-      <c r="L451" s="125" t="str">
+      <c r="L451" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L450,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L450)),((IF(Tarakonesh[تراکنش]="انتقال",0,L450))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -18343,7 +18418,7 @@
       <c r="I452" s="27"/>
       <c r="J452" s="29"/>
       <c r="K452" s="29"/>
-      <c r="L452" s="125" t="str">
+      <c r="L452" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L451,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L451)),((IF(Tarakonesh[تراکنش]="انتقال",0,L451))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -18364,7 +18439,7 @@
       <c r="I453" s="27"/>
       <c r="J453" s="29"/>
       <c r="K453" s="29"/>
-      <c r="L453" s="125" t="str">
+      <c r="L453" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L452,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L452)),((IF(Tarakonesh[تراکنش]="انتقال",0,L452))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -18385,7 +18460,7 @@
       <c r="I454" s="27"/>
       <c r="J454" s="29"/>
       <c r="K454" s="29"/>
-      <c r="L454" s="125" t="str">
+      <c r="L454" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L453,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L453)),((IF(Tarakonesh[تراکنش]="انتقال",0,L453))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -18406,7 +18481,7 @@
       <c r="I455" s="27"/>
       <c r="J455" s="29"/>
       <c r="K455" s="29"/>
-      <c r="L455" s="125" t="str">
+      <c r="L455" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L454,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L454)),((IF(Tarakonesh[تراکنش]="انتقال",0,L454))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -18427,7 +18502,7 @@
       <c r="I456" s="27"/>
       <c r="J456" s="29"/>
       <c r="K456" s="29"/>
-      <c r="L456" s="125" t="str">
+      <c r="L456" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L455,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L455)),((IF(Tarakonesh[تراکنش]="انتقال",0,L455))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -18448,7 +18523,7 @@
       <c r="I457" s="27"/>
       <c r="J457" s="29"/>
       <c r="K457" s="29"/>
-      <c r="L457" s="125" t="str">
+      <c r="L457" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L456,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L456)),((IF(Tarakonesh[تراکنش]="انتقال",0,L456))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -18469,7 +18544,7 @@
       <c r="I458" s="27"/>
       <c r="J458" s="29"/>
       <c r="K458" s="29"/>
-      <c r="L458" s="125" t="str">
+      <c r="L458" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L457,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L457)),((IF(Tarakonesh[تراکنش]="انتقال",0,L457))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -18490,7 +18565,7 @@
       <c r="I459" s="27"/>
       <c r="J459" s="29"/>
       <c r="K459" s="29"/>
-      <c r="L459" s="125" t="str">
+      <c r="L459" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L458,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L458)),((IF(Tarakonesh[تراکنش]="انتقال",0,L458))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -18511,7 +18586,7 @@
       <c r="I460" s="27"/>
       <c r="J460" s="29"/>
       <c r="K460" s="29"/>
-      <c r="L460" s="125" t="str">
+      <c r="L460" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L459,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L459)),((IF(Tarakonesh[تراکنش]="انتقال",0,L459))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -18532,7 +18607,7 @@
       <c r="I461" s="27"/>
       <c r="J461" s="29"/>
       <c r="K461" s="29"/>
-      <c r="L461" s="125" t="str">
+      <c r="L461" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L460,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L460)),((IF(Tarakonesh[تراکنش]="انتقال",0,L460))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -18553,7 +18628,7 @@
       <c r="I462" s="27"/>
       <c r="J462" s="29"/>
       <c r="K462" s="29"/>
-      <c r="L462" s="125" t="str">
+      <c r="L462" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L461,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L461)),((IF(Tarakonesh[تراکنش]="انتقال",0,L461))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -18574,7 +18649,7 @@
       <c r="I463" s="27"/>
       <c r="J463" s="29"/>
       <c r="K463" s="29"/>
-      <c r="L463" s="125" t="str">
+      <c r="L463" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L462,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L462)),((IF(Tarakonesh[تراکنش]="انتقال",0,L462))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -18595,7 +18670,7 @@
       <c r="I464" s="27"/>
       <c r="J464" s="29"/>
       <c r="K464" s="29"/>
-      <c r="L464" s="125" t="str">
+      <c r="L464" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L463,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L463)),((IF(Tarakonesh[تراکنش]="انتقال",0,L463))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -18616,7 +18691,7 @@
       <c r="I465" s="27"/>
       <c r="J465" s="29"/>
       <c r="K465" s="29"/>
-      <c r="L465" s="125" t="str">
+      <c r="L465" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L464,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L464)),((IF(Tarakonesh[تراکنش]="انتقال",0,L464))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -18637,7 +18712,7 @@
       <c r="I466" s="27"/>
       <c r="J466" s="29"/>
       <c r="K466" s="29"/>
-      <c r="L466" s="125" t="str">
+      <c r="L466" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L465,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L465)),((IF(Tarakonesh[تراکنش]="انتقال",0,L465))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -18658,7 +18733,7 @@
       <c r="I467" s="27"/>
       <c r="J467" s="29"/>
       <c r="K467" s="29"/>
-      <c r="L467" s="125" t="str">
+      <c r="L467" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L466,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L466)),((IF(Tarakonesh[تراکنش]="انتقال",0,L466))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -18679,7 +18754,7 @@
       <c r="I468" s="27"/>
       <c r="J468" s="29"/>
       <c r="K468" s="29"/>
-      <c r="L468" s="125" t="str">
+      <c r="L468" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L467,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L467)),((IF(Tarakonesh[تراکنش]="انتقال",0,L467))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -18700,7 +18775,7 @@
       <c r="I469" s="27"/>
       <c r="J469" s="29"/>
       <c r="K469" s="29"/>
-      <c r="L469" s="125" t="str">
+      <c r="L469" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L468,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L468)),((IF(Tarakonesh[تراکنش]="انتقال",0,L468))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -18721,7 +18796,7 @@
       <c r="I470" s="27"/>
       <c r="J470" s="29"/>
       <c r="K470" s="29"/>
-      <c r="L470" s="125" t="str">
+      <c r="L470" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L469,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L469)),((IF(Tarakonesh[تراکنش]="انتقال",0,L469))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -18742,7 +18817,7 @@
       <c r="I471" s="27"/>
       <c r="J471" s="29"/>
       <c r="K471" s="29"/>
-      <c r="L471" s="125" t="str">
+      <c r="L471" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L470,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L470)),((IF(Tarakonesh[تراکنش]="انتقال",0,L470))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -18763,7 +18838,7 @@
       <c r="I472" s="27"/>
       <c r="J472" s="29"/>
       <c r="K472" s="29"/>
-      <c r="L472" s="125" t="str">
+      <c r="L472" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L471,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L471)),((IF(Tarakonesh[تراکنش]="انتقال",0,L471))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -18784,7 +18859,7 @@
       <c r="I473" s="27"/>
       <c r="J473" s="29"/>
       <c r="K473" s="29"/>
-      <c r="L473" s="125" t="str">
+      <c r="L473" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L472,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L472)),((IF(Tarakonesh[تراکنش]="انتقال",0,L472))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -18805,7 +18880,7 @@
       <c r="I474" s="27"/>
       <c r="J474" s="29"/>
       <c r="K474" s="29"/>
-      <c r="L474" s="125" t="str">
+      <c r="L474" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L473,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L473)),((IF(Tarakonesh[تراکنش]="انتقال",0,L473))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -18826,7 +18901,7 @@
       <c r="I475" s="27"/>
       <c r="J475" s="29"/>
       <c r="K475" s="29"/>
-      <c r="L475" s="125" t="str">
+      <c r="L475" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L474,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L474)),((IF(Tarakonesh[تراکنش]="انتقال",0,L474))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -18847,7 +18922,7 @@
       <c r="I476" s="27"/>
       <c r="J476" s="29"/>
       <c r="K476" s="29"/>
-      <c r="L476" s="125" t="str">
+      <c r="L476" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L475,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L475)),((IF(Tarakonesh[تراکنش]="انتقال",0,L475))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -18868,7 +18943,7 @@
       <c r="I477" s="27"/>
       <c r="J477" s="29"/>
       <c r="K477" s="29"/>
-      <c r="L477" s="125" t="str">
+      <c r="L477" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L476,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L476)),((IF(Tarakonesh[تراکنش]="انتقال",0,L476))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -18889,7 +18964,7 @@
       <c r="I478" s="27"/>
       <c r="J478" s="29"/>
       <c r="K478" s="29"/>
-      <c r="L478" s="125" t="str">
+      <c r="L478" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L477,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L477)),((IF(Tarakonesh[تراکنش]="انتقال",0,L477))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -18910,7 +18985,7 @@
       <c r="I479" s="27"/>
       <c r="J479" s="29"/>
       <c r="K479" s="29"/>
-      <c r="L479" s="125" t="str">
+      <c r="L479" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L478,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L478)),((IF(Tarakonesh[تراکنش]="انتقال",0,L478))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -18931,7 +19006,7 @@
       <c r="I480" s="27"/>
       <c r="J480" s="29"/>
       <c r="K480" s="29"/>
-      <c r="L480" s="125" t="str">
+      <c r="L480" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L479,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L479)),((IF(Tarakonesh[تراکنش]="انتقال",0,L479))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -18952,7 +19027,7 @@
       <c r="I481" s="27"/>
       <c r="J481" s="29"/>
       <c r="K481" s="29"/>
-      <c r="L481" s="125" t="str">
+      <c r="L481" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L480,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L480)),((IF(Tarakonesh[تراکنش]="انتقال",0,L480))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -18973,7 +19048,7 @@
       <c r="I482" s="27"/>
       <c r="J482" s="29"/>
       <c r="K482" s="29"/>
-      <c r="L482" s="125" t="str">
+      <c r="L482" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L481,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L481)),((IF(Tarakonesh[تراکنش]="انتقال",0,L481))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -18994,7 +19069,7 @@
       <c r="I483" s="27"/>
       <c r="J483" s="29"/>
       <c r="K483" s="29"/>
-      <c r="L483" s="125" t="str">
+      <c r="L483" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L482,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L482)),((IF(Tarakonesh[تراکنش]="انتقال",0,L482))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -19015,7 +19090,7 @@
       <c r="I484" s="27"/>
       <c r="J484" s="29"/>
       <c r="K484" s="29"/>
-      <c r="L484" s="125" t="str">
+      <c r="L484" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L483,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L483)),((IF(Tarakonesh[تراکنش]="انتقال",0,L483))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -19036,7 +19111,7 @@
       <c r="I485" s="27"/>
       <c r="J485" s="29"/>
       <c r="K485" s="29"/>
-      <c r="L485" s="125" t="str">
+      <c r="L485" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L484,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L484)),((IF(Tarakonesh[تراکنش]="انتقال",0,L484))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -19057,7 +19132,7 @@
       <c r="I486" s="27"/>
       <c r="J486" s="29"/>
       <c r="K486" s="29"/>
-      <c r="L486" s="125" t="str">
+      <c r="L486" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L485,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L485)),((IF(Tarakonesh[تراکنش]="انتقال",0,L485))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -19078,7 +19153,7 @@
       <c r="I487" s="27"/>
       <c r="J487" s="29"/>
       <c r="K487" s="29"/>
-      <c r="L487" s="125" t="str">
+      <c r="L487" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L486,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L486)),((IF(Tarakonesh[تراکنش]="انتقال",0,L486))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -19099,7 +19174,7 @@
       <c r="I488" s="27"/>
       <c r="J488" s="29"/>
       <c r="K488" s="29"/>
-      <c r="L488" s="125" t="str">
+      <c r="L488" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L487,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L487)),((IF(Tarakonesh[تراکنش]="انتقال",0,L487))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -19120,7 +19195,7 @@
       <c r="I489" s="27"/>
       <c r="J489" s="29"/>
       <c r="K489" s="29"/>
-      <c r="L489" s="125" t="str">
+      <c r="L489" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L488,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L488)),((IF(Tarakonesh[تراکنش]="انتقال",0,L488))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -19141,7 +19216,7 @@
       <c r="I490" s="27"/>
       <c r="J490" s="29"/>
       <c r="K490" s="29"/>
-      <c r="L490" s="125" t="str">
+      <c r="L490" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L489,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L489)),((IF(Tarakonesh[تراکنش]="انتقال",0,L489))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -19162,7 +19237,7 @@
       <c r="I491" s="27"/>
       <c r="J491" s="29"/>
       <c r="K491" s="29"/>
-      <c r="L491" s="125" t="str">
+      <c r="L491" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L490,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L490)),((IF(Tarakonesh[تراکنش]="انتقال",0,L490))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -19183,7 +19258,7 @@
       <c r="I492" s="27"/>
       <c r="J492" s="29"/>
       <c r="K492" s="29"/>
-      <c r="L492" s="125" t="str">
+      <c r="L492" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L491,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L491)),((IF(Tarakonesh[تراکنش]="انتقال",0,L491))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -19204,7 +19279,7 @@
       <c r="I493" s="27"/>
       <c r="J493" s="29"/>
       <c r="K493" s="29"/>
-      <c r="L493" s="125" t="str">
+      <c r="L493" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L492,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L492)),((IF(Tarakonesh[تراکنش]="انتقال",0,L492))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -19225,7 +19300,7 @@
       <c r="I494" s="27"/>
       <c r="J494" s="29"/>
       <c r="K494" s="29"/>
-      <c r="L494" s="125" t="str">
+      <c r="L494" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L493,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L493)),((IF(Tarakonesh[تراکنش]="انتقال",0,L493))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -19246,7 +19321,7 @@
       <c r="I495" s="27"/>
       <c r="J495" s="29"/>
       <c r="K495" s="29"/>
-      <c r="L495" s="125" t="str">
+      <c r="L495" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L494,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L494)),((IF(Tarakonesh[تراکنش]="انتقال",0,L494))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -19267,7 +19342,7 @@
       <c r="I496" s="27"/>
       <c r="J496" s="29"/>
       <c r="K496" s="29"/>
-      <c r="L496" s="125" t="str">
+      <c r="L496" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L495,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L495)),((IF(Tarakonesh[تراکنش]="انتقال",0,L495))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -19288,7 +19363,7 @@
       <c r="I497" s="27"/>
       <c r="J497" s="29"/>
       <c r="K497" s="29"/>
-      <c r="L497" s="125" t="str">
+      <c r="L497" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L496,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L496)),((IF(Tarakonesh[تراکنش]="انتقال",0,L496))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -19309,7 +19384,7 @@
       <c r="I498" s="27"/>
       <c r="J498" s="29"/>
       <c r="K498" s="29"/>
-      <c r="L498" s="125" t="str">
+      <c r="L498" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L497,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L497)),((IF(Tarakonesh[تراکنش]="انتقال",0,L497))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -19330,7 +19405,7 @@
       <c r="I499" s="27"/>
       <c r="J499" s="29"/>
       <c r="K499" s="29"/>
-      <c r="L499" s="125" t="str">
+      <c r="L499" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L498,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L498)),((IF(Tarakonesh[تراکنش]="انتقال",0,L498))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -19351,7 +19426,7 @@
       <c r="I500" s="27"/>
       <c r="J500" s="29"/>
       <c r="K500" s="29"/>
-      <c r="L500" s="125" t="str">
+      <c r="L500" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L499,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L499)),((IF(Tarakonesh[تراکنش]="انتقال",0,L499))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -19372,7 +19447,7 @@
       <c r="I501" s="27"/>
       <c r="J501" s="29"/>
       <c r="K501" s="29"/>
-      <c r="L501" s="125" t="str">
+      <c r="L501" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L500,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L500)),((IF(Tarakonesh[تراکنش]="انتقال",0,L500))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -19393,7 +19468,7 @@
       <c r="I502" s="27"/>
       <c r="J502" s="29"/>
       <c r="K502" s="29"/>
-      <c r="L502" s="125" t="str">
+      <c r="L502" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L501,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L501)),((IF(Tarakonesh[تراکنش]="انتقال",0,L501))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -19414,7 +19489,7 @@
       <c r="I503" s="27"/>
       <c r="J503" s="29"/>
       <c r="K503" s="29"/>
-      <c r="L503" s="125" t="str">
+      <c r="L503" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L502,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L502)),((IF(Tarakonesh[تراکنش]="انتقال",0,L502))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -19435,7 +19510,7 @@
       <c r="I504" s="27"/>
       <c r="J504" s="29"/>
       <c r="K504" s="29"/>
-      <c r="L504" s="125" t="str">
+      <c r="L504" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L503,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L503)),((IF(Tarakonesh[تراکنش]="انتقال",0,L503))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -19456,7 +19531,7 @@
       <c r="I505" s="27"/>
       <c r="J505" s="29"/>
       <c r="K505" s="29"/>
-      <c r="L505" s="125" t="str">
+      <c r="L505" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L504,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L504)),((IF(Tarakonesh[تراکنش]="انتقال",0,L504))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -19477,7 +19552,7 @@
       <c r="I506" s="27"/>
       <c r="J506" s="29"/>
       <c r="K506" s="29"/>
-      <c r="L506" s="125" t="str">
+      <c r="L506" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L505,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L505)),((IF(Tarakonesh[تراکنش]="انتقال",0,L505))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -19498,7 +19573,7 @@
       <c r="I507" s="27"/>
       <c r="J507" s="29"/>
       <c r="K507" s="29"/>
-      <c r="L507" s="125" t="str">
+      <c r="L507" s="123" t="str">
         <f>IF( Tarakonesh[تراکنش]="", "",IF( Tarakonesh[تراکنش]="انتقال",L506,IF(Tarakonesh[تراکنش]="دریافت_درآمد",(Tarakonesh[[#This Row],[مبلغ (ریال)]]+IF(Tarakonesh[تراکنش]="انتقال",0,L506)),((IF(Tarakonesh[تراکنش]="انتقال",0,L506))-Tarakonesh[[#This Row],[مبلغ (ریال)]]))))</f>
         <v/>
       </c>
@@ -19510,7 +19585,7 @@
   <mergeCells count="1">
     <mergeCell ref="J3:K3"/>
   </mergeCells>
-  <dataValidations xWindow="680" yWindow="432" count="14">
+  <dataValidations xWindow="680" yWindow="432" count="15">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="نوع خرج باید از گزینه‌های موجود در لیست کشویی باشد." promptTitle="راهنما" prompt="نوع خرج را مشخص کنید._x000a_نا مشخص_x000a_خرج صحیح_x000a_خرج اضافی" sqref="M8:M507">
       <formula1>INDIRECT("TypeOfExpenditureTable[نوع خرج]")</formula1>
     </dataValidation>
@@ -19520,7 +19595,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="مقدار ورودی را از لیست انتخاب کنید" promptTitle="راهنما" prompt="حساب/فرد پرداخت کننده و دریافت کننده را تعیین کنید" sqref="J8:K507">
       <formula1>Accounts_and_ReceiversAndPayers_List</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="مقدار ورودی را از لیست انتخاب کنید" promptTitle="راهنما" prompt="نوع تراکنش را مشخص کنید._x000a_پرداخت (هزینه)_x000a_دریافت (درآمد)_x000a_انتقال" sqref="E8:E507">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="مقدار ورودی را از لیست انتخاب کنید" promptTitle="راهنما" prompt="نوع تراکنش را مشخص کنید._x000a_پرداخت (هزینه)_x000a_دریافت (درآمد)_x000a_انتقال" sqref="E9:E507">
       <formula1>INDIRECT("TypeOfTransactionTable[نوع تراکنش]")</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="مقدار ورودی را از لیست انتخاب کنید" promptTitle="راهنما" prompt="روش انتقال پول را انتخاب کنید_x000a_" sqref="H8:H507">
@@ -19551,6 +19626,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11:G507">
       <formula1>INDIRECT($F$11)</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="مقدار ورودی را از لیست انتخاب کنید" promptTitle="راهنما" prompt="نوع تراکنش را مشخص کنید._x000a_پرداخت (هزینه)_x000a_دریافت (درآمد)_x000a_انتقال" sqref="E8">
+      <formula1>INDIRECT("TypeOfTransactionTable[نوع تراکنش]")</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B1" location="فهرست!A1" display="فهرست"/>
@@ -19577,7 +19655,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet20">
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="A1"/>
